--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
     <sheet name="Wertebereich" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="repository" localSheetId="0">Ordnungssystem!$A$7:$X$22</definedName>
   </definedNames>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="241">
   <si>
     <t>reference_number</t>
   </si>
@@ -838,6 +841,27 @@
   </si>
   <si>
     <t>Kommission für Rechtsfragen</t>
+  </si>
+  <si>
+    <t>0.9.0</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>0.9.1</t>
+  </si>
+  <si>
+    <t>Planung und Organisatorisches</t>
+  </si>
+  <si>
+    <t>Kommunikation</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.10.0</t>
   </si>
 </sst>
 </file>
@@ -1271,6 +1295,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Ordnungssystem"/>
+      <sheetName val="Wertebereich"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="repository" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -1598,13 +1637,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blatt1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2525,19 +2564,30 @@
     </row>
     <row r="29" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A29" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C29" s="21">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="22"/>
+      <c r="J29" s="21">
+        <v>10</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
@@ -2547,13 +2597,16 @@
     </row>
     <row r="30" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A30" s="31" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="C30" s="21">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="26" t="s">
@@ -2569,13 +2622,13 @@
     </row>
     <row r="31" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A31" s="31" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C31" s="21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="26" t="s">
@@ -2591,13 +2644,13 @@
     </row>
     <row r="32" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A32" s="31" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="C32" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="26" t="s">
@@ -2611,20 +2664,32 @@
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
     </row>
-    <row r="33" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="33" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A33" s="31" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>221</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C33" s="21">
+        <v>11</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22"/>
       <c r="G33" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="22"/>
+      <c r="J33" s="21">
+        <v>10</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
@@ -2634,10 +2699,13 @@
     </row>
     <row r="34" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A34" s="31" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="C34" s="21">
+        <v>12</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="26" t="s">
@@ -2653,10 +2721,13 @@
     </row>
     <row r="35" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A35" s="31" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="26" t="s">
@@ -2672,10 +2743,13 @@
     </row>
     <row r="36" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A36" s="31" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>131</v>
+        <v>121</v>
+      </c>
+      <c r="C36" s="21">
+        <v>1</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="26" t="s">
@@ -2691,10 +2765,13 @@
     </row>
     <row r="37" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A37" s="31" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="C37" s="21">
+        <v>2</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="26" t="s">
@@ -2708,14 +2785,16 @@
       <c r="U37" s="25"/>
       <c r="V37" s="25"/>
     </row>
-    <row r="38" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="38" spans="1:22" s="16" customFormat="1" ht="36">
       <c r="A38" s="31" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>221</v>
+      </c>
       <c r="G38" s="26" t="s">
         <v>34</v>
       </c>
@@ -2729,10 +2808,10 @@
     </row>
     <row r="39" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A39" s="31" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="26" t="s">
@@ -2748,10 +2827,10 @@
     </row>
     <row r="40" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A40" s="31" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="26" t="s">
@@ -2767,13 +2846,10 @@
     </row>
     <row r="41" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A41" s="31" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="21">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="26" t="s">
@@ -2789,30 +2865,16 @@
     </row>
     <row r="42" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A42" s="31" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="21">
-        <v>0</v>
-      </c>
-      <c r="D42" s="21">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J42" s="21">
-        <v>10</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L42" s="28" t="s">
-        <v>40</v>
-      </c>
+      <c r="K42" s="22"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
@@ -2822,16 +2884,10 @@
     </row>
     <row r="43" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A43" s="31" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="21">
-        <v>0</v>
-      </c>
-      <c r="D43" s="21">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="26" t="s">
@@ -2845,33 +2901,18 @@
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
     </row>
-    <row r="44" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="44" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A44" s="31" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="21">
-        <v>0</v>
-      </c>
-      <c r="D44" s="21">
-        <v>1</v>
-      </c>
-      <c r="E44" s="21"/>
+        <v>134</v>
+      </c>
       <c r="F44" s="22"/>
       <c r="G44" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="21">
-        <v>50</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="L44" s="28" t="s">
-        <v>40</v>
-      </c>
+      <c r="K44" s="22"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
@@ -2881,31 +2922,16 @@
     </row>
     <row r="45" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A45" s="31" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="21">
-        <v>0</v>
-      </c>
-      <c r="D45" s="21">
-        <v>1</v>
-      </c>
-      <c r="E45" s="21"/>
+        <v>135</v>
+      </c>
       <c r="F45" s="22"/>
       <c r="G45" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="21">
-        <v>10</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>40</v>
-      </c>
+      <c r="K45" s="22"/>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
@@ -2913,34 +2939,21 @@
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
     </row>
-    <row r="46" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="46" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A46" s="31" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="21">
         <v>0</v>
       </c>
-      <c r="D46" s="21">
-        <v>2</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>210</v>
-      </c>
+      <c r="F46" s="22"/>
       <c r="G46" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="21">
-        <v>50</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="L46" s="28" t="s">
-        <v>40</v>
-      </c>
+      <c r="K46" s="22"/>
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
@@ -2948,28 +2961,28 @@
       <c r="U46" s="25"/>
       <c r="V46" s="25"/>
     </row>
-    <row r="47" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="47" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A47" s="31" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C47" s="21">
         <v>0</v>
       </c>
       <c r="D47" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="26" t="s">
         <v>34</v>
       </c>
       <c r="J47" s="21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L47" s="28" t="s">
         <v>40</v>
@@ -2983,16 +2996,16 @@
     </row>
     <row r="48" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A48" s="31" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C48" s="21">
         <v>0</v>
       </c>
       <c r="D48" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="26" t="s">
@@ -3006,24 +3019,33 @@
       <c r="U48" s="25"/>
       <c r="V48" s="25"/>
     </row>
-    <row r="49" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="49" spans="1:22" s="16" customFormat="1" ht="36">
       <c r="A49" s="31" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C49" s="21">
         <v>0</v>
       </c>
       <c r="D49" s="21">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E49" s="21"/>
       <c r="F49" s="22"/>
       <c r="G49" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="22"/>
+      <c r="J49" s="21">
+        <v>50</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
@@ -3031,19 +3053,20 @@
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
     </row>
-    <row r="50" spans="1:22" s="16" customFormat="1" ht="24">
+    <row r="50" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A50" s="31" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C50" s="21">
         <v>0</v>
       </c>
       <c r="D50" s="21">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E50" s="21"/>
       <c r="F50" s="22"/>
       <c r="G50" s="26" t="s">
         <v>34</v>
@@ -3052,10 +3075,10 @@
         <v>10</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L50" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
@@ -3064,33 +3087,33 @@
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
     </row>
-    <row r="51" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="51" spans="1:22" s="16" customFormat="1" ht="36">
       <c r="A51" s="31" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="C51" s="21">
         <v>0</v>
       </c>
       <c r="D51" s="21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>34</v>
       </c>
       <c r="J51" s="21">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L51" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
@@ -3099,28 +3122,28 @@
       <c r="U51" s="25"/>
       <c r="V51" s="25"/>
     </row>
-    <row r="52" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="52" spans="1:22" s="16" customFormat="1" ht="36">
       <c r="A52" s="31" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C52" s="21">
         <v>0</v>
       </c>
       <c r="D52" s="21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="26" t="s">
         <v>34</v>
       </c>
       <c r="J52" s="21">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L52" s="28" t="s">
         <v>40</v>
@@ -3134,30 +3157,22 @@
     </row>
     <row r="53" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A53" s="31" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C53" s="21">
         <v>0</v>
       </c>
       <c r="D53" s="21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J53" s="21">
-        <v>30</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="K53" s="22"/>
       <c r="Q53" s="25"/>
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
@@ -3167,13 +3182,16 @@
     </row>
     <row r="54" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A54" s="31" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C54" s="21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D54" s="21">
+        <v>5</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="26" t="s">
@@ -3187,21 +3205,32 @@
       <c r="U54" s="25"/>
       <c r="V54" s="25"/>
     </row>
-    <row r="55" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="55" spans="1:22" s="16" customFormat="1" ht="24">
       <c r="A55" s="31" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C55" s="21">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D55" s="21">
+        <v>6</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K55" s="22"/>
+      <c r="J55" s="21">
+        <v>10</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="25"/>
       <c r="S55" s="25"/>
@@ -3209,21 +3238,21 @@
       <c r="U55" s="25"/>
       <c r="V55" s="25"/>
     </row>
-    <row r="56" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="56" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A56" s="31" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C56" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" s="21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>34</v>
@@ -3232,10 +3261,10 @@
         <v>10</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q56" s="25"/>
       <c r="R56" s="25"/>
@@ -3246,16 +3275,16 @@
     </row>
     <row r="57" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A57" s="31" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C57" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D57" s="21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="26" t="s">
@@ -3268,7 +3297,7 @@
         <v>226</v>
       </c>
       <c r="L57" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q57" s="25"/>
       <c r="R57" s="25"/>
@@ -3279,22 +3308,30 @@
     </row>
     <row r="58" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A58" s="31" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C58" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K58" s="22"/>
+      <c r="J58" s="21">
+        <v>30</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L58" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="Q58" s="25"/>
       <c r="R58" s="25"/>
       <c r="S58" s="25"/>
@@ -3302,34 +3339,21 @@
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
     </row>
-    <row r="59" spans="1:22" s="16" customFormat="1" ht="24">
+    <row r="59" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A59" s="31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C59" s="21">
-        <v>2</v>
-      </c>
-      <c r="D59" s="21">
-        <v>3</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>209</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F59" s="22"/>
       <c r="G59" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J59" s="21">
-        <v>10</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="K59" s="22"/>
       <c r="Q59" s="25"/>
       <c r="R59" s="25"/>
       <c r="S59" s="25"/>
@@ -3337,34 +3361,21 @@
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
     </row>
-    <row r="60" spans="1:22" s="16" customFormat="1" ht="24">
+    <row r="60" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A60" s="31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C60" s="21">
         <v>2</v>
       </c>
-      <c r="D60" s="21">
-        <v>4</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>222</v>
-      </c>
+      <c r="F60" s="22"/>
       <c r="G60" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J60" s="21">
-        <v>10</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="K60" s="22"/>
       <c r="Q60" s="25"/>
       <c r="R60" s="25"/>
       <c r="S60" s="25"/>
@@ -3372,21 +3383,21 @@
       <c r="U60" s="25"/>
       <c r="V60" s="25"/>
     </row>
-    <row r="61" spans="1:22" s="16" customFormat="1" ht="24">
+    <row r="61" spans="1:22" s="16" customFormat="1" ht="36">
       <c r="A61" s="31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C61" s="21">
         <v>2</v>
       </c>
       <c r="D61" s="21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>34</v>
@@ -3398,7 +3409,7 @@
         <v>226</v>
       </c>
       <c r="L61" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q61" s="25"/>
       <c r="R61" s="25"/>
@@ -3409,20 +3420,18 @@
     </row>
     <row r="62" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A62" s="31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C62" s="21">
         <v>2</v>
       </c>
       <c r="D62" s="21">
-        <v>6</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>223</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F62" s="22"/>
       <c r="G62" s="26" t="s">
         <v>34</v>
       </c>
@@ -3442,34 +3451,24 @@
       <c r="U62" s="25"/>
       <c r="V62" s="25"/>
     </row>
-    <row r="63" spans="1:22" s="16" customFormat="1" ht="48">
+    <row r="63" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A63" s="31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C63" s="21">
         <v>2</v>
       </c>
       <c r="D63" s="21">
-        <v>7</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>224</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F63" s="22"/>
       <c r="G63" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="21">
-        <v>10</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L63" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="K63" s="22"/>
       <c r="Q63" s="25"/>
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
@@ -3477,20 +3476,22 @@
       <c r="U63" s="25"/>
       <c r="V63" s="25"/>
     </row>
-    <row r="64" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="64" spans="1:22" s="16" customFormat="1" ht="24">
       <c r="A64" s="31" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C64" s="21">
         <v>2</v>
       </c>
       <c r="D64" s="21">
-        <v>8</v>
-      </c>
-      <c r="F64" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>209</v>
+      </c>
       <c r="G64" s="26" t="s">
         <v>34</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>226</v>
       </c>
       <c r="L64" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q64" s="25"/>
       <c r="R64" s="25"/>
@@ -3510,21 +3511,21 @@
       <c r="U64" s="25"/>
       <c r="V64" s="25"/>
     </row>
-    <row r="65" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="65" spans="1:22" s="16" customFormat="1" ht="24">
       <c r="A65" s="31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C65" s="21">
         <v>2</v>
       </c>
       <c r="D65" s="21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G65" s="26" t="s">
         <v>34</v>
@@ -3533,10 +3534,10 @@
         <v>10</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L65" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q65" s="25"/>
       <c r="R65" s="25"/>
@@ -3545,24 +3546,34 @@
       <c r="U65" s="25"/>
       <c r="V65" s="25"/>
     </row>
-    <row r="66" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="66" spans="1:22" s="16" customFormat="1" ht="24">
       <c r="A66" s="31" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C66" s="21">
         <v>2</v>
       </c>
       <c r="D66" s="21">
+        <v>5</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="21">
         <v>10</v>
       </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K66" s="22"/>
+      <c r="K66" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L66" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="Q66" s="25"/>
       <c r="R66" s="25"/>
       <c r="S66" s="25"/>
@@ -3572,22 +3583,32 @@
     </row>
     <row r="67" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A67" s="31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C67" s="21">
         <v>2</v>
       </c>
       <c r="D67" s="21">
-        <v>11</v>
-      </c>
-      <c r="F67" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>223</v>
+      </c>
       <c r="G67" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K67" s="22"/>
+      <c r="J67" s="21">
+        <v>10</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L67" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="Q67" s="25"/>
       <c r="R67" s="25"/>
       <c r="S67" s="25"/>
@@ -3595,21 +3616,34 @@
       <c r="U67" s="25"/>
       <c r="V67" s="25"/>
     </row>
-    <row r="68" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="68" spans="1:22" s="16" customFormat="1" ht="48">
       <c r="A68" s="31" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C68" s="21">
-        <v>3</v>
-      </c>
-      <c r="F68" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="21">
+        <v>7</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>224</v>
+      </c>
       <c r="G68" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="22"/>
+      <c r="J68" s="21">
+        <v>10</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L68" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="Q68" s="25"/>
       <c r="R68" s="25"/>
       <c r="S68" s="25"/>
@@ -3619,19 +3653,30 @@
     </row>
     <row r="69" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A69" s="31" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C69" s="21">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D69" s="21">
+        <v>8</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K69" s="22"/>
+      <c r="J69" s="21">
+        <v>10</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L69" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="Q69" s="25"/>
       <c r="R69" s="25"/>
       <c r="S69" s="25"/>
@@ -3641,18 +3686,20 @@
     </row>
     <row r="70" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A70" s="31" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C70" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" s="21">
-        <v>0</v>
-      </c>
-      <c r="F70" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>214</v>
+      </c>
       <c r="G70" s="26" t="s">
         <v>34</v>
       </c>
@@ -3663,7 +3710,7 @@
         <v>226</v>
       </c>
       <c r="L70" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q70" s="25"/>
       <c r="R70" s="25"/>
@@ -3674,32 +3721,22 @@
     </row>
     <row r="71" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A71" s="31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="C71" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" s="21">
-        <v>1</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>215</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F71" s="22"/>
       <c r="G71" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="21">
-        <v>10</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L71" s="28" t="s">
-        <v>41</v>
-      </c>
+      <c r="K71" s="22"/>
       <c r="Q71" s="25"/>
       <c r="R71" s="25"/>
       <c r="S71" s="25"/>
@@ -3709,32 +3746,22 @@
     </row>
     <row r="72" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A72" s="31" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C72" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" s="21">
-        <v>2</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>225</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F72" s="22"/>
       <c r="G72" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="21">
-        <v>10</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L72" s="28" t="s">
-        <v>41</v>
-      </c>
+      <c r="K72" s="22"/>
       <c r="Q72" s="25"/>
       <c r="R72" s="25"/>
       <c r="S72" s="25"/>
@@ -3744,30 +3771,19 @@
     </row>
     <row r="73" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A73" s="31" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C73" s="21">
-        <v>4</v>
-      </c>
-      <c r="D73" s="21">
         <v>3</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="21">
-        <v>10</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L73" s="28" t="s">
-        <v>41</v>
-      </c>
+      <c r="K73" s="22"/>
       <c r="Q73" s="25"/>
       <c r="R73" s="25"/>
       <c r="S73" s="25"/>
@@ -3777,32 +3793,19 @@
     </row>
     <row r="74" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A74" s="31" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C74" s="21">
         <v>4</v>
       </c>
-      <c r="D74" s="21">
-        <v>4</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>216</v>
-      </c>
+      <c r="F74" s="22"/>
       <c r="G74" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J74" s="21">
-        <v>10</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>41</v>
-      </c>
+      <c r="K74" s="22"/>
       <c r="Q74" s="25"/>
       <c r="R74" s="25"/>
       <c r="S74" s="25"/>
@@ -3812,19 +3815,30 @@
     </row>
     <row r="75" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A75" s="31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C75" s="21">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D75" s="21">
+        <v>0</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K75" s="22"/>
+      <c r="J75" s="21">
+        <v>10</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L75" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="25"/>
       <c r="S75" s="25"/>
@@ -3834,18 +3848,20 @@
     </row>
     <row r="76" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A76" s="31" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C76" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" s="21">
-        <v>0</v>
-      </c>
-      <c r="F76" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>215</v>
+      </c>
       <c r="G76" s="26" t="s">
         <v>34</v>
       </c>
@@ -3856,7 +3872,7 @@
         <v>226</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q76" s="25"/>
       <c r="R76" s="25"/>
@@ -3867,22 +3883,32 @@
     </row>
     <row r="77" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A77" s="31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C77" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="21">
-        <v>1</v>
-      </c>
-      <c r="F77" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>225</v>
+      </c>
       <c r="G77" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K77" s="22"/>
+      <c r="J77" s="21">
+        <v>10</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L77" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="Q77" s="25"/>
       <c r="R77" s="25"/>
       <c r="S77" s="25"/>
@@ -3892,22 +3918,30 @@
     </row>
     <row r="78" spans="1:22" s="16" customFormat="1" ht="12">
       <c r="A78" s="31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C78" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K78" s="22"/>
+      <c r="J78" s="21">
+        <v>10</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L78" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="Q78" s="25"/>
       <c r="R78" s="25"/>
       <c r="S78" s="25"/>
@@ -3915,54 +3949,224 @@
       <c r="U78" s="25"/>
       <c r="V78" s="25"/>
     </row>
+    <row r="79" spans="1:22" s="16" customFormat="1" ht="12">
+      <c r="A79" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="21">
+        <v>4</v>
+      </c>
+      <c r="D79" s="21">
+        <v>4</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="21">
+        <v>10</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L79" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="25"/>
+      <c r="V79" s="25"/>
+    </row>
+    <row r="80" spans="1:22" s="16" customFormat="1" ht="12">
+      <c r="A80" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="21">
+        <v>5</v>
+      </c>
+      <c r="F80" s="22"/>
+      <c r="G80" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="22"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+      <c r="V80" s="25"/>
+    </row>
+    <row r="81" spans="1:22" s="16" customFormat="1" ht="12">
+      <c r="A81" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="21">
+        <v>5</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22"/>
+      <c r="G81" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="21">
+        <v>10</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L81" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+    </row>
+    <row r="82" spans="1:22" s="16" customFormat="1" ht="12">
+      <c r="A82" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="21">
+        <v>5</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82" s="22"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="25"/>
+      <c r="V82" s="25"/>
+    </row>
+    <row r="83" spans="1:22" s="16" customFormat="1" ht="12">
+      <c r="A83" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="21">
+        <v>5</v>
+      </c>
+      <c r="D83" s="21">
+        <v>2</v>
+      </c>
+      <c r="F83" s="22"/>
+      <c r="G83" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" s="22"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
+      <c r="V83" s="25"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="235" yWindow="427" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="235" yWindow="427" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H5 H8:H1048576</xm:sqref>
+          <xm:sqref>H5 H8:H27 H31 H34:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$H$2:$H$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I5 I8:I1048576</xm:sqref>
+          <xm:sqref>I5 I8:I27 I31 I34:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$P$2:$P$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Q5 Q8:Q1048576</xm:sqref>
+          <xm:sqref>Q5 Q8:Q27 Q31 Q34:Q1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G5 G8:G1048576</xm:sqref>
+          <xm:sqref>G5 G8:G27 G31 G34:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L5 L79:L1048576</xm:sqref>
+          <xm:sqref>L5 L84:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$I$2:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J5 J79:J1048576</xm:sqref>
+          <xm:sqref>J5 J84:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$M$2:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>N5 N8:N1048576</xm:sqref>
+          <xm:sqref>N5 N8:N27 N31 N34:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Wertebereich!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>N28:N30 N32:N33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Wertebereich!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G28:G30 G32:G33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Wertebereich!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q28:Q30 Q32:Q33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Wertebereich!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I28:I30 I32:I33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Wertebereich!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H28:H30 H32:H33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="500"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="305">
   <si>
     <t>reference_number</t>
   </si>
@@ -863,12 +863,204 @@
   <si>
     <t>0.10.0</t>
   </si>
+  <si>
+    <t>Bases juridiques, séances des organes</t>
+  </si>
+  <si>
+    <t>Généralités</t>
+  </si>
+  <si>
+    <t>Lignes directrices, stratégie, programme de travail</t>
+  </si>
+  <si>
+    <t>Rapport annuel</t>
+  </si>
+  <si>
+    <t>Planification</t>
+  </si>
+  <si>
+    <t>Bases juridiques</t>
+  </si>
+  <si>
+    <t>Concordat du 29.10.1970 sur la coordination scolaire</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 14.6.2007 sur l'harmonisation de la scolarité obligatoire (concordat HarmoS)</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 25.10.2007 sur la collaboration dans le domaine de la pédagogie spécialisée</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 18.6.2009 sur l'harmonisation des régimes de bourses d'études</t>
+  </si>
+  <si>
+    <t>Organisation de la CDIP</t>
+  </si>
+  <si>
+    <t>Financement de l'éducation</t>
+  </si>
+  <si>
+    <t>Accord intercantonal universitaire (AIU) du 20.2.1997</t>
+  </si>
+  <si>
+    <t>Convention intercantonale du 13.12.2002 relative aux institutions sociales (CIIS)</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 12.6.2003 sur les hautes écoles spécialisées (AHES) à partir de 2005</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 27.8.1998 sur les écoles supérieures spécialisées (AESS)</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 20.2.2003 sur les écoles offrant des formations spécifiques aux élèves surdoués</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 22.6.2006 sur les contributions dans le domaine de la formation professionnelle initiale (accord sur les écoles professionnelles, AEPr)</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 22.3.2012 sur les contributions dans le domaine des écoles supérieures (AES)</t>
+  </si>
+  <si>
+    <t>Reconnaissance de diplômes</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 18.2.1993 sur la reconnaissance des diplômes de fin d'études</t>
+  </si>
+  <si>
+    <t>Règlements de reconnaissance Degré secondaire II</t>
+  </si>
+  <si>
+    <t>Diplômes d'enseignement</t>
+  </si>
+  <si>
+    <t>Reconnaissance des diplômes étrangers</t>
+  </si>
+  <si>
+    <t>Plans d'études cadres</t>
+  </si>
+  <si>
+    <t>Domaine des hautes écoles</t>
+  </si>
+  <si>
+    <t>Accord intercantonal du 20.6.2013 sur le domaine suisse des hautes écoles (concordat sur les hautes écoles)</t>
+  </si>
+  <si>
+    <t>Assemblée plénière</t>
+  </si>
+  <si>
+    <t>Séances</t>
+  </si>
+  <si>
+    <t>Comité</t>
+  </si>
+  <si>
+    <t>Décisions par voie de correspondance</t>
+  </si>
+  <si>
+    <t>Commission des secrétaires généraux (CSG)</t>
+  </si>
+  <si>
+    <t>Conférence des secrétaires généraux (CSSG)</t>
+  </si>
+  <si>
+    <t>Administration du Secrétariat général</t>
+  </si>
+  <si>
+    <t>Fonctionnement</t>
+  </si>
+  <si>
+    <t>Archivage</t>
+  </si>
+  <si>
+    <t>Organisation du Secrétariat général</t>
+  </si>
+  <si>
+    <t>Processus / Aides-mémoires</t>
+  </si>
+  <si>
+    <t>Conseil de direction</t>
+  </si>
+  <si>
+    <t>Réunion des collaboratrices et collaborateurs / Forums</t>
+  </si>
+  <si>
+    <t>Appareils / Mobilier / Inventaire / Assurances choses</t>
+  </si>
+  <si>
+    <t>Locaux</t>
+  </si>
+  <si>
+    <t>Poste / Télécommunication</t>
+  </si>
+  <si>
+    <t>Informatique</t>
+  </si>
+  <si>
+    <t>Administration cantonale bernoise</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Mises au concours</t>
+  </si>
+  <si>
+    <t>Postulations</t>
+  </si>
+  <si>
+    <t>Dossiers du personnel</t>
+  </si>
+  <si>
+    <t>Office du personnel</t>
+  </si>
+  <si>
+    <t>Questions de salaire</t>
+  </si>
+  <si>
+    <t>Assurances sociales</t>
+  </si>
+  <si>
+    <t>Formation continue</t>
+  </si>
+  <si>
+    <t>Comptabilité</t>
+  </si>
+  <si>
+    <t>Généralités (plan comptable / indemnités et défraiements)</t>
+  </si>
+  <si>
+    <t>Contributions cantonales</t>
+  </si>
+  <si>
+    <t>Etat de comptes intermédiaire</t>
+  </si>
+  <si>
+    <t>Comptes annuels</t>
+  </si>
+  <si>
+    <t>Controlling</t>
+  </si>
+  <si>
+    <t>Subventions</t>
+  </si>
+  <si>
+    <t>Banque / Poste</t>
+  </si>
+  <si>
+    <t>Taxe sur la valeur ajoutée</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>Le Savoir du SG CDIP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -967,6 +1159,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1124,7 +1323,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1207,6 +1406,9 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1637,13 +1839,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blatt1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1923,12 +2125,15 @@
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" spans="1:23" s="16" customFormat="1" ht="12">
+    <row r="7" spans="1:23" s="16" customFormat="1" ht="14">
       <c r="A7" s="32" t="s">
         <v>231</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>81</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>241</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
@@ -1946,7 +2151,7 @@
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
     </row>
-    <row r="8" spans="1:23" s="16" customFormat="1" ht="12">
+    <row r="8" spans="1:23" s="16" customFormat="1" ht="14">
       <c r="A8" s="31" t="s">
         <v>91</v>
       </c>
@@ -1955,6 +2160,9 @@
       </c>
       <c r="C8" s="21">
         <v>0</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="26" t="s">
@@ -1970,7 +2178,7 @@
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
     </row>
-    <row r="9" spans="1:23" s="16" customFormat="1" ht="12">
+    <row r="9" spans="1:23" s="16" customFormat="1" ht="14">
       <c r="A9" s="31" t="s">
         <v>170</v>
       </c>
@@ -1979,6 +2187,9 @@
       </c>
       <c r="C9" s="21">
         <v>1</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>243</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="26" t="s">
@@ -1994,7 +2205,7 @@
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
     </row>
-    <row r="10" spans="1:23" s="16" customFormat="1" ht="12">
+    <row r="10" spans="1:23" s="16" customFormat="1" ht="14">
       <c r="A10" s="31" t="s">
         <v>171</v>
       </c>
@@ -2003,6 +2214,9 @@
       </c>
       <c r="C10" s="21">
         <v>2</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>244</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="26" t="s">
@@ -2018,7 +2232,7 @@
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="1:23" s="16" customFormat="1" ht="12">
+    <row r="11" spans="1:23" s="16" customFormat="1" ht="14">
       <c r="A11" s="31" t="s">
         <v>172</v>
       </c>
@@ -2027,6 +2241,9 @@
       </c>
       <c r="C11" s="21">
         <v>3</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>245</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="26" t="s">
@@ -2042,7 +2259,7 @@
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
     </row>
-    <row r="12" spans="1:23" s="16" customFormat="1" ht="12">
+    <row r="12" spans="1:23" s="16" customFormat="1" ht="14">
       <c r="A12" s="31" t="s">
         <v>173</v>
       </c>
@@ -2051,6 +2268,9 @@
       </c>
       <c r="C12" s="21">
         <v>4</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>246</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="26" t="s">
@@ -2066,7 +2286,7 @@
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="1:23" s="16" customFormat="1" ht="36">
+    <row r="13" spans="1:23" s="16" customFormat="1" ht="37">
       <c r="A13" s="31" t="s">
         <v>174</v>
       </c>
@@ -2075,6 +2295,9 @@
       </c>
       <c r="C13" s="21">
         <v>5</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>217</v>
@@ -2092,7 +2315,7 @@
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
     </row>
-    <row r="14" spans="1:23" s="16" customFormat="1" ht="24">
+    <row r="14" spans="1:23" s="16" customFormat="1" ht="25">
       <c r="A14" s="31" t="s">
         <v>99</v>
       </c>
@@ -2104,6 +2327,9 @@
       </c>
       <c r="D14" s="21">
         <v>0</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>247</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>218</v>
@@ -2129,7 +2355,7 @@
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
     </row>
-    <row r="15" spans="1:23" s="16" customFormat="1" ht="12">
+    <row r="15" spans="1:23" s="16" customFormat="1" ht="28">
       <c r="A15" s="31" t="s">
         <v>100</v>
       </c>
@@ -2141,6 +2367,9 @@
       </c>
       <c r="D15" s="21">
         <v>1</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>248</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="26" t="s">
@@ -2164,7 +2393,7 @@
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
     </row>
-    <row r="16" spans="1:23" s="16" customFormat="1" ht="12">
+    <row r="16" spans="1:23" s="16" customFormat="1" ht="28">
       <c r="A16" s="31" t="s">
         <v>102</v>
       </c>
@@ -2176,6 +2405,9 @@
       </c>
       <c r="D16" s="21">
         <v>2</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>249</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="26" t="s">
@@ -2199,7 +2431,7 @@
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
     </row>
-    <row r="17" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="17" spans="1:22" s="16" customFormat="1" ht="37">
       <c r="A17" s="31" t="s">
         <v>175</v>
       </c>
@@ -2208,6 +2440,9 @@
       </c>
       <c r="C17" s="21">
         <v>6</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>250</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>219</v>
@@ -2225,7 +2460,7 @@
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
     </row>
-    <row r="18" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="18" spans="1:22" s="16" customFormat="1" ht="37">
       <c r="A18" s="31" t="s">
         <v>176</v>
       </c>
@@ -2234,6 +2469,9 @@
       </c>
       <c r="C18" s="21">
         <v>7</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>251</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>220</v>
@@ -2252,7 +2490,7 @@
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
     </row>
-    <row r="19" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="19" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A19" s="31" t="s">
         <v>107</v>
       </c>
@@ -2264,6 +2502,9 @@
       </c>
       <c r="D19" s="21">
         <v>1</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>252</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="26" t="s">
@@ -2280,7 +2521,7 @@
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
     </row>
-    <row r="20" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="20" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A20" s="31" t="s">
         <v>108</v>
       </c>
@@ -2293,7 +2534,9 @@
       <c r="D20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="40" t="s">
+        <v>253</v>
+      </c>
       <c r="F20" s="22"/>
       <c r="G20" s="26" t="s">
         <v>34</v>
@@ -2317,7 +2560,7 @@
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
     </row>
-    <row r="21" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="21" spans="1:22" s="16" customFormat="1" ht="28">
       <c r="A21" s="31" t="s">
         <v>109</v>
       </c>
@@ -2330,7 +2573,9 @@
       <c r="D21" s="21">
         <v>1</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="40" t="s">
+        <v>254</v>
+      </c>
       <c r="F21" s="22"/>
       <c r="G21" s="26" t="s">
         <v>34</v>
@@ -2354,7 +2599,7 @@
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
     </row>
-    <row r="22" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="22" spans="1:22" s="16" customFormat="1" ht="28">
       <c r="A22" s="31" t="s">
         <v>110</v>
       </c>
@@ -2367,7 +2612,9 @@
       <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="40" t="s">
+        <v>255</v>
+      </c>
       <c r="F22" s="22"/>
       <c r="G22" s="26" t="s">
         <v>34</v>
@@ -2391,7 +2638,7 @@
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
     </row>
-    <row r="23" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="23" spans="1:22" s="16" customFormat="1" ht="28">
       <c r="A23" s="31" t="s">
         <v>112</v>
       </c>
@@ -2403,6 +2650,9 @@
       </c>
       <c r="D23" s="21">
         <v>8</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>256</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="26" t="s">
@@ -2416,7 +2666,7 @@
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
     </row>
-    <row r="24" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="24" spans="1:22" s="16" customFormat="1" ht="28">
       <c r="A24" s="31" t="s">
         <v>113</v>
       </c>
@@ -2429,7 +2679,9 @@
       <c r="D24" s="21">
         <v>8</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="40" t="s">
+        <v>257</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="26" t="s">
         <v>34</v>
@@ -2450,7 +2702,7 @@
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
     </row>
-    <row r="25" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="25" spans="1:22" s="16" customFormat="1" ht="42">
       <c r="A25" s="31" t="s">
         <v>114</v>
       </c>
@@ -2463,7 +2715,9 @@
       <c r="D25" s="21">
         <v>8</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="40" t="s">
+        <v>258</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="26" t="s">
         <v>34</v>
@@ -2484,7 +2738,7 @@
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
     </row>
-    <row r="26" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="26" spans="1:22" s="16" customFormat="1" ht="28">
       <c r="A26" s="31" t="s">
         <v>115</v>
       </c>
@@ -2497,7 +2751,9 @@
       <c r="D26" s="21">
         <v>8</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="40" t="s">
+        <v>259</v>
+      </c>
       <c r="F26" s="22"/>
       <c r="G26" s="26" t="s">
         <v>34</v>
@@ -2518,7 +2774,7 @@
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
     </row>
-    <row r="27" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="27" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A27" s="31" t="s">
         <v>177</v>
       </c>
@@ -2527,6 +2783,9 @@
       </c>
       <c r="C27" s="21">
         <v>8</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>260</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="26" t="s">
@@ -2540,7 +2799,7 @@
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
     </row>
-    <row r="28" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="28" spans="1:22" s="16" customFormat="1" ht="28">
       <c r="A28" s="31" t="s">
         <v>178</v>
       </c>
@@ -2549,6 +2808,9 @@
       </c>
       <c r="C28" s="21">
         <v>9</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>261</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="26" t="s">
@@ -2562,7 +2824,7 @@
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
     </row>
-    <row r="29" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="29" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A29" s="31" t="s">
         <v>234</v>
       </c>
@@ -2574,6 +2836,9 @@
       </c>
       <c r="D29" s="21">
         <v>0</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="26" t="s">
@@ -2595,7 +2860,7 @@
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
     </row>
-    <row r="30" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="30" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A30" s="31" t="s">
         <v>236</v>
       </c>
@@ -2607,6 +2872,9 @@
       </c>
       <c r="D30" s="21">
         <v>1</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>262</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="26" t="s">
@@ -2620,7 +2888,7 @@
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
     </row>
-    <row r="31" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="31" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A31" s="31" t="s">
         <v>178</v>
       </c>
@@ -2629,6 +2897,9 @@
       </c>
       <c r="C31" s="21">
         <v>9</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>263</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="26" t="s">
@@ -2642,7 +2913,7 @@
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
     </row>
-    <row r="32" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="32" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A32" s="31" t="s">
         <v>239</v>
       </c>
@@ -2651,6 +2922,9 @@
       </c>
       <c r="C32" s="21">
         <v>11</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>264</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="26" t="s">
@@ -2664,7 +2938,7 @@
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
     </row>
-    <row r="33" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="33" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A33" s="31" t="s">
         <v>240</v>
       </c>
@@ -2676,6 +2950,9 @@
       </c>
       <c r="D33" s="21">
         <v>0</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>265</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="26" t="s">
@@ -2697,7 +2974,7 @@
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
     </row>
-    <row r="34" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="34" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A34" s="31" t="s">
         <v>232</v>
       </c>
@@ -2706,6 +2983,9 @@
       </c>
       <c r="C34" s="21">
         <v>12</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>266</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="26" t="s">
@@ -2719,7 +2999,7 @@
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
     </row>
-    <row r="35" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="35" spans="1:22" s="16" customFormat="1" ht="28">
       <c r="A35" s="31" t="s">
         <v>179</v>
       </c>
@@ -2728,6 +3008,9 @@
       </c>
       <c r="C35" s="21">
         <v>0</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>267</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="26" t="s">
@@ -2741,7 +3024,7 @@
       <c r="U35" s="25"/>
       <c r="V35" s="25"/>
     </row>
-    <row r="36" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="36" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A36" s="31" t="s">
         <v>82</v>
       </c>
@@ -2750,6 +3033,9 @@
       </c>
       <c r="C36" s="21">
         <v>1</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="26" t="s">
@@ -2763,7 +3049,7 @@
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
     </row>
-    <row r="37" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="37" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A37" s="31" t="s">
         <v>83</v>
       </c>
@@ -2772,6 +3058,9 @@
       </c>
       <c r="C37" s="21">
         <v>2</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="26" t="s">
@@ -2785,12 +3074,15 @@
       <c r="U37" s="25"/>
       <c r="V37" s="25"/>
     </row>
-    <row r="38" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="38" spans="1:22" s="16" customFormat="1" ht="37">
       <c r="A38" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>123</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>269</v>
       </c>
       <c r="F38" s="27" t="s">
         <v>221</v>
@@ -2806,12 +3098,15 @@
       <c r="U38" s="25"/>
       <c r="V38" s="25"/>
     </row>
-    <row r="39" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="39" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A39" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>129</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>270</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="26" t="s">
@@ -2825,12 +3120,15 @@
       <c r="U39" s="25"/>
       <c r="V39" s="25"/>
     </row>
-    <row r="40" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="40" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A40" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>130</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="26" t="s">
@@ -2844,12 +3142,15 @@
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
     </row>
-    <row r="41" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="41" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A41" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>131</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>269</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="26" t="s">
@@ -2863,12 +3164,15 @@
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
     </row>
-    <row r="42" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="42" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A42" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>132</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>271</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="26" t="s">
@@ -2882,12 +3186,15 @@
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
     </row>
-    <row r="43" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="43" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A43" s="31" t="s">
         <v>180</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>133</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>272</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="26" t="s">
@@ -2901,12 +3208,15 @@
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
     </row>
-    <row r="44" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="44" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A44" s="31" t="s">
         <v>181</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>134</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="26" t="s">
@@ -2920,12 +3230,15 @@
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
     </row>
-    <row r="45" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="45" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A45" s="31" t="s">
         <v>182</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>135</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>269</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="26" t="s">
@@ -2939,7 +3252,7 @@
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
     </row>
-    <row r="46" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="46" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A46" s="31" t="s">
         <v>183</v>
       </c>
@@ -2948,6 +3261,9 @@
       </c>
       <c r="C46" s="21">
         <v>0</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>273</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="26" t="s">
@@ -2961,7 +3277,7 @@
       <c r="U46" s="25"/>
       <c r="V46" s="25"/>
     </row>
-    <row r="47" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="47" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A47" s="31" t="s">
         <v>136</v>
       </c>
@@ -2973,6 +3289,9 @@
       </c>
       <c r="D47" s="21">
         <v>0</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="26" t="s">
@@ -2994,7 +3313,7 @@
       <c r="U47" s="25"/>
       <c r="V47" s="25"/>
     </row>
-    <row r="48" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="48" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A48" s="31" t="s">
         <v>137</v>
       </c>
@@ -3006,6 +3325,9 @@
       </c>
       <c r="D48" s="21">
         <v>1</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>269</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="26" t="s">
@@ -3019,7 +3341,7 @@
       <c r="U48" s="25"/>
       <c r="V48" s="25"/>
     </row>
-    <row r="49" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="49" spans="1:22" s="16" customFormat="1" ht="37">
       <c r="A49" s="31" t="s">
         <v>139</v>
       </c>
@@ -3032,7 +3354,9 @@
       <c r="D49" s="21">
         <v>1</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="40" t="s">
+        <v>274</v>
+      </c>
       <c r="F49" s="22"/>
       <c r="G49" s="26" t="s">
         <v>34</v>
@@ -3053,7 +3377,7 @@
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
     </row>
-    <row r="50" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="50" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A50" s="31" t="s">
         <v>141</v>
       </c>
@@ -3066,7 +3390,9 @@
       <c r="D50" s="21">
         <v>1</v>
       </c>
-      <c r="E50" s="21"/>
+      <c r="E50" s="40" t="s">
+        <v>242</v>
+      </c>
       <c r="F50" s="22"/>
       <c r="G50" s="26" t="s">
         <v>34</v>
@@ -3087,7 +3413,7 @@
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
     </row>
-    <row r="51" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="51" spans="1:22" s="16" customFormat="1" ht="37">
       <c r="A51" s="31" t="s">
         <v>143</v>
       </c>
@@ -3099,6 +3425,9 @@
       </c>
       <c r="D51" s="21">
         <v>2</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>275</v>
       </c>
       <c r="F51" s="27" t="s">
         <v>210</v>
@@ -3122,7 +3451,7 @@
       <c r="U51" s="25"/>
       <c r="V51" s="25"/>
     </row>
-    <row r="52" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="52" spans="1:22" s="16" customFormat="1" ht="37">
       <c r="A52" s="31" t="s">
         <v>144</v>
       </c>
@@ -3134,6 +3463,9 @@
       </c>
       <c r="D52" s="21">
         <v>3</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="26" t="s">
@@ -3155,7 +3487,7 @@
       <c r="U52" s="25"/>
       <c r="V52" s="25"/>
     </row>
-    <row r="53" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="53" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A53" s="31" t="s">
         <v>145</v>
       </c>
@@ -3167,6 +3499,9 @@
       </c>
       <c r="D53" s="21">
         <v>4</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>276</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="26" t="s">
@@ -3180,7 +3515,7 @@
       <c r="U53" s="25"/>
       <c r="V53" s="25"/>
     </row>
-    <row r="54" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="54" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A54" s="31" t="s">
         <v>147</v>
       </c>
@@ -3192,6 +3527,9 @@
       </c>
       <c r="D54" s="21">
         <v>5</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>277</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="26" t="s">
@@ -3205,7 +3543,7 @@
       <c r="U54" s="25"/>
       <c r="V54" s="25"/>
     </row>
-    <row r="55" spans="1:22" s="16" customFormat="1" ht="24">
+    <row r="55" spans="1:22" s="16" customFormat="1" ht="25">
       <c r="A55" s="31" t="s">
         <v>149</v>
       </c>
@@ -3217,6 +3555,9 @@
       </c>
       <c r="D55" s="21">
         <v>6</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>278</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="26" t="s">
@@ -3238,7 +3579,7 @@
       <c r="U55" s="25"/>
       <c r="V55" s="25"/>
     </row>
-    <row r="56" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="56" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A56" s="31" t="s">
         <v>151</v>
       </c>
@@ -3250,6 +3591,9 @@
       </c>
       <c r="D56" s="21">
         <v>7</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>279</v>
       </c>
       <c r="F56" s="27" t="s">
         <v>211</v>
@@ -3273,7 +3617,7 @@
       <c r="U56" s="25"/>
       <c r="V56" s="25"/>
     </row>
-    <row r="57" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="57" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A57" s="31" t="s">
         <v>153</v>
       </c>
@@ -3285,6 +3629,9 @@
       </c>
       <c r="D57" s="21">
         <v>8</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>280</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="26" t="s">
@@ -3306,7 +3653,7 @@
       <c r="U57" s="25"/>
       <c r="V57" s="25"/>
     </row>
-    <row r="58" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="58" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A58" s="31" t="s">
         <v>155</v>
       </c>
@@ -3318,6 +3665,9 @@
       </c>
       <c r="D58" s="21">
         <v>9</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>281</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="26" t="s">
@@ -3339,7 +3689,7 @@
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
     </row>
-    <row r="59" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="59" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A59" s="31" t="s">
         <v>184</v>
       </c>
@@ -3348,6 +3698,9 @@
       </c>
       <c r="C59" s="21">
         <v>1</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>282</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="26" t="s">
@@ -3361,7 +3714,7 @@
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
     </row>
-    <row r="60" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="60" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A60" s="31" t="s">
         <v>185</v>
       </c>
@@ -3370,6 +3723,9 @@
       </c>
       <c r="C60" s="21">
         <v>2</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="26" t="s">
@@ -3383,7 +3739,7 @@
       <c r="U60" s="25"/>
       <c r="V60" s="25"/>
     </row>
-    <row r="61" spans="1:22" s="16" customFormat="1" ht="36">
+    <row r="61" spans="1:22" s="16" customFormat="1" ht="37">
       <c r="A61" s="31" t="s">
         <v>186</v>
       </c>
@@ -3395,6 +3751,9 @@
       </c>
       <c r="D61" s="21">
         <v>0</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>284</v>
       </c>
       <c r="F61" s="27" t="s">
         <v>212</v>
@@ -3418,7 +3777,7 @@
       <c r="U61" s="25"/>
       <c r="V61" s="25"/>
     </row>
-    <row r="62" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="62" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A62" s="31" t="s">
         <v>187</v>
       </c>
@@ -3430,6 +3789,9 @@
       </c>
       <c r="D62" s="21">
         <v>1</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>285</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="26" t="s">
@@ -3451,7 +3813,7 @@
       <c r="U62" s="25"/>
       <c r="V62" s="25"/>
     </row>
-    <row r="63" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="63" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A63" s="31" t="s">
         <v>188</v>
       </c>
@@ -3463,6 +3825,9 @@
       </c>
       <c r="D63" s="21">
         <v>2</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>286</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="26" t="s">
@@ -3476,7 +3841,7 @@
       <c r="U63" s="25"/>
       <c r="V63" s="25"/>
     </row>
-    <row r="64" spans="1:22" s="16" customFormat="1" ht="24">
+    <row r="64" spans="1:22" s="16" customFormat="1" ht="25">
       <c r="A64" s="31" t="s">
         <v>189</v>
       </c>
@@ -3488,6 +3853,9 @@
       </c>
       <c r="D64" s="21">
         <v>3</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>242</v>
       </c>
       <c r="F64" s="27" t="s">
         <v>209</v>
@@ -3511,7 +3879,7 @@
       <c r="U64" s="25"/>
       <c r="V64" s="25"/>
     </row>
-    <row r="65" spans="1:22" s="16" customFormat="1" ht="24">
+    <row r="65" spans="1:22" s="16" customFormat="1" ht="25">
       <c r="A65" s="31" t="s">
         <v>190</v>
       </c>
@@ -3523,6 +3891,9 @@
       </c>
       <c r="D65" s="21">
         <v>4</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>287</v>
       </c>
       <c r="F65" s="27" t="s">
         <v>222</v>
@@ -3546,7 +3917,7 @@
       <c r="U65" s="25"/>
       <c r="V65" s="25"/>
     </row>
-    <row r="66" spans="1:22" s="16" customFormat="1" ht="24">
+    <row r="66" spans="1:22" s="16" customFormat="1" ht="25">
       <c r="A66" s="31" t="s">
         <v>191</v>
       </c>
@@ -3558,6 +3929,9 @@
       </c>
       <c r="D66" s="21">
         <v>5</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>288</v>
       </c>
       <c r="F66" s="27" t="s">
         <v>213</v>
@@ -3581,7 +3955,7 @@
       <c r="U66" s="25"/>
       <c r="V66" s="25"/>
     </row>
-    <row r="67" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="67" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A67" s="31" t="s">
         <v>192</v>
       </c>
@@ -3593,6 +3967,9 @@
       </c>
       <c r="D67" s="21">
         <v>6</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>289</v>
       </c>
       <c r="F67" s="27" t="s">
         <v>223</v>
@@ -3616,7 +3993,7 @@
       <c r="U67" s="25"/>
       <c r="V67" s="25"/>
     </row>
-    <row r="68" spans="1:22" s="16" customFormat="1" ht="48">
+    <row r="68" spans="1:22" s="16" customFormat="1" ht="49">
       <c r="A68" s="31" t="s">
         <v>193</v>
       </c>
@@ -3628,6 +4005,9 @@
       </c>
       <c r="D68" s="21">
         <v>7</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>290</v>
       </c>
       <c r="F68" s="27" t="s">
         <v>224</v>
@@ -3651,7 +4031,7 @@
       <c r="U68" s="25"/>
       <c r="V68" s="25"/>
     </row>
-    <row r="69" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="69" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A69" s="31" t="s">
         <v>194</v>
       </c>
@@ -3663,6 +4043,9 @@
       </c>
       <c r="D69" s="21">
         <v>8</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>291</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="26" t="s">
@@ -3684,7 +4067,7 @@
       <c r="U69" s="25"/>
       <c r="V69" s="25"/>
     </row>
-    <row r="70" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="70" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A70" s="31" t="s">
         <v>195</v>
       </c>
@@ -3696,6 +4079,9 @@
       </c>
       <c r="D70" s="21">
         <v>9</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>292</v>
       </c>
       <c r="F70" s="27" t="s">
         <v>214</v>
@@ -3719,7 +4105,7 @@
       <c r="U70" s="25"/>
       <c r="V70" s="25"/>
     </row>
-    <row r="71" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="71" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A71" s="31" t="s">
         <v>196</v>
       </c>
@@ -3731,6 +4117,9 @@
       </c>
       <c r="D71" s="21">
         <v>10</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>293</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="26" t="s">
@@ -3744,7 +4133,7 @@
       <c r="U71" s="25"/>
       <c r="V71" s="25"/>
     </row>
-    <row r="72" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="72" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A72" s="31" t="s">
         <v>197</v>
       </c>
@@ -3756,6 +4145,9 @@
       </c>
       <c r="D72" s="21">
         <v>11</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>294</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="26" t="s">
@@ -3769,7 +4161,7 @@
       <c r="U72" s="25"/>
       <c r="V72" s="25"/>
     </row>
-    <row r="73" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="73" spans="1:22" s="16" customFormat="1" ht="28">
       <c r="A73" s="31" t="s">
         <v>198</v>
       </c>
@@ -3778,6 +4170,9 @@
       </c>
       <c r="C73" s="21">
         <v>3</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>295</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="26" t="s">
@@ -3791,7 +4186,7 @@
       <c r="U73" s="25"/>
       <c r="V73" s="25"/>
     </row>
-    <row r="74" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="74" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A74" s="31" t="s">
         <v>199</v>
       </c>
@@ -3800,6 +4195,9 @@
       </c>
       <c r="C74" s="21">
         <v>4</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="26" t="s">
@@ -3813,7 +4211,7 @@
       <c r="U74" s="25"/>
       <c r="V74" s="25"/>
     </row>
-    <row r="75" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="75" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A75" s="31" t="s">
         <v>200</v>
       </c>
@@ -3825,6 +4223,9 @@
       </c>
       <c r="D75" s="21">
         <v>0</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>296</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="26" t="s">
@@ -3846,7 +4247,7 @@
       <c r="U75" s="25"/>
       <c r="V75" s="25"/>
     </row>
-    <row r="76" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="76" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A76" s="31" t="s">
         <v>201</v>
       </c>
@@ -3858,6 +4259,9 @@
       </c>
       <c r="D76" s="21">
         <v>1</v>
+      </c>
+      <c r="E76" s="40" t="s">
+        <v>297</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>215</v>
@@ -3881,7 +4285,7 @@
       <c r="U76" s="25"/>
       <c r="V76" s="25"/>
     </row>
-    <row r="77" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="77" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A77" s="31" t="s">
         <v>202</v>
       </c>
@@ -3893,6 +4297,9 @@
       </c>
       <c r="D77" s="21">
         <v>2</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>298</v>
       </c>
       <c r="F77" s="27" t="s">
         <v>225</v>
@@ -3916,7 +4323,7 @@
       <c r="U77" s="25"/>
       <c r="V77" s="25"/>
     </row>
-    <row r="78" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="78" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A78" s="31" t="s">
         <v>203</v>
       </c>
@@ -3928,6 +4335,9 @@
       </c>
       <c r="D78" s="21">
         <v>3</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>299</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="26" t="s">
@@ -3949,7 +4359,7 @@
       <c r="U78" s="25"/>
       <c r="V78" s="25"/>
     </row>
-    <row r="79" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="79" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A79" s="31" t="s">
         <v>204</v>
       </c>
@@ -3961,6 +4371,9 @@
       </c>
       <c r="D79" s="21">
         <v>4</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>300</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>216</v>
@@ -3984,7 +4397,7 @@
       <c r="U79" s="25"/>
       <c r="V79" s="25"/>
     </row>
-    <row r="80" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="80" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A80" s="31" t="s">
         <v>205</v>
       </c>
@@ -3993,6 +4406,9 @@
       </c>
       <c r="C80" s="21">
         <v>5</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="26" t="s">
@@ -4006,7 +4422,7 @@
       <c r="U80" s="25"/>
       <c r="V80" s="25"/>
     </row>
-    <row r="81" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="81" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A81" s="31" t="s">
         <v>206</v>
       </c>
@@ -4018,6 +4434,9 @@
       </c>
       <c r="D81" s="21">
         <v>0</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>302</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="26" t="s">
@@ -4039,7 +4458,7 @@
       <c r="U81" s="25"/>
       <c r="V81" s="25"/>
     </row>
-    <row r="82" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="82" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A82" s="31" t="s">
         <v>207</v>
       </c>
@@ -4051,6 +4470,9 @@
       </c>
       <c r="D82" s="21">
         <v>1</v>
+      </c>
+      <c r="E82" s="40" t="s">
+        <v>303</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="26" t="s">
@@ -4064,7 +4486,7 @@
       <c r="U82" s="25"/>
       <c r="V82" s="25"/>
     </row>
-    <row r="83" spans="1:22" s="16" customFormat="1" ht="12">
+    <row r="83" spans="1:22" s="16" customFormat="1" ht="14">
       <c r="A83" s="31" t="s">
         <v>208</v>
       </c>
@@ -4076,6 +4498,9 @@
       </c>
       <c r="D83" s="21">
         <v>2</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>304</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="26" t="s">
@@ -4088,6 +4513,174 @@
       <c r="T83" s="25"/>
       <c r="U83" s="25"/>
       <c r="V83" s="25"/>
+    </row>
+    <row r="84" spans="1:22" ht="14">
+      <c r="E84" s="40"/>
+    </row>
+    <row r="85" spans="1:22" ht="14">
+      <c r="E85" s="40"/>
+    </row>
+    <row r="86" spans="1:22" ht="14">
+      <c r="E86" s="40"/>
+    </row>
+    <row r="87" spans="1:22" ht="14">
+      <c r="E87" s="40"/>
+    </row>
+    <row r="88" spans="1:22" ht="14">
+      <c r="E88" s="40"/>
+    </row>
+    <row r="89" spans="1:22" ht="14">
+      <c r="E89" s="40"/>
+    </row>
+    <row r="90" spans="1:22" ht="14">
+      <c r="E90" s="40"/>
+    </row>
+    <row r="91" spans="1:22" ht="14">
+      <c r="E91" s="40"/>
+    </row>
+    <row r="92" spans="1:22" ht="14">
+      <c r="E92" s="40"/>
+    </row>
+    <row r="93" spans="1:22" ht="14">
+      <c r="E93" s="40"/>
+    </row>
+    <row r="94" spans="1:22" ht="14">
+      <c r="E94" s="40"/>
+    </row>
+    <row r="95" spans="1:22" ht="14">
+      <c r="E95" s="40"/>
+    </row>
+    <row r="96" spans="1:22" ht="14">
+      <c r="E96" s="40"/>
+    </row>
+    <row r="97" spans="5:5" ht="14">
+      <c r="E97" s="40"/>
+    </row>
+    <row r="98" spans="5:5" ht="14">
+      <c r="E98" s="40"/>
+    </row>
+    <row r="99" spans="5:5" ht="14">
+      <c r="E99" s="40"/>
+    </row>
+    <row r="100" spans="5:5" ht="14">
+      <c r="E100" s="40"/>
+    </row>
+    <row r="101" spans="5:5" ht="14">
+      <c r="E101" s="40"/>
+    </row>
+    <row r="102" spans="5:5" ht="14">
+      <c r="E102" s="40"/>
+    </row>
+    <row r="103" spans="5:5" ht="14">
+      <c r="E103" s="40"/>
+    </row>
+    <row r="104" spans="5:5" ht="14">
+      <c r="E104" s="40"/>
+    </row>
+    <row r="105" spans="5:5" ht="14">
+      <c r="E105" s="40"/>
+    </row>
+    <row r="106" spans="5:5" ht="14">
+      <c r="E106" s="40"/>
+    </row>
+    <row r="107" spans="5:5" ht="14">
+      <c r="E107" s="40"/>
+    </row>
+    <row r="108" spans="5:5" ht="14">
+      <c r="E108" s="40"/>
+    </row>
+    <row r="109" spans="5:5" ht="14">
+      <c r="E109" s="40"/>
+    </row>
+    <row r="110" spans="5:5" ht="14">
+      <c r="E110" s="40"/>
+    </row>
+    <row r="111" spans="5:5" ht="14">
+      <c r="E111" s="40"/>
+    </row>
+    <row r="112" spans="5:5" ht="14">
+      <c r="E112" s="40"/>
+    </row>
+    <row r="113" spans="5:5" ht="14">
+      <c r="E113" s="40"/>
+    </row>
+    <row r="114" spans="5:5" ht="14">
+      <c r="E114" s="40"/>
+    </row>
+    <row r="115" spans="5:5" ht="14">
+      <c r="E115" s="40"/>
+    </row>
+    <row r="116" spans="5:5" ht="14">
+      <c r="E116" s="40"/>
+    </row>
+    <row r="117" spans="5:5" ht="14">
+      <c r="E117" s="40"/>
+    </row>
+    <row r="118" spans="5:5" ht="14">
+      <c r="E118" s="40"/>
+    </row>
+    <row r="119" spans="5:5" ht="14">
+      <c r="E119" s="40"/>
+    </row>
+    <row r="120" spans="5:5" ht="14">
+      <c r="E120" s="40"/>
+    </row>
+    <row r="121" spans="5:5" ht="14">
+      <c r="E121" s="40"/>
+    </row>
+    <row r="122" spans="5:5" ht="14">
+      <c r="E122" s="40"/>
+    </row>
+    <row r="123" spans="5:5" ht="14">
+      <c r="E123" s="40"/>
+    </row>
+    <row r="124" spans="5:5" ht="14">
+      <c r="E124" s="40"/>
+    </row>
+    <row r="125" spans="5:5" ht="14">
+      <c r="E125" s="40"/>
+    </row>
+    <row r="126" spans="5:5" ht="14">
+      <c r="E126" s="40"/>
+    </row>
+    <row r="127" spans="5:5" ht="14">
+      <c r="E127" s="40"/>
+    </row>
+    <row r="128" spans="5:5" ht="14">
+      <c r="E128" s="40"/>
+    </row>
+    <row r="129" spans="5:5" ht="14">
+      <c r="E129" s="40"/>
+    </row>
+    <row r="130" spans="5:5" ht="14">
+      <c r="E130" s="40"/>
+    </row>
+    <row r="131" spans="5:5" ht="14">
+      <c r="E131" s="40"/>
+    </row>
+    <row r="132" spans="5:5" ht="14">
+      <c r="E132" s="40"/>
+    </row>
+    <row r="133" spans="5:5" ht="14">
+      <c r="E133" s="40"/>
+    </row>
+    <row r="134" spans="5:5" ht="14">
+      <c r="E134" s="40"/>
+    </row>
+    <row r="135" spans="5:5" ht="14">
+      <c r="E135" s="40"/>
+    </row>
+    <row r="136" spans="5:5" ht="14">
+      <c r="E136" s="40"/>
+    </row>
+    <row r="137" spans="5:5" ht="14">
+      <c r="E137" s="40"/>
+    </row>
+    <row r="138" spans="5:5" ht="14">
+      <c r="E138" s="40"/>
+    </row>
+    <row r="139" spans="5:5" ht="14">
+      <c r="E139" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="304">
   <si>
     <t>reference_number</t>
   </si>
@@ -2063,13 +2063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blatt1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:U545"/>
+  <dimension ref="A1:U544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2992,13 +2992,13 @@
     </row>
     <row r="31" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A31" s="19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="27" t="s">
@@ -3015,17 +3015,26 @@
     </row>
     <row r="32" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="H32" s="27">
+        <v>10</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="M32" s="28"/>
       <c r="N32" s="25"/>
@@ -3038,26 +3047,17 @@
     </row>
     <row r="33" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="H33" s="27">
-        <v>10</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="25"/>
@@ -3070,13 +3070,13 @@
     </row>
     <row r="34" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="27" t="s">
@@ -3093,13 +3093,13 @@
     </row>
     <row r="35" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="27" t="s">
@@ -3116,13 +3116,13 @@
     </row>
     <row r="36" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="27" t="s">
@@ -3139,15 +3139,17 @@
     </row>
     <row r="37" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37" s="21"/>
+        <v>240</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>284</v>
+      </c>
       <c r="E37" s="27" t="s">
         <v>26</v>
       </c>
@@ -3162,17 +3164,15 @@
     </row>
     <row r="38" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>284</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D38" s="21"/>
       <c r="E38" s="27" t="s">
         <v>26</v>
       </c>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="39" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="27" t="s">
@@ -3210,13 +3210,13 @@
     </row>
     <row r="40" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="27" t="s">
@@ -3233,13 +3233,13 @@
     </row>
     <row r="41" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="27" t="s">
@@ -3256,13 +3256,13 @@
     </row>
     <row r="42" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="27" t="s">
@@ -3279,13 +3279,13 @@
     </row>
     <row r="43" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="27" t="s">
@@ -3302,13 +3302,13 @@
     </row>
     <row r="44" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="27" t="s">
@@ -3325,13 +3325,13 @@
     </row>
     <row r="45" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="27" t="s">
@@ -3348,17 +3348,26 @@
     </row>
     <row r="46" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A46" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="H46" s="27">
+        <v>10</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="M46" s="28"/>
       <c r="N46" s="25"/>
@@ -3371,26 +3380,17 @@
     </row>
     <row r="47" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A47" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="H47" s="27">
-        <v>10</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="M47" s="28"/>
       <c r="N47" s="25"/>
@@ -3403,17 +3403,26 @@
     </row>
     <row r="48" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="H48" s="27">
+        <v>50</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="M48" s="28"/>
       <c r="N48" s="25"/>
@@ -3426,23 +3435,23 @@
     </row>
     <row r="49" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>250</v>
+        <v>152</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>251</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H49" s="27">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J49" s="27" t="s">
         <v>32</v>
@@ -3458,23 +3467,25 @@
     </row>
     <row r="50" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D50" s="21"/>
+        <v>252</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>285</v>
+      </c>
       <c r="E50" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H50" s="27">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J50" s="27" t="s">
         <v>32</v>
@@ -3490,17 +3501,15 @@
     </row>
     <row r="51" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>285</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D51" s="21"/>
       <c r="E51" s="27" t="s">
         <v>26</v>
       </c>
@@ -3524,26 +3533,17 @@
     </row>
     <row r="52" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A52" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="H52" s="27">
-        <v>50</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="M52" s="28"/>
       <c r="N52" s="25"/>
@@ -3556,13 +3556,13 @@
     </row>
     <row r="53" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A53" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="27" t="s">
@@ -3579,17 +3579,26 @@
     </row>
     <row r="54" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="H54" s="27">
+        <v>10</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="M54" s="28"/>
       <c r="N54" s="25"/>
@@ -3602,15 +3611,17 @@
     </row>
     <row r="55" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>286</v>
+      </c>
       <c r="E55" s="27" t="s">
         <v>26</v>
       </c>
@@ -3618,10 +3629,10 @@
         <v>10</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M55" s="28"/>
       <c r="N55" s="25"/>
@@ -3634,17 +3645,15 @@
     </row>
     <row r="56" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>286</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D56" s="21"/>
       <c r="E56" s="27" t="s">
         <v>26</v>
       </c>
@@ -3652,10 +3661,10 @@
         <v>10</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M56" s="28"/>
       <c r="N56" s="25"/>
@@ -3668,26 +3677,26 @@
     </row>
     <row r="57" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H57" s="27">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="J57" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M57" s="28"/>
       <c r="N57" s="25"/>
@@ -3700,26 +3709,17 @@
     </row>
     <row r="58" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A58" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="H58" s="27">
-        <v>30</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>34</v>
       </c>
       <c r="M58" s="28"/>
       <c r="N58" s="25"/>
@@ -3732,13 +3732,13 @@
     </row>
     <row r="59" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="27" t="s">
@@ -3755,17 +3755,28 @@
     </row>
     <row r="60" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A60" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="D60" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>287</v>
+      </c>
       <c r="E60" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="H60" s="27">
+        <v>10</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="M60" s="28"/>
       <c r="N60" s="25"/>
@@ -3778,17 +3789,15 @@
     </row>
     <row r="61" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A61" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>287</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D61" s="21"/>
       <c r="E61" s="27" t="s">
         <v>26</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>297</v>
       </c>
       <c r="J61" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M61" s="28"/>
       <c r="N61" s="25"/>
@@ -3812,26 +3821,17 @@
     </row>
     <row r="62" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="H62" s="27">
-        <v>10</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>34</v>
       </c>
       <c r="M62" s="28"/>
       <c r="N62" s="25"/>
@@ -3844,17 +3844,28 @@
     </row>
     <row r="63" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D63" s="21"/>
+        <v>264</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>288</v>
+      </c>
       <c r="E63" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="H63" s="27">
+        <v>10</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="M63" s="28"/>
       <c r="N63" s="25"/>
@@ -3867,16 +3878,16 @@
     </row>
     <row r="64" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>26</v>
@@ -3885,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="27" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J64" s="27" t="s">
         <v>34</v>
@@ -3901,16 +3912,16 @@
     </row>
     <row r="65" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>26</v>
@@ -3919,7 +3930,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J65" s="27" t="s">
         <v>34</v>
@@ -3935,16 +3946,16 @@
     </row>
     <row r="66" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>26</v>
@@ -3969,16 +3980,16 @@
     </row>
     <row r="67" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>26</v>
@@ -4003,17 +4014,15 @@
     </row>
     <row r="68" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>292</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D68" s="21"/>
       <c r="E68" s="27" t="s">
         <v>26</v>
       </c>
@@ -4024,7 +4033,7 @@
         <v>297</v>
       </c>
       <c r="J68" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M68" s="28"/>
       <c r="N68" s="25"/>
@@ -4037,15 +4046,17 @@
     </row>
     <row r="69" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="21"/>
+        <v>241</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>293</v>
+      </c>
       <c r="E69" s="27" t="s">
         <v>26</v>
       </c>
@@ -4069,28 +4080,17 @@
     </row>
     <row r="70" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>293</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D70" s="21"/>
       <c r="E70" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="H70" s="27">
-        <v>10</v>
-      </c>
-      <c r="I70" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="M70" s="28"/>
       <c r="N70" s="25"/>
@@ -4103,13 +4103,13 @@
     </row>
     <row r="71" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A71" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="27" t="s">
@@ -4126,13 +4126,13 @@
     </row>
     <row r="72" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A72" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="27" t="s">
@@ -4149,13 +4149,13 @@
     </row>
     <row r="73" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A73" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="27" t="s">
@@ -4172,17 +4172,26 @@
     </row>
     <row r="74" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A74" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="H74" s="27">
+        <v>10</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="M74" s="28"/>
       <c r="N74" s="25"/>
@@ -4195,15 +4204,17 @@
     </row>
     <row r="75" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A75" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="21"/>
+        <v>273</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>294</v>
+      </c>
       <c r="E75" s="27" t="s">
         <v>26</v>
       </c>
@@ -4214,7 +4225,7 @@
         <v>297</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M75" s="28"/>
       <c r="N75" s="25"/>
@@ -4227,16 +4238,16 @@
     </row>
     <row r="76" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A76" s="19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E76" s="27" t="s">
         <v>26</v>
@@ -4261,17 +4272,15 @@
     </row>
     <row r="77" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>295</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D77" s="21"/>
       <c r="E77" s="27" t="s">
         <v>26</v>
       </c>
@@ -4295,15 +4304,17 @@
     </row>
     <row r="78" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A78" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="D78" s="21"/>
+        <v>276</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>296</v>
+      </c>
       <c r="E78" s="27" t="s">
         <v>26</v>
       </c>
@@ -4327,28 +4338,20 @@
     </row>
     <row r="79" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A79" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>296</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D79" s="21"/>
       <c r="E79" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H79" s="27">
-        <v>10</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M79" s="28"/>
       <c r="N79" s="25"/>
@@ -4361,17 +4364,26 @@
     </row>
     <row r="80" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A80" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="27" t="s">
         <v>26</v>
+      </c>
+      <c r="H80" s="27">
+        <v>10</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="M80" s="28"/>
       <c r="N80" s="25"/>
@@ -4384,26 +4396,17 @@
     </row>
     <row r="81" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A81" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="H81" s="27">
-        <v>10</v>
-      </c>
-      <c r="I81" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="M81" s="28"/>
       <c r="N81" s="25"/>
@@ -4416,13 +4419,13 @@
     </row>
     <row r="82" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
       <c r="A82" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="27" t="s">
@@ -4437,28 +4440,27 @@
       <c r="S82" s="29"/>
       <c r="T82" s="29"/>
     </row>
-    <row r="83" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
-      <c r="A83" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="27" t="s">
-        <v>26</v>
-      </c>
+    <row r="83" spans="1:20" ht="13" customHeight="1">
+      <c r="A83" s="31"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
       <c r="M83" s="28"/>
       <c r="N83" s="25"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
     </row>
     <row r="84" spans="1:20" ht="13" customHeight="1">
       <c r="A84" s="31"/>
@@ -4475,12 +4477,12 @@
       <c r="L84" s="27"/>
       <c r="M84" s="28"/>
       <c r="N84" s="25"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
     </row>
     <row r="85" spans="1:20" ht="13" customHeight="1">
       <c r="A85" s="31"/>
@@ -4772,7 +4774,7 @@
       <c r="A98" s="31"/>
       <c r="B98" s="27"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="32"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
@@ -4882,7 +4884,7 @@
       <c r="A103" s="31"/>
       <c r="B103" s="27"/>
       <c r="C103" s="30"/>
-      <c r="D103" s="38"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
@@ -4945,10 +4947,10 @@
       <c r="T105" s="37"/>
     </row>
     <row r="106" spans="1:20" ht="13" customHeight="1">
-      <c r="A106" s="31"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="27"/>
       <c r="C106" s="30"/>
-      <c r="D106" s="32"/>
+      <c r="D106" s="40"/>
       <c r="E106" s="27"/>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -4967,10 +4969,10 @@
       <c r="T106" s="37"/>
     </row>
     <row r="107" spans="1:20" ht="13" customHeight="1">
-      <c r="A107" s="39"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="27"/>
       <c r="C107" s="30"/>
-      <c r="D107" s="40"/>
+      <c r="D107" s="41"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -4992,7 +4994,7 @@
       <c r="A108" s="31"/>
       <c r="B108" s="27"/>
       <c r="C108" s="30"/>
-      <c r="D108" s="41"/>
+      <c r="D108" s="32"/>
       <c r="E108" s="27"/>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -5234,7 +5236,7 @@
       <c r="A119" s="31"/>
       <c r="B119" s="27"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="32"/>
+      <c r="D119" s="40"/>
       <c r="E119" s="27"/>
       <c r="F119" s="27"/>
       <c r="G119" s="27"/>
@@ -5256,7 +5258,7 @@
       <c r="A120" s="31"/>
       <c r="B120" s="27"/>
       <c r="C120" s="30"/>
-      <c r="D120" s="40"/>
+      <c r="D120" s="32"/>
       <c r="E120" s="27"/>
       <c r="F120" s="27"/>
       <c r="G120" s="27"/>
@@ -5410,7 +5412,7 @@
       <c r="A127" s="31"/>
       <c r="B127" s="27"/>
       <c r="C127" s="30"/>
-      <c r="D127" s="32"/>
+      <c r="D127" s="38"/>
       <c r="E127" s="27"/>
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
@@ -5432,7 +5434,7 @@
       <c r="A128" s="31"/>
       <c r="B128" s="27"/>
       <c r="C128" s="30"/>
-      <c r="D128" s="38"/>
+      <c r="D128" s="32"/>
       <c r="E128" s="27"/>
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
@@ -5454,7 +5456,7 @@
       <c r="A129" s="31"/>
       <c r="B129" s="27"/>
       <c r="C129" s="30"/>
-      <c r="D129" s="32"/>
+      <c r="D129" s="42"/>
       <c r="E129" s="27"/>
       <c r="F129" s="27"/>
       <c r="G129" s="27"/>
@@ -5476,7 +5478,7 @@
       <c r="A130" s="31"/>
       <c r="B130" s="27"/>
       <c r="C130" s="30"/>
-      <c r="D130" s="42"/>
+      <c r="D130" s="43"/>
       <c r="E130" s="27"/>
       <c r="F130" s="27"/>
       <c r="G130" s="27"/>
@@ -5498,7 +5500,7 @@
       <c r="A131" s="31"/>
       <c r="B131" s="27"/>
       <c r="C131" s="30"/>
-      <c r="D131" s="43"/>
+      <c r="D131" s="44"/>
       <c r="E131" s="27"/>
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
@@ -5564,7 +5566,7 @@
       <c r="A134" s="31"/>
       <c r="B134" s="27"/>
       <c r="C134" s="30"/>
-      <c r="D134" s="44"/>
+      <c r="D134" s="32"/>
       <c r="E134" s="27"/>
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
@@ -5586,7 +5588,7 @@
       <c r="A135" s="31"/>
       <c r="B135" s="27"/>
       <c r="C135" s="30"/>
-      <c r="D135" s="32"/>
+      <c r="D135" s="45"/>
       <c r="E135" s="27"/>
       <c r="F135" s="27"/>
       <c r="G135" s="27"/>
@@ -5762,7 +5764,7 @@
       <c r="A143" s="31"/>
       <c r="B143" s="27"/>
       <c r="C143" s="30"/>
-      <c r="D143" s="45"/>
+      <c r="D143" s="32"/>
       <c r="E143" s="27"/>
       <c r="F143" s="27"/>
       <c r="G143" s="27"/>
@@ -5850,7 +5852,7 @@
       <c r="A147" s="31"/>
       <c r="B147" s="27"/>
       <c r="C147" s="30"/>
-      <c r="D147" s="32"/>
+      <c r="D147" s="40"/>
       <c r="E147" s="27"/>
       <c r="F147" s="27"/>
       <c r="G147" s="27"/>
@@ -5872,7 +5874,7 @@
       <c r="A148" s="31"/>
       <c r="B148" s="27"/>
       <c r="C148" s="30"/>
-      <c r="D148" s="40"/>
+      <c r="D148" s="32"/>
       <c r="E148" s="27"/>
       <c r="F148" s="27"/>
       <c r="G148" s="27"/>
@@ -5916,7 +5918,7 @@
       <c r="A150" s="31"/>
       <c r="B150" s="27"/>
       <c r="C150" s="30"/>
-      <c r="D150" s="32"/>
+      <c r="D150" s="46"/>
       <c r="E150" s="27"/>
       <c r="F150" s="27"/>
       <c r="G150" s="27"/>
@@ -5938,7 +5940,7 @@
       <c r="A151" s="31"/>
       <c r="B151" s="27"/>
       <c r="C151" s="30"/>
-      <c r="D151" s="46"/>
+      <c r="D151" s="47"/>
       <c r="E151" s="27"/>
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
@@ -5960,7 +5962,7 @@
       <c r="A152" s="31"/>
       <c r="B152" s="27"/>
       <c r="C152" s="30"/>
-      <c r="D152" s="47"/>
+      <c r="D152" s="32"/>
       <c r="E152" s="27"/>
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
@@ -6136,7 +6138,7 @@
       <c r="A160" s="31"/>
       <c r="B160" s="27"/>
       <c r="C160" s="30"/>
-      <c r="D160" s="32"/>
+      <c r="D160" s="40"/>
       <c r="E160" s="27"/>
       <c r="F160" s="27"/>
       <c r="G160" s="27"/>
@@ -6290,7 +6292,7 @@
       <c r="A167" s="31"/>
       <c r="B167" s="27"/>
       <c r="C167" s="30"/>
-      <c r="D167" s="40"/>
+      <c r="D167" s="32"/>
       <c r="E167" s="27"/>
       <c r="F167" s="27"/>
       <c r="G167" s="27"/>
@@ -6708,7 +6710,7 @@
       <c r="A186" s="31"/>
       <c r="B186" s="27"/>
       <c r="C186" s="30"/>
-      <c r="D186" s="32"/>
+      <c r="D186" s="40"/>
       <c r="E186" s="27"/>
       <c r="F186" s="27"/>
       <c r="G186" s="27"/>
@@ -6840,7 +6842,7 @@
       <c r="A192" s="31"/>
       <c r="B192" s="27"/>
       <c r="C192" s="30"/>
-      <c r="D192" s="40"/>
+      <c r="D192" s="32"/>
       <c r="E192" s="27"/>
       <c r="F192" s="27"/>
       <c r="G192" s="27"/>
@@ -7456,7 +7458,7 @@
       <c r="A220" s="31"/>
       <c r="B220" s="27"/>
       <c r="C220" s="30"/>
-      <c r="D220" s="32"/>
+      <c r="D220" s="40"/>
       <c r="E220" s="27"/>
       <c r="F220" s="27"/>
       <c r="G220" s="27"/>
@@ -7632,7 +7634,7 @@
       <c r="A228" s="31"/>
       <c r="B228" s="27"/>
       <c r="C228" s="30"/>
-      <c r="D228" s="40"/>
+      <c r="D228" s="32"/>
       <c r="E228" s="27"/>
       <c r="F228" s="27"/>
       <c r="G228" s="27"/>
@@ -8028,7 +8030,7 @@
       <c r="A246" s="31"/>
       <c r="B246" s="27"/>
       <c r="C246" s="30"/>
-      <c r="D246" s="32"/>
+      <c r="D246" s="40"/>
       <c r="E246" s="27"/>
       <c r="F246" s="27"/>
       <c r="G246" s="27"/>
@@ -8116,7 +8118,7 @@
       <c r="A250" s="31"/>
       <c r="B250" s="27"/>
       <c r="C250" s="30"/>
-      <c r="D250" s="40"/>
+      <c r="D250" s="32"/>
       <c r="E250" s="27"/>
       <c r="F250" s="27"/>
       <c r="G250" s="27"/>
@@ -8402,7 +8404,7 @@
       <c r="A263" s="31"/>
       <c r="B263" s="27"/>
       <c r="C263" s="30"/>
-      <c r="D263" s="32"/>
+      <c r="D263" s="40"/>
       <c r="E263" s="27"/>
       <c r="F263" s="27"/>
       <c r="G263" s="27"/>
@@ -8446,7 +8448,7 @@
       <c r="A265" s="31"/>
       <c r="B265" s="27"/>
       <c r="C265" s="30"/>
-      <c r="D265" s="40"/>
+      <c r="D265" s="32"/>
       <c r="E265" s="27"/>
       <c r="F265" s="27"/>
       <c r="G265" s="27"/>
@@ -8556,7 +8558,7 @@
       <c r="A270" s="31"/>
       <c r="B270" s="27"/>
       <c r="C270" s="30"/>
-      <c r="D270" s="32"/>
+      <c r="D270" s="40"/>
       <c r="E270" s="27"/>
       <c r="F270" s="27"/>
       <c r="G270" s="27"/>
@@ -8600,7 +8602,7 @@
       <c r="A272" s="31"/>
       <c r="B272" s="27"/>
       <c r="C272" s="30"/>
-      <c r="D272" s="40"/>
+      <c r="D272" s="32"/>
       <c r="E272" s="27"/>
       <c r="F272" s="27"/>
       <c r="G272" s="27"/>
@@ -8666,7 +8668,7 @@
       <c r="A275" s="31"/>
       <c r="B275" s="27"/>
       <c r="C275" s="30"/>
-      <c r="D275" s="32"/>
+      <c r="D275" s="40"/>
       <c r="E275" s="27"/>
       <c r="F275" s="27"/>
       <c r="G275" s="27"/>
@@ -8710,7 +8712,7 @@
       <c r="A277" s="31"/>
       <c r="B277" s="27"/>
       <c r="C277" s="30"/>
-      <c r="D277" s="40"/>
+      <c r="D277" s="32"/>
       <c r="E277" s="27"/>
       <c r="F277" s="27"/>
       <c r="G277" s="27"/>
@@ -9018,7 +9020,7 @@
       <c r="A291" s="31"/>
       <c r="B291" s="27"/>
       <c r="C291" s="30"/>
-      <c r="D291" s="32"/>
+      <c r="D291" s="40"/>
       <c r="E291" s="27"/>
       <c r="F291" s="27"/>
       <c r="G291" s="27"/>
@@ -9062,7 +9064,7 @@
       <c r="A293" s="31"/>
       <c r="B293" s="27"/>
       <c r="C293" s="30"/>
-      <c r="D293" s="40"/>
+      <c r="D293" s="32"/>
       <c r="E293" s="27"/>
       <c r="F293" s="27"/>
       <c r="G293" s="27"/>
@@ -9216,7 +9218,7 @@
       <c r="A300" s="31"/>
       <c r="B300" s="27"/>
       <c r="C300" s="30"/>
-      <c r="D300" s="32"/>
+      <c r="D300" s="40"/>
       <c r="E300" s="27"/>
       <c r="F300" s="27"/>
       <c r="G300" s="27"/>
@@ -9260,7 +9262,7 @@
       <c r="A302" s="31"/>
       <c r="B302" s="27"/>
       <c r="C302" s="30"/>
-      <c r="D302" s="40"/>
+      <c r="D302" s="32"/>
       <c r="E302" s="27"/>
       <c r="F302" s="27"/>
       <c r="G302" s="27"/>
@@ -9282,7 +9284,7 @@
       <c r="A303" s="31"/>
       <c r="B303" s="27"/>
       <c r="C303" s="30"/>
-      <c r="D303" s="32"/>
+      <c r="D303" s="46"/>
       <c r="E303" s="27"/>
       <c r="F303" s="27"/>
       <c r="G303" s="27"/>
@@ -9304,7 +9306,7 @@
       <c r="A304" s="31"/>
       <c r="B304" s="27"/>
       <c r="C304" s="30"/>
-      <c r="D304" s="46"/>
+      <c r="D304" s="47"/>
       <c r="E304" s="27"/>
       <c r="F304" s="27"/>
       <c r="G304" s="27"/>
@@ -9326,7 +9328,7 @@
       <c r="A305" s="31"/>
       <c r="B305" s="27"/>
       <c r="C305" s="30"/>
-      <c r="D305" s="47"/>
+      <c r="D305" s="32"/>
       <c r="E305" s="27"/>
       <c r="F305" s="27"/>
       <c r="G305" s="27"/>
@@ -9436,7 +9438,7 @@
       <c r="A310" s="31"/>
       <c r="B310" s="27"/>
       <c r="C310" s="30"/>
-      <c r="D310" s="32"/>
+      <c r="D310" s="40"/>
       <c r="E310" s="27"/>
       <c r="F310" s="27"/>
       <c r="G310" s="27"/>
@@ -9480,7 +9482,7 @@
       <c r="A312" s="31"/>
       <c r="B312" s="27"/>
       <c r="C312" s="30"/>
-      <c r="D312" s="40"/>
+      <c r="D312" s="32"/>
       <c r="E312" s="27"/>
       <c r="F312" s="27"/>
       <c r="G312" s="27"/>
@@ -9634,7 +9636,7 @@
       <c r="A319" s="31"/>
       <c r="B319" s="27"/>
       <c r="C319" s="30"/>
-      <c r="D319" s="32"/>
+      <c r="D319" s="40"/>
       <c r="E319" s="27"/>
       <c r="F319" s="27"/>
       <c r="G319" s="27"/>
@@ -9678,7 +9680,7 @@
       <c r="A321" s="31"/>
       <c r="B321" s="27"/>
       <c r="C321" s="30"/>
-      <c r="D321" s="40"/>
+      <c r="D321" s="32"/>
       <c r="E321" s="27"/>
       <c r="F321" s="27"/>
       <c r="G321" s="27"/>
@@ -9766,7 +9768,7 @@
       <c r="A325" s="31"/>
       <c r="B325" s="27"/>
       <c r="C325" s="30"/>
-      <c r="D325" s="32"/>
+      <c r="D325" s="40"/>
       <c r="E325" s="27"/>
       <c r="F325" s="27"/>
       <c r="G325" s="27"/>
@@ -9810,7 +9812,7 @@
       <c r="A327" s="31"/>
       <c r="B327" s="27"/>
       <c r="C327" s="30"/>
-      <c r="D327" s="40"/>
+      <c r="D327" s="32"/>
       <c r="E327" s="27"/>
       <c r="F327" s="27"/>
       <c r="G327" s="27"/>
@@ -9854,7 +9856,7 @@
       <c r="A329" s="31"/>
       <c r="B329" s="27"/>
       <c r="C329" s="30"/>
-      <c r="D329" s="32"/>
+      <c r="D329" s="40"/>
       <c r="E329" s="27"/>
       <c r="F329" s="27"/>
       <c r="G329" s="27"/>
@@ -9898,7 +9900,7 @@
       <c r="A331" s="31"/>
       <c r="B331" s="27"/>
       <c r="C331" s="30"/>
-      <c r="D331" s="40"/>
+      <c r="D331" s="32"/>
       <c r="E331" s="27"/>
       <c r="F331" s="27"/>
       <c r="G331" s="27"/>
@@ -9986,7 +9988,7 @@
       <c r="A335" s="31"/>
       <c r="B335" s="27"/>
       <c r="C335" s="30"/>
-      <c r="D335" s="32"/>
+      <c r="D335" s="40"/>
       <c r="E335" s="27"/>
       <c r="F335" s="27"/>
       <c r="G335" s="27"/>
@@ -10030,7 +10032,7 @@
       <c r="A337" s="31"/>
       <c r="B337" s="27"/>
       <c r="C337" s="30"/>
-      <c r="D337" s="40"/>
+      <c r="D337" s="32"/>
       <c r="E337" s="27"/>
       <c r="F337" s="27"/>
       <c r="G337" s="27"/>
@@ -10074,7 +10076,7 @@
       <c r="A339" s="31"/>
       <c r="B339" s="27"/>
       <c r="C339" s="30"/>
-      <c r="D339" s="32"/>
+      <c r="D339" s="40"/>
       <c r="E339" s="27"/>
       <c r="F339" s="27"/>
       <c r="G339" s="27"/>
@@ -10096,7 +10098,7 @@
       <c r="A340" s="31"/>
       <c r="B340" s="27"/>
       <c r="C340" s="30"/>
-      <c r="D340" s="40"/>
+      <c r="D340" s="32"/>
       <c r="E340" s="27"/>
       <c r="F340" s="27"/>
       <c r="G340" s="27"/>
@@ -10140,7 +10142,7 @@
       <c r="A342" s="31"/>
       <c r="B342" s="27"/>
       <c r="C342" s="30"/>
-      <c r="D342" s="32"/>
+      <c r="D342" s="40"/>
       <c r="E342" s="27"/>
       <c r="F342" s="27"/>
       <c r="G342" s="27"/>
@@ -10162,7 +10164,7 @@
       <c r="A343" s="31"/>
       <c r="B343" s="27"/>
       <c r="C343" s="30"/>
-      <c r="D343" s="40"/>
+      <c r="D343" s="32"/>
       <c r="E343" s="27"/>
       <c r="F343" s="27"/>
       <c r="G343" s="27"/>
@@ -10206,7 +10208,7 @@
       <c r="A345" s="31"/>
       <c r="B345" s="27"/>
       <c r="C345" s="30"/>
-      <c r="D345" s="32"/>
+      <c r="D345" s="40"/>
       <c r="E345" s="27"/>
       <c r="F345" s="27"/>
       <c r="G345" s="27"/>
@@ -10228,7 +10230,7 @@
       <c r="A346" s="31"/>
       <c r="B346" s="27"/>
       <c r="C346" s="30"/>
-      <c r="D346" s="40"/>
+      <c r="D346" s="32"/>
       <c r="E346" s="27"/>
       <c r="F346" s="27"/>
       <c r="G346" s="27"/>
@@ -10272,7 +10274,7 @@
       <c r="A348" s="31"/>
       <c r="B348" s="27"/>
       <c r="C348" s="30"/>
-      <c r="D348" s="32"/>
+      <c r="D348" s="40"/>
       <c r="E348" s="27"/>
       <c r="F348" s="27"/>
       <c r="G348" s="27"/>
@@ -10294,7 +10296,7 @@
       <c r="A349" s="31"/>
       <c r="B349" s="27"/>
       <c r="C349" s="30"/>
-      <c r="D349" s="40"/>
+      <c r="D349" s="32"/>
       <c r="E349" s="27"/>
       <c r="F349" s="27"/>
       <c r="G349" s="27"/>
@@ -10316,7 +10318,7 @@
       <c r="A350" s="31"/>
       <c r="B350" s="27"/>
       <c r="C350" s="30"/>
-      <c r="D350" s="32"/>
+      <c r="D350" s="42"/>
       <c r="E350" s="27"/>
       <c r="F350" s="27"/>
       <c r="G350" s="27"/>
@@ -11878,7 +11880,7 @@
       <c r="A421" s="31"/>
       <c r="B421" s="27"/>
       <c r="C421" s="30"/>
-      <c r="D421" s="42"/>
+      <c r="D421" s="27"/>
       <c r="E421" s="27"/>
       <c r="F421" s="27"/>
       <c r="G421" s="27"/>
@@ -11889,12 +11891,6 @@
       <c r="L421" s="27"/>
       <c r="M421" s="28"/>
       <c r="N421" s="25"/>
-      <c r="O421" s="36"/>
-      <c r="P421" s="37"/>
-      <c r="Q421" s="37"/>
-      <c r="R421" s="37"/>
-      <c r="S421" s="37"/>
-      <c r="T421" s="37"/>
     </row>
     <row r="422" spans="1:20" ht="13" customHeight="1">
       <c r="A422" s="31"/>
@@ -12108,7 +12104,7 @@
       <c r="A435" s="31"/>
       <c r="B435" s="27"/>
       <c r="C435" s="30"/>
-      <c r="D435" s="27"/>
+      <c r="D435" s="32"/>
       <c r="E435" s="27"/>
       <c r="F435" s="27"/>
       <c r="G435" s="27"/>
@@ -12119,12 +12115,18 @@
       <c r="L435" s="27"/>
       <c r="M435" s="28"/>
       <c r="N435" s="25"/>
+      <c r="O435" s="36"/>
+      <c r="P435" s="37"/>
+      <c r="Q435" s="37"/>
+      <c r="R435" s="37"/>
+      <c r="S435" s="37"/>
+      <c r="T435" s="37"/>
     </row>
     <row r="436" spans="1:20" ht="13" customHeight="1">
       <c r="A436" s="31"/>
       <c r="B436" s="27"/>
       <c r="C436" s="30"/>
-      <c r="D436" s="32"/>
+      <c r="D436" s="27"/>
       <c r="E436" s="27"/>
       <c r="F436" s="27"/>
       <c r="G436" s="27"/>
@@ -12135,12 +12137,6 @@
       <c r="L436" s="27"/>
       <c r="M436" s="28"/>
       <c r="N436" s="25"/>
-      <c r="O436" s="36"/>
-      <c r="P436" s="37"/>
-      <c r="Q436" s="37"/>
-      <c r="R436" s="37"/>
-      <c r="S436" s="37"/>
-      <c r="T436" s="37"/>
     </row>
     <row r="437" spans="1:20" ht="13" customHeight="1">
       <c r="A437" s="31"/>
@@ -13870,22 +13866,6 @@
       <c r="M544" s="28"/>
       <c r="N544" s="25"/>
     </row>
-    <row r="545" spans="1:14" ht="13" customHeight="1">
-      <c r="A545" s="31"/>
-      <c r="B545" s="27"/>
-      <c r="C545" s="30"/>
-      <c r="D545" s="27"/>
-      <c r="E545" s="27"/>
-      <c r="F545" s="27"/>
-      <c r="G545" s="27"/>
-      <c r="H545" s="27"/>
-      <c r="I545" s="27"/>
-      <c r="J545" s="27"/>
-      <c r="K545" s="27"/>
-      <c r="L545" s="27"/>
-      <c r="M545" s="28"/>
-      <c r="N545" s="25"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -13893,7 +13873,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="235" yWindow="427" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="235" yWindow="427" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$G$2:$G$3</xm:f>

--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickespig/Projects/opengever.core/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -15,6 +20,9 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1579,138 +1587,138 @@
     </xf>
   </cellXfs>
   <cellStyles count="132">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2051,13 +2059,13 @@
   <dimension ref="A1:T544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="49" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="50" customWidth="1"/>
@@ -2080,7 +2088,7 @@
     <col min="23" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2095,7 +2103,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1">
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2108,7 +2116,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="13"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
@@ -2168,7 +2176,7 @@
       </c>
       <c r="T3" s="13"/>
     </row>
-    <row r="4" spans="1:20" s="15" customFormat="1" ht="96">
+    <row r="4" spans="1:20" s="15" customFormat="1" ht="104" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>45</v>
       </c>
@@ -2228,7 +2236,7 @@
       </c>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="1:20" s="52" customFormat="1" ht="22" hidden="1">
+    <row r="5" spans="1:20" s="52" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1">
+    <row r="6" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
         <v>18</v>
@@ -2314,7 +2322,7 @@
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
     </row>
-    <row r="7" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="7" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>298</v>
       </c>
@@ -2337,7 +2345,7 @@
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
     </row>
-    <row r="8" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="8" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>71</v>
       </c>
@@ -2360,7 +2368,7 @@
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
     </row>
-    <row r="9" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="9" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>73</v>
       </c>
@@ -2383,7 +2391,7 @@
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
     </row>
-    <row r="10" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="10" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>75</v>
       </c>
@@ -2406,7 +2414,7 @@
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
     </row>
-    <row r="11" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="11" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>77</v>
       </c>
@@ -2429,7 +2437,7 @@
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
     </row>
-    <row r="12" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="12" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>79</v>
       </c>
@@ -2452,7 +2460,7 @@
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
     </row>
-    <row r="13" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="13" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>81</v>
       </c>
@@ -2477,7 +2485,7 @@
       <c r="R13" s="29"/>
       <c r="S13" s="29"/>
     </row>
-    <row r="14" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="14" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>83</v>
       </c>
@@ -2511,7 +2519,7 @@
       <c r="R14" s="29"/>
       <c r="S14" s="29"/>
     </row>
-    <row r="15" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="15" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -2543,7 +2551,7 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="16" spans="1:20" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>87</v>
       </c>
@@ -2575,7 +2583,7 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="17" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>89</v>
       </c>
@@ -2600,7 +2608,7 @@
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="18" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>91</v>
       </c>
@@ -2625,7 +2633,7 @@
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
     </row>
-    <row r="19" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="19" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>93</v>
       </c>
@@ -2648,7 +2656,7 @@
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
     </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="20" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
@@ -2680,7 +2688,7 @@
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="21" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>96</v>
       </c>
@@ -2712,7 +2720,7 @@
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
     </row>
-    <row r="22" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="22" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>98</v>
       </c>
@@ -2744,7 +2752,7 @@
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
     </row>
-    <row r="23" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="23" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>100</v>
       </c>
@@ -2767,7 +2775,7 @@
       <c r="R23" s="29"/>
       <c r="S23" s="29"/>
     </row>
-    <row r="24" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="24" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>102</v>
       </c>
@@ -2799,7 +2807,7 @@
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
     </row>
-    <row r="25" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="25" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>103</v>
       </c>
@@ -2831,7 +2839,7 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
     </row>
-    <row r="26" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="26" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>104</v>
       </c>
@@ -2863,7 +2871,7 @@
       <c r="R26" s="29"/>
       <c r="S26" s="29"/>
     </row>
-    <row r="27" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="27" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>105</v>
       </c>
@@ -2886,7 +2894,7 @@
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
     </row>
-    <row r="28" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="28" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>107</v>
       </c>
@@ -2909,7 +2917,7 @@
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
     </row>
-    <row r="29" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="29" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>109</v>
       </c>
@@ -2941,7 +2949,7 @@
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
     </row>
-    <row r="30" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="30" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>110</v>
       </c>
@@ -2964,7 +2972,7 @@
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
     </row>
-    <row r="31" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="31" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>112</v>
       </c>
@@ -2987,7 +2995,7 @@
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
     </row>
-    <row r="32" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="32" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>114</v>
       </c>
@@ -3019,7 +3027,7 @@
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="33" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>115</v>
       </c>
@@ -3042,7 +3050,7 @@
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="34" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>117</v>
       </c>
@@ -3065,7 +3073,7 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="35" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>119</v>
       </c>
@@ -3088,7 +3096,7 @@
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="36" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>121</v>
       </c>
@@ -3111,7 +3119,7 @@
       <c r="R36" s="29"/>
       <c r="S36" s="29"/>
     </row>
-    <row r="37" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="37" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>123</v>
       </c>
@@ -3136,7 +3144,7 @@
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="38" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>125</v>
       </c>
@@ -3159,7 +3167,7 @@
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="39" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>127</v>
       </c>
@@ -3182,7 +3190,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="40" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>129</v>
       </c>
@@ -3205,7 +3213,7 @@
       <c r="R40" s="29"/>
       <c r="S40" s="29"/>
     </row>
-    <row r="41" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="41" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>131</v>
       </c>
@@ -3228,7 +3236,7 @@
       <c r="R41" s="29"/>
       <c r="S41" s="29"/>
     </row>
-    <row r="42" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="42" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>133</v>
       </c>
@@ -3251,7 +3259,7 @@
       <c r="R42" s="29"/>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="43" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>135</v>
       </c>
@@ -3274,7 +3282,7 @@
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
     </row>
-    <row r="44" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="44" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>137</v>
       </c>
@@ -3297,7 +3305,7 @@
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
     </row>
-    <row r="45" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="45" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>139</v>
       </c>
@@ -3320,7 +3328,7 @@
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
     </row>
-    <row r="46" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="46" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>141</v>
       </c>
@@ -3352,7 +3360,7 @@
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
     </row>
-    <row r="47" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="47" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>142</v>
       </c>
@@ -3375,7 +3383,7 @@
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
     </row>
-    <row r="48" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="48" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>144</v>
       </c>
@@ -3390,7 +3398,7 @@
         <v>24</v>
       </c>
       <c r="G48" s="27">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H48" s="27" t="s">
         <v>294</v>
@@ -3407,7 +3415,7 @@
       <c r="R48" s="29"/>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="49" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19" t="s">
         <v>146</v>
       </c>
@@ -3439,7 +3447,7 @@
       <c r="R49" s="29"/>
       <c r="S49" s="29"/>
     </row>
-    <row r="50" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="50" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
         <v>148</v>
       </c>
@@ -3456,7 +3464,7 @@
         <v>24</v>
       </c>
       <c r="G50" s="27">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H50" s="27" t="s">
         <v>294</v>
@@ -3473,7 +3481,7 @@
       <c r="R50" s="29"/>
       <c r="S50" s="29"/>
     </row>
-    <row r="51" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="51" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
         <v>150</v>
       </c>
@@ -3488,7 +3496,7 @@
         <v>24</v>
       </c>
       <c r="G51" s="27">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H51" s="27" t="s">
         <v>294</v>
@@ -3505,7 +3513,7 @@
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
     </row>
-    <row r="52" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="52" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
         <v>152</v>
       </c>
@@ -3528,7 +3536,7 @@
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="53" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="19" t="s">
         <v>154</v>
       </c>
@@ -3551,7 +3559,7 @@
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
     </row>
-    <row r="54" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="54" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
         <v>156</v>
       </c>
@@ -3583,7 +3591,7 @@
       <c r="R54" s="29"/>
       <c r="S54" s="29"/>
     </row>
-    <row r="55" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="55" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="19" t="s">
         <v>158</v>
       </c>
@@ -3617,7 +3625,7 @@
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
     </row>
-    <row r="56" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="56" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="19" t="s">
         <v>160</v>
       </c>
@@ -3649,7 +3657,7 @@
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
     </row>
-    <row r="57" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="57" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="19" t="s">
         <v>162</v>
       </c>
@@ -3664,7 +3672,7 @@
         <v>24</v>
       </c>
       <c r="G57" s="27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H57" s="27" t="s">
         <v>296</v>
@@ -3681,7 +3689,7 @@
       <c r="R57" s="29"/>
       <c r="S57" s="29"/>
     </row>
-    <row r="58" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="58" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="19" t="s">
         <v>164</v>
       </c>
@@ -3704,7 +3712,7 @@
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
     </row>
-    <row r="59" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="59" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="19" t="s">
         <v>166</v>
       </c>
@@ -3727,7 +3735,7 @@
       <c r="R59" s="29"/>
       <c r="S59" s="29"/>
     </row>
-    <row r="60" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="60" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="19" t="s">
         <v>168</v>
       </c>
@@ -3761,7 +3769,7 @@
       <c r="R60" s="29"/>
       <c r="S60" s="29"/>
     </row>
-    <row r="61" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="61" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="19" t="s">
         <v>169</v>
       </c>
@@ -3793,7 +3801,7 @@
       <c r="R61" s="29"/>
       <c r="S61" s="29"/>
     </row>
-    <row r="62" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="62" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
         <v>171</v>
       </c>
@@ -3816,7 +3824,7 @@
       <c r="R62" s="29"/>
       <c r="S62" s="29"/>
     </row>
-    <row r="63" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="63" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="19" t="s">
         <v>173</v>
       </c>
@@ -3850,7 +3858,7 @@
       <c r="R63" s="29"/>
       <c r="S63" s="29"/>
     </row>
-    <row r="64" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="64" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="19" t="s">
         <v>175</v>
       </c>
@@ -3884,7 +3892,7 @@
       <c r="R64" s="29"/>
       <c r="S64" s="29"/>
     </row>
-    <row r="65" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="65" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="19" t="s">
         <v>177</v>
       </c>
@@ -3918,7 +3926,7 @@
       <c r="R65" s="29"/>
       <c r="S65" s="29"/>
     </row>
-    <row r="66" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="66" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="19" t="s">
         <v>179</v>
       </c>
@@ -3952,7 +3960,7 @@
       <c r="R66" s="29"/>
       <c r="S66" s="29"/>
     </row>
-    <row r="67" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="67" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="19" t="s">
         <v>181</v>
       </c>
@@ -3986,7 +3994,7 @@
       <c r="R67" s="29"/>
       <c r="S67" s="29"/>
     </row>
-    <row r="68" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="68" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="19" t="s">
         <v>183</v>
       </c>
@@ -4018,7 +4026,7 @@
       <c r="R68" s="29"/>
       <c r="S68" s="29"/>
     </row>
-    <row r="69" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="69" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="19" t="s">
         <v>185</v>
       </c>
@@ -4052,7 +4060,7 @@
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
     </row>
-    <row r="70" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="70" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="19" t="s">
         <v>187</v>
       </c>
@@ -4075,7 +4083,7 @@
       <c r="R70" s="29"/>
       <c r="S70" s="29"/>
     </row>
-    <row r="71" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="71" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="19" t="s">
         <v>189</v>
       </c>
@@ -4098,7 +4106,7 @@
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
     </row>
-    <row r="72" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="72" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="19" t="s">
         <v>191</v>
       </c>
@@ -4121,7 +4129,7 @@
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
     </row>
-    <row r="73" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="73" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="19" t="s">
         <v>193</v>
       </c>
@@ -4144,7 +4152,7 @@
       <c r="R73" s="29"/>
       <c r="S73" s="29"/>
     </row>
-    <row r="74" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="74" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="19" t="s">
         <v>195</v>
       </c>
@@ -4176,7 +4184,7 @@
       <c r="R74" s="29"/>
       <c r="S74" s="29"/>
     </row>
-    <row r="75" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="75" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="19" t="s">
         <v>196</v>
       </c>
@@ -4210,7 +4218,7 @@
       <c r="R75" s="29"/>
       <c r="S75" s="29"/>
     </row>
-    <row r="76" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="76" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="19" t="s">
         <v>198</v>
       </c>
@@ -4244,7 +4252,7 @@
       <c r="R76" s="29"/>
       <c r="S76" s="29"/>
     </row>
-    <row r="77" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="77" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="19" t="s">
         <v>200</v>
       </c>
@@ -4276,7 +4284,7 @@
       <c r="R77" s="29"/>
       <c r="S77" s="29"/>
     </row>
-    <row r="78" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="78" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="19" t="s">
         <v>202</v>
       </c>
@@ -4310,7 +4318,7 @@
       <c r="R78" s="29"/>
       <c r="S78" s="29"/>
     </row>
-    <row r="79" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="79" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="19" t="s">
         <v>204</v>
       </c>
@@ -4336,7 +4344,7 @@
       <c r="R79" s="29"/>
       <c r="S79" s="29"/>
     </row>
-    <row r="80" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="80" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="19" t="s">
         <v>206</v>
       </c>
@@ -4368,7 +4376,7 @@
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
     </row>
-    <row r="81" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="81" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="19" t="s">
         <v>207</v>
       </c>
@@ -4391,7 +4399,7 @@
       <c r="R81" s="29"/>
       <c r="S81" s="29"/>
     </row>
-    <row r="82" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1">
+    <row r="82" spans="1:19" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="19" t="s">
         <v>209</v>
       </c>
@@ -4414,7 +4422,7 @@
       <c r="R82" s="29"/>
       <c r="S82" s="29"/>
     </row>
-    <row r="83" spans="1:19" ht="13" customHeight="1">
+    <row r="83" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="27"/>
       <c r="C83" s="30"/>
@@ -4435,7 +4443,7 @@
       <c r="R83" s="34"/>
       <c r="S83" s="34"/>
     </row>
-    <row r="84" spans="1:19" ht="13" customHeight="1">
+    <row r="84" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="27"/>
       <c r="C84" s="30"/>
@@ -4456,7 +4464,7 @@
       <c r="R84" s="37"/>
       <c r="S84" s="37"/>
     </row>
-    <row r="85" spans="1:19" ht="13" customHeight="1">
+    <row r="85" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="27"/>
       <c r="C85" s="30"/>
@@ -4477,7 +4485,7 @@
       <c r="R85" s="37"/>
       <c r="S85" s="37"/>
     </row>
-    <row r="86" spans="1:19" ht="13" customHeight="1">
+    <row r="86" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31"/>
       <c r="B86" s="27"/>
       <c r="C86" s="30"/>
@@ -4498,7 +4506,7 @@
       <c r="R86" s="37"/>
       <c r="S86" s="37"/>
     </row>
-    <row r="87" spans="1:19" ht="13" customHeight="1">
+    <row r="87" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31"/>
       <c r="B87" s="27"/>
       <c r="C87" s="30"/>
@@ -4519,7 +4527,7 @@
       <c r="R87" s="37"/>
       <c r="S87" s="37"/>
     </row>
-    <row r="88" spans="1:19" ht="13" customHeight="1">
+    <row r="88" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31"/>
       <c r="B88" s="27"/>
       <c r="C88" s="30"/>
@@ -4540,7 +4548,7 @@
       <c r="R88" s="37"/>
       <c r="S88" s="37"/>
     </row>
-    <row r="89" spans="1:19" ht="13" customHeight="1">
+    <row r="89" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31"/>
       <c r="B89" s="27"/>
       <c r="C89" s="30"/>
@@ -4561,7 +4569,7 @@
       <c r="R89" s="37"/>
       <c r="S89" s="37"/>
     </row>
-    <row r="90" spans="1:19" ht="13" customHeight="1">
+    <row r="90" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31"/>
       <c r="B90" s="27"/>
       <c r="C90" s="30"/>
@@ -4582,7 +4590,7 @@
       <c r="R90" s="37"/>
       <c r="S90" s="37"/>
     </row>
-    <row r="91" spans="1:19" ht="13" customHeight="1">
+    <row r="91" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="27"/>
       <c r="C91" s="30"/>
@@ -4603,7 +4611,7 @@
       <c r="R91" s="37"/>
       <c r="S91" s="37"/>
     </row>
-    <row r="92" spans="1:19" ht="13" customHeight="1">
+    <row r="92" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31"/>
       <c r="B92" s="27"/>
       <c r="C92" s="30"/>
@@ -4624,7 +4632,7 @@
       <c r="R92" s="37"/>
       <c r="S92" s="37"/>
     </row>
-    <row r="93" spans="1:19" ht="13" customHeight="1">
+    <row r="93" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31"/>
       <c r="B93" s="27"/>
       <c r="C93" s="30"/>
@@ -4645,7 +4653,7 @@
       <c r="R93" s="37"/>
       <c r="S93" s="37"/>
     </row>
-    <row r="94" spans="1:19" ht="13" customHeight="1">
+    <row r="94" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="27"/>
       <c r="C94" s="30"/>
@@ -4666,7 +4674,7 @@
       <c r="R94" s="37"/>
       <c r="S94" s="37"/>
     </row>
-    <row r="95" spans="1:19" ht="13" customHeight="1">
+    <row r="95" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="31"/>
       <c r="B95" s="27"/>
       <c r="C95" s="30"/>
@@ -4687,7 +4695,7 @@
       <c r="R95" s="37"/>
       <c r="S95" s="37"/>
     </row>
-    <row r="96" spans="1:19" ht="13" customHeight="1">
+    <row r="96" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31"/>
       <c r="B96" s="27"/>
       <c r="C96" s="30"/>
@@ -4708,7 +4716,7 @@
       <c r="R96" s="37"/>
       <c r="S96" s="37"/>
     </row>
-    <row r="97" spans="1:19" ht="13" customHeight="1">
+    <row r="97" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31"/>
       <c r="B97" s="27"/>
       <c r="C97" s="30"/>
@@ -4729,7 +4737,7 @@
       <c r="R97" s="37"/>
       <c r="S97" s="37"/>
     </row>
-    <row r="98" spans="1:19" ht="13" customHeight="1">
+    <row r="98" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="31"/>
       <c r="B98" s="27"/>
       <c r="C98" s="30"/>
@@ -4750,7 +4758,7 @@
       <c r="R98" s="37"/>
       <c r="S98" s="37"/>
     </row>
-    <row r="99" spans="1:19" ht="13" customHeight="1">
+    <row r="99" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31"/>
       <c r="B99" s="27"/>
       <c r="C99" s="30"/>
@@ -4771,7 +4779,7 @@
       <c r="R99" s="37"/>
       <c r="S99" s="37"/>
     </row>
-    <row r="100" spans="1:19" ht="13" customHeight="1">
+    <row r="100" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="31"/>
       <c r="B100" s="27"/>
       <c r="C100" s="30"/>
@@ -4792,7 +4800,7 @@
       <c r="R100" s="37"/>
       <c r="S100" s="37"/>
     </row>
-    <row r="101" spans="1:19" ht="13" customHeight="1">
+    <row r="101" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="31"/>
       <c r="B101" s="27"/>
       <c r="C101" s="30"/>
@@ -4813,7 +4821,7 @@
       <c r="R101" s="37"/>
       <c r="S101" s="37"/>
     </row>
-    <row r="102" spans="1:19" ht="13" customHeight="1">
+    <row r="102" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31"/>
       <c r="B102" s="27"/>
       <c r="C102" s="30"/>
@@ -4834,7 +4842,7 @@
       <c r="R102" s="37"/>
       <c r="S102" s="37"/>
     </row>
-    <row r="103" spans="1:19" ht="13" customHeight="1">
+    <row r="103" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31"/>
       <c r="B103" s="27"/>
       <c r="C103" s="30"/>
@@ -4855,7 +4863,7 @@
       <c r="R103" s="37"/>
       <c r="S103" s="37"/>
     </row>
-    <row r="104" spans="1:19" ht="13" customHeight="1">
+    <row r="104" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="31"/>
       <c r="B104" s="27"/>
       <c r="C104" s="30"/>
@@ -4876,7 +4884,7 @@
       <c r="R104" s="37"/>
       <c r="S104" s="37"/>
     </row>
-    <row r="105" spans="1:19" ht="13" customHeight="1">
+    <row r="105" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31"/>
       <c r="B105" s="27"/>
       <c r="C105" s="30"/>
@@ -4897,7 +4905,7 @@
       <c r="R105" s="37"/>
       <c r="S105" s="37"/>
     </row>
-    <row r="106" spans="1:19" ht="13" customHeight="1">
+    <row r="106" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39"/>
       <c r="B106" s="27"/>
       <c r="C106" s="30"/>
@@ -4918,7 +4926,7 @@
       <c r="R106" s="37"/>
       <c r="S106" s="37"/>
     </row>
-    <row r="107" spans="1:19" ht="13" customHeight="1">
+    <row r="107" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="31"/>
       <c r="B107" s="27"/>
       <c r="C107" s="30"/>
@@ -4939,7 +4947,7 @@
       <c r="R107" s="37"/>
       <c r="S107" s="37"/>
     </row>
-    <row r="108" spans="1:19" ht="13" customHeight="1">
+    <row r="108" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="31"/>
       <c r="B108" s="27"/>
       <c r="C108" s="30"/>
@@ -4960,7 +4968,7 @@
       <c r="R108" s="37"/>
       <c r="S108" s="37"/>
     </row>
-    <row r="109" spans="1:19" ht="13" customHeight="1">
+    <row r="109" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="31"/>
       <c r="B109" s="27"/>
       <c r="C109" s="30"/>
@@ -4981,7 +4989,7 @@
       <c r="R109" s="37"/>
       <c r="S109" s="37"/>
     </row>
-    <row r="110" spans="1:19" ht="13" customHeight="1">
+    <row r="110" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="31"/>
       <c r="B110" s="27"/>
       <c r="C110" s="30"/>
@@ -5002,7 +5010,7 @@
       <c r="R110" s="37"/>
       <c r="S110" s="37"/>
     </row>
-    <row r="111" spans="1:19" ht="13" customHeight="1">
+    <row r="111" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="31"/>
       <c r="B111" s="27"/>
       <c r="C111" s="30"/>
@@ -5023,7 +5031,7 @@
       <c r="R111" s="37"/>
       <c r="S111" s="37"/>
     </row>
-    <row r="112" spans="1:19" ht="13" customHeight="1">
+    <row r="112" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="31"/>
       <c r="B112" s="27"/>
       <c r="C112" s="30"/>
@@ -5044,7 +5052,7 @@
       <c r="R112" s="37"/>
       <c r="S112" s="37"/>
     </row>
-    <row r="113" spans="1:19" ht="13" customHeight="1">
+    <row r="113" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="31"/>
       <c r="B113" s="27"/>
       <c r="C113" s="30"/>
@@ -5065,7 +5073,7 @@
       <c r="R113" s="37"/>
       <c r="S113" s="37"/>
     </row>
-    <row r="114" spans="1:19" ht="13" customHeight="1">
+    <row r="114" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="31"/>
       <c r="B114" s="27"/>
       <c r="C114" s="30"/>
@@ -5086,7 +5094,7 @@
       <c r="R114" s="37"/>
       <c r="S114" s="37"/>
     </row>
-    <row r="115" spans="1:19" ht="13" customHeight="1">
+    <row r="115" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="31"/>
       <c r="B115" s="27"/>
       <c r="C115" s="30"/>
@@ -5107,7 +5115,7 @@
       <c r="R115" s="37"/>
       <c r="S115" s="37"/>
     </row>
-    <row r="116" spans="1:19" ht="13" customHeight="1">
+    <row r="116" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="31"/>
       <c r="B116" s="27"/>
       <c r="C116" s="30"/>
@@ -5128,7 +5136,7 @@
       <c r="R116" s="37"/>
       <c r="S116" s="37"/>
     </row>
-    <row r="117" spans="1:19" ht="13" customHeight="1">
+    <row r="117" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="31"/>
       <c r="B117" s="27"/>
       <c r="C117" s="30"/>
@@ -5149,7 +5157,7 @@
       <c r="R117" s="37"/>
       <c r="S117" s="37"/>
     </row>
-    <row r="118" spans="1:19" ht="13" customHeight="1">
+    <row r="118" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="31"/>
       <c r="B118" s="27"/>
       <c r="C118" s="30"/>
@@ -5170,7 +5178,7 @@
       <c r="R118" s="37"/>
       <c r="S118" s="37"/>
     </row>
-    <row r="119" spans="1:19" ht="13" customHeight="1">
+    <row r="119" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="31"/>
       <c r="B119" s="27"/>
       <c r="C119" s="30"/>
@@ -5191,7 +5199,7 @@
       <c r="R119" s="37"/>
       <c r="S119" s="37"/>
     </row>
-    <row r="120" spans="1:19" ht="13" customHeight="1">
+    <row r="120" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="31"/>
       <c r="B120" s="27"/>
       <c r="C120" s="30"/>
@@ -5212,7 +5220,7 @@
       <c r="R120" s="37"/>
       <c r="S120" s="37"/>
     </row>
-    <row r="121" spans="1:19" ht="13" customHeight="1">
+    <row r="121" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="31"/>
       <c r="B121" s="27"/>
       <c r="C121" s="30"/>
@@ -5233,7 +5241,7 @@
       <c r="R121" s="37"/>
       <c r="S121" s="37"/>
     </row>
-    <row r="122" spans="1:19" ht="13" customHeight="1">
+    <row r="122" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="31"/>
       <c r="B122" s="27"/>
       <c r="C122" s="30"/>
@@ -5254,7 +5262,7 @@
       <c r="R122" s="37"/>
       <c r="S122" s="37"/>
     </row>
-    <row r="123" spans="1:19" ht="13" customHeight="1">
+    <row r="123" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="31"/>
       <c r="B123" s="27"/>
       <c r="C123" s="30"/>
@@ -5275,7 +5283,7 @@
       <c r="R123" s="37"/>
       <c r="S123" s="37"/>
     </row>
-    <row r="124" spans="1:19" ht="13" customHeight="1">
+    <row r="124" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="31"/>
       <c r="B124" s="27"/>
       <c r="C124" s="30"/>
@@ -5296,7 +5304,7 @@
       <c r="R124" s="37"/>
       <c r="S124" s="37"/>
     </row>
-    <row r="125" spans="1:19" ht="13" customHeight="1">
+    <row r="125" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="31"/>
       <c r="B125" s="27"/>
       <c r="C125" s="30"/>
@@ -5317,7 +5325,7 @@
       <c r="R125" s="37"/>
       <c r="S125" s="37"/>
     </row>
-    <row r="126" spans="1:19" ht="13" customHeight="1">
+    <row r="126" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="31"/>
       <c r="B126" s="27"/>
       <c r="C126" s="30"/>
@@ -5338,7 +5346,7 @@
       <c r="R126" s="37"/>
       <c r="S126" s="37"/>
     </row>
-    <row r="127" spans="1:19" ht="13" customHeight="1">
+    <row r="127" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="31"/>
       <c r="B127" s="27"/>
       <c r="C127" s="30"/>
@@ -5359,7 +5367,7 @@
       <c r="R127" s="37"/>
       <c r="S127" s="37"/>
     </row>
-    <row r="128" spans="1:19" ht="13" customHeight="1">
+    <row r="128" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="31"/>
       <c r="B128" s="27"/>
       <c r="C128" s="30"/>
@@ -5380,7 +5388,7 @@
       <c r="R128" s="37"/>
       <c r="S128" s="37"/>
     </row>
-    <row r="129" spans="1:19" ht="13" customHeight="1">
+    <row r="129" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="31"/>
       <c r="B129" s="27"/>
       <c r="C129" s="30"/>
@@ -5401,7 +5409,7 @@
       <c r="R129" s="37"/>
       <c r="S129" s="37"/>
     </row>
-    <row r="130" spans="1:19" ht="13" customHeight="1">
+    <row r="130" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="31"/>
       <c r="B130" s="27"/>
       <c r="C130" s="30"/>
@@ -5422,7 +5430,7 @@
       <c r="R130" s="37"/>
       <c r="S130" s="37"/>
     </row>
-    <row r="131" spans="1:19" ht="13" customHeight="1">
+    <row r="131" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="31"/>
       <c r="B131" s="27"/>
       <c r="C131" s="30"/>
@@ -5443,7 +5451,7 @@
       <c r="R131" s="37"/>
       <c r="S131" s="37"/>
     </row>
-    <row r="132" spans="1:19" ht="13" customHeight="1">
+    <row r="132" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="31"/>
       <c r="B132" s="27"/>
       <c r="C132" s="30"/>
@@ -5464,7 +5472,7 @@
       <c r="R132" s="37"/>
       <c r="S132" s="37"/>
     </row>
-    <row r="133" spans="1:19" ht="13" customHeight="1">
+    <row r="133" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="31"/>
       <c r="B133" s="27"/>
       <c r="C133" s="30"/>
@@ -5485,7 +5493,7 @@
       <c r="R133" s="37"/>
       <c r="S133" s="37"/>
     </row>
-    <row r="134" spans="1:19" ht="13" customHeight="1">
+    <row r="134" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="31"/>
       <c r="B134" s="27"/>
       <c r="C134" s="30"/>
@@ -5506,7 +5514,7 @@
       <c r="R134" s="37"/>
       <c r="S134" s="37"/>
     </row>
-    <row r="135" spans="1:19" ht="13" customHeight="1">
+    <row r="135" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="31"/>
       <c r="B135" s="27"/>
       <c r="C135" s="30"/>
@@ -5527,7 +5535,7 @@
       <c r="R135" s="37"/>
       <c r="S135" s="37"/>
     </row>
-    <row r="136" spans="1:19" ht="13" customHeight="1">
+    <row r="136" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="31"/>
       <c r="B136" s="27"/>
       <c r="C136" s="30"/>
@@ -5548,7 +5556,7 @@
       <c r="R136" s="37"/>
       <c r="S136" s="37"/>
     </row>
-    <row r="137" spans="1:19" ht="13" customHeight="1">
+    <row r="137" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="31"/>
       <c r="B137" s="27"/>
       <c r="C137" s="30"/>
@@ -5569,7 +5577,7 @@
       <c r="R137" s="37"/>
       <c r="S137" s="37"/>
     </row>
-    <row r="138" spans="1:19" ht="13" customHeight="1">
+    <row r="138" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="31"/>
       <c r="B138" s="27"/>
       <c r="C138" s="30"/>
@@ -5590,7 +5598,7 @@
       <c r="R138" s="37"/>
       <c r="S138" s="37"/>
     </row>
-    <row r="139" spans="1:19" ht="13" customHeight="1">
+    <row r="139" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="31"/>
       <c r="B139" s="27"/>
       <c r="C139" s="30"/>
@@ -5611,7 +5619,7 @@
       <c r="R139" s="37"/>
       <c r="S139" s="37"/>
     </row>
-    <row r="140" spans="1:19" ht="13" customHeight="1">
+    <row r="140" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="31"/>
       <c r="B140" s="27"/>
       <c r="C140" s="30"/>
@@ -5632,7 +5640,7 @@
       <c r="R140" s="37"/>
       <c r="S140" s="37"/>
     </row>
-    <row r="141" spans="1:19" ht="13" customHeight="1">
+    <row r="141" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="31"/>
       <c r="B141" s="27"/>
       <c r="C141" s="30"/>
@@ -5653,7 +5661,7 @@
       <c r="R141" s="37"/>
       <c r="S141" s="37"/>
     </row>
-    <row r="142" spans="1:19" ht="13" customHeight="1">
+    <row r="142" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="31"/>
       <c r="B142" s="27"/>
       <c r="C142" s="30"/>
@@ -5674,7 +5682,7 @@
       <c r="R142" s="37"/>
       <c r="S142" s="37"/>
     </row>
-    <row r="143" spans="1:19" ht="13" customHeight="1">
+    <row r="143" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="31"/>
       <c r="B143" s="27"/>
       <c r="C143" s="30"/>
@@ -5695,7 +5703,7 @@
       <c r="R143" s="37"/>
       <c r="S143" s="37"/>
     </row>
-    <row r="144" spans="1:19" ht="13" customHeight="1">
+    <row r="144" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="31"/>
       <c r="B144" s="27"/>
       <c r="C144" s="30"/>
@@ -5716,7 +5724,7 @@
       <c r="R144" s="37"/>
       <c r="S144" s="37"/>
     </row>
-    <row r="145" spans="1:19" ht="13" customHeight="1">
+    <row r="145" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="31"/>
       <c r="B145" s="27"/>
       <c r="C145" s="30"/>
@@ -5737,7 +5745,7 @@
       <c r="R145" s="37"/>
       <c r="S145" s="37"/>
     </row>
-    <row r="146" spans="1:19" ht="13" customHeight="1">
+    <row r="146" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="31"/>
       <c r="B146" s="27"/>
       <c r="C146" s="30"/>
@@ -5758,7 +5766,7 @@
       <c r="R146" s="37"/>
       <c r="S146" s="37"/>
     </row>
-    <row r="147" spans="1:19" ht="13" customHeight="1">
+    <row r="147" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="31"/>
       <c r="B147" s="27"/>
       <c r="C147" s="30"/>
@@ -5779,7 +5787,7 @@
       <c r="R147" s="37"/>
       <c r="S147" s="37"/>
     </row>
-    <row r="148" spans="1:19" ht="13" customHeight="1">
+    <row r="148" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="31"/>
       <c r="B148" s="27"/>
       <c r="C148" s="30"/>
@@ -5800,7 +5808,7 @@
       <c r="R148" s="37"/>
       <c r="S148" s="37"/>
     </row>
-    <row r="149" spans="1:19" ht="13" customHeight="1">
+    <row r="149" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="31"/>
       <c r="B149" s="27"/>
       <c r="C149" s="30"/>
@@ -5821,7 +5829,7 @@
       <c r="R149" s="37"/>
       <c r="S149" s="37"/>
     </row>
-    <row r="150" spans="1:19" ht="13" customHeight="1">
+    <row r="150" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="31"/>
       <c r="B150" s="27"/>
       <c r="C150" s="30"/>
@@ -5842,7 +5850,7 @@
       <c r="R150" s="37"/>
       <c r="S150" s="37"/>
     </row>
-    <row r="151" spans="1:19" ht="13" customHeight="1">
+    <row r="151" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="31"/>
       <c r="B151" s="27"/>
       <c r="C151" s="30"/>
@@ -5863,7 +5871,7 @@
       <c r="R151" s="37"/>
       <c r="S151" s="37"/>
     </row>
-    <row r="152" spans="1:19" ht="13" customHeight="1">
+    <row r="152" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="31"/>
       <c r="B152" s="27"/>
       <c r="C152" s="30"/>
@@ -5884,7 +5892,7 @@
       <c r="R152" s="37"/>
       <c r="S152" s="37"/>
     </row>
-    <row r="153" spans="1:19" ht="13" customHeight="1">
+    <row r="153" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="31"/>
       <c r="B153" s="27"/>
       <c r="C153" s="30"/>
@@ -5905,7 +5913,7 @@
       <c r="R153" s="37"/>
       <c r="S153" s="37"/>
     </row>
-    <row r="154" spans="1:19" ht="13" customHeight="1">
+    <row r="154" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="31"/>
       <c r="B154" s="27"/>
       <c r="C154" s="30"/>
@@ -5926,7 +5934,7 @@
       <c r="R154" s="37"/>
       <c r="S154" s="37"/>
     </row>
-    <row r="155" spans="1:19" ht="13" customHeight="1">
+    <row r="155" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="31"/>
       <c r="B155" s="27"/>
       <c r="C155" s="30"/>
@@ -5947,7 +5955,7 @@
       <c r="R155" s="37"/>
       <c r="S155" s="37"/>
     </row>
-    <row r="156" spans="1:19" ht="13" customHeight="1">
+    <row r="156" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="31"/>
       <c r="B156" s="27"/>
       <c r="C156" s="30"/>
@@ -5968,7 +5976,7 @@
       <c r="R156" s="37"/>
       <c r="S156" s="37"/>
     </row>
-    <row r="157" spans="1:19" ht="13" customHeight="1">
+    <row r="157" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="31"/>
       <c r="B157" s="27"/>
       <c r="C157" s="30"/>
@@ -5989,7 +5997,7 @@
       <c r="R157" s="37"/>
       <c r="S157" s="37"/>
     </row>
-    <row r="158" spans="1:19" ht="13" customHeight="1">
+    <row r="158" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="31"/>
       <c r="B158" s="27"/>
       <c r="C158" s="30"/>
@@ -6010,7 +6018,7 @@
       <c r="R158" s="37"/>
       <c r="S158" s="37"/>
     </row>
-    <row r="159" spans="1:19" ht="13" customHeight="1">
+    <row r="159" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="31"/>
       <c r="B159" s="27"/>
       <c r="C159" s="30"/>
@@ -6031,7 +6039,7 @@
       <c r="R159" s="37"/>
       <c r="S159" s="37"/>
     </row>
-    <row r="160" spans="1:19" ht="13" customHeight="1">
+    <row r="160" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="31"/>
       <c r="B160" s="27"/>
       <c r="C160" s="30"/>
@@ -6052,7 +6060,7 @@
       <c r="R160" s="37"/>
       <c r="S160" s="37"/>
     </row>
-    <row r="161" spans="1:19" ht="13" customHeight="1">
+    <row r="161" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="31"/>
       <c r="B161" s="27"/>
       <c r="C161" s="30"/>
@@ -6073,7 +6081,7 @@
       <c r="R161" s="37"/>
       <c r="S161" s="37"/>
     </row>
-    <row r="162" spans="1:19" ht="13" customHeight="1">
+    <row r="162" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="31"/>
       <c r="B162" s="27"/>
       <c r="C162" s="30"/>
@@ -6094,7 +6102,7 @@
       <c r="R162" s="37"/>
       <c r="S162" s="37"/>
     </row>
-    <row r="163" spans="1:19" ht="13" customHeight="1">
+    <row r="163" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="31"/>
       <c r="B163" s="27"/>
       <c r="C163" s="30"/>
@@ -6115,7 +6123,7 @@
       <c r="R163" s="37"/>
       <c r="S163" s="37"/>
     </row>
-    <row r="164" spans="1:19" ht="13" customHeight="1">
+    <row r="164" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="31"/>
       <c r="B164" s="27"/>
       <c r="C164" s="30"/>
@@ -6136,7 +6144,7 @@
       <c r="R164" s="37"/>
       <c r="S164" s="37"/>
     </row>
-    <row r="165" spans="1:19" ht="13" customHeight="1">
+    <row r="165" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="31"/>
       <c r="B165" s="27"/>
       <c r="C165" s="30"/>
@@ -6157,7 +6165,7 @@
       <c r="R165" s="37"/>
       <c r="S165" s="37"/>
     </row>
-    <row r="166" spans="1:19" ht="13" customHeight="1">
+    <row r="166" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="31"/>
       <c r="B166" s="27"/>
       <c r="C166" s="30"/>
@@ -6178,7 +6186,7 @@
       <c r="R166" s="37"/>
       <c r="S166" s="37"/>
     </row>
-    <row r="167" spans="1:19" ht="13" customHeight="1">
+    <row r="167" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="31"/>
       <c r="B167" s="27"/>
       <c r="C167" s="30"/>
@@ -6199,7 +6207,7 @@
       <c r="R167" s="37"/>
       <c r="S167" s="37"/>
     </row>
-    <row r="168" spans="1:19" ht="13" customHeight="1">
+    <row r="168" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="31"/>
       <c r="B168" s="27"/>
       <c r="C168" s="30"/>
@@ -6220,7 +6228,7 @@
       <c r="R168" s="37"/>
       <c r="S168" s="37"/>
     </row>
-    <row r="169" spans="1:19" ht="13" customHeight="1">
+    <row r="169" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="31"/>
       <c r="B169" s="27"/>
       <c r="C169" s="30"/>
@@ -6241,7 +6249,7 @@
       <c r="R169" s="37"/>
       <c r="S169" s="37"/>
     </row>
-    <row r="170" spans="1:19" ht="13" customHeight="1">
+    <row r="170" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="31"/>
       <c r="B170" s="27"/>
       <c r="C170" s="30"/>
@@ -6262,7 +6270,7 @@
       <c r="R170" s="37"/>
       <c r="S170" s="37"/>
     </row>
-    <row r="171" spans="1:19" ht="13" customHeight="1">
+    <row r="171" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="31"/>
       <c r="B171" s="27"/>
       <c r="C171" s="30"/>
@@ -6283,7 +6291,7 @@
       <c r="R171" s="37"/>
       <c r="S171" s="37"/>
     </row>
-    <row r="172" spans="1:19" ht="13" customHeight="1">
+    <row r="172" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="31"/>
       <c r="B172" s="27"/>
       <c r="C172" s="30"/>
@@ -6304,7 +6312,7 @@
       <c r="R172" s="37"/>
       <c r="S172" s="37"/>
     </row>
-    <row r="173" spans="1:19" ht="13" customHeight="1">
+    <row r="173" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="31"/>
       <c r="B173" s="27"/>
       <c r="C173" s="30"/>
@@ -6325,7 +6333,7 @@
       <c r="R173" s="37"/>
       <c r="S173" s="37"/>
     </row>
-    <row r="174" spans="1:19" ht="13" customHeight="1">
+    <row r="174" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="31"/>
       <c r="B174" s="27"/>
       <c r="C174" s="30"/>
@@ -6346,7 +6354,7 @@
       <c r="R174" s="37"/>
       <c r="S174" s="37"/>
     </row>
-    <row r="175" spans="1:19" ht="13" customHeight="1">
+    <row r="175" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="31"/>
       <c r="B175" s="27"/>
       <c r="C175" s="30"/>
@@ -6367,7 +6375,7 @@
       <c r="R175" s="37"/>
       <c r="S175" s="37"/>
     </row>
-    <row r="176" spans="1:19" ht="13" customHeight="1">
+    <row r="176" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="31"/>
       <c r="B176" s="27"/>
       <c r="C176" s="30"/>
@@ -6388,7 +6396,7 @@
       <c r="R176" s="37"/>
       <c r="S176" s="37"/>
     </row>
-    <row r="177" spans="1:19" ht="13" customHeight="1">
+    <row r="177" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="31"/>
       <c r="B177" s="27"/>
       <c r="C177" s="30"/>
@@ -6409,7 +6417,7 @@
       <c r="R177" s="37"/>
       <c r="S177" s="37"/>
     </row>
-    <row r="178" spans="1:19" ht="13" customHeight="1">
+    <row r="178" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="31"/>
       <c r="B178" s="27"/>
       <c r="C178" s="30"/>
@@ -6430,7 +6438,7 @@
       <c r="R178" s="37"/>
       <c r="S178" s="37"/>
     </row>
-    <row r="179" spans="1:19" ht="13" customHeight="1">
+    <row r="179" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="31"/>
       <c r="B179" s="27"/>
       <c r="C179" s="30"/>
@@ -6451,7 +6459,7 @@
       <c r="R179" s="37"/>
       <c r="S179" s="37"/>
     </row>
-    <row r="180" spans="1:19" ht="13" customHeight="1">
+    <row r="180" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="31"/>
       <c r="B180" s="27"/>
       <c r="C180" s="30"/>
@@ -6472,7 +6480,7 @@
       <c r="R180" s="37"/>
       <c r="S180" s="37"/>
     </row>
-    <row r="181" spans="1:19" ht="13" customHeight="1">
+    <row r="181" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="31"/>
       <c r="B181" s="27"/>
       <c r="C181" s="30"/>
@@ -6493,7 +6501,7 @@
       <c r="R181" s="37"/>
       <c r="S181" s="37"/>
     </row>
-    <row r="182" spans="1:19" ht="13" customHeight="1">
+    <row r="182" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="31"/>
       <c r="B182" s="27"/>
       <c r="C182" s="30"/>
@@ -6514,7 +6522,7 @@
       <c r="R182" s="37"/>
       <c r="S182" s="37"/>
     </row>
-    <row r="183" spans="1:19" ht="13" customHeight="1">
+    <row r="183" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="31"/>
       <c r="B183" s="27"/>
       <c r="C183" s="30"/>
@@ -6535,7 +6543,7 @@
       <c r="R183" s="37"/>
       <c r="S183" s="37"/>
     </row>
-    <row r="184" spans="1:19" ht="13" customHeight="1">
+    <row r="184" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="31"/>
       <c r="B184" s="27"/>
       <c r="C184" s="30"/>
@@ -6556,7 +6564,7 @@
       <c r="R184" s="37"/>
       <c r="S184" s="37"/>
     </row>
-    <row r="185" spans="1:19" ht="13" customHeight="1">
+    <row r="185" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="31"/>
       <c r="B185" s="27"/>
       <c r="C185" s="30"/>
@@ -6577,7 +6585,7 @@
       <c r="R185" s="37"/>
       <c r="S185" s="37"/>
     </row>
-    <row r="186" spans="1:19" ht="13" customHeight="1">
+    <row r="186" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="31"/>
       <c r="B186" s="27"/>
       <c r="C186" s="30"/>
@@ -6598,7 +6606,7 @@
       <c r="R186" s="37"/>
       <c r="S186" s="37"/>
     </row>
-    <row r="187" spans="1:19" ht="13" customHeight="1">
+    <row r="187" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="31"/>
       <c r="B187" s="27"/>
       <c r="C187" s="30"/>
@@ -6619,7 +6627,7 @@
       <c r="R187" s="37"/>
       <c r="S187" s="37"/>
     </row>
-    <row r="188" spans="1:19" ht="13" customHeight="1">
+    <row r="188" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="31"/>
       <c r="B188" s="27"/>
       <c r="C188" s="30"/>
@@ -6640,7 +6648,7 @@
       <c r="R188" s="37"/>
       <c r="S188" s="37"/>
     </row>
-    <row r="189" spans="1:19" ht="13" customHeight="1">
+    <row r="189" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="31"/>
       <c r="B189" s="27"/>
       <c r="C189" s="30"/>
@@ -6661,7 +6669,7 @@
       <c r="R189" s="37"/>
       <c r="S189" s="37"/>
     </row>
-    <row r="190" spans="1:19" ht="13" customHeight="1">
+    <row r="190" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="31"/>
       <c r="B190" s="27"/>
       <c r="C190" s="30"/>
@@ -6682,7 +6690,7 @@
       <c r="R190" s="37"/>
       <c r="S190" s="37"/>
     </row>
-    <row r="191" spans="1:19" ht="13" customHeight="1">
+    <row r="191" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="31"/>
       <c r="B191" s="27"/>
       <c r="C191" s="30"/>
@@ -6703,7 +6711,7 @@
       <c r="R191" s="37"/>
       <c r="S191" s="37"/>
     </row>
-    <row r="192" spans="1:19" ht="13" customHeight="1">
+    <row r="192" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="31"/>
       <c r="B192" s="27"/>
       <c r="C192" s="30"/>
@@ -6724,7 +6732,7 @@
       <c r="R192" s="37"/>
       <c r="S192" s="37"/>
     </row>
-    <row r="193" spans="1:19" ht="13" customHeight="1">
+    <row r="193" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="31"/>
       <c r="B193" s="27"/>
       <c r="C193" s="30"/>
@@ -6745,7 +6753,7 @@
       <c r="R193" s="37"/>
       <c r="S193" s="37"/>
     </row>
-    <row r="194" spans="1:19" ht="13" customHeight="1">
+    <row r="194" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="31"/>
       <c r="B194" s="27"/>
       <c r="C194" s="30"/>
@@ -6766,7 +6774,7 @@
       <c r="R194" s="37"/>
       <c r="S194" s="37"/>
     </row>
-    <row r="195" spans="1:19" ht="13" customHeight="1">
+    <row r="195" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="31"/>
       <c r="B195" s="27"/>
       <c r="C195" s="30"/>
@@ -6787,7 +6795,7 @@
       <c r="R195" s="37"/>
       <c r="S195" s="37"/>
     </row>
-    <row r="196" spans="1:19" ht="13" customHeight="1">
+    <row r="196" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="31"/>
       <c r="B196" s="27"/>
       <c r="C196" s="30"/>
@@ -6808,7 +6816,7 @@
       <c r="R196" s="37"/>
       <c r="S196" s="37"/>
     </row>
-    <row r="197" spans="1:19" ht="13" customHeight="1">
+    <row r="197" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="31"/>
       <c r="B197" s="27"/>
       <c r="C197" s="30"/>
@@ -6829,7 +6837,7 @@
       <c r="R197" s="37"/>
       <c r="S197" s="37"/>
     </row>
-    <row r="198" spans="1:19" ht="13" customHeight="1">
+    <row r="198" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="31"/>
       <c r="B198" s="27"/>
       <c r="C198" s="30"/>
@@ -6850,7 +6858,7 @@
       <c r="R198" s="37"/>
       <c r="S198" s="37"/>
     </row>
-    <row r="199" spans="1:19" ht="13" customHeight="1">
+    <row r="199" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="31"/>
       <c r="B199" s="27"/>
       <c r="C199" s="30"/>
@@ -6871,7 +6879,7 @@
       <c r="R199" s="37"/>
       <c r="S199" s="37"/>
     </row>
-    <row r="200" spans="1:19" ht="13" customHeight="1">
+    <row r="200" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="31"/>
       <c r="B200" s="27"/>
       <c r="C200" s="30"/>
@@ -6892,7 +6900,7 @@
       <c r="R200" s="37"/>
       <c r="S200" s="37"/>
     </row>
-    <row r="201" spans="1:19" ht="13" customHeight="1">
+    <row r="201" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="31"/>
       <c r="B201" s="27"/>
       <c r="C201" s="30"/>
@@ -6913,7 +6921,7 @@
       <c r="R201" s="37"/>
       <c r="S201" s="37"/>
     </row>
-    <row r="202" spans="1:19" ht="13" customHeight="1">
+    <row r="202" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="31"/>
       <c r="B202" s="27"/>
       <c r="C202" s="30"/>
@@ -6934,7 +6942,7 @@
       <c r="R202" s="37"/>
       <c r="S202" s="37"/>
     </row>
-    <row r="203" spans="1:19" ht="13" customHeight="1">
+    <row r="203" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="31"/>
       <c r="B203" s="27"/>
       <c r="C203" s="30"/>
@@ -6955,7 +6963,7 @@
       <c r="R203" s="37"/>
       <c r="S203" s="37"/>
     </row>
-    <row r="204" spans="1:19" ht="13" customHeight="1">
+    <row r="204" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="31"/>
       <c r="B204" s="27"/>
       <c r="C204" s="30"/>
@@ -6976,7 +6984,7 @@
       <c r="R204" s="37"/>
       <c r="S204" s="37"/>
     </row>
-    <row r="205" spans="1:19" ht="13" customHeight="1">
+    <row r="205" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="31"/>
       <c r="B205" s="27"/>
       <c r="C205" s="30"/>
@@ -6997,7 +7005,7 @@
       <c r="R205" s="37"/>
       <c r="S205" s="37"/>
     </row>
-    <row r="206" spans="1:19" ht="13" customHeight="1">
+    <row r="206" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="31"/>
       <c r="B206" s="27"/>
       <c r="C206" s="30"/>
@@ -7018,7 +7026,7 @@
       <c r="R206" s="37"/>
       <c r="S206" s="37"/>
     </row>
-    <row r="207" spans="1:19" ht="13" customHeight="1">
+    <row r="207" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="31"/>
       <c r="B207" s="27"/>
       <c r="C207" s="30"/>
@@ -7039,7 +7047,7 @@
       <c r="R207" s="37"/>
       <c r="S207" s="37"/>
     </row>
-    <row r="208" spans="1:19" ht="13" customHeight="1">
+    <row r="208" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="31"/>
       <c r="B208" s="27"/>
       <c r="C208" s="30"/>
@@ -7060,7 +7068,7 @@
       <c r="R208" s="37"/>
       <c r="S208" s="37"/>
     </row>
-    <row r="209" spans="1:19" ht="13" customHeight="1">
+    <row r="209" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="31"/>
       <c r="B209" s="27"/>
       <c r="C209" s="30"/>
@@ -7081,7 +7089,7 @@
       <c r="R209" s="37"/>
       <c r="S209" s="37"/>
     </row>
-    <row r="210" spans="1:19" ht="13" customHeight="1">
+    <row r="210" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="31"/>
       <c r="B210" s="27"/>
       <c r="C210" s="30"/>
@@ -7102,7 +7110,7 @@
       <c r="R210" s="37"/>
       <c r="S210" s="37"/>
     </row>
-    <row r="211" spans="1:19" ht="13" customHeight="1">
+    <row r="211" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="31"/>
       <c r="B211" s="27"/>
       <c r="C211" s="30"/>
@@ -7123,7 +7131,7 @@
       <c r="R211" s="37"/>
       <c r="S211" s="37"/>
     </row>
-    <row r="212" spans="1:19" ht="13" customHeight="1">
+    <row r="212" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="31"/>
       <c r="B212" s="27"/>
       <c r="C212" s="30"/>
@@ -7144,7 +7152,7 @@
       <c r="R212" s="37"/>
       <c r="S212" s="37"/>
     </row>
-    <row r="213" spans="1:19" ht="13" customHeight="1">
+    <row r="213" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="31"/>
       <c r="B213" s="27"/>
       <c r="C213" s="30"/>
@@ -7165,7 +7173,7 @@
       <c r="R213" s="37"/>
       <c r="S213" s="37"/>
     </row>
-    <row r="214" spans="1:19" ht="13" customHeight="1">
+    <row r="214" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="31"/>
       <c r="B214" s="27"/>
       <c r="C214" s="30"/>
@@ -7186,7 +7194,7 @@
       <c r="R214" s="37"/>
       <c r="S214" s="37"/>
     </row>
-    <row r="215" spans="1:19" ht="13" customHeight="1">
+    <row r="215" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="31"/>
       <c r="B215" s="27"/>
       <c r="C215" s="30"/>
@@ -7207,7 +7215,7 @@
       <c r="R215" s="37"/>
       <c r="S215" s="37"/>
     </row>
-    <row r="216" spans="1:19" ht="13" customHeight="1">
+    <row r="216" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="31"/>
       <c r="B216" s="27"/>
       <c r="C216" s="30"/>
@@ -7228,7 +7236,7 @@
       <c r="R216" s="37"/>
       <c r="S216" s="37"/>
     </row>
-    <row r="217" spans="1:19" ht="13" customHeight="1">
+    <row r="217" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="31"/>
       <c r="B217" s="27"/>
       <c r="C217" s="30"/>
@@ -7249,7 +7257,7 @@
       <c r="R217" s="37"/>
       <c r="S217" s="37"/>
     </row>
-    <row r="218" spans="1:19" ht="13" customHeight="1">
+    <row r="218" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="31"/>
       <c r="B218" s="27"/>
       <c r="C218" s="30"/>
@@ -7270,7 +7278,7 @@
       <c r="R218" s="37"/>
       <c r="S218" s="37"/>
     </row>
-    <row r="219" spans="1:19" ht="13" customHeight="1">
+    <row r="219" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="31"/>
       <c r="B219" s="27"/>
       <c r="C219" s="30"/>
@@ -7291,7 +7299,7 @@
       <c r="R219" s="37"/>
       <c r="S219" s="37"/>
     </row>
-    <row r="220" spans="1:19" ht="13" customHeight="1">
+    <row r="220" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="31"/>
       <c r="B220" s="27"/>
       <c r="C220" s="30"/>
@@ -7312,7 +7320,7 @@
       <c r="R220" s="37"/>
       <c r="S220" s="37"/>
     </row>
-    <row r="221" spans="1:19" ht="13" customHeight="1">
+    <row r="221" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="31"/>
       <c r="B221" s="27"/>
       <c r="C221" s="30"/>
@@ -7333,7 +7341,7 @@
       <c r="R221" s="37"/>
       <c r="S221" s="37"/>
     </row>
-    <row r="222" spans="1:19" ht="13" customHeight="1">
+    <row r="222" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="31"/>
       <c r="B222" s="27"/>
       <c r="C222" s="30"/>
@@ -7354,7 +7362,7 @@
       <c r="R222" s="37"/>
       <c r="S222" s="37"/>
     </row>
-    <row r="223" spans="1:19" ht="13" customHeight="1">
+    <row r="223" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="31"/>
       <c r="B223" s="27"/>
       <c r="C223" s="30"/>
@@ -7375,7 +7383,7 @@
       <c r="R223" s="37"/>
       <c r="S223" s="37"/>
     </row>
-    <row r="224" spans="1:19" ht="13" customHeight="1">
+    <row r="224" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="31"/>
       <c r="B224" s="27"/>
       <c r="C224" s="30"/>
@@ -7396,7 +7404,7 @@
       <c r="R224" s="37"/>
       <c r="S224" s="37"/>
     </row>
-    <row r="225" spans="1:19" ht="13" customHeight="1">
+    <row r="225" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="31"/>
       <c r="B225" s="27"/>
       <c r="C225" s="30"/>
@@ -7417,7 +7425,7 @@
       <c r="R225" s="37"/>
       <c r="S225" s="37"/>
     </row>
-    <row r="226" spans="1:19" ht="13" customHeight="1">
+    <row r="226" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="31"/>
       <c r="B226" s="27"/>
       <c r="C226" s="30"/>
@@ -7438,7 +7446,7 @@
       <c r="R226" s="37"/>
       <c r="S226" s="37"/>
     </row>
-    <row r="227" spans="1:19" ht="13" customHeight="1">
+    <row r="227" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="31"/>
       <c r="B227" s="27"/>
       <c r="C227" s="30"/>
@@ -7459,7 +7467,7 @@
       <c r="R227" s="37"/>
       <c r="S227" s="37"/>
     </row>
-    <row r="228" spans="1:19" ht="13" customHeight="1">
+    <row r="228" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="31"/>
       <c r="B228" s="27"/>
       <c r="C228" s="30"/>
@@ -7480,7 +7488,7 @@
       <c r="R228" s="37"/>
       <c r="S228" s="37"/>
     </row>
-    <row r="229" spans="1:19" ht="13" customHeight="1">
+    <row r="229" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="31"/>
       <c r="B229" s="27"/>
       <c r="C229" s="30"/>
@@ -7501,7 +7509,7 @@
       <c r="R229" s="37"/>
       <c r="S229" s="37"/>
     </row>
-    <row r="230" spans="1:19" ht="13" customHeight="1">
+    <row r="230" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="31"/>
       <c r="B230" s="27"/>
       <c r="C230" s="30"/>
@@ -7522,7 +7530,7 @@
       <c r="R230" s="37"/>
       <c r="S230" s="37"/>
     </row>
-    <row r="231" spans="1:19" ht="13" customHeight="1">
+    <row r="231" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="31"/>
       <c r="B231" s="27"/>
       <c r="C231" s="30"/>
@@ -7543,7 +7551,7 @@
       <c r="R231" s="37"/>
       <c r="S231" s="37"/>
     </row>
-    <row r="232" spans="1:19" ht="13" customHeight="1">
+    <row r="232" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="31"/>
       <c r="B232" s="27"/>
       <c r="C232" s="30"/>
@@ -7564,7 +7572,7 @@
       <c r="R232" s="37"/>
       <c r="S232" s="37"/>
     </row>
-    <row r="233" spans="1:19" ht="13" customHeight="1">
+    <row r="233" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="31"/>
       <c r="B233" s="27"/>
       <c r="C233" s="30"/>
@@ -7585,7 +7593,7 @@
       <c r="R233" s="37"/>
       <c r="S233" s="37"/>
     </row>
-    <row r="234" spans="1:19" ht="13" customHeight="1">
+    <row r="234" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="31"/>
       <c r="B234" s="27"/>
       <c r="C234" s="30"/>
@@ -7606,7 +7614,7 @@
       <c r="R234" s="37"/>
       <c r="S234" s="37"/>
     </row>
-    <row r="235" spans="1:19" ht="13" customHeight="1">
+    <row r="235" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="31"/>
       <c r="B235" s="27"/>
       <c r="C235" s="30"/>
@@ -7627,7 +7635,7 @@
       <c r="R235" s="37"/>
       <c r="S235" s="37"/>
     </row>
-    <row r="236" spans="1:19" ht="13" customHeight="1">
+    <row r="236" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="31"/>
       <c r="B236" s="27"/>
       <c r="C236" s="30"/>
@@ -7648,7 +7656,7 @@
       <c r="R236" s="37"/>
       <c r="S236" s="37"/>
     </row>
-    <row r="237" spans="1:19" ht="13" customHeight="1">
+    <row r="237" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="31"/>
       <c r="B237" s="27"/>
       <c r="C237" s="30"/>
@@ -7669,7 +7677,7 @@
       <c r="R237" s="37"/>
       <c r="S237" s="37"/>
     </row>
-    <row r="238" spans="1:19" ht="13" customHeight="1">
+    <row r="238" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="31"/>
       <c r="B238" s="27"/>
       <c r="C238" s="30"/>
@@ -7690,7 +7698,7 @@
       <c r="R238" s="37"/>
       <c r="S238" s="37"/>
     </row>
-    <row r="239" spans="1:19" ht="13" customHeight="1">
+    <row r="239" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="31"/>
       <c r="B239" s="27"/>
       <c r="C239" s="30"/>
@@ -7711,7 +7719,7 @@
       <c r="R239" s="37"/>
       <c r="S239" s="37"/>
     </row>
-    <row r="240" spans="1:19" ht="13" customHeight="1">
+    <row r="240" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="31"/>
       <c r="B240" s="27"/>
       <c r="C240" s="30"/>
@@ -7732,7 +7740,7 @@
       <c r="R240" s="37"/>
       <c r="S240" s="37"/>
     </row>
-    <row r="241" spans="1:19" ht="13" customHeight="1">
+    <row r="241" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="31"/>
       <c r="B241" s="27"/>
       <c r="C241" s="30"/>
@@ -7753,7 +7761,7 @@
       <c r="R241" s="37"/>
       <c r="S241" s="37"/>
     </row>
-    <row r="242" spans="1:19" ht="13" customHeight="1">
+    <row r="242" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="31"/>
       <c r="B242" s="27"/>
       <c r="C242" s="30"/>
@@ -7774,7 +7782,7 @@
       <c r="R242" s="37"/>
       <c r="S242" s="37"/>
     </row>
-    <row r="243" spans="1:19" ht="13" customHeight="1">
+    <row r="243" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="31"/>
       <c r="B243" s="27"/>
       <c r="C243" s="30"/>
@@ -7795,7 +7803,7 @@
       <c r="R243" s="37"/>
       <c r="S243" s="37"/>
     </row>
-    <row r="244" spans="1:19" ht="13" customHeight="1">
+    <row r="244" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="31"/>
       <c r="B244" s="27"/>
       <c r="C244" s="30"/>
@@ -7816,7 +7824,7 @@
       <c r="R244" s="37"/>
       <c r="S244" s="37"/>
     </row>
-    <row r="245" spans="1:19" ht="13" customHeight="1">
+    <row r="245" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="31"/>
       <c r="B245" s="27"/>
       <c r="C245" s="30"/>
@@ -7837,7 +7845,7 @@
       <c r="R245" s="37"/>
       <c r="S245" s="37"/>
     </row>
-    <row r="246" spans="1:19" ht="13" customHeight="1">
+    <row r="246" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="31"/>
       <c r="B246" s="27"/>
       <c r="C246" s="30"/>
@@ -7858,7 +7866,7 @@
       <c r="R246" s="37"/>
       <c r="S246" s="37"/>
     </row>
-    <row r="247" spans="1:19" ht="13" customHeight="1">
+    <row r="247" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="31"/>
       <c r="B247" s="27"/>
       <c r="C247" s="30"/>
@@ -7879,7 +7887,7 @@
       <c r="R247" s="37"/>
       <c r="S247" s="37"/>
     </row>
-    <row r="248" spans="1:19" ht="13" customHeight="1">
+    <row r="248" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="31"/>
       <c r="B248" s="27"/>
       <c r="C248" s="30"/>
@@ -7900,7 +7908,7 @@
       <c r="R248" s="37"/>
       <c r="S248" s="37"/>
     </row>
-    <row r="249" spans="1:19" ht="13" customHeight="1">
+    <row r="249" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="31"/>
       <c r="B249" s="27"/>
       <c r="C249" s="30"/>
@@ -7921,7 +7929,7 @@
       <c r="R249" s="37"/>
       <c r="S249" s="37"/>
     </row>
-    <row r="250" spans="1:19" ht="13" customHeight="1">
+    <row r="250" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="31"/>
       <c r="B250" s="27"/>
       <c r="C250" s="30"/>
@@ -7942,7 +7950,7 @@
       <c r="R250" s="37"/>
       <c r="S250" s="37"/>
     </row>
-    <row r="251" spans="1:19" ht="13" customHeight="1">
+    <row r="251" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="31"/>
       <c r="B251" s="27"/>
       <c r="C251" s="30"/>
@@ -7963,7 +7971,7 @@
       <c r="R251" s="37"/>
       <c r="S251" s="37"/>
     </row>
-    <row r="252" spans="1:19" ht="13" customHeight="1">
+    <row r="252" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="31"/>
       <c r="B252" s="27"/>
       <c r="C252" s="30"/>
@@ -7984,7 +7992,7 @@
       <c r="R252" s="37"/>
       <c r="S252" s="37"/>
     </row>
-    <row r="253" spans="1:19" ht="13" customHeight="1">
+    <row r="253" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="31"/>
       <c r="B253" s="27"/>
       <c r="C253" s="30"/>
@@ -8005,7 +8013,7 @@
       <c r="R253" s="37"/>
       <c r="S253" s="37"/>
     </row>
-    <row r="254" spans="1:19" ht="13" customHeight="1">
+    <row r="254" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="31"/>
       <c r="B254" s="27"/>
       <c r="C254" s="30"/>
@@ -8026,7 +8034,7 @@
       <c r="R254" s="37"/>
       <c r="S254" s="37"/>
     </row>
-    <row r="255" spans="1:19" ht="13" customHeight="1">
+    <row r="255" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="31"/>
       <c r="B255" s="27"/>
       <c r="C255" s="30"/>
@@ -8047,7 +8055,7 @@
       <c r="R255" s="37"/>
       <c r="S255" s="37"/>
     </row>
-    <row r="256" spans="1:19" ht="13" customHeight="1">
+    <row r="256" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="31"/>
       <c r="B256" s="27"/>
       <c r="C256" s="30"/>
@@ -8068,7 +8076,7 @@
       <c r="R256" s="37"/>
       <c r="S256" s="37"/>
     </row>
-    <row r="257" spans="1:19" ht="13" customHeight="1">
+    <row r="257" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="31"/>
       <c r="B257" s="27"/>
       <c r="C257" s="30"/>
@@ -8089,7 +8097,7 @@
       <c r="R257" s="37"/>
       <c r="S257" s="37"/>
     </row>
-    <row r="258" spans="1:19" ht="13" customHeight="1">
+    <row r="258" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="31"/>
       <c r="B258" s="27"/>
       <c r="C258" s="30"/>
@@ -8110,7 +8118,7 @@
       <c r="R258" s="37"/>
       <c r="S258" s="37"/>
     </row>
-    <row r="259" spans="1:19" ht="13" customHeight="1">
+    <row r="259" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="31"/>
       <c r="B259" s="27"/>
       <c r="C259" s="30"/>
@@ -8131,7 +8139,7 @@
       <c r="R259" s="37"/>
       <c r="S259" s="37"/>
     </row>
-    <row r="260" spans="1:19" ht="13" customHeight="1">
+    <row r="260" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="31"/>
       <c r="B260" s="27"/>
       <c r="C260" s="30"/>
@@ -8152,7 +8160,7 @@
       <c r="R260" s="37"/>
       <c r="S260" s="37"/>
     </row>
-    <row r="261" spans="1:19" ht="13" customHeight="1">
+    <row r="261" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="31"/>
       <c r="B261" s="27"/>
       <c r="C261" s="30"/>
@@ -8173,7 +8181,7 @@
       <c r="R261" s="37"/>
       <c r="S261" s="37"/>
     </row>
-    <row r="262" spans="1:19" ht="13" customHeight="1">
+    <row r="262" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="31"/>
       <c r="B262" s="27"/>
       <c r="C262" s="30"/>
@@ -8194,7 +8202,7 @@
       <c r="R262" s="37"/>
       <c r="S262" s="37"/>
     </row>
-    <row r="263" spans="1:19" ht="13" customHeight="1">
+    <row r="263" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="31"/>
       <c r="B263" s="27"/>
       <c r="C263" s="30"/>
@@ -8215,7 +8223,7 @@
       <c r="R263" s="37"/>
       <c r="S263" s="37"/>
     </row>
-    <row r="264" spans="1:19" ht="13" customHeight="1">
+    <row r="264" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="31"/>
       <c r="B264" s="27"/>
       <c r="C264" s="30"/>
@@ -8236,7 +8244,7 @@
       <c r="R264" s="37"/>
       <c r="S264" s="37"/>
     </row>
-    <row r="265" spans="1:19" ht="13" customHeight="1">
+    <row r="265" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="31"/>
       <c r="B265" s="27"/>
       <c r="C265" s="30"/>
@@ -8257,7 +8265,7 @@
       <c r="R265" s="37"/>
       <c r="S265" s="37"/>
     </row>
-    <row r="266" spans="1:19" ht="13" customHeight="1">
+    <row r="266" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="31"/>
       <c r="B266" s="27"/>
       <c r="C266" s="30"/>
@@ -8278,7 +8286,7 @@
       <c r="R266" s="37"/>
       <c r="S266" s="37"/>
     </row>
-    <row r="267" spans="1:19" ht="13" customHeight="1">
+    <row r="267" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="31"/>
       <c r="B267" s="27"/>
       <c r="C267" s="30"/>
@@ -8299,7 +8307,7 @@
       <c r="R267" s="37"/>
       <c r="S267" s="37"/>
     </row>
-    <row r="268" spans="1:19" ht="13" customHeight="1">
+    <row r="268" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="31"/>
       <c r="B268" s="27"/>
       <c r="C268" s="30"/>
@@ -8320,7 +8328,7 @@
       <c r="R268" s="37"/>
       <c r="S268" s="37"/>
     </row>
-    <row r="269" spans="1:19" ht="13" customHeight="1">
+    <row r="269" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="31"/>
       <c r="B269" s="27"/>
       <c r="C269" s="30"/>
@@ -8341,7 +8349,7 @@
       <c r="R269" s="37"/>
       <c r="S269" s="37"/>
     </row>
-    <row r="270" spans="1:19" ht="13" customHeight="1">
+    <row r="270" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="31"/>
       <c r="B270" s="27"/>
       <c r="C270" s="30"/>
@@ -8362,7 +8370,7 @@
       <c r="R270" s="37"/>
       <c r="S270" s="37"/>
     </row>
-    <row r="271" spans="1:19" ht="13" customHeight="1">
+    <row r="271" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="31"/>
       <c r="B271" s="27"/>
       <c r="C271" s="30"/>
@@ -8383,7 +8391,7 @@
       <c r="R271" s="37"/>
       <c r="S271" s="37"/>
     </row>
-    <row r="272" spans="1:19" ht="13" customHeight="1">
+    <row r="272" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="31"/>
       <c r="B272" s="27"/>
       <c r="C272" s="30"/>
@@ -8404,7 +8412,7 @@
       <c r="R272" s="37"/>
       <c r="S272" s="37"/>
     </row>
-    <row r="273" spans="1:19" ht="13" customHeight="1">
+    <row r="273" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="31"/>
       <c r="B273" s="27"/>
       <c r="C273" s="30"/>
@@ -8425,7 +8433,7 @@
       <c r="R273" s="37"/>
       <c r="S273" s="37"/>
     </row>
-    <row r="274" spans="1:19" ht="13" customHeight="1">
+    <row r="274" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="31"/>
       <c r="B274" s="27"/>
       <c r="C274" s="30"/>
@@ -8446,7 +8454,7 @@
       <c r="R274" s="37"/>
       <c r="S274" s="37"/>
     </row>
-    <row r="275" spans="1:19" ht="13" customHeight="1">
+    <row r="275" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="31"/>
       <c r="B275" s="27"/>
       <c r="C275" s="30"/>
@@ -8467,7 +8475,7 @@
       <c r="R275" s="37"/>
       <c r="S275" s="37"/>
     </row>
-    <row r="276" spans="1:19" ht="13" customHeight="1">
+    <row r="276" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="31"/>
       <c r="B276" s="27"/>
       <c r="C276" s="30"/>
@@ -8488,7 +8496,7 @@
       <c r="R276" s="37"/>
       <c r="S276" s="37"/>
     </row>
-    <row r="277" spans="1:19" ht="13" customHeight="1">
+    <row r="277" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="31"/>
       <c r="B277" s="27"/>
       <c r="C277" s="30"/>
@@ -8509,7 +8517,7 @@
       <c r="R277" s="37"/>
       <c r="S277" s="37"/>
     </row>
-    <row r="278" spans="1:19" ht="13" customHeight="1">
+    <row r="278" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="31"/>
       <c r="B278" s="27"/>
       <c r="C278" s="30"/>
@@ -8530,7 +8538,7 @@
       <c r="R278" s="37"/>
       <c r="S278" s="37"/>
     </row>
-    <row r="279" spans="1:19" ht="13" customHeight="1">
+    <row r="279" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="31"/>
       <c r="B279" s="27"/>
       <c r="C279" s="30"/>
@@ -8551,7 +8559,7 @@
       <c r="R279" s="37"/>
       <c r="S279" s="37"/>
     </row>
-    <row r="280" spans="1:19" ht="13" customHeight="1">
+    <row r="280" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="31"/>
       <c r="B280" s="27"/>
       <c r="C280" s="30"/>
@@ -8572,7 +8580,7 @@
       <c r="R280" s="37"/>
       <c r="S280" s="37"/>
     </row>
-    <row r="281" spans="1:19" ht="13" customHeight="1">
+    <row r="281" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="31"/>
       <c r="B281" s="27"/>
       <c r="C281" s="30"/>
@@ -8593,7 +8601,7 @@
       <c r="R281" s="37"/>
       <c r="S281" s="37"/>
     </row>
-    <row r="282" spans="1:19" ht="13" customHeight="1">
+    <row r="282" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="31"/>
       <c r="B282" s="27"/>
       <c r="C282" s="30"/>
@@ -8614,7 +8622,7 @@
       <c r="R282" s="37"/>
       <c r="S282" s="37"/>
     </row>
-    <row r="283" spans="1:19" ht="13" customHeight="1">
+    <row r="283" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="31"/>
       <c r="B283" s="27"/>
       <c r="C283" s="30"/>
@@ -8635,7 +8643,7 @@
       <c r="R283" s="37"/>
       <c r="S283" s="37"/>
     </row>
-    <row r="284" spans="1:19" ht="13" customHeight="1">
+    <row r="284" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="31"/>
       <c r="B284" s="27"/>
       <c r="C284" s="30"/>
@@ -8656,7 +8664,7 @@
       <c r="R284" s="37"/>
       <c r="S284" s="37"/>
     </row>
-    <row r="285" spans="1:19" ht="13" customHeight="1">
+    <row r="285" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="31"/>
       <c r="B285" s="27"/>
       <c r="C285" s="30"/>
@@ -8677,7 +8685,7 @@
       <c r="R285" s="37"/>
       <c r="S285" s="37"/>
     </row>
-    <row r="286" spans="1:19" ht="13" customHeight="1">
+    <row r="286" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="31"/>
       <c r="B286" s="27"/>
       <c r="C286" s="30"/>
@@ -8698,7 +8706,7 @@
       <c r="R286" s="37"/>
       <c r="S286" s="37"/>
     </row>
-    <row r="287" spans="1:19" ht="13" customHeight="1">
+    <row r="287" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="31"/>
       <c r="B287" s="27"/>
       <c r="C287" s="30"/>
@@ -8719,7 +8727,7 @@
       <c r="R287" s="37"/>
       <c r="S287" s="37"/>
     </row>
-    <row r="288" spans="1:19" ht="13" customHeight="1">
+    <row r="288" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="31"/>
       <c r="B288" s="27"/>
       <c r="C288" s="30"/>
@@ -8740,7 +8748,7 @@
       <c r="R288" s="37"/>
       <c r="S288" s="37"/>
     </row>
-    <row r="289" spans="1:19" ht="13" customHeight="1">
+    <row r="289" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="31"/>
       <c r="B289" s="27"/>
       <c r="C289" s="30"/>
@@ -8761,7 +8769,7 @@
       <c r="R289" s="37"/>
       <c r="S289" s="37"/>
     </row>
-    <row r="290" spans="1:19" ht="13" customHeight="1">
+    <row r="290" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="31"/>
       <c r="B290" s="27"/>
       <c r="C290" s="30"/>
@@ -8782,7 +8790,7 @@
       <c r="R290" s="37"/>
       <c r="S290" s="37"/>
     </row>
-    <row r="291" spans="1:19" ht="13" customHeight="1">
+    <row r="291" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="31"/>
       <c r="B291" s="27"/>
       <c r="C291" s="30"/>
@@ -8803,7 +8811,7 @@
       <c r="R291" s="37"/>
       <c r="S291" s="37"/>
     </row>
-    <row r="292" spans="1:19" ht="13" customHeight="1">
+    <row r="292" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="31"/>
       <c r="B292" s="27"/>
       <c r="C292" s="30"/>
@@ -8824,7 +8832,7 @@
       <c r="R292" s="37"/>
       <c r="S292" s="37"/>
     </row>
-    <row r="293" spans="1:19" ht="13" customHeight="1">
+    <row r="293" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="31"/>
       <c r="B293" s="27"/>
       <c r="C293" s="30"/>
@@ -8845,7 +8853,7 @@
       <c r="R293" s="37"/>
       <c r="S293" s="37"/>
     </row>
-    <row r="294" spans="1:19" ht="13" customHeight="1">
+    <row r="294" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="31"/>
       <c r="B294" s="27"/>
       <c r="C294" s="30"/>
@@ -8866,7 +8874,7 @@
       <c r="R294" s="37"/>
       <c r="S294" s="37"/>
     </row>
-    <row r="295" spans="1:19" ht="13" customHeight="1">
+    <row r="295" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="31"/>
       <c r="B295" s="27"/>
       <c r="C295" s="30"/>
@@ -8887,7 +8895,7 @@
       <c r="R295" s="37"/>
       <c r="S295" s="37"/>
     </row>
-    <row r="296" spans="1:19" ht="13" customHeight="1">
+    <row r="296" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="31"/>
       <c r="B296" s="27"/>
       <c r="C296" s="30"/>
@@ -8908,7 +8916,7 @@
       <c r="R296" s="37"/>
       <c r="S296" s="37"/>
     </row>
-    <row r="297" spans="1:19" ht="13" customHeight="1">
+    <row r="297" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="31"/>
       <c r="B297" s="27"/>
       <c r="C297" s="30"/>
@@ -8929,7 +8937,7 @@
       <c r="R297" s="37"/>
       <c r="S297" s="37"/>
     </row>
-    <row r="298" spans="1:19" ht="13" customHeight="1">
+    <row r="298" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="31"/>
       <c r="B298" s="27"/>
       <c r="C298" s="30"/>
@@ -8950,7 +8958,7 @@
       <c r="R298" s="37"/>
       <c r="S298" s="37"/>
     </row>
-    <row r="299" spans="1:19" ht="13" customHeight="1">
+    <row r="299" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="31"/>
       <c r="B299" s="27"/>
       <c r="C299" s="30"/>
@@ -8971,7 +8979,7 @@
       <c r="R299" s="37"/>
       <c r="S299" s="37"/>
     </row>
-    <row r="300" spans="1:19" ht="13" customHeight="1">
+    <row r="300" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="31"/>
       <c r="B300" s="27"/>
       <c r="C300" s="30"/>
@@ -8992,7 +9000,7 @@
       <c r="R300" s="37"/>
       <c r="S300" s="37"/>
     </row>
-    <row r="301" spans="1:19" ht="13" customHeight="1">
+    <row r="301" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="31"/>
       <c r="B301" s="27"/>
       <c r="C301" s="30"/>
@@ -9013,7 +9021,7 @@
       <c r="R301" s="37"/>
       <c r="S301" s="37"/>
     </row>
-    <row r="302" spans="1:19" ht="13" customHeight="1">
+    <row r="302" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="31"/>
       <c r="B302" s="27"/>
       <c r="C302" s="30"/>
@@ -9034,7 +9042,7 @@
       <c r="R302" s="37"/>
       <c r="S302" s="37"/>
     </row>
-    <row r="303" spans="1:19" ht="13" customHeight="1">
+    <row r="303" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="31"/>
       <c r="B303" s="27"/>
       <c r="C303" s="30"/>
@@ -9055,7 +9063,7 @@
       <c r="R303" s="37"/>
       <c r="S303" s="37"/>
     </row>
-    <row r="304" spans="1:19" ht="13" customHeight="1">
+    <row r="304" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="31"/>
       <c r="B304" s="27"/>
       <c r="C304" s="30"/>
@@ -9076,7 +9084,7 @@
       <c r="R304" s="37"/>
       <c r="S304" s="37"/>
     </row>
-    <row r="305" spans="1:19" ht="13" customHeight="1">
+    <row r="305" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="31"/>
       <c r="B305" s="27"/>
       <c r="C305" s="30"/>
@@ -9097,7 +9105,7 @@
       <c r="R305" s="37"/>
       <c r="S305" s="37"/>
     </row>
-    <row r="306" spans="1:19" ht="13" customHeight="1">
+    <row r="306" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="31"/>
       <c r="B306" s="27"/>
       <c r="C306" s="30"/>
@@ -9118,7 +9126,7 @@
       <c r="R306" s="37"/>
       <c r="S306" s="37"/>
     </row>
-    <row r="307" spans="1:19" ht="13" customHeight="1">
+    <row r="307" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="31"/>
       <c r="B307" s="27"/>
       <c r="C307" s="30"/>
@@ -9139,7 +9147,7 @@
       <c r="R307" s="37"/>
       <c r="S307" s="37"/>
     </row>
-    <row r="308" spans="1:19" ht="13" customHeight="1">
+    <row r="308" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="31"/>
       <c r="B308" s="27"/>
       <c r="C308" s="30"/>
@@ -9160,7 +9168,7 @@
       <c r="R308" s="37"/>
       <c r="S308" s="37"/>
     </row>
-    <row r="309" spans="1:19" ht="13" customHeight="1">
+    <row r="309" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="31"/>
       <c r="B309" s="27"/>
       <c r="C309" s="30"/>
@@ -9181,7 +9189,7 @@
       <c r="R309" s="37"/>
       <c r="S309" s="37"/>
     </row>
-    <row r="310" spans="1:19" ht="13" customHeight="1">
+    <row r="310" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="31"/>
       <c r="B310" s="27"/>
       <c r="C310" s="30"/>
@@ -9202,7 +9210,7 @@
       <c r="R310" s="37"/>
       <c r="S310" s="37"/>
     </row>
-    <row r="311" spans="1:19" ht="13" customHeight="1">
+    <row r="311" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="31"/>
       <c r="B311" s="27"/>
       <c r="C311" s="30"/>
@@ -9223,7 +9231,7 @@
       <c r="R311" s="37"/>
       <c r="S311" s="37"/>
     </row>
-    <row r="312" spans="1:19" ht="13" customHeight="1">
+    <row r="312" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="31"/>
       <c r="B312" s="27"/>
       <c r="C312" s="30"/>
@@ -9244,7 +9252,7 @@
       <c r="R312" s="37"/>
       <c r="S312" s="37"/>
     </row>
-    <row r="313" spans="1:19" ht="13" customHeight="1">
+    <row r="313" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="31"/>
       <c r="B313" s="27"/>
       <c r="C313" s="30"/>
@@ -9265,7 +9273,7 @@
       <c r="R313" s="37"/>
       <c r="S313" s="37"/>
     </row>
-    <row r="314" spans="1:19" ht="13" customHeight="1">
+    <row r="314" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="31"/>
       <c r="B314" s="27"/>
       <c r="C314" s="30"/>
@@ -9286,7 +9294,7 @@
       <c r="R314" s="37"/>
       <c r="S314" s="37"/>
     </row>
-    <row r="315" spans="1:19" ht="13" customHeight="1">
+    <row r="315" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="31"/>
       <c r="B315" s="27"/>
       <c r="C315" s="30"/>
@@ -9307,7 +9315,7 @@
       <c r="R315" s="37"/>
       <c r="S315" s="37"/>
     </row>
-    <row r="316" spans="1:19" ht="13" customHeight="1">
+    <row r="316" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="31"/>
       <c r="B316" s="27"/>
       <c r="C316" s="30"/>
@@ -9328,7 +9336,7 @@
       <c r="R316" s="37"/>
       <c r="S316" s="37"/>
     </row>
-    <row r="317" spans="1:19" ht="13" customHeight="1">
+    <row r="317" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="31"/>
       <c r="B317" s="27"/>
       <c r="C317" s="30"/>
@@ -9349,7 +9357,7 @@
       <c r="R317" s="37"/>
       <c r="S317" s="37"/>
     </row>
-    <row r="318" spans="1:19" ht="13" customHeight="1">
+    <row r="318" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="31"/>
       <c r="B318" s="27"/>
       <c r="C318" s="30"/>
@@ -9370,7 +9378,7 @@
       <c r="R318" s="37"/>
       <c r="S318" s="37"/>
     </row>
-    <row r="319" spans="1:19" ht="13" customHeight="1">
+    <row r="319" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="31"/>
       <c r="B319" s="27"/>
       <c r="C319" s="30"/>
@@ -9391,7 +9399,7 @@
       <c r="R319" s="37"/>
       <c r="S319" s="37"/>
     </row>
-    <row r="320" spans="1:19" ht="13" customHeight="1">
+    <row r="320" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="31"/>
       <c r="B320" s="27"/>
       <c r="C320" s="30"/>
@@ -9412,7 +9420,7 @@
       <c r="R320" s="37"/>
       <c r="S320" s="37"/>
     </row>
-    <row r="321" spans="1:19" ht="13" customHeight="1">
+    <row r="321" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="31"/>
       <c r="B321" s="27"/>
       <c r="C321" s="30"/>
@@ -9433,7 +9441,7 @@
       <c r="R321" s="37"/>
       <c r="S321" s="37"/>
     </row>
-    <row r="322" spans="1:19" ht="13" customHeight="1">
+    <row r="322" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="31"/>
       <c r="B322" s="27"/>
       <c r="C322" s="30"/>
@@ -9454,7 +9462,7 @@
       <c r="R322" s="37"/>
       <c r="S322" s="37"/>
     </row>
-    <row r="323" spans="1:19" ht="13" customHeight="1">
+    <row r="323" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="31"/>
       <c r="B323" s="27"/>
       <c r="C323" s="30"/>
@@ -9475,7 +9483,7 @@
       <c r="R323" s="37"/>
       <c r="S323" s="37"/>
     </row>
-    <row r="324" spans="1:19" ht="13" customHeight="1">
+    <row r="324" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="31"/>
       <c r="B324" s="27"/>
       <c r="C324" s="30"/>
@@ -9496,7 +9504,7 @@
       <c r="R324" s="37"/>
       <c r="S324" s="37"/>
     </row>
-    <row r="325" spans="1:19" ht="13" customHeight="1">
+    <row r="325" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="31"/>
       <c r="B325" s="27"/>
       <c r="C325" s="30"/>
@@ -9517,7 +9525,7 @@
       <c r="R325" s="37"/>
       <c r="S325" s="37"/>
     </row>
-    <row r="326" spans="1:19" ht="13" customHeight="1">
+    <row r="326" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="31"/>
       <c r="B326" s="27"/>
       <c r="C326" s="30"/>
@@ -9538,7 +9546,7 @@
       <c r="R326" s="37"/>
       <c r="S326" s="37"/>
     </row>
-    <row r="327" spans="1:19" ht="13" customHeight="1">
+    <row r="327" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="31"/>
       <c r="B327" s="27"/>
       <c r="C327" s="30"/>
@@ -9559,7 +9567,7 @@
       <c r="R327" s="37"/>
       <c r="S327" s="37"/>
     </row>
-    <row r="328" spans="1:19" ht="13" customHeight="1">
+    <row r="328" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="31"/>
       <c r="B328" s="27"/>
       <c r="C328" s="30"/>
@@ -9580,7 +9588,7 @@
       <c r="R328" s="37"/>
       <c r="S328" s="37"/>
     </row>
-    <row r="329" spans="1:19" ht="13" customHeight="1">
+    <row r="329" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="31"/>
       <c r="B329" s="27"/>
       <c r="C329" s="30"/>
@@ -9601,7 +9609,7 @@
       <c r="R329" s="37"/>
       <c r="S329" s="37"/>
     </row>
-    <row r="330" spans="1:19" ht="13" customHeight="1">
+    <row r="330" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="31"/>
       <c r="B330" s="27"/>
       <c r="C330" s="30"/>
@@ -9622,7 +9630,7 @@
       <c r="R330" s="37"/>
       <c r="S330" s="37"/>
     </row>
-    <row r="331" spans="1:19" ht="13" customHeight="1">
+    <row r="331" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="31"/>
       <c r="B331" s="27"/>
       <c r="C331" s="30"/>
@@ -9643,7 +9651,7 @@
       <c r="R331" s="37"/>
       <c r="S331" s="37"/>
     </row>
-    <row r="332" spans="1:19" ht="13" customHeight="1">
+    <row r="332" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="31"/>
       <c r="B332" s="27"/>
       <c r="C332" s="30"/>
@@ -9664,7 +9672,7 @@
       <c r="R332" s="37"/>
       <c r="S332" s="37"/>
     </row>
-    <row r="333" spans="1:19" ht="13" customHeight="1">
+    <row r="333" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="31"/>
       <c r="B333" s="27"/>
       <c r="C333" s="30"/>
@@ -9685,7 +9693,7 @@
       <c r="R333" s="37"/>
       <c r="S333" s="37"/>
     </row>
-    <row r="334" spans="1:19" ht="13" customHeight="1">
+    <row r="334" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="31"/>
       <c r="B334" s="27"/>
       <c r="C334" s="30"/>
@@ -9706,7 +9714,7 @@
       <c r="R334" s="37"/>
       <c r="S334" s="37"/>
     </row>
-    <row r="335" spans="1:19" ht="13" customHeight="1">
+    <row r="335" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="31"/>
       <c r="B335" s="27"/>
       <c r="C335" s="30"/>
@@ -9727,7 +9735,7 @@
       <c r="R335" s="37"/>
       <c r="S335" s="37"/>
     </row>
-    <row r="336" spans="1:19" ht="13" customHeight="1">
+    <row r="336" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="31"/>
       <c r="B336" s="27"/>
       <c r="C336" s="30"/>
@@ -9748,7 +9756,7 @@
       <c r="R336" s="37"/>
       <c r="S336" s="37"/>
     </row>
-    <row r="337" spans="1:19" ht="13" customHeight="1">
+    <row r="337" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="31"/>
       <c r="B337" s="27"/>
       <c r="C337" s="30"/>
@@ -9769,7 +9777,7 @@
       <c r="R337" s="37"/>
       <c r="S337" s="37"/>
     </row>
-    <row r="338" spans="1:19" ht="13" customHeight="1">
+    <row r="338" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="31"/>
       <c r="B338" s="27"/>
       <c r="C338" s="30"/>
@@ -9790,7 +9798,7 @@
       <c r="R338" s="37"/>
       <c r="S338" s="37"/>
     </row>
-    <row r="339" spans="1:19" ht="13" customHeight="1">
+    <row r="339" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="31"/>
       <c r="B339" s="27"/>
       <c r="C339" s="30"/>
@@ -9811,7 +9819,7 @@
       <c r="R339" s="37"/>
       <c r="S339" s="37"/>
     </row>
-    <row r="340" spans="1:19" ht="13" customHeight="1">
+    <row r="340" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="31"/>
       <c r="B340" s="27"/>
       <c r="C340" s="30"/>
@@ -9832,7 +9840,7 @@
       <c r="R340" s="37"/>
       <c r="S340" s="37"/>
     </row>
-    <row r="341" spans="1:19" ht="13" customHeight="1">
+    <row r="341" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="31"/>
       <c r="B341" s="27"/>
       <c r="C341" s="30"/>
@@ -9853,7 +9861,7 @@
       <c r="R341" s="37"/>
       <c r="S341" s="37"/>
     </row>
-    <row r="342" spans="1:19" ht="13" customHeight="1">
+    <row r="342" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="31"/>
       <c r="B342" s="27"/>
       <c r="C342" s="30"/>
@@ -9874,7 +9882,7 @@
       <c r="R342" s="37"/>
       <c r="S342" s="37"/>
     </row>
-    <row r="343" spans="1:19" ht="13" customHeight="1">
+    <row r="343" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="31"/>
       <c r="B343" s="27"/>
       <c r="C343" s="30"/>
@@ -9895,7 +9903,7 @@
       <c r="R343" s="37"/>
       <c r="S343" s="37"/>
     </row>
-    <row r="344" spans="1:19" ht="13" customHeight="1">
+    <row r="344" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="31"/>
       <c r="B344" s="27"/>
       <c r="C344" s="30"/>
@@ -9916,7 +9924,7 @@
       <c r="R344" s="37"/>
       <c r="S344" s="37"/>
     </row>
-    <row r="345" spans="1:19" ht="13" customHeight="1">
+    <row r="345" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="31"/>
       <c r="B345" s="27"/>
       <c r="C345" s="30"/>
@@ -9937,7 +9945,7 @@
       <c r="R345" s="37"/>
       <c r="S345" s="37"/>
     </row>
-    <row r="346" spans="1:19" ht="13" customHeight="1">
+    <row r="346" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="31"/>
       <c r="B346" s="27"/>
       <c r="C346" s="30"/>
@@ -9958,7 +9966,7 @@
       <c r="R346" s="37"/>
       <c r="S346" s="37"/>
     </row>
-    <row r="347" spans="1:19" ht="13" customHeight="1">
+    <row r="347" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="31"/>
       <c r="B347" s="27"/>
       <c r="C347" s="30"/>
@@ -9979,7 +9987,7 @@
       <c r="R347" s="37"/>
       <c r="S347" s="37"/>
     </row>
-    <row r="348" spans="1:19" ht="13" customHeight="1">
+    <row r="348" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="31"/>
       <c r="B348" s="27"/>
       <c r="C348" s="30"/>
@@ -10000,7 +10008,7 @@
       <c r="R348" s="37"/>
       <c r="S348" s="37"/>
     </row>
-    <row r="349" spans="1:19" ht="13" customHeight="1">
+    <row r="349" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="31"/>
       <c r="B349" s="27"/>
       <c r="C349" s="30"/>
@@ -10021,7 +10029,7 @@
       <c r="R349" s="37"/>
       <c r="S349" s="37"/>
     </row>
-    <row r="350" spans="1:19" ht="13" customHeight="1">
+    <row r="350" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="31"/>
       <c r="B350" s="27"/>
       <c r="C350" s="30"/>
@@ -10042,7 +10050,7 @@
       <c r="R350" s="37"/>
       <c r="S350" s="37"/>
     </row>
-    <row r="351" spans="1:19" ht="13" customHeight="1">
+    <row r="351" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="31"/>
       <c r="B351" s="27"/>
       <c r="C351" s="30"/>
@@ -10063,7 +10071,7 @@
       <c r="R351" s="37"/>
       <c r="S351" s="37"/>
     </row>
-    <row r="352" spans="1:19" ht="13" customHeight="1">
+    <row r="352" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="31"/>
       <c r="B352" s="27"/>
       <c r="C352" s="30"/>
@@ -10084,7 +10092,7 @@
       <c r="R352" s="37"/>
       <c r="S352" s="37"/>
     </row>
-    <row r="353" spans="1:19" ht="13" customHeight="1">
+    <row r="353" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="31"/>
       <c r="B353" s="27"/>
       <c r="C353" s="30"/>
@@ -10105,7 +10113,7 @@
       <c r="R353" s="37"/>
       <c r="S353" s="37"/>
     </row>
-    <row r="354" spans="1:19" ht="13" customHeight="1">
+    <row r="354" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="31"/>
       <c r="B354" s="27"/>
       <c r="C354" s="30"/>
@@ -10126,7 +10134,7 @@
       <c r="R354" s="37"/>
       <c r="S354" s="37"/>
     </row>
-    <row r="355" spans="1:19" ht="13" customHeight="1">
+    <row r="355" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="31"/>
       <c r="B355" s="27"/>
       <c r="C355" s="30"/>
@@ -10147,7 +10155,7 @@
       <c r="R355" s="37"/>
       <c r="S355" s="37"/>
     </row>
-    <row r="356" spans="1:19" ht="13" customHeight="1">
+    <row r="356" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="31"/>
       <c r="B356" s="27"/>
       <c r="C356" s="30"/>
@@ -10168,7 +10176,7 @@
       <c r="R356" s="37"/>
       <c r="S356" s="37"/>
     </row>
-    <row r="357" spans="1:19" ht="13" customHeight="1">
+    <row r="357" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="31"/>
       <c r="B357" s="27"/>
       <c r="C357" s="30"/>
@@ -10189,7 +10197,7 @@
       <c r="R357" s="37"/>
       <c r="S357" s="37"/>
     </row>
-    <row r="358" spans="1:19" ht="13" customHeight="1">
+    <row r="358" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="31"/>
       <c r="B358" s="27"/>
       <c r="C358" s="30"/>
@@ -10210,7 +10218,7 @@
       <c r="R358" s="37"/>
       <c r="S358" s="37"/>
     </row>
-    <row r="359" spans="1:19" ht="13" customHeight="1">
+    <row r="359" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="31"/>
       <c r="B359" s="27"/>
       <c r="C359" s="30"/>
@@ -10231,7 +10239,7 @@
       <c r="R359" s="37"/>
       <c r="S359" s="37"/>
     </row>
-    <row r="360" spans="1:19" ht="13" customHeight="1">
+    <row r="360" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="31"/>
       <c r="B360" s="27"/>
       <c r="C360" s="30"/>
@@ -10252,7 +10260,7 @@
       <c r="R360" s="37"/>
       <c r="S360" s="37"/>
     </row>
-    <row r="361" spans="1:19" ht="13" customHeight="1">
+    <row r="361" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="31"/>
       <c r="B361" s="27"/>
       <c r="C361" s="30"/>
@@ -10273,7 +10281,7 @@
       <c r="R361" s="37"/>
       <c r="S361" s="37"/>
     </row>
-    <row r="362" spans="1:19" ht="13" customHeight="1">
+    <row r="362" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="31"/>
       <c r="B362" s="27"/>
       <c r="C362" s="30"/>
@@ -10294,7 +10302,7 @@
       <c r="R362" s="37"/>
       <c r="S362" s="37"/>
     </row>
-    <row r="363" spans="1:19" ht="13" customHeight="1">
+    <row r="363" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="31"/>
       <c r="B363" s="27"/>
       <c r="C363" s="30"/>
@@ -10315,7 +10323,7 @@
       <c r="R363" s="37"/>
       <c r="S363" s="37"/>
     </row>
-    <row r="364" spans="1:19" ht="13" customHeight="1">
+    <row r="364" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="31"/>
       <c r="B364" s="27"/>
       <c r="C364" s="30"/>
@@ -10336,7 +10344,7 @@
       <c r="R364" s="37"/>
       <c r="S364" s="37"/>
     </row>
-    <row r="365" spans="1:19" ht="13" customHeight="1">
+    <row r="365" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="31"/>
       <c r="B365" s="27"/>
       <c r="C365" s="30"/>
@@ -10357,7 +10365,7 @@
       <c r="R365" s="37"/>
       <c r="S365" s="37"/>
     </row>
-    <row r="366" spans="1:19" ht="13" customHeight="1">
+    <row r="366" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="31"/>
       <c r="B366" s="27"/>
       <c r="C366" s="30"/>
@@ -10378,7 +10386,7 @@
       <c r="R366" s="37"/>
       <c r="S366" s="37"/>
     </row>
-    <row r="367" spans="1:19" ht="13" customHeight="1">
+    <row r="367" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="31"/>
       <c r="B367" s="27"/>
       <c r="C367" s="30"/>
@@ -10399,7 +10407,7 @@
       <c r="R367" s="37"/>
       <c r="S367" s="37"/>
     </row>
-    <row r="368" spans="1:19" ht="13" customHeight="1">
+    <row r="368" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="31"/>
       <c r="B368" s="27"/>
       <c r="C368" s="30"/>
@@ -10420,7 +10428,7 @@
       <c r="R368" s="37"/>
       <c r="S368" s="37"/>
     </row>
-    <row r="369" spans="1:19" ht="13" customHeight="1">
+    <row r="369" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="31"/>
       <c r="B369" s="27"/>
       <c r="C369" s="30"/>
@@ -10441,7 +10449,7 @@
       <c r="R369" s="37"/>
       <c r="S369" s="37"/>
     </row>
-    <row r="370" spans="1:19" ht="13" customHeight="1">
+    <row r="370" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="31"/>
       <c r="B370" s="27"/>
       <c r="C370" s="30"/>
@@ -10462,7 +10470,7 @@
       <c r="R370" s="37"/>
       <c r="S370" s="37"/>
     </row>
-    <row r="371" spans="1:19" ht="13" customHeight="1">
+    <row r="371" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="31"/>
       <c r="B371" s="27"/>
       <c r="C371" s="30"/>
@@ -10483,7 +10491,7 @@
       <c r="R371" s="37"/>
       <c r="S371" s="37"/>
     </row>
-    <row r="372" spans="1:19" ht="13" customHeight="1">
+    <row r="372" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="31"/>
       <c r="B372" s="27"/>
       <c r="C372" s="30"/>
@@ -10504,7 +10512,7 @@
       <c r="R372" s="37"/>
       <c r="S372" s="37"/>
     </row>
-    <row r="373" spans="1:19" ht="13" customHeight="1">
+    <row r="373" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="31"/>
       <c r="B373" s="27"/>
       <c r="C373" s="30"/>
@@ -10525,7 +10533,7 @@
       <c r="R373" s="37"/>
       <c r="S373" s="37"/>
     </row>
-    <row r="374" spans="1:19" ht="13" customHeight="1">
+    <row r="374" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="31"/>
       <c r="B374" s="27"/>
       <c r="C374" s="30"/>
@@ -10546,7 +10554,7 @@
       <c r="R374" s="37"/>
       <c r="S374" s="37"/>
     </row>
-    <row r="375" spans="1:19" ht="13" customHeight="1">
+    <row r="375" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="31"/>
       <c r="B375" s="27"/>
       <c r="C375" s="30"/>
@@ -10567,7 +10575,7 @@
       <c r="R375" s="37"/>
       <c r="S375" s="37"/>
     </row>
-    <row r="376" spans="1:19" ht="13" customHeight="1">
+    <row r="376" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="31"/>
       <c r="B376" s="27"/>
       <c r="C376" s="30"/>
@@ -10588,7 +10596,7 @@
       <c r="R376" s="37"/>
       <c r="S376" s="37"/>
     </row>
-    <row r="377" spans="1:19" ht="13" customHeight="1">
+    <row r="377" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="31"/>
       <c r="B377" s="27"/>
       <c r="C377" s="30"/>
@@ -10609,7 +10617,7 @@
       <c r="R377" s="37"/>
       <c r="S377" s="37"/>
     </row>
-    <row r="378" spans="1:19" ht="13" customHeight="1">
+    <row r="378" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="31"/>
       <c r="B378" s="27"/>
       <c r="C378" s="30"/>
@@ -10630,7 +10638,7 @@
       <c r="R378" s="37"/>
       <c r="S378" s="37"/>
     </row>
-    <row r="379" spans="1:19" ht="13" customHeight="1">
+    <row r="379" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="31"/>
       <c r="B379" s="27"/>
       <c r="C379" s="30"/>
@@ -10651,7 +10659,7 @@
       <c r="R379" s="37"/>
       <c r="S379" s="37"/>
     </row>
-    <row r="380" spans="1:19" ht="13" customHeight="1">
+    <row r="380" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="31"/>
       <c r="B380" s="27"/>
       <c r="C380" s="30"/>
@@ -10672,7 +10680,7 @@
       <c r="R380" s="37"/>
       <c r="S380" s="37"/>
     </row>
-    <row r="381" spans="1:19" ht="13" customHeight="1">
+    <row r="381" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="31"/>
       <c r="B381" s="27"/>
       <c r="C381" s="30"/>
@@ -10693,7 +10701,7 @@
       <c r="R381" s="37"/>
       <c r="S381" s="37"/>
     </row>
-    <row r="382" spans="1:19" ht="13" customHeight="1">
+    <row r="382" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="31"/>
       <c r="B382" s="27"/>
       <c r="C382" s="30"/>
@@ -10714,7 +10722,7 @@
       <c r="R382" s="37"/>
       <c r="S382" s="37"/>
     </row>
-    <row r="383" spans="1:19" ht="13" customHeight="1">
+    <row r="383" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="31"/>
       <c r="B383" s="27"/>
       <c r="C383" s="30"/>
@@ -10735,7 +10743,7 @@
       <c r="R383" s="37"/>
       <c r="S383" s="37"/>
     </row>
-    <row r="384" spans="1:19" ht="13" customHeight="1">
+    <row r="384" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="31"/>
       <c r="B384" s="27"/>
       <c r="C384" s="30"/>
@@ -10756,7 +10764,7 @@
       <c r="R384" s="37"/>
       <c r="S384" s="37"/>
     </row>
-    <row r="385" spans="1:19" ht="13" customHeight="1">
+    <row r="385" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="31"/>
       <c r="B385" s="27"/>
       <c r="C385" s="30"/>
@@ -10777,7 +10785,7 @@
       <c r="R385" s="37"/>
       <c r="S385" s="37"/>
     </row>
-    <row r="386" spans="1:19" ht="13" customHeight="1">
+    <row r="386" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="31"/>
       <c r="B386" s="27"/>
       <c r="C386" s="30"/>
@@ -10798,7 +10806,7 @@
       <c r="R386" s="37"/>
       <c r="S386" s="37"/>
     </row>
-    <row r="387" spans="1:19" ht="13" customHeight="1">
+    <row r="387" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="31"/>
       <c r="B387" s="27"/>
       <c r="C387" s="30"/>
@@ -10819,7 +10827,7 @@
       <c r="R387" s="37"/>
       <c r="S387" s="37"/>
     </row>
-    <row r="388" spans="1:19" ht="13" customHeight="1">
+    <row r="388" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="31"/>
       <c r="B388" s="27"/>
       <c r="C388" s="30"/>
@@ -10840,7 +10848,7 @@
       <c r="R388" s="37"/>
       <c r="S388" s="37"/>
     </row>
-    <row r="389" spans="1:19" ht="13" customHeight="1">
+    <row r="389" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="31"/>
       <c r="B389" s="27"/>
       <c r="C389" s="30"/>
@@ -10861,7 +10869,7 @@
       <c r="R389" s="37"/>
       <c r="S389" s="37"/>
     </row>
-    <row r="390" spans="1:19" ht="13" customHeight="1">
+    <row r="390" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="31"/>
       <c r="B390" s="27"/>
       <c r="C390" s="30"/>
@@ -10882,7 +10890,7 @@
       <c r="R390" s="37"/>
       <c r="S390" s="37"/>
     </row>
-    <row r="391" spans="1:19" ht="13" customHeight="1">
+    <row r="391" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="31"/>
       <c r="B391" s="27"/>
       <c r="C391" s="30"/>
@@ -10903,7 +10911,7 @@
       <c r="R391" s="37"/>
       <c r="S391" s="37"/>
     </row>
-    <row r="392" spans="1:19" ht="13" customHeight="1">
+    <row r="392" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="31"/>
       <c r="B392" s="27"/>
       <c r="C392" s="30"/>
@@ -10924,7 +10932,7 @@
       <c r="R392" s="37"/>
       <c r="S392" s="37"/>
     </row>
-    <row r="393" spans="1:19" ht="13" customHeight="1">
+    <row r="393" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="31"/>
       <c r="B393" s="27"/>
       <c r="C393" s="30"/>
@@ -10945,7 +10953,7 @@
       <c r="R393" s="37"/>
       <c r="S393" s="37"/>
     </row>
-    <row r="394" spans="1:19" ht="13" customHeight="1">
+    <row r="394" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="31"/>
       <c r="B394" s="27"/>
       <c r="C394" s="30"/>
@@ -10966,7 +10974,7 @@
       <c r="R394" s="37"/>
       <c r="S394" s="37"/>
     </row>
-    <row r="395" spans="1:19" ht="13" customHeight="1">
+    <row r="395" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="31"/>
       <c r="B395" s="27"/>
       <c r="C395" s="30"/>
@@ -10987,7 +10995,7 @@
       <c r="R395" s="37"/>
       <c r="S395" s="37"/>
     </row>
-    <row r="396" spans="1:19" ht="13" customHeight="1">
+    <row r="396" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="31"/>
       <c r="B396" s="27"/>
       <c r="C396" s="30"/>
@@ -11008,7 +11016,7 @@
       <c r="R396" s="37"/>
       <c r="S396" s="37"/>
     </row>
-    <row r="397" spans="1:19" ht="13" customHeight="1">
+    <row r="397" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="31"/>
       <c r="B397" s="27"/>
       <c r="C397" s="30"/>
@@ -11029,7 +11037,7 @@
       <c r="R397" s="37"/>
       <c r="S397" s="37"/>
     </row>
-    <row r="398" spans="1:19" ht="13" customHeight="1">
+    <row r="398" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="31"/>
       <c r="B398" s="27"/>
       <c r="C398" s="30"/>
@@ -11050,7 +11058,7 @@
       <c r="R398" s="37"/>
       <c r="S398" s="37"/>
     </row>
-    <row r="399" spans="1:19" ht="13" customHeight="1">
+    <row r="399" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="31"/>
       <c r="B399" s="27"/>
       <c r="C399" s="30"/>
@@ -11071,7 +11079,7 @@
       <c r="R399" s="37"/>
       <c r="S399" s="37"/>
     </row>
-    <row r="400" spans="1:19" ht="13" customHeight="1">
+    <row r="400" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="31"/>
       <c r="B400" s="27"/>
       <c r="C400" s="30"/>
@@ -11092,7 +11100,7 @@
       <c r="R400" s="37"/>
       <c r="S400" s="37"/>
     </row>
-    <row r="401" spans="1:19" ht="13" customHeight="1">
+    <row r="401" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="31"/>
       <c r="B401" s="27"/>
       <c r="C401" s="30"/>
@@ -11113,7 +11121,7 @@
       <c r="R401" s="37"/>
       <c r="S401" s="37"/>
     </row>
-    <row r="402" spans="1:19" ht="13" customHeight="1">
+    <row r="402" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="31"/>
       <c r="B402" s="27"/>
       <c r="C402" s="30"/>
@@ -11134,7 +11142,7 @@
       <c r="R402" s="37"/>
       <c r="S402" s="37"/>
     </row>
-    <row r="403" spans="1:19" ht="13" customHeight="1">
+    <row r="403" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="31"/>
       <c r="B403" s="27"/>
       <c r="C403" s="30"/>
@@ -11155,7 +11163,7 @@
       <c r="R403" s="37"/>
       <c r="S403" s="37"/>
     </row>
-    <row r="404" spans="1:19" ht="13" customHeight="1">
+    <row r="404" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="31"/>
       <c r="B404" s="27"/>
       <c r="C404" s="30"/>
@@ -11176,7 +11184,7 @@
       <c r="R404" s="37"/>
       <c r="S404" s="37"/>
     </row>
-    <row r="405" spans="1:19" ht="13" customHeight="1">
+    <row r="405" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="31"/>
       <c r="B405" s="27"/>
       <c r="C405" s="30"/>
@@ -11197,7 +11205,7 @@
       <c r="R405" s="37"/>
       <c r="S405" s="37"/>
     </row>
-    <row r="406" spans="1:19" ht="13" customHeight="1">
+    <row r="406" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="31"/>
       <c r="B406" s="27"/>
       <c r="C406" s="30"/>
@@ -11218,7 +11226,7 @@
       <c r="R406" s="37"/>
       <c r="S406" s="37"/>
     </row>
-    <row r="407" spans="1:19" ht="13" customHeight="1">
+    <row r="407" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="31"/>
       <c r="B407" s="27"/>
       <c r="C407" s="30"/>
@@ -11239,7 +11247,7 @@
       <c r="R407" s="37"/>
       <c r="S407" s="37"/>
     </row>
-    <row r="408" spans="1:19" ht="13" customHeight="1">
+    <row r="408" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="31"/>
       <c r="B408" s="27"/>
       <c r="C408" s="30"/>
@@ -11260,7 +11268,7 @@
       <c r="R408" s="37"/>
       <c r="S408" s="37"/>
     </row>
-    <row r="409" spans="1:19" ht="13" customHeight="1">
+    <row r="409" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="31"/>
       <c r="B409" s="27"/>
       <c r="C409" s="30"/>
@@ -11281,7 +11289,7 @@
       <c r="R409" s="37"/>
       <c r="S409" s="37"/>
     </row>
-    <row r="410" spans="1:19" ht="13" customHeight="1">
+    <row r="410" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="31"/>
       <c r="B410" s="27"/>
       <c r="C410" s="30"/>
@@ -11302,7 +11310,7 @@
       <c r="R410" s="37"/>
       <c r="S410" s="37"/>
     </row>
-    <row r="411" spans="1:19" ht="13" customHeight="1">
+    <row r="411" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="31"/>
       <c r="B411" s="27"/>
       <c r="C411" s="30"/>
@@ -11323,7 +11331,7 @@
       <c r="R411" s="37"/>
       <c r="S411" s="37"/>
     </row>
-    <row r="412" spans="1:19" ht="13" customHeight="1">
+    <row r="412" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="31"/>
       <c r="B412" s="27"/>
       <c r="C412" s="30"/>
@@ -11344,7 +11352,7 @@
       <c r="R412" s="37"/>
       <c r="S412" s="37"/>
     </row>
-    <row r="413" spans="1:19" ht="13" customHeight="1">
+    <row r="413" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="31"/>
       <c r="B413" s="27"/>
       <c r="C413" s="30"/>
@@ -11365,7 +11373,7 @@
       <c r="R413" s="37"/>
       <c r="S413" s="37"/>
     </row>
-    <row r="414" spans="1:19" ht="13" customHeight="1">
+    <row r="414" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="31"/>
       <c r="B414" s="27"/>
       <c r="C414" s="30"/>
@@ -11386,7 +11394,7 @@
       <c r="R414" s="37"/>
       <c r="S414" s="37"/>
     </row>
-    <row r="415" spans="1:19" ht="13" customHeight="1">
+    <row r="415" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="31"/>
       <c r="B415" s="27"/>
       <c r="C415" s="30"/>
@@ -11407,7 +11415,7 @@
       <c r="R415" s="37"/>
       <c r="S415" s="37"/>
     </row>
-    <row r="416" spans="1:19" ht="13" customHeight="1">
+    <row r="416" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="31"/>
       <c r="B416" s="27"/>
       <c r="C416" s="30"/>
@@ -11428,7 +11436,7 @@
       <c r="R416" s="37"/>
       <c r="S416" s="37"/>
     </row>
-    <row r="417" spans="1:19" ht="13" customHeight="1">
+    <row r="417" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="31"/>
       <c r="B417" s="27"/>
       <c r="C417" s="30"/>
@@ -11449,7 +11457,7 @@
       <c r="R417" s="37"/>
       <c r="S417" s="37"/>
     </row>
-    <row r="418" spans="1:19" ht="13" customHeight="1">
+    <row r="418" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="31"/>
       <c r="B418" s="27"/>
       <c r="C418" s="30"/>
@@ -11470,7 +11478,7 @@
       <c r="R418" s="37"/>
       <c r="S418" s="37"/>
     </row>
-    <row r="419" spans="1:19" ht="13" customHeight="1">
+    <row r="419" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="31"/>
       <c r="B419" s="27"/>
       <c r="C419" s="30"/>
@@ -11491,7 +11499,7 @@
       <c r="R419" s="37"/>
       <c r="S419" s="37"/>
     </row>
-    <row r="420" spans="1:19" ht="13" customHeight="1">
+    <row r="420" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="31"/>
       <c r="B420" s="27"/>
       <c r="C420" s="30"/>
@@ -11512,7 +11520,7 @@
       <c r="R420" s="37"/>
       <c r="S420" s="37"/>
     </row>
-    <row r="421" spans="1:19" ht="13" customHeight="1">
+    <row r="421" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="31"/>
       <c r="B421" s="27"/>
       <c r="C421" s="30"/>
@@ -11527,7 +11535,7 @@
       <c r="L421" s="28"/>
       <c r="M421" s="25"/>
     </row>
-    <row r="422" spans="1:19" ht="13" customHeight="1">
+    <row r="422" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="31"/>
       <c r="B422" s="27"/>
       <c r="C422" s="30"/>
@@ -11542,7 +11550,7 @@
       <c r="L422" s="28"/>
       <c r="M422" s="25"/>
     </row>
-    <row r="423" spans="1:19" ht="13" customHeight="1">
+    <row r="423" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="31"/>
       <c r="B423" s="27"/>
       <c r="C423" s="30"/>
@@ -11557,7 +11565,7 @@
       <c r="L423" s="28"/>
       <c r="M423" s="25"/>
     </row>
-    <row r="424" spans="1:19" ht="13" customHeight="1">
+    <row r="424" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="31"/>
       <c r="B424" s="27"/>
       <c r="C424" s="30"/>
@@ -11572,7 +11580,7 @@
       <c r="L424" s="28"/>
       <c r="M424" s="25"/>
     </row>
-    <row r="425" spans="1:19" ht="13" customHeight="1">
+    <row r="425" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="31"/>
       <c r="B425" s="27"/>
       <c r="C425" s="30"/>
@@ -11587,7 +11595,7 @@
       <c r="L425" s="28"/>
       <c r="M425" s="25"/>
     </row>
-    <row r="426" spans="1:19" ht="13" customHeight="1">
+    <row r="426" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="31"/>
       <c r="B426" s="27"/>
       <c r="C426" s="30"/>
@@ -11602,7 +11610,7 @@
       <c r="L426" s="28"/>
       <c r="M426" s="25"/>
     </row>
-    <row r="427" spans="1:19" ht="13" customHeight="1">
+    <row r="427" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="31"/>
       <c r="B427" s="27"/>
       <c r="C427" s="30"/>
@@ -11617,7 +11625,7 @@
       <c r="L427" s="28"/>
       <c r="M427" s="25"/>
     </row>
-    <row r="428" spans="1:19" ht="13" customHeight="1">
+    <row r="428" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="31"/>
       <c r="B428" s="27"/>
       <c r="C428" s="30"/>
@@ -11632,7 +11640,7 @@
       <c r="L428" s="28"/>
       <c r="M428" s="25"/>
     </row>
-    <row r="429" spans="1:19" ht="13" customHeight="1">
+    <row r="429" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="31"/>
       <c r="B429" s="27"/>
       <c r="C429" s="30"/>
@@ -11647,7 +11655,7 @@
       <c r="L429" s="28"/>
       <c r="M429" s="25"/>
     </row>
-    <row r="430" spans="1:19" ht="13" customHeight="1">
+    <row r="430" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="31"/>
       <c r="B430" s="27"/>
       <c r="C430" s="30"/>
@@ -11662,7 +11670,7 @@
       <c r="L430" s="28"/>
       <c r="M430" s="25"/>
     </row>
-    <row r="431" spans="1:19" ht="13" customHeight="1">
+    <row r="431" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="31"/>
       <c r="B431" s="27"/>
       <c r="C431" s="30"/>
@@ -11677,7 +11685,7 @@
       <c r="L431" s="28"/>
       <c r="M431" s="25"/>
     </row>
-    <row r="432" spans="1:19" ht="13" customHeight="1">
+    <row r="432" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="31"/>
       <c r="B432" s="27"/>
       <c r="C432" s="30"/>
@@ -11692,7 +11700,7 @@
       <c r="L432" s="28"/>
       <c r="M432" s="25"/>
     </row>
-    <row r="433" spans="1:19" ht="13" customHeight="1">
+    <row r="433" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="31"/>
       <c r="B433" s="27"/>
       <c r="C433" s="30"/>
@@ -11707,7 +11715,7 @@
       <c r="L433" s="28"/>
       <c r="M433" s="25"/>
     </row>
-    <row r="434" spans="1:19" ht="13" customHeight="1">
+    <row r="434" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="31"/>
       <c r="B434" s="27"/>
       <c r="C434" s="30"/>
@@ -11722,7 +11730,7 @@
       <c r="L434" s="28"/>
       <c r="M434" s="25"/>
     </row>
-    <row r="435" spans="1:19" ht="13" customHeight="1">
+    <row r="435" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="31"/>
       <c r="B435" s="27"/>
       <c r="C435" s="30"/>
@@ -11743,7 +11751,7 @@
       <c r="R435" s="37"/>
       <c r="S435" s="37"/>
     </row>
-    <row r="436" spans="1:19" ht="13" customHeight="1">
+    <row r="436" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="31"/>
       <c r="B436" s="27"/>
       <c r="C436" s="30"/>
@@ -11758,7 +11766,7 @@
       <c r="L436" s="28"/>
       <c r="M436" s="25"/>
     </row>
-    <row r="437" spans="1:19" ht="13" customHeight="1">
+    <row r="437" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="31"/>
       <c r="B437" s="27"/>
       <c r="C437" s="30"/>
@@ -11773,7 +11781,7 @@
       <c r="L437" s="28"/>
       <c r="M437" s="25"/>
     </row>
-    <row r="438" spans="1:19" ht="13" customHeight="1">
+    <row r="438" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="31"/>
       <c r="B438" s="27"/>
       <c r="C438" s="30"/>
@@ -11788,7 +11796,7 @@
       <c r="L438" s="28"/>
       <c r="M438" s="25"/>
     </row>
-    <row r="439" spans="1:19" ht="13" customHeight="1">
+    <row r="439" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="31"/>
       <c r="B439" s="27"/>
       <c r="C439" s="30"/>
@@ -11803,7 +11811,7 @@
       <c r="L439" s="28"/>
       <c r="M439" s="25"/>
     </row>
-    <row r="440" spans="1:19" ht="13" customHeight="1">
+    <row r="440" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="31"/>
       <c r="B440" s="27"/>
       <c r="C440" s="30"/>
@@ -11818,7 +11826,7 @@
       <c r="L440" s="28"/>
       <c r="M440" s="25"/>
     </row>
-    <row r="441" spans="1:19" ht="13" customHeight="1">
+    <row r="441" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="31"/>
       <c r="B441" s="27"/>
       <c r="C441" s="30"/>
@@ -11833,7 +11841,7 @@
       <c r="L441" s="28"/>
       <c r="M441" s="25"/>
     </row>
-    <row r="442" spans="1:19" ht="13" customHeight="1">
+    <row r="442" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="31"/>
       <c r="B442" s="27"/>
       <c r="C442" s="30"/>
@@ -11848,7 +11856,7 @@
       <c r="L442" s="28"/>
       <c r="M442" s="25"/>
     </row>
-    <row r="443" spans="1:19" ht="13" customHeight="1">
+    <row r="443" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="31"/>
       <c r="B443" s="27"/>
       <c r="C443" s="30"/>
@@ -11863,7 +11871,7 @@
       <c r="L443" s="28"/>
       <c r="M443" s="25"/>
     </row>
-    <row r="444" spans="1:19" ht="13" customHeight="1">
+    <row r="444" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="31"/>
       <c r="B444" s="27"/>
       <c r="C444" s="30"/>
@@ -11878,7 +11886,7 @@
       <c r="L444" s="28"/>
       <c r="M444" s="25"/>
     </row>
-    <row r="445" spans="1:19" ht="13" customHeight="1">
+    <row r="445" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="31"/>
       <c r="B445" s="27"/>
       <c r="C445" s="30"/>
@@ -11893,7 +11901,7 @@
       <c r="L445" s="28"/>
       <c r="M445" s="25"/>
     </row>
-    <row r="446" spans="1:19" ht="13" customHeight="1">
+    <row r="446" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="31"/>
       <c r="B446" s="27"/>
       <c r="C446" s="30"/>
@@ -11908,7 +11916,7 @@
       <c r="L446" s="28"/>
       <c r="M446" s="25"/>
     </row>
-    <row r="447" spans="1:19" ht="13" customHeight="1">
+    <row r="447" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="31"/>
       <c r="B447" s="27"/>
       <c r="C447" s="30"/>
@@ -11923,7 +11931,7 @@
       <c r="L447" s="28"/>
       <c r="M447" s="25"/>
     </row>
-    <row r="448" spans="1:19" ht="13" customHeight="1">
+    <row r="448" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="31"/>
       <c r="B448" s="27"/>
       <c r="C448" s="30"/>
@@ -11938,7 +11946,7 @@
       <c r="L448" s="28"/>
       <c r="M448" s="25"/>
     </row>
-    <row r="449" spans="1:13" ht="13" customHeight="1">
+    <row r="449" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="31"/>
       <c r="B449" s="27"/>
       <c r="C449" s="30"/>
@@ -11953,7 +11961,7 @@
       <c r="L449" s="28"/>
       <c r="M449" s="25"/>
     </row>
-    <row r="450" spans="1:13" ht="13" customHeight="1">
+    <row r="450" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="31"/>
       <c r="B450" s="27"/>
       <c r="C450" s="30"/>
@@ -11968,7 +11976,7 @@
       <c r="L450" s="28"/>
       <c r="M450" s="25"/>
     </row>
-    <row r="451" spans="1:13" ht="13" customHeight="1">
+    <row r="451" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="31"/>
       <c r="B451" s="27"/>
       <c r="C451" s="30"/>
@@ -11983,7 +11991,7 @@
       <c r="L451" s="28"/>
       <c r="M451" s="25"/>
     </row>
-    <row r="452" spans="1:13" ht="13" customHeight="1">
+    <row r="452" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="31"/>
       <c r="B452" s="27"/>
       <c r="C452" s="30"/>
@@ -11998,7 +12006,7 @@
       <c r="L452" s="28"/>
       <c r="M452" s="25"/>
     </row>
-    <row r="453" spans="1:13" ht="13" customHeight="1">
+    <row r="453" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="31"/>
       <c r="B453" s="27"/>
       <c r="C453" s="30"/>
@@ -12013,7 +12021,7 @@
       <c r="L453" s="28"/>
       <c r="M453" s="25"/>
     </row>
-    <row r="454" spans="1:13" ht="13" customHeight="1">
+    <row r="454" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="31"/>
       <c r="B454" s="27"/>
       <c r="C454" s="30"/>
@@ -12028,7 +12036,7 @@
       <c r="L454" s="28"/>
       <c r="M454" s="25"/>
     </row>
-    <row r="455" spans="1:13" ht="13" customHeight="1">
+    <row r="455" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="31"/>
       <c r="B455" s="27"/>
       <c r="C455" s="30"/>
@@ -12043,7 +12051,7 @@
       <c r="L455" s="28"/>
       <c r="M455" s="25"/>
     </row>
-    <row r="456" spans="1:13" ht="13" customHeight="1">
+    <row r="456" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="31"/>
       <c r="B456" s="27"/>
       <c r="C456" s="30"/>
@@ -12058,7 +12066,7 @@
       <c r="L456" s="28"/>
       <c r="M456" s="25"/>
     </row>
-    <row r="457" spans="1:13" ht="13" customHeight="1">
+    <row r="457" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="31"/>
       <c r="B457" s="27"/>
       <c r="C457" s="30"/>
@@ -12073,7 +12081,7 @@
       <c r="L457" s="28"/>
       <c r="M457" s="25"/>
     </row>
-    <row r="458" spans="1:13" ht="13" customHeight="1">
+    <row r="458" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="31"/>
       <c r="B458" s="27"/>
       <c r="C458" s="30"/>
@@ -12088,7 +12096,7 @@
       <c r="L458" s="28"/>
       <c r="M458" s="25"/>
     </row>
-    <row r="459" spans="1:13" ht="13" customHeight="1">
+    <row r="459" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="31"/>
       <c r="B459" s="27"/>
       <c r="C459" s="30"/>
@@ -12103,7 +12111,7 @@
       <c r="L459" s="28"/>
       <c r="M459" s="25"/>
     </row>
-    <row r="460" spans="1:13" ht="13" customHeight="1">
+    <row r="460" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="31"/>
       <c r="B460" s="27"/>
       <c r="C460" s="30"/>
@@ -12118,7 +12126,7 @@
       <c r="L460" s="28"/>
       <c r="M460" s="25"/>
     </row>
-    <row r="461" spans="1:13" ht="13" customHeight="1">
+    <row r="461" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="31"/>
       <c r="B461" s="27"/>
       <c r="C461" s="30"/>
@@ -12133,7 +12141,7 @@
       <c r="L461" s="28"/>
       <c r="M461" s="25"/>
     </row>
-    <row r="462" spans="1:13" ht="13" customHeight="1">
+    <row r="462" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="31"/>
       <c r="B462" s="27"/>
       <c r="C462" s="30"/>
@@ -12148,7 +12156,7 @@
       <c r="L462" s="28"/>
       <c r="M462" s="25"/>
     </row>
-    <row r="463" spans="1:13" ht="13" customHeight="1">
+    <row r="463" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="31"/>
       <c r="B463" s="27"/>
       <c r="C463" s="30"/>
@@ -12163,7 +12171,7 @@
       <c r="L463" s="28"/>
       <c r="M463" s="25"/>
     </row>
-    <row r="464" spans="1:13" ht="13" customHeight="1">
+    <row r="464" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="31"/>
       <c r="B464" s="27"/>
       <c r="C464" s="30"/>
@@ -12178,7 +12186,7 @@
       <c r="L464" s="28"/>
       <c r="M464" s="25"/>
     </row>
-    <row r="465" spans="1:13" ht="13" customHeight="1">
+    <row r="465" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="31"/>
       <c r="B465" s="27"/>
       <c r="C465" s="30"/>
@@ -12193,7 +12201,7 @@
       <c r="L465" s="28"/>
       <c r="M465" s="25"/>
     </row>
-    <row r="466" spans="1:13" ht="13" customHeight="1">
+    <row r="466" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="31"/>
       <c r="B466" s="27"/>
       <c r="C466" s="30"/>
@@ -12208,7 +12216,7 @@
       <c r="L466" s="28"/>
       <c r="M466" s="25"/>
     </row>
-    <row r="467" spans="1:13" ht="13" customHeight="1">
+    <row r="467" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="31"/>
       <c r="B467" s="27"/>
       <c r="C467" s="30"/>
@@ -12223,7 +12231,7 @@
       <c r="L467" s="28"/>
       <c r="M467" s="25"/>
     </row>
-    <row r="468" spans="1:13" ht="13" customHeight="1">
+    <row r="468" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="31"/>
       <c r="B468" s="27"/>
       <c r="C468" s="30"/>
@@ -12238,7 +12246,7 @@
       <c r="L468" s="28"/>
       <c r="M468" s="25"/>
     </row>
-    <row r="469" spans="1:13" ht="13" customHeight="1">
+    <row r="469" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="31"/>
       <c r="B469" s="27"/>
       <c r="C469" s="30"/>
@@ -12253,7 +12261,7 @@
       <c r="L469" s="28"/>
       <c r="M469" s="25"/>
     </row>
-    <row r="470" spans="1:13" ht="13" customHeight="1">
+    <row r="470" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="31"/>
       <c r="B470" s="27"/>
       <c r="C470" s="30"/>
@@ -12268,7 +12276,7 @@
       <c r="L470" s="28"/>
       <c r="M470" s="25"/>
     </row>
-    <row r="471" spans="1:13" ht="13" customHeight="1">
+    <row r="471" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="31"/>
       <c r="B471" s="27"/>
       <c r="C471" s="30"/>
@@ -12283,7 +12291,7 @@
       <c r="L471" s="28"/>
       <c r="M471" s="25"/>
     </row>
-    <row r="472" spans="1:13" ht="13" customHeight="1">
+    <row r="472" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="31"/>
       <c r="B472" s="27"/>
       <c r="C472" s="30"/>
@@ -12298,7 +12306,7 @@
       <c r="L472" s="28"/>
       <c r="M472" s="25"/>
     </row>
-    <row r="473" spans="1:13" ht="13" customHeight="1">
+    <row r="473" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="31"/>
       <c r="B473" s="27"/>
       <c r="C473" s="30"/>
@@ -12313,7 +12321,7 @@
       <c r="L473" s="28"/>
       <c r="M473" s="25"/>
     </row>
-    <row r="474" spans="1:13" ht="13" customHeight="1">
+    <row r="474" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="31"/>
       <c r="B474" s="27"/>
       <c r="C474" s="30"/>
@@ -12328,7 +12336,7 @@
       <c r="L474" s="28"/>
       <c r="M474" s="25"/>
     </row>
-    <row r="475" spans="1:13" ht="13" customHeight="1">
+    <row r="475" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="31"/>
       <c r="B475" s="27"/>
       <c r="C475" s="30"/>
@@ -12343,7 +12351,7 @@
       <c r="L475" s="28"/>
       <c r="M475" s="25"/>
     </row>
-    <row r="476" spans="1:13" ht="13" customHeight="1">
+    <row r="476" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="31"/>
       <c r="B476" s="27"/>
       <c r="C476" s="30"/>
@@ -12358,7 +12366,7 @@
       <c r="L476" s="28"/>
       <c r="M476" s="25"/>
     </row>
-    <row r="477" spans="1:13" ht="13" customHeight="1">
+    <row r="477" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="31"/>
       <c r="B477" s="27"/>
       <c r="C477" s="30"/>
@@ -12373,7 +12381,7 @@
       <c r="L477" s="28"/>
       <c r="M477" s="25"/>
     </row>
-    <row r="478" spans="1:13" ht="13" customHeight="1">
+    <row r="478" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="31"/>
       <c r="B478" s="27"/>
       <c r="C478" s="30"/>
@@ -12388,7 +12396,7 @@
       <c r="L478" s="28"/>
       <c r="M478" s="25"/>
     </row>
-    <row r="479" spans="1:13" ht="13" customHeight="1">
+    <row r="479" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="31"/>
       <c r="B479" s="27"/>
       <c r="C479" s="30"/>
@@ -12403,7 +12411,7 @@
       <c r="L479" s="28"/>
       <c r="M479" s="25"/>
     </row>
-    <row r="480" spans="1:13" ht="13" customHeight="1">
+    <row r="480" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="31"/>
       <c r="B480" s="27"/>
       <c r="C480" s="30"/>
@@ -12418,7 +12426,7 @@
       <c r="L480" s="28"/>
       <c r="M480" s="25"/>
     </row>
-    <row r="481" spans="1:13" ht="13" customHeight="1">
+    <row r="481" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="31"/>
       <c r="B481" s="27"/>
       <c r="C481" s="30"/>
@@ -12433,7 +12441,7 @@
       <c r="L481" s="28"/>
       <c r="M481" s="25"/>
     </row>
-    <row r="482" spans="1:13" ht="13" customHeight="1">
+    <row r="482" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="31"/>
       <c r="B482" s="27"/>
       <c r="C482" s="30"/>
@@ -12448,7 +12456,7 @@
       <c r="L482" s="28"/>
       <c r="M482" s="25"/>
     </row>
-    <row r="483" spans="1:13" ht="13" customHeight="1">
+    <row r="483" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="31"/>
       <c r="B483" s="27"/>
       <c r="C483" s="30"/>
@@ -12463,7 +12471,7 @@
       <c r="L483" s="28"/>
       <c r="M483" s="25"/>
     </row>
-    <row r="484" spans="1:13" ht="13" customHeight="1">
+    <row r="484" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="31"/>
       <c r="B484" s="27"/>
       <c r="C484" s="30"/>
@@ -12478,7 +12486,7 @@
       <c r="L484" s="28"/>
       <c r="M484" s="25"/>
     </row>
-    <row r="485" spans="1:13" ht="13" customHeight="1">
+    <row r="485" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="31"/>
       <c r="B485" s="27"/>
       <c r="C485" s="30"/>
@@ -12493,7 +12501,7 @@
       <c r="L485" s="28"/>
       <c r="M485" s="25"/>
     </row>
-    <row r="486" spans="1:13" ht="13" customHeight="1">
+    <row r="486" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="31"/>
       <c r="B486" s="27"/>
       <c r="C486" s="30"/>
@@ -12508,7 +12516,7 @@
       <c r="L486" s="28"/>
       <c r="M486" s="25"/>
     </row>
-    <row r="487" spans="1:13" ht="13" customHeight="1">
+    <row r="487" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="31"/>
       <c r="B487" s="27"/>
       <c r="C487" s="30"/>
@@ -12523,7 +12531,7 @@
       <c r="L487" s="28"/>
       <c r="M487" s="25"/>
     </row>
-    <row r="488" spans="1:13" ht="13" customHeight="1">
+    <row r="488" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="31"/>
       <c r="B488" s="27"/>
       <c r="C488" s="30"/>
@@ -12538,7 +12546,7 @@
       <c r="L488" s="28"/>
       <c r="M488" s="25"/>
     </row>
-    <row r="489" spans="1:13" ht="13" customHeight="1">
+    <row r="489" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="31"/>
       <c r="B489" s="27"/>
       <c r="C489" s="30"/>
@@ -12553,7 +12561,7 @@
       <c r="L489" s="28"/>
       <c r="M489" s="25"/>
     </row>
-    <row r="490" spans="1:13" ht="13" customHeight="1">
+    <row r="490" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="31"/>
       <c r="B490" s="27"/>
       <c r="C490" s="30"/>
@@ -12568,7 +12576,7 @@
       <c r="L490" s="28"/>
       <c r="M490" s="25"/>
     </row>
-    <row r="491" spans="1:13" ht="13" customHeight="1">
+    <row r="491" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="31"/>
       <c r="B491" s="27"/>
       <c r="C491" s="30"/>
@@ -12583,7 +12591,7 @@
       <c r="L491" s="28"/>
       <c r="M491" s="25"/>
     </row>
-    <row r="492" spans="1:13" ht="13" customHeight="1">
+    <row r="492" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="31"/>
       <c r="B492" s="27"/>
       <c r="C492" s="30"/>
@@ -12598,7 +12606,7 @@
       <c r="L492" s="28"/>
       <c r="M492" s="25"/>
     </row>
-    <row r="493" spans="1:13" ht="13" customHeight="1">
+    <row r="493" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="31"/>
       <c r="B493" s="27"/>
       <c r="C493" s="30"/>
@@ -12613,7 +12621,7 @@
       <c r="L493" s="28"/>
       <c r="M493" s="25"/>
     </row>
-    <row r="494" spans="1:13" ht="13" customHeight="1">
+    <row r="494" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="31"/>
       <c r="B494" s="27"/>
       <c r="C494" s="30"/>
@@ -12628,7 +12636,7 @@
       <c r="L494" s="28"/>
       <c r="M494" s="25"/>
     </row>
-    <row r="495" spans="1:13" ht="13" customHeight="1">
+    <row r="495" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="31"/>
       <c r="B495" s="27"/>
       <c r="C495" s="30"/>
@@ -12643,7 +12651,7 @@
       <c r="L495" s="28"/>
       <c r="M495" s="25"/>
     </row>
-    <row r="496" spans="1:13" ht="13" customHeight="1">
+    <row r="496" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="31"/>
       <c r="B496" s="27"/>
       <c r="C496" s="30"/>
@@ -12658,7 +12666,7 @@
       <c r="L496" s="28"/>
       <c r="M496" s="25"/>
     </row>
-    <row r="497" spans="1:13" ht="13" customHeight="1">
+    <row r="497" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="31"/>
       <c r="B497" s="27"/>
       <c r="C497" s="30"/>
@@ -12673,7 +12681,7 @@
       <c r="L497" s="28"/>
       <c r="M497" s="25"/>
     </row>
-    <row r="498" spans="1:13" ht="13" customHeight="1">
+    <row r="498" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="31"/>
       <c r="B498" s="27"/>
       <c r="C498" s="30"/>
@@ -12688,7 +12696,7 @@
       <c r="L498" s="28"/>
       <c r="M498" s="25"/>
     </row>
-    <row r="499" spans="1:13" ht="13" customHeight="1">
+    <row r="499" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="31"/>
       <c r="B499" s="27"/>
       <c r="C499" s="30"/>
@@ -12703,7 +12711,7 @@
       <c r="L499" s="28"/>
       <c r="M499" s="25"/>
     </row>
-    <row r="500" spans="1:13" ht="13" customHeight="1">
+    <row r="500" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="31"/>
       <c r="B500" s="27"/>
       <c r="C500" s="30"/>
@@ -12718,7 +12726,7 @@
       <c r="L500" s="28"/>
       <c r="M500" s="25"/>
     </row>
-    <row r="501" spans="1:13" ht="13" customHeight="1">
+    <row r="501" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="31"/>
       <c r="B501" s="27"/>
       <c r="C501" s="30"/>
@@ -12733,7 +12741,7 @@
       <c r="L501" s="28"/>
       <c r="M501" s="25"/>
     </row>
-    <row r="502" spans="1:13" ht="13" customHeight="1">
+    <row r="502" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="31"/>
       <c r="B502" s="27"/>
       <c r="C502" s="30"/>
@@ -12748,7 +12756,7 @@
       <c r="L502" s="28"/>
       <c r="M502" s="25"/>
     </row>
-    <row r="503" spans="1:13" ht="13" customHeight="1">
+    <row r="503" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="31"/>
       <c r="B503" s="27"/>
       <c r="C503" s="30"/>
@@ -12763,7 +12771,7 @@
       <c r="L503" s="28"/>
       <c r="M503" s="25"/>
     </row>
-    <row r="504" spans="1:13" ht="13" customHeight="1">
+    <row r="504" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="31"/>
       <c r="B504" s="27"/>
       <c r="C504" s="30"/>
@@ -12778,7 +12786,7 @@
       <c r="L504" s="28"/>
       <c r="M504" s="25"/>
     </row>
-    <row r="505" spans="1:13" ht="13" customHeight="1">
+    <row r="505" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="31"/>
       <c r="B505" s="27"/>
       <c r="C505" s="30"/>
@@ -12793,7 +12801,7 @@
       <c r="L505" s="28"/>
       <c r="M505" s="25"/>
     </row>
-    <row r="506" spans="1:13" ht="13" customHeight="1">
+    <row r="506" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="31"/>
       <c r="B506" s="27"/>
       <c r="C506" s="30"/>
@@ -12808,7 +12816,7 @@
       <c r="L506" s="28"/>
       <c r="M506" s="25"/>
     </row>
-    <row r="507" spans="1:13" ht="13" customHeight="1">
+    <row r="507" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="31"/>
       <c r="B507" s="27"/>
       <c r="C507" s="30"/>
@@ -12823,7 +12831,7 @@
       <c r="L507" s="28"/>
       <c r="M507" s="25"/>
     </row>
-    <row r="508" spans="1:13" ht="13" customHeight="1">
+    <row r="508" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="31"/>
       <c r="B508" s="27"/>
       <c r="C508" s="30"/>
@@ -12838,7 +12846,7 @@
       <c r="L508" s="28"/>
       <c r="M508" s="25"/>
     </row>
-    <row r="509" spans="1:13" ht="13" customHeight="1">
+    <row r="509" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="31"/>
       <c r="B509" s="27"/>
       <c r="C509" s="30"/>
@@ -12853,7 +12861,7 @@
       <c r="L509" s="28"/>
       <c r="M509" s="25"/>
     </row>
-    <row r="510" spans="1:13" ht="13" customHeight="1">
+    <row r="510" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="31"/>
       <c r="B510" s="27"/>
       <c r="C510" s="30"/>
@@ -12868,7 +12876,7 @@
       <c r="L510" s="28"/>
       <c r="M510" s="25"/>
     </row>
-    <row r="511" spans="1:13" ht="13" customHeight="1">
+    <row r="511" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="31"/>
       <c r="B511" s="27"/>
       <c r="C511" s="30"/>
@@ -12883,7 +12891,7 @@
       <c r="L511" s="28"/>
       <c r="M511" s="25"/>
     </row>
-    <row r="512" spans="1:13" ht="13" customHeight="1">
+    <row r="512" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="31"/>
       <c r="B512" s="27"/>
       <c r="C512" s="30"/>
@@ -12898,7 +12906,7 @@
       <c r="L512" s="28"/>
       <c r="M512" s="25"/>
     </row>
-    <row r="513" spans="1:13" ht="13" customHeight="1">
+    <row r="513" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="31"/>
       <c r="B513" s="27"/>
       <c r="C513" s="30"/>
@@ -12913,7 +12921,7 @@
       <c r="L513" s="28"/>
       <c r="M513" s="25"/>
     </row>
-    <row r="514" spans="1:13" ht="13" customHeight="1">
+    <row r="514" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="31"/>
       <c r="B514" s="27"/>
       <c r="C514" s="30"/>
@@ -12928,7 +12936,7 @@
       <c r="L514" s="28"/>
       <c r="M514" s="25"/>
     </row>
-    <row r="515" spans="1:13" ht="13" customHeight="1">
+    <row r="515" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="31"/>
       <c r="B515" s="27"/>
       <c r="C515" s="30"/>
@@ -12943,7 +12951,7 @@
       <c r="L515" s="28"/>
       <c r="M515" s="25"/>
     </row>
-    <row r="516" spans="1:13" ht="13" customHeight="1">
+    <row r="516" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="31"/>
       <c r="B516" s="27"/>
       <c r="C516" s="30"/>
@@ -12958,7 +12966,7 @@
       <c r="L516" s="28"/>
       <c r="M516" s="25"/>
     </row>
-    <row r="517" spans="1:13" ht="13" customHeight="1">
+    <row r="517" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="31"/>
       <c r="B517" s="27"/>
       <c r="C517" s="30"/>
@@ -12973,7 +12981,7 @@
       <c r="L517" s="28"/>
       <c r="M517" s="25"/>
     </row>
-    <row r="518" spans="1:13" ht="13" customHeight="1">
+    <row r="518" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="31"/>
       <c r="B518" s="27"/>
       <c r="C518" s="30"/>
@@ -12988,7 +12996,7 @@
       <c r="L518" s="28"/>
       <c r="M518" s="25"/>
     </row>
-    <row r="519" spans="1:13" ht="13" customHeight="1">
+    <row r="519" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="31"/>
       <c r="B519" s="27"/>
       <c r="C519" s="30"/>
@@ -13003,7 +13011,7 @@
       <c r="L519" s="28"/>
       <c r="M519" s="25"/>
     </row>
-    <row r="520" spans="1:13" ht="13" customHeight="1">
+    <row r="520" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="31"/>
       <c r="B520" s="27"/>
       <c r="C520" s="30"/>
@@ -13018,7 +13026,7 @@
       <c r="L520" s="28"/>
       <c r="M520" s="25"/>
     </row>
-    <row r="521" spans="1:13" ht="13" customHeight="1">
+    <row r="521" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="31"/>
       <c r="B521" s="27"/>
       <c r="C521" s="30"/>
@@ -13033,7 +13041,7 @@
       <c r="L521" s="28"/>
       <c r="M521" s="25"/>
     </row>
-    <row r="522" spans="1:13" ht="13" customHeight="1">
+    <row r="522" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="31"/>
       <c r="B522" s="27"/>
       <c r="C522" s="30"/>
@@ -13048,7 +13056,7 @@
       <c r="L522" s="28"/>
       <c r="M522" s="25"/>
     </row>
-    <row r="523" spans="1:13" ht="13" customHeight="1">
+    <row r="523" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="31"/>
       <c r="B523" s="27"/>
       <c r="C523" s="30"/>
@@ -13063,7 +13071,7 @@
       <c r="L523" s="28"/>
       <c r="M523" s="25"/>
     </row>
-    <row r="524" spans="1:13" ht="13" customHeight="1">
+    <row r="524" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="31"/>
       <c r="B524" s="27"/>
       <c r="C524" s="30"/>
@@ -13078,7 +13086,7 @@
       <c r="L524" s="28"/>
       <c r="M524" s="25"/>
     </row>
-    <row r="525" spans="1:13" ht="13" customHeight="1">
+    <row r="525" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="31"/>
       <c r="B525" s="27"/>
       <c r="C525" s="30"/>
@@ -13093,7 +13101,7 @@
       <c r="L525" s="28"/>
       <c r="M525" s="25"/>
     </row>
-    <row r="526" spans="1:13" ht="13" customHeight="1">
+    <row r="526" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="31"/>
       <c r="B526" s="27"/>
       <c r="C526" s="30"/>
@@ -13108,7 +13116,7 @@
       <c r="L526" s="28"/>
       <c r="M526" s="25"/>
     </row>
-    <row r="527" spans="1:13" ht="13" customHeight="1">
+    <row r="527" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="31"/>
       <c r="B527" s="27"/>
       <c r="C527" s="30"/>
@@ -13123,7 +13131,7 @@
       <c r="L527" s="28"/>
       <c r="M527" s="25"/>
     </row>
-    <row r="528" spans="1:13" ht="13" customHeight="1">
+    <row r="528" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="31"/>
       <c r="B528" s="27"/>
       <c r="C528" s="30"/>
@@ -13138,7 +13146,7 @@
       <c r="L528" s="28"/>
       <c r="M528" s="25"/>
     </row>
-    <row r="529" spans="1:13" ht="13" customHeight="1">
+    <row r="529" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="31"/>
       <c r="B529" s="27"/>
       <c r="C529" s="30"/>
@@ -13153,7 +13161,7 @@
       <c r="L529" s="28"/>
       <c r="M529" s="25"/>
     </row>
-    <row r="530" spans="1:13" ht="13" customHeight="1">
+    <row r="530" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="31"/>
       <c r="B530" s="27"/>
       <c r="C530" s="30"/>
@@ -13168,7 +13176,7 @@
       <c r="L530" s="28"/>
       <c r="M530" s="25"/>
     </row>
-    <row r="531" spans="1:13" ht="13" customHeight="1">
+    <row r="531" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="31"/>
       <c r="B531" s="27"/>
       <c r="C531" s="30"/>
@@ -13183,7 +13191,7 @@
       <c r="L531" s="28"/>
       <c r="M531" s="25"/>
     </row>
-    <row r="532" spans="1:13" ht="13" customHeight="1">
+    <row r="532" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="31"/>
       <c r="B532" s="27"/>
       <c r="C532" s="30"/>
@@ -13198,7 +13206,7 @@
       <c r="L532" s="28"/>
       <c r="M532" s="25"/>
     </row>
-    <row r="533" spans="1:13" ht="13" customHeight="1">
+    <row r="533" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="31"/>
       <c r="B533" s="27"/>
       <c r="C533" s="30"/>
@@ -13213,7 +13221,7 @@
       <c r="L533" s="28"/>
       <c r="M533" s="25"/>
     </row>
-    <row r="534" spans="1:13" ht="13" customHeight="1">
+    <row r="534" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="31"/>
       <c r="B534" s="27"/>
       <c r="C534" s="30"/>
@@ -13228,7 +13236,7 @@
       <c r="L534" s="28"/>
       <c r="M534" s="25"/>
     </row>
-    <row r="535" spans="1:13" ht="13" customHeight="1">
+    <row r="535" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="31"/>
       <c r="B535" s="27"/>
       <c r="C535" s="30"/>
@@ -13243,7 +13251,7 @@
       <c r="L535" s="28"/>
       <c r="M535" s="25"/>
     </row>
-    <row r="536" spans="1:13" ht="13" customHeight="1">
+    <row r="536" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="31"/>
       <c r="B536" s="27"/>
       <c r="C536" s="30"/>
@@ -13258,7 +13266,7 @@
       <c r="L536" s="28"/>
       <c r="M536" s="25"/>
     </row>
-    <row r="537" spans="1:13" ht="13" customHeight="1">
+    <row r="537" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="31"/>
       <c r="B537" s="27"/>
       <c r="C537" s="30"/>
@@ -13273,7 +13281,7 @@
       <c r="L537" s="28"/>
       <c r="M537" s="25"/>
     </row>
-    <row r="538" spans="1:13" ht="13" customHeight="1">
+    <row r="538" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="31"/>
       <c r="B538" s="27"/>
       <c r="C538" s="30"/>
@@ -13288,7 +13296,7 @@
       <c r="L538" s="28"/>
       <c r="M538" s="25"/>
     </row>
-    <row r="539" spans="1:13" ht="13" customHeight="1">
+    <row r="539" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="31"/>
       <c r="B539" s="27"/>
       <c r="C539" s="30"/>
@@ -13303,7 +13311,7 @@
       <c r="L539" s="28"/>
       <c r="M539" s="25"/>
     </row>
-    <row r="540" spans="1:13" ht="13" customHeight="1">
+    <row r="540" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="31"/>
       <c r="B540" s="27"/>
       <c r="C540" s="30"/>
@@ -13318,7 +13326,7 @@
       <c r="L540" s="28"/>
       <c r="M540" s="25"/>
     </row>
-    <row r="541" spans="1:13" ht="13" customHeight="1">
+    <row r="541" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="31"/>
       <c r="B541" s="27"/>
       <c r="C541" s="30"/>
@@ -13333,7 +13341,7 @@
       <c r="L541" s="28"/>
       <c r="M541" s="25"/>
     </row>
-    <row r="542" spans="1:13" ht="13" customHeight="1">
+    <row r="542" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="31"/>
       <c r="B542" s="27"/>
       <c r="C542" s="30"/>
@@ -13348,7 +13356,7 @@
       <c r="L542" s="28"/>
       <c r="M542" s="25"/>
     </row>
-    <row r="543" spans="1:13" ht="13" customHeight="1">
+    <row r="543" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="31"/>
       <c r="B543" s="27"/>
       <c r="C543" s="30"/>
@@ -13363,7 +13371,7 @@
       <c r="L543" s="28"/>
       <c r="M543" s="25"/>
     </row>
-    <row r="544" spans="1:13" ht="13" customHeight="1">
+    <row r="544" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="31"/>
       <c r="B544" s="27"/>
       <c r="C544" s="30"/>
@@ -13424,9 +13432,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -13440,7 +13445,7 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
@@ -13452,7 +13457,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13511,7 +13516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>24</v>
       </c>
@@ -13531,7 +13536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>25</v>
       </c>
@@ -13551,7 +13556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>32</v>
       </c>
@@ -13565,7 +13570,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H5">
         <v>20</v>
       </c>
@@ -13573,7 +13578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H6">
         <v>25</v>
       </c>
@@ -13581,17 +13586,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flipsi/projects/opengever/2018/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -15,11 +20,11 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="304">
   <si>
     <t>reference_number</t>
   </si>
@@ -1045,6 +1050,12 @@
   </si>
   <si>
     <t>manage_dossiers_access</t>
+  </si>
+  <si>
+    <t>philippe.gross</t>
+  </si>
+  <si>
+    <t>lukas.graf, philippe.gross</t>
   </si>
 </sst>
 </file>
@@ -1661,75 +1672,75 @@
     <cellStyle name="Besuchter Link" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2070,13 +2081,13 @@
   <dimension ref="A1:T544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="47" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="48" customWidth="1"/>
@@ -2098,7 +2109,7 @@
     <col min="23" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2113,7 +2124,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1">
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2126,7 +2137,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
@@ -2188,7 +2199,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="13" customFormat="1" ht="94" customHeight="1">
+    <row r="4" spans="1:20" s="13" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
@@ -2250,7 +2261,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="50" customFormat="1" ht="1" hidden="1" customHeight="1">
+    <row r="5" spans="1:20" s="50" customFormat="1" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2323,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="15" customFormat="1">
+    <row r="6" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
         <v>18</v>
@@ -2340,7 +2351,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="7" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>298</v>
       </c>
@@ -2364,7 +2375,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
     </row>
-    <row r="8" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="8" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>71</v>
       </c>
@@ -2388,7 +2399,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
     </row>
-    <row r="9" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="9" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>73</v>
       </c>
@@ -2412,7 +2423,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="10" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>75</v>
       </c>
@@ -2428,15 +2439,27 @@
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="23"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
+      <c r="N10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>302</v>
+      </c>
       <c r="T10" s="27"/>
     </row>
-    <row r="11" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="11" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -2460,7 +2483,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
     </row>
-    <row r="12" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="12" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>79</v>
       </c>
@@ -2484,7 +2507,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
     </row>
-    <row r="13" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="13" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>81</v>
       </c>
@@ -2510,7 +2533,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
     </row>
-    <row r="14" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="14" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -2545,7 +2568,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
     </row>
-    <row r="15" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="15" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>85</v>
       </c>
@@ -2578,7 +2601,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="16" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>87</v>
       </c>
@@ -2611,7 +2634,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="17" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>89</v>
       </c>
@@ -2637,7 +2660,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="18" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>91</v>
       </c>
@@ -2656,14 +2679,24 @@
       <c r="L18" s="26"/>
       <c r="M18" s="23"/>
       <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
+      <c r="O18" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="S18" s="27" t="s">
+        <v>302</v>
+      </c>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="19" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>93</v>
       </c>
@@ -2687,7 +2720,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="20" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>95</v>
       </c>
@@ -2720,7 +2753,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
     </row>
-    <row r="21" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="21" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>96</v>
       </c>
@@ -2753,7 +2786,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="22" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>98</v>
       </c>
@@ -2786,7 +2819,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="23" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>100</v>
       </c>
@@ -2810,7 +2843,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
     </row>
-    <row r="24" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="24" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>102</v>
       </c>
@@ -2843,7 +2876,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
     </row>
-    <row r="25" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="25" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>103</v>
       </c>
@@ -2876,7 +2909,7 @@
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
     </row>
-    <row r="26" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="26" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>104</v>
       </c>
@@ -2909,7 +2942,7 @@
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
     </row>
-    <row r="27" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="27" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>105</v>
       </c>
@@ -2933,7 +2966,7 @@
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
-    <row r="28" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="28" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>107</v>
       </c>
@@ -2957,7 +2990,7 @@
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
-    <row r="29" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="29" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>109</v>
       </c>
@@ -2990,7 +3023,7 @@
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
-    <row r="30" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="30" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>110</v>
       </c>
@@ -3014,7 +3047,7 @@
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
     </row>
-    <row r="31" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="31" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>112</v>
       </c>
@@ -3038,7 +3071,7 @@
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
     </row>
-    <row r="32" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="32" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>114</v>
       </c>
@@ -3071,7 +3104,7 @@
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
     </row>
-    <row r="33" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="33" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>115</v>
       </c>
@@ -3095,7 +3128,7 @@
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
     </row>
-    <row r="34" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="34" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>117</v>
       </c>
@@ -3119,7 +3152,7 @@
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
     </row>
-    <row r="35" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="35" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>119</v>
       </c>
@@ -3143,7 +3176,7 @@
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
     </row>
-    <row r="36" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="36" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>121</v>
       </c>
@@ -3167,7 +3200,7 @@
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
     </row>
-    <row r="37" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="37" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>123</v>
       </c>
@@ -3193,7 +3226,7 @@
       <c r="S37" s="27"/>
       <c r="T37" s="27"/>
     </row>
-    <row r="38" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="38" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>125</v>
       </c>
@@ -3217,7 +3250,7 @@
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
     </row>
-    <row r="39" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="39" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>127</v>
       </c>
@@ -3241,7 +3274,7 @@
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
     </row>
-    <row r="40" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="40" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>129</v>
       </c>
@@ -3265,7 +3298,7 @@
       <c r="S40" s="27"/>
       <c r="T40" s="27"/>
     </row>
-    <row r="41" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="41" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>131</v>
       </c>
@@ -3289,7 +3322,7 @@
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
     </row>
-    <row r="42" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="42" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>133</v>
       </c>
@@ -3313,7 +3346,7 @@
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
     </row>
-    <row r="43" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="43" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>135</v>
       </c>
@@ -3337,7 +3370,7 @@
       <c r="S43" s="27"/>
       <c r="T43" s="27"/>
     </row>
-    <row r="44" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="44" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>137</v>
       </c>
@@ -3361,7 +3394,7 @@
       <c r="S44" s="27"/>
       <c r="T44" s="27"/>
     </row>
-    <row r="45" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="45" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>139</v>
       </c>
@@ -3385,7 +3418,7 @@
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
     </row>
-    <row r="46" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="46" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>141</v>
       </c>
@@ -3418,7 +3451,7 @@
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
     </row>
-    <row r="47" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="47" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>142</v>
       </c>
@@ -3442,7 +3475,7 @@
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
-    <row r="48" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="48" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>144</v>
       </c>
@@ -3475,7 +3508,7 @@
       <c r="S48" s="27"/>
       <c r="T48" s="27"/>
     </row>
-    <row r="49" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="49" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
         <v>146</v>
       </c>
@@ -3508,7 +3541,7 @@
       <c r="S49" s="27"/>
       <c r="T49" s="27"/>
     </row>
-    <row r="50" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="50" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
         <v>148</v>
       </c>
@@ -3543,7 +3576,7 @@
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
     </row>
-    <row r="51" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="51" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17" t="s">
         <v>150</v>
       </c>
@@ -3576,7 +3609,7 @@
       <c r="S51" s="27"/>
       <c r="T51" s="27"/>
     </row>
-    <row r="52" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="52" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17" t="s">
         <v>152</v>
       </c>
@@ -3600,7 +3633,7 @@
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
     </row>
-    <row r="53" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="53" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17" t="s">
         <v>154</v>
       </c>
@@ -3624,7 +3657,7 @@
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
     </row>
-    <row r="54" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="54" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17" t="s">
         <v>156</v>
       </c>
@@ -3657,7 +3690,7 @@
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
     </row>
-    <row r="55" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="55" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17" t="s">
         <v>158</v>
       </c>
@@ -3692,7 +3725,7 @@
       <c r="S55" s="27"/>
       <c r="T55" s="27"/>
     </row>
-    <row r="56" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="56" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
         <v>160</v>
       </c>
@@ -3725,7 +3758,7 @@
       <c r="S56" s="27"/>
       <c r="T56" s="27"/>
     </row>
-    <row r="57" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="57" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17" t="s">
         <v>162</v>
       </c>
@@ -3758,7 +3791,7 @@
       <c r="S57" s="27"/>
       <c r="T57" s="27"/>
     </row>
-    <row r="58" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="58" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17" t="s">
         <v>164</v>
       </c>
@@ -3782,7 +3815,7 @@
       <c r="S58" s="27"/>
       <c r="T58" s="27"/>
     </row>
-    <row r="59" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="59" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>166</v>
       </c>
@@ -3806,7 +3839,7 @@
       <c r="S59" s="27"/>
       <c r="T59" s="27"/>
     </row>
-    <row r="60" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="60" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>168</v>
       </c>
@@ -3841,7 +3874,7 @@
       <c r="S60" s="27"/>
       <c r="T60" s="27"/>
     </row>
-    <row r="61" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="61" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="17" t="s">
         <v>169</v>
       </c>
@@ -3874,7 +3907,7 @@
       <c r="S61" s="27"/>
       <c r="T61" s="27"/>
     </row>
-    <row r="62" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="62" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17" t="s">
         <v>171</v>
       </c>
@@ -3898,7 +3931,7 @@
       <c r="S62" s="27"/>
       <c r="T62" s="27"/>
     </row>
-    <row r="63" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="63" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="17" t="s">
         <v>173</v>
       </c>
@@ -3933,7 +3966,7 @@
       <c r="S63" s="27"/>
       <c r="T63" s="27"/>
     </row>
-    <row r="64" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="64" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="17" t="s">
         <v>175</v>
       </c>
@@ -3968,7 +4001,7 @@
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
     </row>
-    <row r="65" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="65" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>177</v>
       </c>
@@ -4003,7 +4036,7 @@
       <c r="S65" s="27"/>
       <c r="T65" s="27"/>
     </row>
-    <row r="66" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="66" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
         <v>179</v>
       </c>
@@ -4038,7 +4071,7 @@
       <c r="S66" s="27"/>
       <c r="T66" s="27"/>
     </row>
-    <row r="67" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="67" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
         <v>181</v>
       </c>
@@ -4073,7 +4106,7 @@
       <c r="S67" s="27"/>
       <c r="T67" s="27"/>
     </row>
-    <row r="68" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="68" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
         <v>183</v>
       </c>
@@ -4106,7 +4139,7 @@
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row r="69" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="69" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
         <v>185</v>
       </c>
@@ -4141,7 +4174,7 @@
       <c r="S69" s="27"/>
       <c r="T69" s="27"/>
     </row>
-    <row r="70" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="70" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
         <v>187</v>
       </c>
@@ -4165,7 +4198,7 @@
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
-    <row r="71" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="71" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="17" t="s">
         <v>189</v>
       </c>
@@ -4189,7 +4222,7 @@
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
-    <row r="72" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="72" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
         <v>191</v>
       </c>
@@ -4213,7 +4246,7 @@
       <c r="S72" s="27"/>
       <c r="T72" s="27"/>
     </row>
-    <row r="73" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="73" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="17" t="s">
         <v>193</v>
       </c>
@@ -4237,7 +4270,7 @@
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
-    <row r="74" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="74" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="17" t="s">
         <v>195</v>
       </c>
@@ -4270,7 +4303,7 @@
       <c r="S74" s="27"/>
       <c r="T74" s="27"/>
     </row>
-    <row r="75" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="75" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="17" t="s">
         <v>196</v>
       </c>
@@ -4305,7 +4338,7 @@
       <c r="S75" s="27"/>
       <c r="T75" s="27"/>
     </row>
-    <row r="76" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="76" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="17" t="s">
         <v>198</v>
       </c>
@@ -4340,7 +4373,7 @@
       <c r="S76" s="27"/>
       <c r="T76" s="27"/>
     </row>
-    <row r="77" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="77" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="17" t="s">
         <v>200</v>
       </c>
@@ -4373,7 +4406,7 @@
       <c r="S77" s="27"/>
       <c r="T77" s="27"/>
     </row>
-    <row r="78" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="78" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="17" t="s">
         <v>202</v>
       </c>
@@ -4408,7 +4441,7 @@
       <c r="S78" s="27"/>
       <c r="T78" s="27"/>
     </row>
-    <row r="79" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="79" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="17" t="s">
         <v>204</v>
       </c>
@@ -4435,7 +4468,7 @@
       <c r="S79" s="27"/>
       <c r="T79" s="27"/>
     </row>
-    <row r="80" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="80" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
         <v>206</v>
       </c>
@@ -4468,7 +4501,7 @@
       <c r="S80" s="27"/>
       <c r="T80" s="27"/>
     </row>
-    <row r="81" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="81" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="17" t="s">
         <v>207</v>
       </c>
@@ -4492,7 +4525,7 @@
       <c r="S81" s="27"/>
       <c r="T81" s="27"/>
     </row>
-    <row r="82" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
+    <row r="82" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
         <v>209</v>
       </c>
@@ -4516,7 +4549,7 @@
       <c r="S82" s="27"/>
       <c r="T82" s="27"/>
     </row>
-    <row r="83" spans="1:20" ht="13" customHeight="1">
+    <row r="83" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="29"/>
       <c r="B83" s="25"/>
       <c r="C83" s="28"/>
@@ -4538,7 +4571,7 @@
       <c r="S83" s="32"/>
       <c r="T83" s="32"/>
     </row>
-    <row r="84" spans="1:20" ht="13" customHeight="1">
+    <row r="84" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
       <c r="B84" s="25"/>
       <c r="C84" s="28"/>
@@ -4560,7 +4593,7 @@
       <c r="S84" s="35"/>
       <c r="T84" s="35"/>
     </row>
-    <row r="85" spans="1:20" ht="13" customHeight="1">
+    <row r="85" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
       <c r="B85" s="25"/>
       <c r="C85" s="28"/>
@@ -4582,7 +4615,7 @@
       <c r="S85" s="35"/>
       <c r="T85" s="35"/>
     </row>
-    <row r="86" spans="1:20" ht="13" customHeight="1">
+    <row r="86" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
       <c r="B86" s="25"/>
       <c r="C86" s="28"/>
@@ -4604,7 +4637,7 @@
       <c r="S86" s="35"/>
       <c r="T86" s="35"/>
     </row>
-    <row r="87" spans="1:20" ht="13" customHeight="1">
+    <row r="87" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
       <c r="B87" s="25"/>
       <c r="C87" s="28"/>
@@ -4626,7 +4659,7 @@
       <c r="S87" s="35"/>
       <c r="T87" s="35"/>
     </row>
-    <row r="88" spans="1:20" ht="13" customHeight="1">
+    <row r="88" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
       <c r="B88" s="25"/>
       <c r="C88" s="28"/>
@@ -4648,7 +4681,7 @@
       <c r="S88" s="35"/>
       <c r="T88" s="35"/>
     </row>
-    <row r="89" spans="1:20" ht="13" customHeight="1">
+    <row r="89" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
       <c r="B89" s="25"/>
       <c r="C89" s="28"/>
@@ -4670,7 +4703,7 @@
       <c r="S89" s="35"/>
       <c r="T89" s="35"/>
     </row>
-    <row r="90" spans="1:20" ht="13" customHeight="1">
+    <row r="90" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
       <c r="B90" s="25"/>
       <c r="C90" s="28"/>
@@ -4692,7 +4725,7 @@
       <c r="S90" s="35"/>
       <c r="T90" s="35"/>
     </row>
-    <row r="91" spans="1:20" ht="13" customHeight="1">
+    <row r="91" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
       <c r="B91" s="25"/>
       <c r="C91" s="28"/>
@@ -4714,7 +4747,7 @@
       <c r="S91" s="35"/>
       <c r="T91" s="35"/>
     </row>
-    <row r="92" spans="1:20" ht="13" customHeight="1">
+    <row r="92" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="29"/>
       <c r="B92" s="25"/>
       <c r="C92" s="28"/>
@@ -4736,7 +4769,7 @@
       <c r="S92" s="35"/>
       <c r="T92" s="35"/>
     </row>
-    <row r="93" spans="1:20" ht="13" customHeight="1">
+    <row r="93" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
       <c r="B93" s="25"/>
       <c r="C93" s="28"/>
@@ -4758,7 +4791,7 @@
       <c r="S93" s="35"/>
       <c r="T93" s="35"/>
     </row>
-    <row r="94" spans="1:20" ht="13" customHeight="1">
+    <row r="94" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
       <c r="B94" s="25"/>
       <c r="C94" s="28"/>
@@ -4780,7 +4813,7 @@
       <c r="S94" s="35"/>
       <c r="T94" s="35"/>
     </row>
-    <row r="95" spans="1:20" ht="13" customHeight="1">
+    <row r="95" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
       <c r="B95" s="25"/>
       <c r="C95" s="28"/>
@@ -4802,7 +4835,7 @@
       <c r="S95" s="35"/>
       <c r="T95" s="35"/>
     </row>
-    <row r="96" spans="1:20" ht="13" customHeight="1">
+    <row r="96" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
       <c r="B96" s="25"/>
       <c r="C96" s="28"/>
@@ -4824,7 +4857,7 @@
       <c r="S96" s="35"/>
       <c r="T96" s="35"/>
     </row>
-    <row r="97" spans="1:20" ht="13" customHeight="1">
+    <row r="97" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
       <c r="B97" s="25"/>
       <c r="C97" s="28"/>
@@ -4846,7 +4879,7 @@
       <c r="S97" s="35"/>
       <c r="T97" s="35"/>
     </row>
-    <row r="98" spans="1:20" ht="13" customHeight="1">
+    <row r="98" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
       <c r="B98" s="25"/>
       <c r="C98" s="28"/>
@@ -4868,7 +4901,7 @@
       <c r="S98" s="35"/>
       <c r="T98" s="35"/>
     </row>
-    <row r="99" spans="1:20" ht="13" customHeight="1">
+    <row r="99" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
       <c r="B99" s="25"/>
       <c r="C99" s="28"/>
@@ -4890,7 +4923,7 @@
       <c r="S99" s="35"/>
       <c r="T99" s="35"/>
     </row>
-    <row r="100" spans="1:20" ht="13" customHeight="1">
+    <row r="100" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="29"/>
       <c r="B100" s="25"/>
       <c r="C100" s="28"/>
@@ -4912,7 +4945,7 @@
       <c r="S100" s="35"/>
       <c r="T100" s="35"/>
     </row>
-    <row r="101" spans="1:20" ht="13" customHeight="1">
+    <row r="101" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="29"/>
       <c r="B101" s="25"/>
       <c r="C101" s="28"/>
@@ -4934,7 +4967,7 @@
       <c r="S101" s="35"/>
       <c r="T101" s="35"/>
     </row>
-    <row r="102" spans="1:20" ht="13" customHeight="1">
+    <row r="102" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="29"/>
       <c r="B102" s="25"/>
       <c r="C102" s="28"/>
@@ -4956,7 +4989,7 @@
       <c r="S102" s="35"/>
       <c r="T102" s="35"/>
     </row>
-    <row r="103" spans="1:20" ht="13" customHeight="1">
+    <row r="103" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="29"/>
       <c r="B103" s="25"/>
       <c r="C103" s="28"/>
@@ -4978,7 +5011,7 @@
       <c r="S103" s="35"/>
       <c r="T103" s="35"/>
     </row>
-    <row r="104" spans="1:20" ht="13" customHeight="1">
+    <row r="104" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="29"/>
       <c r="B104" s="25"/>
       <c r="C104" s="28"/>
@@ -5000,7 +5033,7 @@
       <c r="S104" s="35"/>
       <c r="T104" s="35"/>
     </row>
-    <row r="105" spans="1:20" ht="13" customHeight="1">
+    <row r="105" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
       <c r="B105" s="25"/>
       <c r="C105" s="28"/>
@@ -5022,7 +5055,7 @@
       <c r="S105" s="35"/>
       <c r="T105" s="35"/>
     </row>
-    <row r="106" spans="1:20" ht="13" customHeight="1">
+    <row r="106" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="37"/>
       <c r="B106" s="25"/>
       <c r="C106" s="28"/>
@@ -5044,7 +5077,7 @@
       <c r="S106" s="35"/>
       <c r="T106" s="35"/>
     </row>
-    <row r="107" spans="1:20" ht="13" customHeight="1">
+    <row r="107" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="29"/>
       <c r="B107" s="25"/>
       <c r="C107" s="28"/>
@@ -5066,7 +5099,7 @@
       <c r="S107" s="35"/>
       <c r="T107" s="35"/>
     </row>
-    <row r="108" spans="1:20" ht="13" customHeight="1">
+    <row r="108" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="29"/>
       <c r="B108" s="25"/>
       <c r="C108" s="28"/>
@@ -5088,7 +5121,7 @@
       <c r="S108" s="35"/>
       <c r="T108" s="35"/>
     </row>
-    <row r="109" spans="1:20" ht="13" customHeight="1">
+    <row r="109" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="29"/>
       <c r="B109" s="25"/>
       <c r="C109" s="28"/>
@@ -5110,7 +5143,7 @@
       <c r="S109" s="35"/>
       <c r="T109" s="35"/>
     </row>
-    <row r="110" spans="1:20" ht="13" customHeight="1">
+    <row r="110" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="29"/>
       <c r="B110" s="25"/>
       <c r="C110" s="28"/>
@@ -5132,7 +5165,7 @@
       <c r="S110" s="35"/>
       <c r="T110" s="35"/>
     </row>
-    <row r="111" spans="1:20" ht="13" customHeight="1">
+    <row r="111" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="29"/>
       <c r="B111" s="25"/>
       <c r="C111" s="28"/>
@@ -5154,7 +5187,7 @@
       <c r="S111" s="35"/>
       <c r="T111" s="35"/>
     </row>
-    <row r="112" spans="1:20" ht="13" customHeight="1">
+    <row r="112" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="29"/>
       <c r="B112" s="25"/>
       <c r="C112" s="28"/>
@@ -5176,7 +5209,7 @@
       <c r="S112" s="35"/>
       <c r="T112" s="35"/>
     </row>
-    <row r="113" spans="1:20" ht="13" customHeight="1">
+    <row r="113" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="29"/>
       <c r="B113" s="25"/>
       <c r="C113" s="28"/>
@@ -5198,7 +5231,7 @@
       <c r="S113" s="35"/>
       <c r="T113" s="35"/>
     </row>
-    <row r="114" spans="1:20" ht="13" customHeight="1">
+    <row r="114" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="29"/>
       <c r="B114" s="25"/>
       <c r="C114" s="28"/>
@@ -5220,7 +5253,7 @@
       <c r="S114" s="35"/>
       <c r="T114" s="35"/>
     </row>
-    <row r="115" spans="1:20" ht="13" customHeight="1">
+    <row r="115" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="29"/>
       <c r="B115" s="25"/>
       <c r="C115" s="28"/>
@@ -5242,7 +5275,7 @@
       <c r="S115" s="35"/>
       <c r="T115" s="35"/>
     </row>
-    <row r="116" spans="1:20" ht="13" customHeight="1">
+    <row r="116" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="29"/>
       <c r="B116" s="25"/>
       <c r="C116" s="28"/>
@@ -5264,7 +5297,7 @@
       <c r="S116" s="35"/>
       <c r="T116" s="35"/>
     </row>
-    <row r="117" spans="1:20" ht="13" customHeight="1">
+    <row r="117" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="29"/>
       <c r="B117" s="25"/>
       <c r="C117" s="28"/>
@@ -5286,7 +5319,7 @@
       <c r="S117" s="35"/>
       <c r="T117" s="35"/>
     </row>
-    <row r="118" spans="1:20" ht="13" customHeight="1">
+    <row r="118" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="29"/>
       <c r="B118" s="25"/>
       <c r="C118" s="28"/>
@@ -5308,7 +5341,7 @@
       <c r="S118" s="35"/>
       <c r="T118" s="35"/>
     </row>
-    <row r="119" spans="1:20" ht="13" customHeight="1">
+    <row r="119" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="29"/>
       <c r="B119" s="25"/>
       <c r="C119" s="28"/>
@@ -5330,7 +5363,7 @@
       <c r="S119" s="35"/>
       <c r="T119" s="35"/>
     </row>
-    <row r="120" spans="1:20" ht="13" customHeight="1">
+    <row r="120" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="29"/>
       <c r="B120" s="25"/>
       <c r="C120" s="28"/>
@@ -5352,7 +5385,7 @@
       <c r="S120" s="35"/>
       <c r="T120" s="35"/>
     </row>
-    <row r="121" spans="1:20" ht="13" customHeight="1">
+    <row r="121" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="29"/>
       <c r="B121" s="25"/>
       <c r="C121" s="28"/>
@@ -5374,7 +5407,7 @@
       <c r="S121" s="35"/>
       <c r="T121" s="35"/>
     </row>
-    <row r="122" spans="1:20" ht="13" customHeight="1">
+    <row r="122" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="29"/>
       <c r="B122" s="25"/>
       <c r="C122" s="28"/>
@@ -5396,7 +5429,7 @@
       <c r="S122" s="35"/>
       <c r="T122" s="35"/>
     </row>
-    <row r="123" spans="1:20" ht="13" customHeight="1">
+    <row r="123" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="29"/>
       <c r="B123" s="25"/>
       <c r="C123" s="28"/>
@@ -5418,7 +5451,7 @@
       <c r="S123" s="35"/>
       <c r="T123" s="35"/>
     </row>
-    <row r="124" spans="1:20" ht="13" customHeight="1">
+    <row r="124" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="29"/>
       <c r="B124" s="25"/>
       <c r="C124" s="28"/>
@@ -5440,7 +5473,7 @@
       <c r="S124" s="35"/>
       <c r="T124" s="35"/>
     </row>
-    <row r="125" spans="1:20" ht="13" customHeight="1">
+    <row r="125" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="29"/>
       <c r="B125" s="25"/>
       <c r="C125" s="28"/>
@@ -5462,7 +5495,7 @@
       <c r="S125" s="35"/>
       <c r="T125" s="35"/>
     </row>
-    <row r="126" spans="1:20" ht="13" customHeight="1">
+    <row r="126" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="29"/>
       <c r="B126" s="25"/>
       <c r="C126" s="28"/>
@@ -5484,7 +5517,7 @@
       <c r="S126" s="35"/>
       <c r="T126" s="35"/>
     </row>
-    <row r="127" spans="1:20" ht="13" customHeight="1">
+    <row r="127" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="29"/>
       <c r="B127" s="25"/>
       <c r="C127" s="28"/>
@@ -5506,7 +5539,7 @@
       <c r="S127" s="35"/>
       <c r="T127" s="35"/>
     </row>
-    <row r="128" spans="1:20" ht="13" customHeight="1">
+    <row r="128" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="29"/>
       <c r="B128" s="25"/>
       <c r="C128" s="28"/>
@@ -5528,7 +5561,7 @@
       <c r="S128" s="35"/>
       <c r="T128" s="35"/>
     </row>
-    <row r="129" spans="1:20" ht="13" customHeight="1">
+    <row r="129" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="29"/>
       <c r="B129" s="25"/>
       <c r="C129" s="28"/>
@@ -5550,7 +5583,7 @@
       <c r="S129" s="35"/>
       <c r="T129" s="35"/>
     </row>
-    <row r="130" spans="1:20" ht="13" customHeight="1">
+    <row r="130" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="29"/>
       <c r="B130" s="25"/>
       <c r="C130" s="28"/>
@@ -5572,7 +5605,7 @@
       <c r="S130" s="35"/>
       <c r="T130" s="35"/>
     </row>
-    <row r="131" spans="1:20" ht="13" customHeight="1">
+    <row r="131" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="29"/>
       <c r="B131" s="25"/>
       <c r="C131" s="28"/>
@@ -5594,7 +5627,7 @@
       <c r="S131" s="35"/>
       <c r="T131" s="35"/>
     </row>
-    <row r="132" spans="1:20" ht="13" customHeight="1">
+    <row r="132" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="29"/>
       <c r="B132" s="25"/>
       <c r="C132" s="28"/>
@@ -5616,7 +5649,7 @@
       <c r="S132" s="35"/>
       <c r="T132" s="35"/>
     </row>
-    <row r="133" spans="1:20" ht="13" customHeight="1">
+    <row r="133" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="29"/>
       <c r="B133" s="25"/>
       <c r="C133" s="28"/>
@@ -5638,7 +5671,7 @@
       <c r="S133" s="35"/>
       <c r="T133" s="35"/>
     </row>
-    <row r="134" spans="1:20" ht="13" customHeight="1">
+    <row r="134" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="29"/>
       <c r="B134" s="25"/>
       <c r="C134" s="28"/>
@@ -5660,7 +5693,7 @@
       <c r="S134" s="35"/>
       <c r="T134" s="35"/>
     </row>
-    <row r="135" spans="1:20" ht="13" customHeight="1">
+    <row r="135" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="29"/>
       <c r="B135" s="25"/>
       <c r="C135" s="28"/>
@@ -5682,7 +5715,7 @@
       <c r="S135" s="35"/>
       <c r="T135" s="35"/>
     </row>
-    <row r="136" spans="1:20" ht="13" customHeight="1">
+    <row r="136" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="29"/>
       <c r="B136" s="25"/>
       <c r="C136" s="28"/>
@@ -5704,7 +5737,7 @@
       <c r="S136" s="35"/>
       <c r="T136" s="35"/>
     </row>
-    <row r="137" spans="1:20" ht="13" customHeight="1">
+    <row r="137" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="29"/>
       <c r="B137" s="25"/>
       <c r="C137" s="28"/>
@@ -5726,7 +5759,7 @@
       <c r="S137" s="35"/>
       <c r="T137" s="35"/>
     </row>
-    <row r="138" spans="1:20" ht="13" customHeight="1">
+    <row r="138" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="29"/>
       <c r="B138" s="25"/>
       <c r="C138" s="28"/>
@@ -5748,7 +5781,7 @@
       <c r="S138" s="35"/>
       <c r="T138" s="35"/>
     </row>
-    <row r="139" spans="1:20" ht="13" customHeight="1">
+    <row r="139" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="29"/>
       <c r="B139" s="25"/>
       <c r="C139" s="28"/>
@@ -5770,7 +5803,7 @@
       <c r="S139" s="35"/>
       <c r="T139" s="35"/>
     </row>
-    <row r="140" spans="1:20" ht="13" customHeight="1">
+    <row r="140" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="29"/>
       <c r="B140" s="25"/>
       <c r="C140" s="28"/>
@@ -5792,7 +5825,7 @@
       <c r="S140" s="35"/>
       <c r="T140" s="35"/>
     </row>
-    <row r="141" spans="1:20" ht="13" customHeight="1">
+    <row r="141" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="29"/>
       <c r="B141" s="25"/>
       <c r="C141" s="28"/>
@@ -5814,7 +5847,7 @@
       <c r="S141" s="35"/>
       <c r="T141" s="35"/>
     </row>
-    <row r="142" spans="1:20" ht="13" customHeight="1">
+    <row r="142" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="29"/>
       <c r="B142" s="25"/>
       <c r="C142" s="28"/>
@@ -5836,7 +5869,7 @@
       <c r="S142" s="35"/>
       <c r="T142" s="35"/>
     </row>
-    <row r="143" spans="1:20" ht="13" customHeight="1">
+    <row r="143" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="29"/>
       <c r="B143" s="25"/>
       <c r="C143" s="28"/>
@@ -5858,7 +5891,7 @@
       <c r="S143" s="35"/>
       <c r="T143" s="35"/>
     </row>
-    <row r="144" spans="1:20" ht="13" customHeight="1">
+    <row r="144" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
       <c r="B144" s="25"/>
       <c r="C144" s="28"/>
@@ -5880,7 +5913,7 @@
       <c r="S144" s="35"/>
       <c r="T144" s="35"/>
     </row>
-    <row r="145" spans="1:20" ht="13" customHeight="1">
+    <row r="145" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="29"/>
       <c r="B145" s="25"/>
       <c r="C145" s="28"/>
@@ -5902,7 +5935,7 @@
       <c r="S145" s="35"/>
       <c r="T145" s="35"/>
     </row>
-    <row r="146" spans="1:20" ht="13" customHeight="1">
+    <row r="146" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="29"/>
       <c r="B146" s="25"/>
       <c r="C146" s="28"/>
@@ -5924,7 +5957,7 @@
       <c r="S146" s="35"/>
       <c r="T146" s="35"/>
     </row>
-    <row r="147" spans="1:20" ht="13" customHeight="1">
+    <row r="147" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="29"/>
       <c r="B147" s="25"/>
       <c r="C147" s="28"/>
@@ -5946,7 +5979,7 @@
       <c r="S147" s="35"/>
       <c r="T147" s="35"/>
     </row>
-    <row r="148" spans="1:20" ht="13" customHeight="1">
+    <row r="148" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="29"/>
       <c r="B148" s="25"/>
       <c r="C148" s="28"/>
@@ -5968,7 +6001,7 @@
       <c r="S148" s="35"/>
       <c r="T148" s="35"/>
     </row>
-    <row r="149" spans="1:20" ht="13" customHeight="1">
+    <row r="149" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="29"/>
       <c r="B149" s="25"/>
       <c r="C149" s="28"/>
@@ -5990,7 +6023,7 @@
       <c r="S149" s="35"/>
       <c r="T149" s="35"/>
     </row>
-    <row r="150" spans="1:20" ht="13" customHeight="1">
+    <row r="150" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
       <c r="B150" s="25"/>
       <c r="C150" s="28"/>
@@ -6012,7 +6045,7 @@
       <c r="S150" s="35"/>
       <c r="T150" s="35"/>
     </row>
-    <row r="151" spans="1:20" ht="13" customHeight="1">
+    <row r="151" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="29"/>
       <c r="B151" s="25"/>
       <c r="C151" s="28"/>
@@ -6034,7 +6067,7 @@
       <c r="S151" s="35"/>
       <c r="T151" s="35"/>
     </row>
-    <row r="152" spans="1:20" ht="13" customHeight="1">
+    <row r="152" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="29"/>
       <c r="B152" s="25"/>
       <c r="C152" s="28"/>
@@ -6056,7 +6089,7 @@
       <c r="S152" s="35"/>
       <c r="T152" s="35"/>
     </row>
-    <row r="153" spans="1:20" ht="13" customHeight="1">
+    <row r="153" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="29"/>
       <c r="B153" s="25"/>
       <c r="C153" s="28"/>
@@ -6078,7 +6111,7 @@
       <c r="S153" s="35"/>
       <c r="T153" s="35"/>
     </row>
-    <row r="154" spans="1:20" ht="13" customHeight="1">
+    <row r="154" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="29"/>
       <c r="B154" s="25"/>
       <c r="C154" s="28"/>
@@ -6100,7 +6133,7 @@
       <c r="S154" s="35"/>
       <c r="T154" s="35"/>
     </row>
-    <row r="155" spans="1:20" ht="13" customHeight="1">
+    <row r="155" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="29"/>
       <c r="B155" s="25"/>
       <c r="C155" s="28"/>
@@ -6122,7 +6155,7 @@
       <c r="S155" s="35"/>
       <c r="T155" s="35"/>
     </row>
-    <row r="156" spans="1:20" ht="13" customHeight="1">
+    <row r="156" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="29"/>
       <c r="B156" s="25"/>
       <c r="C156" s="28"/>
@@ -6144,7 +6177,7 @@
       <c r="S156" s="35"/>
       <c r="T156" s="35"/>
     </row>
-    <row r="157" spans="1:20" ht="13" customHeight="1">
+    <row r="157" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="29"/>
       <c r="B157" s="25"/>
       <c r="C157" s="28"/>
@@ -6166,7 +6199,7 @@
       <c r="S157" s="35"/>
       <c r="T157" s="35"/>
     </row>
-    <row r="158" spans="1:20" ht="13" customHeight="1">
+    <row r="158" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="29"/>
       <c r="B158" s="25"/>
       <c r="C158" s="28"/>
@@ -6188,7 +6221,7 @@
       <c r="S158" s="35"/>
       <c r="T158" s="35"/>
     </row>
-    <row r="159" spans="1:20" ht="13" customHeight="1">
+    <row r="159" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="29"/>
       <c r="B159" s="25"/>
       <c r="C159" s="28"/>
@@ -6210,7 +6243,7 @@
       <c r="S159" s="35"/>
       <c r="T159" s="35"/>
     </row>
-    <row r="160" spans="1:20" ht="13" customHeight="1">
+    <row r="160" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="29"/>
       <c r="B160" s="25"/>
       <c r="C160" s="28"/>
@@ -6232,7 +6265,7 @@
       <c r="S160" s="35"/>
       <c r="T160" s="35"/>
     </row>
-    <row r="161" spans="1:20" ht="13" customHeight="1">
+    <row r="161" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="29"/>
       <c r="B161" s="25"/>
       <c r="C161" s="28"/>
@@ -6254,7 +6287,7 @@
       <c r="S161" s="35"/>
       <c r="T161" s="35"/>
     </row>
-    <row r="162" spans="1:20" ht="13" customHeight="1">
+    <row r="162" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="29"/>
       <c r="B162" s="25"/>
       <c r="C162" s="28"/>
@@ -6276,7 +6309,7 @@
       <c r="S162" s="35"/>
       <c r="T162" s="35"/>
     </row>
-    <row r="163" spans="1:20" ht="13" customHeight="1">
+    <row r="163" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="29"/>
       <c r="B163" s="25"/>
       <c r="C163" s="28"/>
@@ -6298,7 +6331,7 @@
       <c r="S163" s="35"/>
       <c r="T163" s="35"/>
     </row>
-    <row r="164" spans="1:20" ht="13" customHeight="1">
+    <row r="164" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="29"/>
       <c r="B164" s="25"/>
       <c r="C164" s="28"/>
@@ -6320,7 +6353,7 @@
       <c r="S164" s="35"/>
       <c r="T164" s="35"/>
     </row>
-    <row r="165" spans="1:20" ht="13" customHeight="1">
+    <row r="165" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="29"/>
       <c r="B165" s="25"/>
       <c r="C165" s="28"/>
@@ -6342,7 +6375,7 @@
       <c r="S165" s="35"/>
       <c r="T165" s="35"/>
     </row>
-    <row r="166" spans="1:20" ht="13" customHeight="1">
+    <row r="166" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="29"/>
       <c r="B166" s="25"/>
       <c r="C166" s="28"/>
@@ -6364,7 +6397,7 @@
       <c r="S166" s="35"/>
       <c r="T166" s="35"/>
     </row>
-    <row r="167" spans="1:20" ht="13" customHeight="1">
+    <row r="167" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="29"/>
       <c r="B167" s="25"/>
       <c r="C167" s="28"/>
@@ -6386,7 +6419,7 @@
       <c r="S167" s="35"/>
       <c r="T167" s="35"/>
     </row>
-    <row r="168" spans="1:20" ht="13" customHeight="1">
+    <row r="168" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="29"/>
       <c r="B168" s="25"/>
       <c r="C168" s="28"/>
@@ -6408,7 +6441,7 @@
       <c r="S168" s="35"/>
       <c r="T168" s="35"/>
     </row>
-    <row r="169" spans="1:20" ht="13" customHeight="1">
+    <row r="169" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="29"/>
       <c r="B169" s="25"/>
       <c r="C169" s="28"/>
@@ -6430,7 +6463,7 @@
       <c r="S169" s="35"/>
       <c r="T169" s="35"/>
     </row>
-    <row r="170" spans="1:20" ht="13" customHeight="1">
+    <row r="170" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="29"/>
       <c r="B170" s="25"/>
       <c r="C170" s="28"/>
@@ -6452,7 +6485,7 @@
       <c r="S170" s="35"/>
       <c r="T170" s="35"/>
     </row>
-    <row r="171" spans="1:20" ht="13" customHeight="1">
+    <row r="171" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="29"/>
       <c r="B171" s="25"/>
       <c r="C171" s="28"/>
@@ -6474,7 +6507,7 @@
       <c r="S171" s="35"/>
       <c r="T171" s="35"/>
     </row>
-    <row r="172" spans="1:20" ht="13" customHeight="1">
+    <row r="172" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="29"/>
       <c r="B172" s="25"/>
       <c r="C172" s="28"/>
@@ -6496,7 +6529,7 @@
       <c r="S172" s="35"/>
       <c r="T172" s="35"/>
     </row>
-    <row r="173" spans="1:20" ht="13" customHeight="1">
+    <row r="173" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="29"/>
       <c r="B173" s="25"/>
       <c r="C173" s="28"/>
@@ -6518,7 +6551,7 @@
       <c r="S173" s="35"/>
       <c r="T173" s="35"/>
     </row>
-    <row r="174" spans="1:20" ht="13" customHeight="1">
+    <row r="174" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="29"/>
       <c r="B174" s="25"/>
       <c r="C174" s="28"/>
@@ -6540,7 +6573,7 @@
       <c r="S174" s="35"/>
       <c r="T174" s="35"/>
     </row>
-    <row r="175" spans="1:20" ht="13" customHeight="1">
+    <row r="175" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="29"/>
       <c r="B175" s="25"/>
       <c r="C175" s="28"/>
@@ -6562,7 +6595,7 @@
       <c r="S175" s="35"/>
       <c r="T175" s="35"/>
     </row>
-    <row r="176" spans="1:20" ht="13" customHeight="1">
+    <row r="176" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="29"/>
       <c r="B176" s="25"/>
       <c r="C176" s="28"/>
@@ -6584,7 +6617,7 @@
       <c r="S176" s="35"/>
       <c r="T176" s="35"/>
     </row>
-    <row r="177" spans="1:20" ht="13" customHeight="1">
+    <row r="177" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="29"/>
       <c r="B177" s="25"/>
       <c r="C177" s="28"/>
@@ -6606,7 +6639,7 @@
       <c r="S177" s="35"/>
       <c r="T177" s="35"/>
     </row>
-    <row r="178" spans="1:20" ht="13" customHeight="1">
+    <row r="178" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="29"/>
       <c r="B178" s="25"/>
       <c r="C178" s="28"/>
@@ -6628,7 +6661,7 @@
       <c r="S178" s="35"/>
       <c r="T178" s="35"/>
     </row>
-    <row r="179" spans="1:20" ht="13" customHeight="1">
+    <row r="179" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="29"/>
       <c r="B179" s="25"/>
       <c r="C179" s="28"/>
@@ -6650,7 +6683,7 @@
       <c r="S179" s="35"/>
       <c r="T179" s="35"/>
     </row>
-    <row r="180" spans="1:20" ht="13" customHeight="1">
+    <row r="180" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="29"/>
       <c r="B180" s="25"/>
       <c r="C180" s="28"/>
@@ -6672,7 +6705,7 @@
       <c r="S180" s="35"/>
       <c r="T180" s="35"/>
     </row>
-    <row r="181" spans="1:20" ht="13" customHeight="1">
+    <row r="181" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="29"/>
       <c r="B181" s="25"/>
       <c r="C181" s="28"/>
@@ -6694,7 +6727,7 @@
       <c r="S181" s="35"/>
       <c r="T181" s="35"/>
     </row>
-    <row r="182" spans="1:20" ht="13" customHeight="1">
+    <row r="182" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="29"/>
       <c r="B182" s="25"/>
       <c r="C182" s="28"/>
@@ -6716,7 +6749,7 @@
       <c r="S182" s="35"/>
       <c r="T182" s="35"/>
     </row>
-    <row r="183" spans="1:20" ht="13" customHeight="1">
+    <row r="183" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="29"/>
       <c r="B183" s="25"/>
       <c r="C183" s="28"/>
@@ -6738,7 +6771,7 @@
       <c r="S183" s="35"/>
       <c r="T183" s="35"/>
     </row>
-    <row r="184" spans="1:20" ht="13" customHeight="1">
+    <row r="184" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="29"/>
       <c r="B184" s="25"/>
       <c r="C184" s="28"/>
@@ -6760,7 +6793,7 @@
       <c r="S184" s="35"/>
       <c r="T184" s="35"/>
     </row>
-    <row r="185" spans="1:20" ht="13" customHeight="1">
+    <row r="185" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="29"/>
       <c r="B185" s="25"/>
       <c r="C185" s="28"/>
@@ -6782,7 +6815,7 @@
       <c r="S185" s="35"/>
       <c r="T185" s="35"/>
     </row>
-    <row r="186" spans="1:20" ht="13" customHeight="1">
+    <row r="186" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="29"/>
       <c r="B186" s="25"/>
       <c r="C186" s="28"/>
@@ -6804,7 +6837,7 @@
       <c r="S186" s="35"/>
       <c r="T186" s="35"/>
     </row>
-    <row r="187" spans="1:20" ht="13" customHeight="1">
+    <row r="187" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="29"/>
       <c r="B187" s="25"/>
       <c r="C187" s="28"/>
@@ -6826,7 +6859,7 @@
       <c r="S187" s="35"/>
       <c r="T187" s="35"/>
     </row>
-    <row r="188" spans="1:20" ht="13" customHeight="1">
+    <row r="188" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="29"/>
       <c r="B188" s="25"/>
       <c r="C188" s="28"/>
@@ -6848,7 +6881,7 @@
       <c r="S188" s="35"/>
       <c r="T188" s="35"/>
     </row>
-    <row r="189" spans="1:20" ht="13" customHeight="1">
+    <row r="189" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="29"/>
       <c r="B189" s="25"/>
       <c r="C189" s="28"/>
@@ -6870,7 +6903,7 @@
       <c r="S189" s="35"/>
       <c r="T189" s="35"/>
     </row>
-    <row r="190" spans="1:20" ht="13" customHeight="1">
+    <row r="190" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="29"/>
       <c r="B190" s="25"/>
       <c r="C190" s="28"/>
@@ -6892,7 +6925,7 @@
       <c r="S190" s="35"/>
       <c r="T190" s="35"/>
     </row>
-    <row r="191" spans="1:20" ht="13" customHeight="1">
+    <row r="191" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="29"/>
       <c r="B191" s="25"/>
       <c r="C191" s="28"/>
@@ -6914,7 +6947,7 @@
       <c r="S191" s="35"/>
       <c r="T191" s="35"/>
     </row>
-    <row r="192" spans="1:20" ht="13" customHeight="1">
+    <row r="192" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="29"/>
       <c r="B192" s="25"/>
       <c r="C192" s="28"/>
@@ -6936,7 +6969,7 @@
       <c r="S192" s="35"/>
       <c r="T192" s="35"/>
     </row>
-    <row r="193" spans="1:20" ht="13" customHeight="1">
+    <row r="193" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="29"/>
       <c r="B193" s="25"/>
       <c r="C193" s="28"/>
@@ -6958,7 +6991,7 @@
       <c r="S193" s="35"/>
       <c r="T193" s="35"/>
     </row>
-    <row r="194" spans="1:20" ht="13" customHeight="1">
+    <row r="194" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="29"/>
       <c r="B194" s="25"/>
       <c r="C194" s="28"/>
@@ -6980,7 +7013,7 @@
       <c r="S194" s="35"/>
       <c r="T194" s="35"/>
     </row>
-    <row r="195" spans="1:20" ht="13" customHeight="1">
+    <row r="195" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="29"/>
       <c r="B195" s="25"/>
       <c r="C195" s="28"/>
@@ -7002,7 +7035,7 @@
       <c r="S195" s="35"/>
       <c r="T195" s="35"/>
     </row>
-    <row r="196" spans="1:20" ht="13" customHeight="1">
+    <row r="196" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="29"/>
       <c r="B196" s="25"/>
       <c r="C196" s="28"/>
@@ -7024,7 +7057,7 @@
       <c r="S196" s="35"/>
       <c r="T196" s="35"/>
     </row>
-    <row r="197" spans="1:20" ht="13" customHeight="1">
+    <row r="197" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="29"/>
       <c r="B197" s="25"/>
       <c r="C197" s="28"/>
@@ -7046,7 +7079,7 @@
       <c r="S197" s="35"/>
       <c r="T197" s="35"/>
     </row>
-    <row r="198" spans="1:20" ht="13" customHeight="1">
+    <row r="198" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="29"/>
       <c r="B198" s="25"/>
       <c r="C198" s="28"/>
@@ -7068,7 +7101,7 @@
       <c r="S198" s="35"/>
       <c r="T198" s="35"/>
     </row>
-    <row r="199" spans="1:20" ht="13" customHeight="1">
+    <row r="199" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="29"/>
       <c r="B199" s="25"/>
       <c r="C199" s="28"/>
@@ -7090,7 +7123,7 @@
       <c r="S199" s="35"/>
       <c r="T199" s="35"/>
     </row>
-    <row r="200" spans="1:20" ht="13" customHeight="1">
+    <row r="200" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="29"/>
       <c r="B200" s="25"/>
       <c r="C200" s="28"/>
@@ -7112,7 +7145,7 @@
       <c r="S200" s="35"/>
       <c r="T200" s="35"/>
     </row>
-    <row r="201" spans="1:20" ht="13" customHeight="1">
+    <row r="201" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="29"/>
       <c r="B201" s="25"/>
       <c r="C201" s="28"/>
@@ -7134,7 +7167,7 @@
       <c r="S201" s="35"/>
       <c r="T201" s="35"/>
     </row>
-    <row r="202" spans="1:20" ht="13" customHeight="1">
+    <row r="202" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="29"/>
       <c r="B202" s="25"/>
       <c r="C202" s="28"/>
@@ -7156,7 +7189,7 @@
       <c r="S202" s="35"/>
       <c r="T202" s="35"/>
     </row>
-    <row r="203" spans="1:20" ht="13" customHeight="1">
+    <row r="203" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="29"/>
       <c r="B203" s="25"/>
       <c r="C203" s="28"/>
@@ -7178,7 +7211,7 @@
       <c r="S203" s="35"/>
       <c r="T203" s="35"/>
     </row>
-    <row r="204" spans="1:20" ht="13" customHeight="1">
+    <row r="204" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="29"/>
       <c r="B204" s="25"/>
       <c r="C204" s="28"/>
@@ -7200,7 +7233,7 @@
       <c r="S204" s="35"/>
       <c r="T204" s="35"/>
     </row>
-    <row r="205" spans="1:20" ht="13" customHeight="1">
+    <row r="205" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="29"/>
       <c r="B205" s="25"/>
       <c r="C205" s="28"/>
@@ -7222,7 +7255,7 @@
       <c r="S205" s="35"/>
       <c r="T205" s="35"/>
     </row>
-    <row r="206" spans="1:20" ht="13" customHeight="1">
+    <row r="206" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="29"/>
       <c r="B206" s="25"/>
       <c r="C206" s="28"/>
@@ -7244,7 +7277,7 @@
       <c r="S206" s="35"/>
       <c r="T206" s="35"/>
     </row>
-    <row r="207" spans="1:20" ht="13" customHeight="1">
+    <row r="207" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="29"/>
       <c r="B207" s="25"/>
       <c r="C207" s="28"/>
@@ -7266,7 +7299,7 @@
       <c r="S207" s="35"/>
       <c r="T207" s="35"/>
     </row>
-    <row r="208" spans="1:20" ht="13" customHeight="1">
+    <row r="208" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="29"/>
       <c r="B208" s="25"/>
       <c r="C208" s="28"/>
@@ -7288,7 +7321,7 @@
       <c r="S208" s="35"/>
       <c r="T208" s="35"/>
     </row>
-    <row r="209" spans="1:20" ht="13" customHeight="1">
+    <row r="209" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="29"/>
       <c r="B209" s="25"/>
       <c r="C209" s="28"/>
@@ -7310,7 +7343,7 @@
       <c r="S209" s="35"/>
       <c r="T209" s="35"/>
     </row>
-    <row r="210" spans="1:20" ht="13" customHeight="1">
+    <row r="210" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="29"/>
       <c r="B210" s="25"/>
       <c r="C210" s="28"/>
@@ -7332,7 +7365,7 @@
       <c r="S210" s="35"/>
       <c r="T210" s="35"/>
     </row>
-    <row r="211" spans="1:20" ht="13" customHeight="1">
+    <row r="211" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="29"/>
       <c r="B211" s="25"/>
       <c r="C211" s="28"/>
@@ -7354,7 +7387,7 @@
       <c r="S211" s="35"/>
       <c r="T211" s="35"/>
     </row>
-    <row r="212" spans="1:20" ht="13" customHeight="1">
+    <row r="212" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="29"/>
       <c r="B212" s="25"/>
       <c r="C212" s="28"/>
@@ -7376,7 +7409,7 @@
       <c r="S212" s="35"/>
       <c r="T212" s="35"/>
     </row>
-    <row r="213" spans="1:20" ht="13" customHeight="1">
+    <row r="213" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="29"/>
       <c r="B213" s="25"/>
       <c r="C213" s="28"/>
@@ -7398,7 +7431,7 @@
       <c r="S213" s="35"/>
       <c r="T213" s="35"/>
     </row>
-    <row r="214" spans="1:20" ht="13" customHeight="1">
+    <row r="214" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="29"/>
       <c r="B214" s="25"/>
       <c r="C214" s="28"/>
@@ -7420,7 +7453,7 @@
       <c r="S214" s="35"/>
       <c r="T214" s="35"/>
     </row>
-    <row r="215" spans="1:20" ht="13" customHeight="1">
+    <row r="215" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="29"/>
       <c r="B215" s="25"/>
       <c r="C215" s="28"/>
@@ -7442,7 +7475,7 @@
       <c r="S215" s="35"/>
       <c r="T215" s="35"/>
     </row>
-    <row r="216" spans="1:20" ht="13" customHeight="1">
+    <row r="216" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="29"/>
       <c r="B216" s="25"/>
       <c r="C216" s="28"/>
@@ -7464,7 +7497,7 @@
       <c r="S216" s="35"/>
       <c r="T216" s="35"/>
     </row>
-    <row r="217" spans="1:20" ht="13" customHeight="1">
+    <row r="217" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="29"/>
       <c r="B217" s="25"/>
       <c r="C217" s="28"/>
@@ -7486,7 +7519,7 @@
       <c r="S217" s="35"/>
       <c r="T217" s="35"/>
     </row>
-    <row r="218" spans="1:20" ht="13" customHeight="1">
+    <row r="218" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="29"/>
       <c r="B218" s="25"/>
       <c r="C218" s="28"/>
@@ -7508,7 +7541,7 @@
       <c r="S218" s="35"/>
       <c r="T218" s="35"/>
     </row>
-    <row r="219" spans="1:20" ht="13" customHeight="1">
+    <row r="219" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="29"/>
       <c r="B219" s="25"/>
       <c r="C219" s="28"/>
@@ -7530,7 +7563,7 @@
       <c r="S219" s="35"/>
       <c r="T219" s="35"/>
     </row>
-    <row r="220" spans="1:20" ht="13" customHeight="1">
+    <row r="220" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="29"/>
       <c r="B220" s="25"/>
       <c r="C220" s="28"/>
@@ -7552,7 +7585,7 @@
       <c r="S220" s="35"/>
       <c r="T220" s="35"/>
     </row>
-    <row r="221" spans="1:20" ht="13" customHeight="1">
+    <row r="221" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="29"/>
       <c r="B221" s="25"/>
       <c r="C221" s="28"/>
@@ -7574,7 +7607,7 @@
       <c r="S221" s="35"/>
       <c r="T221" s="35"/>
     </row>
-    <row r="222" spans="1:20" ht="13" customHeight="1">
+    <row r="222" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="29"/>
       <c r="B222" s="25"/>
       <c r="C222" s="28"/>
@@ -7596,7 +7629,7 @@
       <c r="S222" s="35"/>
       <c r="T222" s="35"/>
     </row>
-    <row r="223" spans="1:20" ht="13" customHeight="1">
+    <row r="223" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="29"/>
       <c r="B223" s="25"/>
       <c r="C223" s="28"/>
@@ -7618,7 +7651,7 @@
       <c r="S223" s="35"/>
       <c r="T223" s="35"/>
     </row>
-    <row r="224" spans="1:20" ht="13" customHeight="1">
+    <row r="224" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="29"/>
       <c r="B224" s="25"/>
       <c r="C224" s="28"/>
@@ -7640,7 +7673,7 @@
       <c r="S224" s="35"/>
       <c r="T224" s="35"/>
     </row>
-    <row r="225" spans="1:20" ht="13" customHeight="1">
+    <row r="225" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="29"/>
       <c r="B225" s="25"/>
       <c r="C225" s="28"/>
@@ -7662,7 +7695,7 @@
       <c r="S225" s="35"/>
       <c r="T225" s="35"/>
     </row>
-    <row r="226" spans="1:20" ht="13" customHeight="1">
+    <row r="226" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="29"/>
       <c r="B226" s="25"/>
       <c r="C226" s="28"/>
@@ -7684,7 +7717,7 @@
       <c r="S226" s="35"/>
       <c r="T226" s="35"/>
     </row>
-    <row r="227" spans="1:20" ht="13" customHeight="1">
+    <row r="227" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="29"/>
       <c r="B227" s="25"/>
       <c r="C227" s="28"/>
@@ -7706,7 +7739,7 @@
       <c r="S227" s="35"/>
       <c r="T227" s="35"/>
     </row>
-    <row r="228" spans="1:20" ht="13" customHeight="1">
+    <row r="228" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="29"/>
       <c r="B228" s="25"/>
       <c r="C228" s="28"/>
@@ -7728,7 +7761,7 @@
       <c r="S228" s="35"/>
       <c r="T228" s="35"/>
     </row>
-    <row r="229" spans="1:20" ht="13" customHeight="1">
+    <row r="229" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="29"/>
       <c r="B229" s="25"/>
       <c r="C229" s="28"/>
@@ -7750,7 +7783,7 @@
       <c r="S229" s="35"/>
       <c r="T229" s="35"/>
     </row>
-    <row r="230" spans="1:20" ht="13" customHeight="1">
+    <row r="230" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="29"/>
       <c r="B230" s="25"/>
       <c r="C230" s="28"/>
@@ -7772,7 +7805,7 @@
       <c r="S230" s="35"/>
       <c r="T230" s="35"/>
     </row>
-    <row r="231" spans="1:20" ht="13" customHeight="1">
+    <row r="231" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="29"/>
       <c r="B231" s="25"/>
       <c r="C231" s="28"/>
@@ -7794,7 +7827,7 @@
       <c r="S231" s="35"/>
       <c r="T231" s="35"/>
     </row>
-    <row r="232" spans="1:20" ht="13" customHeight="1">
+    <row r="232" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="29"/>
       <c r="B232" s="25"/>
       <c r="C232" s="28"/>
@@ -7816,7 +7849,7 @@
       <c r="S232" s="35"/>
       <c r="T232" s="35"/>
     </row>
-    <row r="233" spans="1:20" ht="13" customHeight="1">
+    <row r="233" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="29"/>
       <c r="B233" s="25"/>
       <c r="C233" s="28"/>
@@ -7838,7 +7871,7 @@
       <c r="S233" s="35"/>
       <c r="T233" s="35"/>
     </row>
-    <row r="234" spans="1:20" ht="13" customHeight="1">
+    <row r="234" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="29"/>
       <c r="B234" s="25"/>
       <c r="C234" s="28"/>
@@ -7860,7 +7893,7 @@
       <c r="S234" s="35"/>
       <c r="T234" s="35"/>
     </row>
-    <row r="235" spans="1:20" ht="13" customHeight="1">
+    <row r="235" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="29"/>
       <c r="B235" s="25"/>
       <c r="C235" s="28"/>
@@ -7882,7 +7915,7 @@
       <c r="S235" s="35"/>
       <c r="T235" s="35"/>
     </row>
-    <row r="236" spans="1:20" ht="13" customHeight="1">
+    <row r="236" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="29"/>
       <c r="B236" s="25"/>
       <c r="C236" s="28"/>
@@ -7904,7 +7937,7 @@
       <c r="S236" s="35"/>
       <c r="T236" s="35"/>
     </row>
-    <row r="237" spans="1:20" ht="13" customHeight="1">
+    <row r="237" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="29"/>
       <c r="B237" s="25"/>
       <c r="C237" s="28"/>
@@ -7926,7 +7959,7 @@
       <c r="S237" s="35"/>
       <c r="T237" s="35"/>
     </row>
-    <row r="238" spans="1:20" ht="13" customHeight="1">
+    <row r="238" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="29"/>
       <c r="B238" s="25"/>
       <c r="C238" s="28"/>
@@ -7948,7 +7981,7 @@
       <c r="S238" s="35"/>
       <c r="T238" s="35"/>
     </row>
-    <row r="239" spans="1:20" ht="13" customHeight="1">
+    <row r="239" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="29"/>
       <c r="B239" s="25"/>
       <c r="C239" s="28"/>
@@ -7970,7 +8003,7 @@
       <c r="S239" s="35"/>
       <c r="T239" s="35"/>
     </row>
-    <row r="240" spans="1:20" ht="13" customHeight="1">
+    <row r="240" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="29"/>
       <c r="B240" s="25"/>
       <c r="C240" s="28"/>
@@ -7992,7 +8025,7 @@
       <c r="S240" s="35"/>
       <c r="T240" s="35"/>
     </row>
-    <row r="241" spans="1:20" ht="13" customHeight="1">
+    <row r="241" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="29"/>
       <c r="B241" s="25"/>
       <c r="C241" s="28"/>
@@ -8014,7 +8047,7 @@
       <c r="S241" s="35"/>
       <c r="T241" s="35"/>
     </row>
-    <row r="242" spans="1:20" ht="13" customHeight="1">
+    <row r="242" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="29"/>
       <c r="B242" s="25"/>
       <c r="C242" s="28"/>
@@ -8036,7 +8069,7 @@
       <c r="S242" s="35"/>
       <c r="T242" s="35"/>
     </row>
-    <row r="243" spans="1:20" ht="13" customHeight="1">
+    <row r="243" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="29"/>
       <c r="B243" s="25"/>
       <c r="C243" s="28"/>
@@ -8058,7 +8091,7 @@
       <c r="S243" s="35"/>
       <c r="T243" s="35"/>
     </row>
-    <row r="244" spans="1:20" ht="13" customHeight="1">
+    <row r="244" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="29"/>
       <c r="B244" s="25"/>
       <c r="C244" s="28"/>
@@ -8080,7 +8113,7 @@
       <c r="S244" s="35"/>
       <c r="T244" s="35"/>
     </row>
-    <row r="245" spans="1:20" ht="13" customHeight="1">
+    <row r="245" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="29"/>
       <c r="B245" s="25"/>
       <c r="C245" s="28"/>
@@ -8102,7 +8135,7 @@
       <c r="S245" s="35"/>
       <c r="T245" s="35"/>
     </row>
-    <row r="246" spans="1:20" ht="13" customHeight="1">
+    <row r="246" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="29"/>
       <c r="B246" s="25"/>
       <c r="C246" s="28"/>
@@ -8124,7 +8157,7 @@
       <c r="S246" s="35"/>
       <c r="T246" s="35"/>
     </row>
-    <row r="247" spans="1:20" ht="13" customHeight="1">
+    <row r="247" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="29"/>
       <c r="B247" s="25"/>
       <c r="C247" s="28"/>
@@ -8146,7 +8179,7 @@
       <c r="S247" s="35"/>
       <c r="T247" s="35"/>
     </row>
-    <row r="248" spans="1:20" ht="13" customHeight="1">
+    <row r="248" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="29"/>
       <c r="B248" s="25"/>
       <c r="C248" s="28"/>
@@ -8168,7 +8201,7 @@
       <c r="S248" s="35"/>
       <c r="T248" s="35"/>
     </row>
-    <row r="249" spans="1:20" ht="13" customHeight="1">
+    <row r="249" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="29"/>
       <c r="B249" s="25"/>
       <c r="C249" s="28"/>
@@ -8190,7 +8223,7 @@
       <c r="S249" s="35"/>
       <c r="T249" s="35"/>
     </row>
-    <row r="250" spans="1:20" ht="13" customHeight="1">
+    <row r="250" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="29"/>
       <c r="B250" s="25"/>
       <c r="C250" s="28"/>
@@ -8212,7 +8245,7 @@
       <c r="S250" s="35"/>
       <c r="T250" s="35"/>
     </row>
-    <row r="251" spans="1:20" ht="13" customHeight="1">
+    <row r="251" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="29"/>
       <c r="B251" s="25"/>
       <c r="C251" s="28"/>
@@ -8234,7 +8267,7 @@
       <c r="S251" s="35"/>
       <c r="T251" s="35"/>
     </row>
-    <row r="252" spans="1:20" ht="13" customHeight="1">
+    <row r="252" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="29"/>
       <c r="B252" s="25"/>
       <c r="C252" s="28"/>
@@ -8256,7 +8289,7 @@
       <c r="S252" s="35"/>
       <c r="T252" s="35"/>
     </row>
-    <row r="253" spans="1:20" ht="13" customHeight="1">
+    <row r="253" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="29"/>
       <c r="B253" s="25"/>
       <c r="C253" s="28"/>
@@ -8278,7 +8311,7 @@
       <c r="S253" s="35"/>
       <c r="T253" s="35"/>
     </row>
-    <row r="254" spans="1:20" ht="13" customHeight="1">
+    <row r="254" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="29"/>
       <c r="B254" s="25"/>
       <c r="C254" s="28"/>
@@ -8300,7 +8333,7 @@
       <c r="S254" s="35"/>
       <c r="T254" s="35"/>
     </row>
-    <row r="255" spans="1:20" ht="13" customHeight="1">
+    <row r="255" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="29"/>
       <c r="B255" s="25"/>
       <c r="C255" s="28"/>
@@ -8322,7 +8355,7 @@
       <c r="S255" s="35"/>
       <c r="T255" s="35"/>
     </row>
-    <row r="256" spans="1:20" ht="13" customHeight="1">
+    <row r="256" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="29"/>
       <c r="B256" s="25"/>
       <c r="C256" s="28"/>
@@ -8344,7 +8377,7 @@
       <c r="S256" s="35"/>
       <c r="T256" s="35"/>
     </row>
-    <row r="257" spans="1:20" ht="13" customHeight="1">
+    <row r="257" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="29"/>
       <c r="B257" s="25"/>
       <c r="C257" s="28"/>
@@ -8366,7 +8399,7 @@
       <c r="S257" s="35"/>
       <c r="T257" s="35"/>
     </row>
-    <row r="258" spans="1:20" ht="13" customHeight="1">
+    <row r="258" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="29"/>
       <c r="B258" s="25"/>
       <c r="C258" s="28"/>
@@ -8388,7 +8421,7 @@
       <c r="S258" s="35"/>
       <c r="T258" s="35"/>
     </row>
-    <row r="259" spans="1:20" ht="13" customHeight="1">
+    <row r="259" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="29"/>
       <c r="B259" s="25"/>
       <c r="C259" s="28"/>
@@ -8410,7 +8443,7 @@
       <c r="S259" s="35"/>
       <c r="T259" s="35"/>
     </row>
-    <row r="260" spans="1:20" ht="13" customHeight="1">
+    <row r="260" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="29"/>
       <c r="B260" s="25"/>
       <c r="C260" s="28"/>
@@ -8432,7 +8465,7 @@
       <c r="S260" s="35"/>
       <c r="T260" s="35"/>
     </row>
-    <row r="261" spans="1:20" ht="13" customHeight="1">
+    <row r="261" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="29"/>
       <c r="B261" s="25"/>
       <c r="C261" s="28"/>
@@ -8454,7 +8487,7 @@
       <c r="S261" s="35"/>
       <c r="T261" s="35"/>
     </row>
-    <row r="262" spans="1:20" ht="13" customHeight="1">
+    <row r="262" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="29"/>
       <c r="B262" s="25"/>
       <c r="C262" s="28"/>
@@ -8476,7 +8509,7 @@
       <c r="S262" s="35"/>
       <c r="T262" s="35"/>
     </row>
-    <row r="263" spans="1:20" ht="13" customHeight="1">
+    <row r="263" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="29"/>
       <c r="B263" s="25"/>
       <c r="C263" s="28"/>
@@ -8498,7 +8531,7 @@
       <c r="S263" s="35"/>
       <c r="T263" s="35"/>
     </row>
-    <row r="264" spans="1:20" ht="13" customHeight="1">
+    <row r="264" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="29"/>
       <c r="B264" s="25"/>
       <c r="C264" s="28"/>
@@ -8520,7 +8553,7 @@
       <c r="S264" s="35"/>
       <c r="T264" s="35"/>
     </row>
-    <row r="265" spans="1:20" ht="13" customHeight="1">
+    <row r="265" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="29"/>
       <c r="B265" s="25"/>
       <c r="C265" s="28"/>
@@ -8542,7 +8575,7 @@
       <c r="S265" s="35"/>
       <c r="T265" s="35"/>
     </row>
-    <row r="266" spans="1:20" ht="13" customHeight="1">
+    <row r="266" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="29"/>
       <c r="B266" s="25"/>
       <c r="C266" s="28"/>
@@ -8564,7 +8597,7 @@
       <c r="S266" s="35"/>
       <c r="T266" s="35"/>
     </row>
-    <row r="267" spans="1:20" ht="13" customHeight="1">
+    <row r="267" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="29"/>
       <c r="B267" s="25"/>
       <c r="C267" s="28"/>
@@ -8586,7 +8619,7 @@
       <c r="S267" s="35"/>
       <c r="T267" s="35"/>
     </row>
-    <row r="268" spans="1:20" ht="13" customHeight="1">
+    <row r="268" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="29"/>
       <c r="B268" s="25"/>
       <c r="C268" s="28"/>
@@ -8608,7 +8641,7 @@
       <c r="S268" s="35"/>
       <c r="T268" s="35"/>
     </row>
-    <row r="269" spans="1:20" ht="13" customHeight="1">
+    <row r="269" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="29"/>
       <c r="B269" s="25"/>
       <c r="C269" s="28"/>
@@ -8630,7 +8663,7 @@
       <c r="S269" s="35"/>
       <c r="T269" s="35"/>
     </row>
-    <row r="270" spans="1:20" ht="13" customHeight="1">
+    <row r="270" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="29"/>
       <c r="B270" s="25"/>
       <c r="C270" s="28"/>
@@ -8652,7 +8685,7 @@
       <c r="S270" s="35"/>
       <c r="T270" s="35"/>
     </row>
-    <row r="271" spans="1:20" ht="13" customHeight="1">
+    <row r="271" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="29"/>
       <c r="B271" s="25"/>
       <c r="C271" s="28"/>
@@ -8674,7 +8707,7 @@
       <c r="S271" s="35"/>
       <c r="T271" s="35"/>
     </row>
-    <row r="272" spans="1:20" ht="13" customHeight="1">
+    <row r="272" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="29"/>
       <c r="B272" s="25"/>
       <c r="C272" s="28"/>
@@ -8696,7 +8729,7 @@
       <c r="S272" s="35"/>
       <c r="T272" s="35"/>
     </row>
-    <row r="273" spans="1:20" ht="13" customHeight="1">
+    <row r="273" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="29"/>
       <c r="B273" s="25"/>
       <c r="C273" s="28"/>
@@ -8718,7 +8751,7 @@
       <c r="S273" s="35"/>
       <c r="T273" s="35"/>
     </row>
-    <row r="274" spans="1:20" ht="13" customHeight="1">
+    <row r="274" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="29"/>
       <c r="B274" s="25"/>
       <c r="C274" s="28"/>
@@ -8740,7 +8773,7 @@
       <c r="S274" s="35"/>
       <c r="T274" s="35"/>
     </row>
-    <row r="275" spans="1:20" ht="13" customHeight="1">
+    <row r="275" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="29"/>
       <c r="B275" s="25"/>
       <c r="C275" s="28"/>
@@ -8762,7 +8795,7 @@
       <c r="S275" s="35"/>
       <c r="T275" s="35"/>
     </row>
-    <row r="276" spans="1:20" ht="13" customHeight="1">
+    <row r="276" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="29"/>
       <c r="B276" s="25"/>
       <c r="C276" s="28"/>
@@ -8784,7 +8817,7 @@
       <c r="S276" s="35"/>
       <c r="T276" s="35"/>
     </row>
-    <row r="277" spans="1:20" ht="13" customHeight="1">
+    <row r="277" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="29"/>
       <c r="B277" s="25"/>
       <c r="C277" s="28"/>
@@ -8806,7 +8839,7 @@
       <c r="S277" s="35"/>
       <c r="T277" s="35"/>
     </row>
-    <row r="278" spans="1:20" ht="13" customHeight="1">
+    <row r="278" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="29"/>
       <c r="B278" s="25"/>
       <c r="C278" s="28"/>
@@ -8828,7 +8861,7 @@
       <c r="S278" s="35"/>
       <c r="T278" s="35"/>
     </row>
-    <row r="279" spans="1:20" ht="13" customHeight="1">
+    <row r="279" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="29"/>
       <c r="B279" s="25"/>
       <c r="C279" s="28"/>
@@ -8850,7 +8883,7 @@
       <c r="S279" s="35"/>
       <c r="T279" s="35"/>
     </row>
-    <row r="280" spans="1:20" ht="13" customHeight="1">
+    <row r="280" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="29"/>
       <c r="B280" s="25"/>
       <c r="C280" s="28"/>
@@ -8872,7 +8905,7 @@
       <c r="S280" s="35"/>
       <c r="T280" s="35"/>
     </row>
-    <row r="281" spans="1:20" ht="13" customHeight="1">
+    <row r="281" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="29"/>
       <c r="B281" s="25"/>
       <c r="C281" s="28"/>
@@ -8894,7 +8927,7 @@
       <c r="S281" s="35"/>
       <c r="T281" s="35"/>
     </row>
-    <row r="282" spans="1:20" ht="13" customHeight="1">
+    <row r="282" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="29"/>
       <c r="B282" s="25"/>
       <c r="C282" s="28"/>
@@ -8916,7 +8949,7 @@
       <c r="S282" s="35"/>
       <c r="T282" s="35"/>
     </row>
-    <row r="283" spans="1:20" ht="13" customHeight="1">
+    <row r="283" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="29"/>
       <c r="B283" s="25"/>
       <c r="C283" s="28"/>
@@ -8938,7 +8971,7 @@
       <c r="S283" s="35"/>
       <c r="T283" s="35"/>
     </row>
-    <row r="284" spans="1:20" ht="13" customHeight="1">
+    <row r="284" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="29"/>
       <c r="B284" s="25"/>
       <c r="C284" s="28"/>
@@ -8960,7 +8993,7 @@
       <c r="S284" s="35"/>
       <c r="T284" s="35"/>
     </row>
-    <row r="285" spans="1:20" ht="13" customHeight="1">
+    <row r="285" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="29"/>
       <c r="B285" s="25"/>
       <c r="C285" s="28"/>
@@ -8982,7 +9015,7 @@
       <c r="S285" s="35"/>
       <c r="T285" s="35"/>
     </row>
-    <row r="286" spans="1:20" ht="13" customHeight="1">
+    <row r="286" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="29"/>
       <c r="B286" s="25"/>
       <c r="C286" s="28"/>
@@ -9004,7 +9037,7 @@
       <c r="S286" s="35"/>
       <c r="T286" s="35"/>
     </row>
-    <row r="287" spans="1:20" ht="13" customHeight="1">
+    <row r="287" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="29"/>
       <c r="B287" s="25"/>
       <c r="C287" s="28"/>
@@ -9026,7 +9059,7 @@
       <c r="S287" s="35"/>
       <c r="T287" s="35"/>
     </row>
-    <row r="288" spans="1:20" ht="13" customHeight="1">
+    <row r="288" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="29"/>
       <c r="B288" s="25"/>
       <c r="C288" s="28"/>
@@ -9048,7 +9081,7 @@
       <c r="S288" s="35"/>
       <c r="T288" s="35"/>
     </row>
-    <row r="289" spans="1:20" ht="13" customHeight="1">
+    <row r="289" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="29"/>
       <c r="B289" s="25"/>
       <c r="C289" s="28"/>
@@ -9070,7 +9103,7 @@
       <c r="S289" s="35"/>
       <c r="T289" s="35"/>
     </row>
-    <row r="290" spans="1:20" ht="13" customHeight="1">
+    <row r="290" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="29"/>
       <c r="B290" s="25"/>
       <c r="C290" s="28"/>
@@ -9092,7 +9125,7 @@
       <c r="S290" s="35"/>
       <c r="T290" s="35"/>
     </row>
-    <row r="291" spans="1:20" ht="13" customHeight="1">
+    <row r="291" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="29"/>
       <c r="B291" s="25"/>
       <c r="C291" s="28"/>
@@ -9114,7 +9147,7 @@
       <c r="S291" s="35"/>
       <c r="T291" s="35"/>
     </row>
-    <row r="292" spans="1:20" ht="13" customHeight="1">
+    <row r="292" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="29"/>
       <c r="B292" s="25"/>
       <c r="C292" s="28"/>
@@ -9136,7 +9169,7 @@
       <c r="S292" s="35"/>
       <c r="T292" s="35"/>
     </row>
-    <row r="293" spans="1:20" ht="13" customHeight="1">
+    <row r="293" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="29"/>
       <c r="B293" s="25"/>
       <c r="C293" s="28"/>
@@ -9158,7 +9191,7 @@
       <c r="S293" s="35"/>
       <c r="T293" s="35"/>
     </row>
-    <row r="294" spans="1:20" ht="13" customHeight="1">
+    <row r="294" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="29"/>
       <c r="B294" s="25"/>
       <c r="C294" s="28"/>
@@ -9180,7 +9213,7 @@
       <c r="S294" s="35"/>
       <c r="T294" s="35"/>
     </row>
-    <row r="295" spans="1:20" ht="13" customHeight="1">
+    <row r="295" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="29"/>
       <c r="B295" s="25"/>
       <c r="C295" s="28"/>
@@ -9202,7 +9235,7 @@
       <c r="S295" s="35"/>
       <c r="T295" s="35"/>
     </row>
-    <row r="296" spans="1:20" ht="13" customHeight="1">
+    <row r="296" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="29"/>
       <c r="B296" s="25"/>
       <c r="C296" s="28"/>
@@ -9224,7 +9257,7 @@
       <c r="S296" s="35"/>
       <c r="T296" s="35"/>
     </row>
-    <row r="297" spans="1:20" ht="13" customHeight="1">
+    <row r="297" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="29"/>
       <c r="B297" s="25"/>
       <c r="C297" s="28"/>
@@ -9246,7 +9279,7 @@
       <c r="S297" s="35"/>
       <c r="T297" s="35"/>
     </row>
-    <row r="298" spans="1:20" ht="13" customHeight="1">
+    <row r="298" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="29"/>
       <c r="B298" s="25"/>
       <c r="C298" s="28"/>
@@ -9268,7 +9301,7 @@
       <c r="S298" s="35"/>
       <c r="T298" s="35"/>
     </row>
-    <row r="299" spans="1:20" ht="13" customHeight="1">
+    <row r="299" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="29"/>
       <c r="B299" s="25"/>
       <c r="C299" s="28"/>
@@ -9290,7 +9323,7 @@
       <c r="S299" s="35"/>
       <c r="T299" s="35"/>
     </row>
-    <row r="300" spans="1:20" ht="13" customHeight="1">
+    <row r="300" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="29"/>
       <c r="B300" s="25"/>
       <c r="C300" s="28"/>
@@ -9312,7 +9345,7 @@
       <c r="S300" s="35"/>
       <c r="T300" s="35"/>
     </row>
-    <row r="301" spans="1:20" ht="13" customHeight="1">
+    <row r="301" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="29"/>
       <c r="B301" s="25"/>
       <c r="C301" s="28"/>
@@ -9334,7 +9367,7 @@
       <c r="S301" s="35"/>
       <c r="T301" s="35"/>
     </row>
-    <row r="302" spans="1:20" ht="13" customHeight="1">
+    <row r="302" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="29"/>
       <c r="B302" s="25"/>
       <c r="C302" s="28"/>
@@ -9356,7 +9389,7 @@
       <c r="S302" s="35"/>
       <c r="T302" s="35"/>
     </row>
-    <row r="303" spans="1:20" ht="13" customHeight="1">
+    <row r="303" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="29"/>
       <c r="B303" s="25"/>
       <c r="C303" s="28"/>
@@ -9378,7 +9411,7 @@
       <c r="S303" s="35"/>
       <c r="T303" s="35"/>
     </row>
-    <row r="304" spans="1:20" ht="13" customHeight="1">
+    <row r="304" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="29"/>
       <c r="B304" s="25"/>
       <c r="C304" s="28"/>
@@ -9400,7 +9433,7 @@
       <c r="S304" s="35"/>
       <c r="T304" s="35"/>
     </row>
-    <row r="305" spans="1:20" ht="13" customHeight="1">
+    <row r="305" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="29"/>
       <c r="B305" s="25"/>
       <c r="C305" s="28"/>
@@ -9422,7 +9455,7 @@
       <c r="S305" s="35"/>
       <c r="T305" s="35"/>
     </row>
-    <row r="306" spans="1:20" ht="13" customHeight="1">
+    <row r="306" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="29"/>
       <c r="B306" s="25"/>
       <c r="C306" s="28"/>
@@ -9444,7 +9477,7 @@
       <c r="S306" s="35"/>
       <c r="T306" s="35"/>
     </row>
-    <row r="307" spans="1:20" ht="13" customHeight="1">
+    <row r="307" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="29"/>
       <c r="B307" s="25"/>
       <c r="C307" s="28"/>
@@ -9466,7 +9499,7 @@
       <c r="S307" s="35"/>
       <c r="T307" s="35"/>
     </row>
-    <row r="308" spans="1:20" ht="13" customHeight="1">
+    <row r="308" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="29"/>
       <c r="B308" s="25"/>
       <c r="C308" s="28"/>
@@ -9488,7 +9521,7 @@
       <c r="S308" s="35"/>
       <c r="T308" s="35"/>
     </row>
-    <row r="309" spans="1:20" ht="13" customHeight="1">
+    <row r="309" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="29"/>
       <c r="B309" s="25"/>
       <c r="C309" s="28"/>
@@ -9510,7 +9543,7 @@
       <c r="S309" s="35"/>
       <c r="T309" s="35"/>
     </row>
-    <row r="310" spans="1:20" ht="13" customHeight="1">
+    <row r="310" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="29"/>
       <c r="B310" s="25"/>
       <c r="C310" s="28"/>
@@ -9532,7 +9565,7 @@
       <c r="S310" s="35"/>
       <c r="T310" s="35"/>
     </row>
-    <row r="311" spans="1:20" ht="13" customHeight="1">
+    <row r="311" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="29"/>
       <c r="B311" s="25"/>
       <c r="C311" s="28"/>
@@ -9554,7 +9587,7 @@
       <c r="S311" s="35"/>
       <c r="T311" s="35"/>
     </row>
-    <row r="312" spans="1:20" ht="13" customHeight="1">
+    <row r="312" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="29"/>
       <c r="B312" s="25"/>
       <c r="C312" s="28"/>
@@ -9576,7 +9609,7 @@
       <c r="S312" s="35"/>
       <c r="T312" s="35"/>
     </row>
-    <row r="313" spans="1:20" ht="13" customHeight="1">
+    <row r="313" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="29"/>
       <c r="B313" s="25"/>
       <c r="C313" s="28"/>
@@ -9598,7 +9631,7 @@
       <c r="S313" s="35"/>
       <c r="T313" s="35"/>
     </row>
-    <row r="314" spans="1:20" ht="13" customHeight="1">
+    <row r="314" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="29"/>
       <c r="B314" s="25"/>
       <c r="C314" s="28"/>
@@ -9620,7 +9653,7 @@
       <c r="S314" s="35"/>
       <c r="T314" s="35"/>
     </row>
-    <row r="315" spans="1:20" ht="13" customHeight="1">
+    <row r="315" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="29"/>
       <c r="B315" s="25"/>
       <c r="C315" s="28"/>
@@ -9642,7 +9675,7 @@
       <c r="S315" s="35"/>
       <c r="T315" s="35"/>
     </row>
-    <row r="316" spans="1:20" ht="13" customHeight="1">
+    <row r="316" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="29"/>
       <c r="B316" s="25"/>
       <c r="C316" s="28"/>
@@ -9664,7 +9697,7 @@
       <c r="S316" s="35"/>
       <c r="T316" s="35"/>
     </row>
-    <row r="317" spans="1:20" ht="13" customHeight="1">
+    <row r="317" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="29"/>
       <c r="B317" s="25"/>
       <c r="C317" s="28"/>
@@ -9686,7 +9719,7 @@
       <c r="S317" s="35"/>
       <c r="T317" s="35"/>
     </row>
-    <row r="318" spans="1:20" ht="13" customHeight="1">
+    <row r="318" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="29"/>
       <c r="B318" s="25"/>
       <c r="C318" s="28"/>
@@ -9708,7 +9741,7 @@
       <c r="S318" s="35"/>
       <c r="T318" s="35"/>
     </row>
-    <row r="319" spans="1:20" ht="13" customHeight="1">
+    <row r="319" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="29"/>
       <c r="B319" s="25"/>
       <c r="C319" s="28"/>
@@ -9730,7 +9763,7 @@
       <c r="S319" s="35"/>
       <c r="T319" s="35"/>
     </row>
-    <row r="320" spans="1:20" ht="13" customHeight="1">
+    <row r="320" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="29"/>
       <c r="B320" s="25"/>
       <c r="C320" s="28"/>
@@ -9752,7 +9785,7 @@
       <c r="S320" s="35"/>
       <c r="T320" s="35"/>
     </row>
-    <row r="321" spans="1:20" ht="13" customHeight="1">
+    <row r="321" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="29"/>
       <c r="B321" s="25"/>
       <c r="C321" s="28"/>
@@ -9774,7 +9807,7 @@
       <c r="S321" s="35"/>
       <c r="T321" s="35"/>
     </row>
-    <row r="322" spans="1:20" ht="13" customHeight="1">
+    <row r="322" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="29"/>
       <c r="B322" s="25"/>
       <c r="C322" s="28"/>
@@ -9796,7 +9829,7 @@
       <c r="S322" s="35"/>
       <c r="T322" s="35"/>
     </row>
-    <row r="323" spans="1:20" ht="13" customHeight="1">
+    <row r="323" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="29"/>
       <c r="B323" s="25"/>
       <c r="C323" s="28"/>
@@ -9818,7 +9851,7 @@
       <c r="S323" s="35"/>
       <c r="T323" s="35"/>
     </row>
-    <row r="324" spans="1:20" ht="13" customHeight="1">
+    <row r="324" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="29"/>
       <c r="B324" s="25"/>
       <c r="C324" s="28"/>
@@ -9840,7 +9873,7 @@
       <c r="S324" s="35"/>
       <c r="T324" s="35"/>
     </row>
-    <row r="325" spans="1:20" ht="13" customHeight="1">
+    <row r="325" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="29"/>
       <c r="B325" s="25"/>
       <c r="C325" s="28"/>
@@ -9862,7 +9895,7 @@
       <c r="S325" s="35"/>
       <c r="T325" s="35"/>
     </row>
-    <row r="326" spans="1:20" ht="13" customHeight="1">
+    <row r="326" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="29"/>
       <c r="B326" s="25"/>
       <c r="C326" s="28"/>
@@ -9884,7 +9917,7 @@
       <c r="S326" s="35"/>
       <c r="T326" s="35"/>
     </row>
-    <row r="327" spans="1:20" ht="13" customHeight="1">
+    <row r="327" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="29"/>
       <c r="B327" s="25"/>
       <c r="C327" s="28"/>
@@ -9906,7 +9939,7 @@
       <c r="S327" s="35"/>
       <c r="T327" s="35"/>
     </row>
-    <row r="328" spans="1:20" ht="13" customHeight="1">
+    <row r="328" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="29"/>
       <c r="B328" s="25"/>
       <c r="C328" s="28"/>
@@ -9928,7 +9961,7 @@
       <c r="S328" s="35"/>
       <c r="T328" s="35"/>
     </row>
-    <row r="329" spans="1:20" ht="13" customHeight="1">
+    <row r="329" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="29"/>
       <c r="B329" s="25"/>
       <c r="C329" s="28"/>
@@ -9950,7 +9983,7 @@
       <c r="S329" s="35"/>
       <c r="T329" s="35"/>
     </row>
-    <row r="330" spans="1:20" ht="13" customHeight="1">
+    <row r="330" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="29"/>
       <c r="B330" s="25"/>
       <c r="C330" s="28"/>
@@ -9972,7 +10005,7 @@
       <c r="S330" s="35"/>
       <c r="T330" s="35"/>
     </row>
-    <row r="331" spans="1:20" ht="13" customHeight="1">
+    <row r="331" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="29"/>
       <c r="B331" s="25"/>
       <c r="C331" s="28"/>
@@ -9994,7 +10027,7 @@
       <c r="S331" s="35"/>
       <c r="T331" s="35"/>
     </row>
-    <row r="332" spans="1:20" ht="13" customHeight="1">
+    <row r="332" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="29"/>
       <c r="B332" s="25"/>
       <c r="C332" s="28"/>
@@ -10016,7 +10049,7 @@
       <c r="S332" s="35"/>
       <c r="T332" s="35"/>
     </row>
-    <row r="333" spans="1:20" ht="13" customHeight="1">
+    <row r="333" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="29"/>
       <c r="B333" s="25"/>
       <c r="C333" s="28"/>
@@ -10038,7 +10071,7 @@
       <c r="S333" s="35"/>
       <c r="T333" s="35"/>
     </row>
-    <row r="334" spans="1:20" ht="13" customHeight="1">
+    <row r="334" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="29"/>
       <c r="B334" s="25"/>
       <c r="C334" s="28"/>
@@ -10060,7 +10093,7 @@
       <c r="S334" s="35"/>
       <c r="T334" s="35"/>
     </row>
-    <row r="335" spans="1:20" ht="13" customHeight="1">
+    <row r="335" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="29"/>
       <c r="B335" s="25"/>
       <c r="C335" s="28"/>
@@ -10082,7 +10115,7 @@
       <c r="S335" s="35"/>
       <c r="T335" s="35"/>
     </row>
-    <row r="336" spans="1:20" ht="13" customHeight="1">
+    <row r="336" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="29"/>
       <c r="B336" s="25"/>
       <c r="C336" s="28"/>
@@ -10104,7 +10137,7 @@
       <c r="S336" s="35"/>
       <c r="T336" s="35"/>
     </row>
-    <row r="337" spans="1:20" ht="13" customHeight="1">
+    <row r="337" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="29"/>
       <c r="B337" s="25"/>
       <c r="C337" s="28"/>
@@ -10126,7 +10159,7 @@
       <c r="S337" s="35"/>
       <c r="T337" s="35"/>
     </row>
-    <row r="338" spans="1:20" ht="13" customHeight="1">
+    <row r="338" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="29"/>
       <c r="B338" s="25"/>
       <c r="C338" s="28"/>
@@ -10148,7 +10181,7 @@
       <c r="S338" s="35"/>
       <c r="T338" s="35"/>
     </row>
-    <row r="339" spans="1:20" ht="13" customHeight="1">
+    <row r="339" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="29"/>
       <c r="B339" s="25"/>
       <c r="C339" s="28"/>
@@ -10170,7 +10203,7 @@
       <c r="S339" s="35"/>
       <c r="T339" s="35"/>
     </row>
-    <row r="340" spans="1:20" ht="13" customHeight="1">
+    <row r="340" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="29"/>
       <c r="B340" s="25"/>
       <c r="C340" s="28"/>
@@ -10192,7 +10225,7 @@
       <c r="S340" s="35"/>
       <c r="T340" s="35"/>
     </row>
-    <row r="341" spans="1:20" ht="13" customHeight="1">
+    <row r="341" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="29"/>
       <c r="B341" s="25"/>
       <c r="C341" s="28"/>
@@ -10214,7 +10247,7 @@
       <c r="S341" s="35"/>
       <c r="T341" s="35"/>
     </row>
-    <row r="342" spans="1:20" ht="13" customHeight="1">
+    <row r="342" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="29"/>
       <c r="B342" s="25"/>
       <c r="C342" s="28"/>
@@ -10236,7 +10269,7 @@
       <c r="S342" s="35"/>
       <c r="T342" s="35"/>
     </row>
-    <row r="343" spans="1:20" ht="13" customHeight="1">
+    <row r="343" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="29"/>
       <c r="B343" s="25"/>
       <c r="C343" s="28"/>
@@ -10258,7 +10291,7 @@
       <c r="S343" s="35"/>
       <c r="T343" s="35"/>
     </row>
-    <row r="344" spans="1:20" ht="13" customHeight="1">
+    <row r="344" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="29"/>
       <c r="B344" s="25"/>
       <c r="C344" s="28"/>
@@ -10280,7 +10313,7 @@
       <c r="S344" s="35"/>
       <c r="T344" s="35"/>
     </row>
-    <row r="345" spans="1:20" ht="13" customHeight="1">
+    <row r="345" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="29"/>
       <c r="B345" s="25"/>
       <c r="C345" s="28"/>
@@ -10302,7 +10335,7 @@
       <c r="S345" s="35"/>
       <c r="T345" s="35"/>
     </row>
-    <row r="346" spans="1:20" ht="13" customHeight="1">
+    <row r="346" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="29"/>
       <c r="B346" s="25"/>
       <c r="C346" s="28"/>
@@ -10324,7 +10357,7 @@
       <c r="S346" s="35"/>
       <c r="T346" s="35"/>
     </row>
-    <row r="347" spans="1:20" ht="13" customHeight="1">
+    <row r="347" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="29"/>
       <c r="B347" s="25"/>
       <c r="C347" s="28"/>
@@ -10346,7 +10379,7 @@
       <c r="S347" s="35"/>
       <c r="T347" s="35"/>
     </row>
-    <row r="348" spans="1:20" ht="13" customHeight="1">
+    <row r="348" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="29"/>
       <c r="B348" s="25"/>
       <c r="C348" s="28"/>
@@ -10368,7 +10401,7 @@
       <c r="S348" s="35"/>
       <c r="T348" s="35"/>
     </row>
-    <row r="349" spans="1:20" ht="13" customHeight="1">
+    <row r="349" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="29"/>
       <c r="B349" s="25"/>
       <c r="C349" s="28"/>
@@ -10390,7 +10423,7 @@
       <c r="S349" s="35"/>
       <c r="T349" s="35"/>
     </row>
-    <row r="350" spans="1:20" ht="13" customHeight="1">
+    <row r="350" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="29"/>
       <c r="B350" s="25"/>
       <c r="C350" s="28"/>
@@ -10412,7 +10445,7 @@
       <c r="S350" s="35"/>
       <c r="T350" s="35"/>
     </row>
-    <row r="351" spans="1:20" ht="13" customHeight="1">
+    <row r="351" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="29"/>
       <c r="B351" s="25"/>
       <c r="C351" s="28"/>
@@ -10434,7 +10467,7 @@
       <c r="S351" s="35"/>
       <c r="T351" s="35"/>
     </row>
-    <row r="352" spans="1:20" ht="13" customHeight="1">
+    <row r="352" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="29"/>
       <c r="B352" s="25"/>
       <c r="C352" s="28"/>
@@ -10456,7 +10489,7 @@
       <c r="S352" s="35"/>
       <c r="T352" s="35"/>
     </row>
-    <row r="353" spans="1:20" ht="13" customHeight="1">
+    <row r="353" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="29"/>
       <c r="B353" s="25"/>
       <c r="C353" s="28"/>
@@ -10478,7 +10511,7 @@
       <c r="S353" s="35"/>
       <c r="T353" s="35"/>
     </row>
-    <row r="354" spans="1:20" ht="13" customHeight="1">
+    <row r="354" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="29"/>
       <c r="B354" s="25"/>
       <c r="C354" s="28"/>
@@ -10500,7 +10533,7 @@
       <c r="S354" s="35"/>
       <c r="T354" s="35"/>
     </row>
-    <row r="355" spans="1:20" ht="13" customHeight="1">
+    <row r="355" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="29"/>
       <c r="B355" s="25"/>
       <c r="C355" s="28"/>
@@ -10522,7 +10555,7 @@
       <c r="S355" s="35"/>
       <c r="T355" s="35"/>
     </row>
-    <row r="356" spans="1:20" ht="13" customHeight="1">
+    <row r="356" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="29"/>
       <c r="B356" s="25"/>
       <c r="C356" s="28"/>
@@ -10544,7 +10577,7 @@
       <c r="S356" s="35"/>
       <c r="T356" s="35"/>
     </row>
-    <row r="357" spans="1:20" ht="13" customHeight="1">
+    <row r="357" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="29"/>
       <c r="B357" s="25"/>
       <c r="C357" s="28"/>
@@ -10566,7 +10599,7 @@
       <c r="S357" s="35"/>
       <c r="T357" s="35"/>
     </row>
-    <row r="358" spans="1:20" ht="13" customHeight="1">
+    <row r="358" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="29"/>
       <c r="B358" s="25"/>
       <c r="C358" s="28"/>
@@ -10588,7 +10621,7 @@
       <c r="S358" s="35"/>
       <c r="T358" s="35"/>
     </row>
-    <row r="359" spans="1:20" ht="13" customHeight="1">
+    <row r="359" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="29"/>
       <c r="B359" s="25"/>
       <c r="C359" s="28"/>
@@ -10610,7 +10643,7 @@
       <c r="S359" s="35"/>
       <c r="T359" s="35"/>
     </row>
-    <row r="360" spans="1:20" ht="13" customHeight="1">
+    <row r="360" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="29"/>
       <c r="B360" s="25"/>
       <c r="C360" s="28"/>
@@ -10632,7 +10665,7 @@
       <c r="S360" s="35"/>
       <c r="T360" s="35"/>
     </row>
-    <row r="361" spans="1:20" ht="13" customHeight="1">
+    <row r="361" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="29"/>
       <c r="B361" s="25"/>
       <c r="C361" s="28"/>
@@ -10654,7 +10687,7 @@
       <c r="S361" s="35"/>
       <c r="T361" s="35"/>
     </row>
-    <row r="362" spans="1:20" ht="13" customHeight="1">
+    <row r="362" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="29"/>
       <c r="B362" s="25"/>
       <c r="C362" s="28"/>
@@ -10676,7 +10709,7 @@
       <c r="S362" s="35"/>
       <c r="T362" s="35"/>
     </row>
-    <row r="363" spans="1:20" ht="13" customHeight="1">
+    <row r="363" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="29"/>
       <c r="B363" s="25"/>
       <c r="C363" s="28"/>
@@ -10698,7 +10731,7 @@
       <c r="S363" s="35"/>
       <c r="T363" s="35"/>
     </row>
-    <row r="364" spans="1:20" ht="13" customHeight="1">
+    <row r="364" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="29"/>
       <c r="B364" s="25"/>
       <c r="C364" s="28"/>
@@ -10720,7 +10753,7 @@
       <c r="S364" s="35"/>
       <c r="T364" s="35"/>
     </row>
-    <row r="365" spans="1:20" ht="13" customHeight="1">
+    <row r="365" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="29"/>
       <c r="B365" s="25"/>
       <c r="C365" s="28"/>
@@ -10742,7 +10775,7 @@
       <c r="S365" s="35"/>
       <c r="T365" s="35"/>
     </row>
-    <row r="366" spans="1:20" ht="13" customHeight="1">
+    <row r="366" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="29"/>
       <c r="B366" s="25"/>
       <c r="C366" s="28"/>
@@ -10764,7 +10797,7 @@
       <c r="S366" s="35"/>
       <c r="T366" s="35"/>
     </row>
-    <row r="367" spans="1:20" ht="13" customHeight="1">
+    <row r="367" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="29"/>
       <c r="B367" s="25"/>
       <c r="C367" s="28"/>
@@ -10786,7 +10819,7 @@
       <c r="S367" s="35"/>
       <c r="T367" s="35"/>
     </row>
-    <row r="368" spans="1:20" ht="13" customHeight="1">
+    <row r="368" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="29"/>
       <c r="B368" s="25"/>
       <c r="C368" s="28"/>
@@ -10808,7 +10841,7 @@
       <c r="S368" s="35"/>
       <c r="T368" s="35"/>
     </row>
-    <row r="369" spans="1:20" ht="13" customHeight="1">
+    <row r="369" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="29"/>
       <c r="B369" s="25"/>
       <c r="C369" s="28"/>
@@ -10830,7 +10863,7 @@
       <c r="S369" s="35"/>
       <c r="T369" s="35"/>
     </row>
-    <row r="370" spans="1:20" ht="13" customHeight="1">
+    <row r="370" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="29"/>
       <c r="B370" s="25"/>
       <c r="C370" s="28"/>
@@ -10852,7 +10885,7 @@
       <c r="S370" s="35"/>
       <c r="T370" s="35"/>
     </row>
-    <row r="371" spans="1:20" ht="13" customHeight="1">
+    <row r="371" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="29"/>
       <c r="B371" s="25"/>
       <c r="C371" s="28"/>
@@ -10874,7 +10907,7 @@
       <c r="S371" s="35"/>
       <c r="T371" s="35"/>
     </row>
-    <row r="372" spans="1:20" ht="13" customHeight="1">
+    <row r="372" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="29"/>
       <c r="B372" s="25"/>
       <c r="C372" s="28"/>
@@ -10896,7 +10929,7 @@
       <c r="S372" s="35"/>
       <c r="T372" s="35"/>
     </row>
-    <row r="373" spans="1:20" ht="13" customHeight="1">
+    <row r="373" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="29"/>
       <c r="B373" s="25"/>
       <c r="C373" s="28"/>
@@ -10918,7 +10951,7 @@
       <c r="S373" s="35"/>
       <c r="T373" s="35"/>
     </row>
-    <row r="374" spans="1:20" ht="13" customHeight="1">
+    <row r="374" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="29"/>
       <c r="B374" s="25"/>
       <c r="C374" s="28"/>
@@ -10940,7 +10973,7 @@
       <c r="S374" s="35"/>
       <c r="T374" s="35"/>
     </row>
-    <row r="375" spans="1:20" ht="13" customHeight="1">
+    <row r="375" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="29"/>
       <c r="B375" s="25"/>
       <c r="C375" s="28"/>
@@ -10962,7 +10995,7 @@
       <c r="S375" s="35"/>
       <c r="T375" s="35"/>
     </row>
-    <row r="376" spans="1:20" ht="13" customHeight="1">
+    <row r="376" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="29"/>
       <c r="B376" s="25"/>
       <c r="C376" s="28"/>
@@ -10984,7 +11017,7 @@
       <c r="S376" s="35"/>
       <c r="T376" s="35"/>
     </row>
-    <row r="377" spans="1:20" ht="13" customHeight="1">
+    <row r="377" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="29"/>
       <c r="B377" s="25"/>
       <c r="C377" s="28"/>
@@ -11006,7 +11039,7 @@
       <c r="S377" s="35"/>
       <c r="T377" s="35"/>
     </row>
-    <row r="378" spans="1:20" ht="13" customHeight="1">
+    <row r="378" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="29"/>
       <c r="B378" s="25"/>
       <c r="C378" s="28"/>
@@ -11028,7 +11061,7 @@
       <c r="S378" s="35"/>
       <c r="T378" s="35"/>
     </row>
-    <row r="379" spans="1:20" ht="13" customHeight="1">
+    <row r="379" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="29"/>
       <c r="B379" s="25"/>
       <c r="C379" s="28"/>
@@ -11050,7 +11083,7 @@
       <c r="S379" s="35"/>
       <c r="T379" s="35"/>
     </row>
-    <row r="380" spans="1:20" ht="13" customHeight="1">
+    <row r="380" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="29"/>
       <c r="B380" s="25"/>
       <c r="C380" s="28"/>
@@ -11072,7 +11105,7 @@
       <c r="S380" s="35"/>
       <c r="T380" s="35"/>
     </row>
-    <row r="381" spans="1:20" ht="13" customHeight="1">
+    <row r="381" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="29"/>
       <c r="B381" s="25"/>
       <c r="C381" s="28"/>
@@ -11094,7 +11127,7 @@
       <c r="S381" s="35"/>
       <c r="T381" s="35"/>
     </row>
-    <row r="382" spans="1:20" ht="13" customHeight="1">
+    <row r="382" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="29"/>
       <c r="B382" s="25"/>
       <c r="C382" s="28"/>
@@ -11116,7 +11149,7 @@
       <c r="S382" s="35"/>
       <c r="T382" s="35"/>
     </row>
-    <row r="383" spans="1:20" ht="13" customHeight="1">
+    <row r="383" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="29"/>
       <c r="B383" s="25"/>
       <c r="C383" s="28"/>
@@ -11138,7 +11171,7 @@
       <c r="S383" s="35"/>
       <c r="T383" s="35"/>
     </row>
-    <row r="384" spans="1:20" ht="13" customHeight="1">
+    <row r="384" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="29"/>
       <c r="B384" s="25"/>
       <c r="C384" s="28"/>
@@ -11160,7 +11193,7 @@
       <c r="S384" s="35"/>
       <c r="T384" s="35"/>
     </row>
-    <row r="385" spans="1:20" ht="13" customHeight="1">
+    <row r="385" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="29"/>
       <c r="B385" s="25"/>
       <c r="C385" s="28"/>
@@ -11182,7 +11215,7 @@
       <c r="S385" s="35"/>
       <c r="T385" s="35"/>
     </row>
-    <row r="386" spans="1:20" ht="13" customHeight="1">
+    <row r="386" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="29"/>
       <c r="B386" s="25"/>
       <c r="C386" s="28"/>
@@ -11204,7 +11237,7 @@
       <c r="S386" s="35"/>
       <c r="T386" s="35"/>
     </row>
-    <row r="387" spans="1:20" ht="13" customHeight="1">
+    <row r="387" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="29"/>
       <c r="B387" s="25"/>
       <c r="C387" s="28"/>
@@ -11226,7 +11259,7 @@
       <c r="S387" s="35"/>
       <c r="T387" s="35"/>
     </row>
-    <row r="388" spans="1:20" ht="13" customHeight="1">
+    <row r="388" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="29"/>
       <c r="B388" s="25"/>
       <c r="C388" s="28"/>
@@ -11248,7 +11281,7 @@
       <c r="S388" s="35"/>
       <c r="T388" s="35"/>
     </row>
-    <row r="389" spans="1:20" ht="13" customHeight="1">
+    <row r="389" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="29"/>
       <c r="B389" s="25"/>
       <c r="C389" s="28"/>
@@ -11270,7 +11303,7 @@
       <c r="S389" s="35"/>
       <c r="T389" s="35"/>
     </row>
-    <row r="390" spans="1:20" ht="13" customHeight="1">
+    <row r="390" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="29"/>
       <c r="B390" s="25"/>
       <c r="C390" s="28"/>
@@ -11292,7 +11325,7 @@
       <c r="S390" s="35"/>
       <c r="T390" s="35"/>
     </row>
-    <row r="391" spans="1:20" ht="13" customHeight="1">
+    <row r="391" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="29"/>
       <c r="B391" s="25"/>
       <c r="C391" s="28"/>
@@ -11314,7 +11347,7 @@
       <c r="S391" s="35"/>
       <c r="T391" s="35"/>
     </row>
-    <row r="392" spans="1:20" ht="13" customHeight="1">
+    <row r="392" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="29"/>
       <c r="B392" s="25"/>
       <c r="C392" s="28"/>
@@ -11336,7 +11369,7 @@
       <c r="S392" s="35"/>
       <c r="T392" s="35"/>
     </row>
-    <row r="393" spans="1:20" ht="13" customHeight="1">
+    <row r="393" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="29"/>
       <c r="B393" s="25"/>
       <c r="C393" s="28"/>
@@ -11358,7 +11391,7 @@
       <c r="S393" s="35"/>
       <c r="T393" s="35"/>
     </row>
-    <row r="394" spans="1:20" ht="13" customHeight="1">
+    <row r="394" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="29"/>
       <c r="B394" s="25"/>
       <c r="C394" s="28"/>
@@ -11380,7 +11413,7 @@
       <c r="S394" s="35"/>
       <c r="T394" s="35"/>
     </row>
-    <row r="395" spans="1:20" ht="13" customHeight="1">
+    <row r="395" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="29"/>
       <c r="B395" s="25"/>
       <c r="C395" s="28"/>
@@ -11402,7 +11435,7 @@
       <c r="S395" s="35"/>
       <c r="T395" s="35"/>
     </row>
-    <row r="396" spans="1:20" ht="13" customHeight="1">
+    <row r="396" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="29"/>
       <c r="B396" s="25"/>
       <c r="C396" s="28"/>
@@ -11424,7 +11457,7 @@
       <c r="S396" s="35"/>
       <c r="T396" s="35"/>
     </row>
-    <row r="397" spans="1:20" ht="13" customHeight="1">
+    <row r="397" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="29"/>
       <c r="B397" s="25"/>
       <c r="C397" s="28"/>
@@ -11446,7 +11479,7 @@
       <c r="S397" s="35"/>
       <c r="T397" s="35"/>
     </row>
-    <row r="398" spans="1:20" ht="13" customHeight="1">
+    <row r="398" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="29"/>
       <c r="B398" s="25"/>
       <c r="C398" s="28"/>
@@ -11468,7 +11501,7 @@
       <c r="S398" s="35"/>
       <c r="T398" s="35"/>
     </row>
-    <row r="399" spans="1:20" ht="13" customHeight="1">
+    <row r="399" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="29"/>
       <c r="B399" s="25"/>
       <c r="C399" s="28"/>
@@ -11490,7 +11523,7 @@
       <c r="S399" s="35"/>
       <c r="T399" s="35"/>
     </row>
-    <row r="400" spans="1:20" ht="13" customHeight="1">
+    <row r="400" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="29"/>
       <c r="B400" s="25"/>
       <c r="C400" s="28"/>
@@ -11512,7 +11545,7 @@
       <c r="S400" s="35"/>
       <c r="T400" s="35"/>
     </row>
-    <row r="401" spans="1:20" ht="13" customHeight="1">
+    <row r="401" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="29"/>
       <c r="B401" s="25"/>
       <c r="C401" s="28"/>
@@ -11534,7 +11567,7 @@
       <c r="S401" s="35"/>
       <c r="T401" s="35"/>
     </row>
-    <row r="402" spans="1:20" ht="13" customHeight="1">
+    <row r="402" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="29"/>
       <c r="B402" s="25"/>
       <c r="C402" s="28"/>
@@ -11556,7 +11589,7 @@
       <c r="S402" s="35"/>
       <c r="T402" s="35"/>
     </row>
-    <row r="403" spans="1:20" ht="13" customHeight="1">
+    <row r="403" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="29"/>
       <c r="B403" s="25"/>
       <c r="C403" s="28"/>
@@ -11578,7 +11611,7 @@
       <c r="S403" s="35"/>
       <c r="T403" s="35"/>
     </row>
-    <row r="404" spans="1:20" ht="13" customHeight="1">
+    <row r="404" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="29"/>
       <c r="B404" s="25"/>
       <c r="C404" s="28"/>
@@ -11600,7 +11633,7 @@
       <c r="S404" s="35"/>
       <c r="T404" s="35"/>
     </row>
-    <row r="405" spans="1:20" ht="13" customHeight="1">
+    <row r="405" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="29"/>
       <c r="B405" s="25"/>
       <c r="C405" s="28"/>
@@ -11622,7 +11655,7 @@
       <c r="S405" s="35"/>
       <c r="T405" s="35"/>
     </row>
-    <row r="406" spans="1:20" ht="13" customHeight="1">
+    <row r="406" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="29"/>
       <c r="B406" s="25"/>
       <c r="C406" s="28"/>
@@ -11644,7 +11677,7 @@
       <c r="S406" s="35"/>
       <c r="T406" s="35"/>
     </row>
-    <row r="407" spans="1:20" ht="13" customHeight="1">
+    <row r="407" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="29"/>
       <c r="B407" s="25"/>
       <c r="C407" s="28"/>
@@ -11666,7 +11699,7 @@
       <c r="S407" s="35"/>
       <c r="T407" s="35"/>
     </row>
-    <row r="408" spans="1:20" ht="13" customHeight="1">
+    <row r="408" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="29"/>
       <c r="B408" s="25"/>
       <c r="C408" s="28"/>
@@ -11688,7 +11721,7 @@
       <c r="S408" s="35"/>
       <c r="T408" s="35"/>
     </row>
-    <row r="409" spans="1:20" ht="13" customHeight="1">
+    <row r="409" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="29"/>
       <c r="B409" s="25"/>
       <c r="C409" s="28"/>
@@ -11710,7 +11743,7 @@
       <c r="S409" s="35"/>
       <c r="T409" s="35"/>
     </row>
-    <row r="410" spans="1:20" ht="13" customHeight="1">
+    <row r="410" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="29"/>
       <c r="B410" s="25"/>
       <c r="C410" s="28"/>
@@ -11732,7 +11765,7 @@
       <c r="S410" s="35"/>
       <c r="T410" s="35"/>
     </row>
-    <row r="411" spans="1:20" ht="13" customHeight="1">
+    <row r="411" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="29"/>
       <c r="B411" s="25"/>
       <c r="C411" s="28"/>
@@ -11754,7 +11787,7 @@
       <c r="S411" s="35"/>
       <c r="T411" s="35"/>
     </row>
-    <row r="412" spans="1:20" ht="13" customHeight="1">
+    <row r="412" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="29"/>
       <c r="B412" s="25"/>
       <c r="C412" s="28"/>
@@ -11776,7 +11809,7 @@
       <c r="S412" s="35"/>
       <c r="T412" s="35"/>
     </row>
-    <row r="413" spans="1:20" ht="13" customHeight="1">
+    <row r="413" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="29"/>
       <c r="B413" s="25"/>
       <c r="C413" s="28"/>
@@ -11798,7 +11831,7 @@
       <c r="S413" s="35"/>
       <c r="T413" s="35"/>
     </row>
-    <row r="414" spans="1:20" ht="13" customHeight="1">
+    <row r="414" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="29"/>
       <c r="B414" s="25"/>
       <c r="C414" s="28"/>
@@ -11820,7 +11853,7 @@
       <c r="S414" s="35"/>
       <c r="T414" s="35"/>
     </row>
-    <row r="415" spans="1:20" ht="13" customHeight="1">
+    <row r="415" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="29"/>
       <c r="B415" s="25"/>
       <c r="C415" s="28"/>
@@ -11842,7 +11875,7 @@
       <c r="S415" s="35"/>
       <c r="T415" s="35"/>
     </row>
-    <row r="416" spans="1:20" ht="13" customHeight="1">
+    <row r="416" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="29"/>
       <c r="B416" s="25"/>
       <c r="C416" s="28"/>
@@ -11864,7 +11897,7 @@
       <c r="S416" s="35"/>
       <c r="T416" s="35"/>
     </row>
-    <row r="417" spans="1:20" ht="13" customHeight="1">
+    <row r="417" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="29"/>
       <c r="B417" s="25"/>
       <c r="C417" s="28"/>
@@ -11886,7 +11919,7 @@
       <c r="S417" s="35"/>
       <c r="T417" s="35"/>
     </row>
-    <row r="418" spans="1:20" ht="13" customHeight="1">
+    <row r="418" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="29"/>
       <c r="B418" s="25"/>
       <c r="C418" s="28"/>
@@ -11908,7 +11941,7 @@
       <c r="S418" s="35"/>
       <c r="T418" s="35"/>
     </row>
-    <row r="419" spans="1:20" ht="13" customHeight="1">
+    <row r="419" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="29"/>
       <c r="B419" s="25"/>
       <c r="C419" s="28"/>
@@ -11930,7 +11963,7 @@
       <c r="S419" s="35"/>
       <c r="T419" s="35"/>
     </row>
-    <row r="420" spans="1:20" ht="13" customHeight="1">
+    <row r="420" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="29"/>
       <c r="B420" s="25"/>
       <c r="C420" s="28"/>
@@ -11952,7 +11985,7 @@
       <c r="S420" s="35"/>
       <c r="T420" s="35"/>
     </row>
-    <row r="421" spans="1:20" ht="13" customHeight="1">
+    <row r="421" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="29"/>
       <c r="B421" s="25"/>
       <c r="C421" s="28"/>
@@ -11967,7 +12000,7 @@
       <c r="L421" s="26"/>
       <c r="M421" s="23"/>
     </row>
-    <row r="422" spans="1:20" ht="13" customHeight="1">
+    <row r="422" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="29"/>
       <c r="B422" s="25"/>
       <c r="C422" s="28"/>
@@ -11982,7 +12015,7 @@
       <c r="L422" s="26"/>
       <c r="M422" s="23"/>
     </row>
-    <row r="423" spans="1:20" ht="13" customHeight="1">
+    <row r="423" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="29"/>
       <c r="B423" s="25"/>
       <c r="C423" s="28"/>
@@ -11997,7 +12030,7 @@
       <c r="L423" s="26"/>
       <c r="M423" s="23"/>
     </row>
-    <row r="424" spans="1:20" ht="13" customHeight="1">
+    <row r="424" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="29"/>
       <c r="B424" s="25"/>
       <c r="C424" s="28"/>
@@ -12012,7 +12045,7 @@
       <c r="L424" s="26"/>
       <c r="M424" s="23"/>
     </row>
-    <row r="425" spans="1:20" ht="13" customHeight="1">
+    <row r="425" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="29"/>
       <c r="B425" s="25"/>
       <c r="C425" s="28"/>
@@ -12027,7 +12060,7 @@
       <c r="L425" s="26"/>
       <c r="M425" s="23"/>
     </row>
-    <row r="426" spans="1:20" ht="13" customHeight="1">
+    <row r="426" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="29"/>
       <c r="B426" s="25"/>
       <c r="C426" s="28"/>
@@ -12042,7 +12075,7 @@
       <c r="L426" s="26"/>
       <c r="M426" s="23"/>
     </row>
-    <row r="427" spans="1:20" ht="13" customHeight="1">
+    <row r="427" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="29"/>
       <c r="B427" s="25"/>
       <c r="C427" s="28"/>
@@ -12057,7 +12090,7 @@
       <c r="L427" s="26"/>
       <c r="M427" s="23"/>
     </row>
-    <row r="428" spans="1:20" ht="13" customHeight="1">
+    <row r="428" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="29"/>
       <c r="B428" s="25"/>
       <c r="C428" s="28"/>
@@ -12072,7 +12105,7 @@
       <c r="L428" s="26"/>
       <c r="M428" s="23"/>
     </row>
-    <row r="429" spans="1:20" ht="13" customHeight="1">
+    <row r="429" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="29"/>
       <c r="B429" s="25"/>
       <c r="C429" s="28"/>
@@ -12087,7 +12120,7 @@
       <c r="L429" s="26"/>
       <c r="M429" s="23"/>
     </row>
-    <row r="430" spans="1:20" ht="13" customHeight="1">
+    <row r="430" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="29"/>
       <c r="B430" s="25"/>
       <c r="C430" s="28"/>
@@ -12102,7 +12135,7 @@
       <c r="L430" s="26"/>
       <c r="M430" s="23"/>
     </row>
-    <row r="431" spans="1:20" ht="13" customHeight="1">
+    <row r="431" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="29"/>
       <c r="B431" s="25"/>
       <c r="C431" s="28"/>
@@ -12117,7 +12150,7 @@
       <c r="L431" s="26"/>
       <c r="M431" s="23"/>
     </row>
-    <row r="432" spans="1:20" ht="13" customHeight="1">
+    <row r="432" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="29"/>
       <c r="B432" s="25"/>
       <c r="C432" s="28"/>
@@ -12132,7 +12165,7 @@
       <c r="L432" s="26"/>
       <c r="M432" s="23"/>
     </row>
-    <row r="433" spans="1:20" ht="13" customHeight="1">
+    <row r="433" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="29"/>
       <c r="B433" s="25"/>
       <c r="C433" s="28"/>
@@ -12147,7 +12180,7 @@
       <c r="L433" s="26"/>
       <c r="M433" s="23"/>
     </row>
-    <row r="434" spans="1:20" ht="13" customHeight="1">
+    <row r="434" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="29"/>
       <c r="B434" s="25"/>
       <c r="C434" s="28"/>
@@ -12162,7 +12195,7 @@
       <c r="L434" s="26"/>
       <c r="M434" s="23"/>
     </row>
-    <row r="435" spans="1:20" ht="13" customHeight="1">
+    <row r="435" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="29"/>
       <c r="B435" s="25"/>
       <c r="C435" s="28"/>
@@ -12184,7 +12217,7 @@
       <c r="S435" s="35"/>
       <c r="T435" s="35"/>
     </row>
-    <row r="436" spans="1:20" ht="13" customHeight="1">
+    <row r="436" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="29"/>
       <c r="B436" s="25"/>
       <c r="C436" s="28"/>
@@ -12199,7 +12232,7 @@
       <c r="L436" s="26"/>
       <c r="M436" s="23"/>
     </row>
-    <row r="437" spans="1:20" ht="13" customHeight="1">
+    <row r="437" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="29"/>
       <c r="B437" s="25"/>
       <c r="C437" s="28"/>
@@ -12214,7 +12247,7 @@
       <c r="L437" s="26"/>
       <c r="M437" s="23"/>
     </row>
-    <row r="438" spans="1:20" ht="13" customHeight="1">
+    <row r="438" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="29"/>
       <c r="B438" s="25"/>
       <c r="C438" s="28"/>
@@ -12229,7 +12262,7 @@
       <c r="L438" s="26"/>
       <c r="M438" s="23"/>
     </row>
-    <row r="439" spans="1:20" ht="13" customHeight="1">
+    <row r="439" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="29"/>
       <c r="B439" s="25"/>
       <c r="C439" s="28"/>
@@ -12244,7 +12277,7 @@
       <c r="L439" s="26"/>
       <c r="M439" s="23"/>
     </row>
-    <row r="440" spans="1:20" ht="13" customHeight="1">
+    <row r="440" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="29"/>
       <c r="B440" s="25"/>
       <c r="C440" s="28"/>
@@ -12259,7 +12292,7 @@
       <c r="L440" s="26"/>
       <c r="M440" s="23"/>
     </row>
-    <row r="441" spans="1:20" ht="13" customHeight="1">
+    <row r="441" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="29"/>
       <c r="B441" s="25"/>
       <c r="C441" s="28"/>
@@ -12274,7 +12307,7 @@
       <c r="L441" s="26"/>
       <c r="M441" s="23"/>
     </row>
-    <row r="442" spans="1:20" ht="13" customHeight="1">
+    <row r="442" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="29"/>
       <c r="B442" s="25"/>
       <c r="C442" s="28"/>
@@ -12289,7 +12322,7 @@
       <c r="L442" s="26"/>
       <c r="M442" s="23"/>
     </row>
-    <row r="443" spans="1:20" ht="13" customHeight="1">
+    <row r="443" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="29"/>
       <c r="B443" s="25"/>
       <c r="C443" s="28"/>
@@ -12304,7 +12337,7 @@
       <c r="L443" s="26"/>
       <c r="M443" s="23"/>
     </row>
-    <row r="444" spans="1:20" ht="13" customHeight="1">
+    <row r="444" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="29"/>
       <c r="B444" s="25"/>
       <c r="C444" s="28"/>
@@ -12319,7 +12352,7 @@
       <c r="L444" s="26"/>
       <c r="M444" s="23"/>
     </row>
-    <row r="445" spans="1:20" ht="13" customHeight="1">
+    <row r="445" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="29"/>
       <c r="B445" s="25"/>
       <c r="C445" s="28"/>
@@ -12334,7 +12367,7 @@
       <c r="L445" s="26"/>
       <c r="M445" s="23"/>
     </row>
-    <row r="446" spans="1:20" ht="13" customHeight="1">
+    <row r="446" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="29"/>
       <c r="B446" s="25"/>
       <c r="C446" s="28"/>
@@ -12349,7 +12382,7 @@
       <c r="L446" s="26"/>
       <c r="M446" s="23"/>
     </row>
-    <row r="447" spans="1:20" ht="13" customHeight="1">
+    <row r="447" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="29"/>
       <c r="B447" s="25"/>
       <c r="C447" s="28"/>
@@ -12364,7 +12397,7 @@
       <c r="L447" s="26"/>
       <c r="M447" s="23"/>
     </row>
-    <row r="448" spans="1:20" ht="13" customHeight="1">
+    <row r="448" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="29"/>
       <c r="B448" s="25"/>
       <c r="C448" s="28"/>
@@ -12379,7 +12412,7 @@
       <c r="L448" s="26"/>
       <c r="M448" s="23"/>
     </row>
-    <row r="449" spans="1:13" ht="13" customHeight="1">
+    <row r="449" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="29"/>
       <c r="B449" s="25"/>
       <c r="C449" s="28"/>
@@ -12394,7 +12427,7 @@
       <c r="L449" s="26"/>
       <c r="M449" s="23"/>
     </row>
-    <row r="450" spans="1:13" ht="13" customHeight="1">
+    <row r="450" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="29"/>
       <c r="B450" s="25"/>
       <c r="C450" s="28"/>
@@ -12409,7 +12442,7 @@
       <c r="L450" s="26"/>
       <c r="M450" s="23"/>
     </row>
-    <row r="451" spans="1:13" ht="13" customHeight="1">
+    <row r="451" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="29"/>
       <c r="B451" s="25"/>
       <c r="C451" s="28"/>
@@ -12424,7 +12457,7 @@
       <c r="L451" s="26"/>
       <c r="M451" s="23"/>
     </row>
-    <row r="452" spans="1:13" ht="13" customHeight="1">
+    <row r="452" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="29"/>
       <c r="B452" s="25"/>
       <c r="C452" s="28"/>
@@ -12439,7 +12472,7 @@
       <c r="L452" s="26"/>
       <c r="M452" s="23"/>
     </row>
-    <row r="453" spans="1:13" ht="13" customHeight="1">
+    <row r="453" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="29"/>
       <c r="B453" s="25"/>
       <c r="C453" s="28"/>
@@ -12454,7 +12487,7 @@
       <c r="L453" s="26"/>
       <c r="M453" s="23"/>
     </row>
-    <row r="454" spans="1:13" ht="13" customHeight="1">
+    <row r="454" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="29"/>
       <c r="B454" s="25"/>
       <c r="C454" s="28"/>
@@ -12469,7 +12502,7 @@
       <c r="L454" s="26"/>
       <c r="M454" s="23"/>
     </row>
-    <row r="455" spans="1:13" ht="13" customHeight="1">
+    <row r="455" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="29"/>
       <c r="B455" s="25"/>
       <c r="C455" s="28"/>
@@ -12484,7 +12517,7 @@
       <c r="L455" s="26"/>
       <c r="M455" s="23"/>
     </row>
-    <row r="456" spans="1:13" ht="13" customHeight="1">
+    <row r="456" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="29"/>
       <c r="B456" s="25"/>
       <c r="C456" s="28"/>
@@ -12499,7 +12532,7 @@
       <c r="L456" s="26"/>
       <c r="M456" s="23"/>
     </row>
-    <row r="457" spans="1:13" ht="13" customHeight="1">
+    <row r="457" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="29"/>
       <c r="B457" s="25"/>
       <c r="C457" s="28"/>
@@ -12514,7 +12547,7 @@
       <c r="L457" s="26"/>
       <c r="M457" s="23"/>
     </row>
-    <row r="458" spans="1:13" ht="13" customHeight="1">
+    <row r="458" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="29"/>
       <c r="B458" s="25"/>
       <c r="C458" s="28"/>
@@ -12529,7 +12562,7 @@
       <c r="L458" s="26"/>
       <c r="M458" s="23"/>
     </row>
-    <row r="459" spans="1:13" ht="13" customHeight="1">
+    <row r="459" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="29"/>
       <c r="B459" s="25"/>
       <c r="C459" s="28"/>
@@ -12544,7 +12577,7 @@
       <c r="L459" s="26"/>
       <c r="M459" s="23"/>
     </row>
-    <row r="460" spans="1:13" ht="13" customHeight="1">
+    <row r="460" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="29"/>
       <c r="B460" s="25"/>
       <c r="C460" s="28"/>
@@ -12559,7 +12592,7 @@
       <c r="L460" s="26"/>
       <c r="M460" s="23"/>
     </row>
-    <row r="461" spans="1:13" ht="13" customHeight="1">
+    <row r="461" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="29"/>
       <c r="B461" s="25"/>
       <c r="C461" s="28"/>
@@ -12574,7 +12607,7 @@
       <c r="L461" s="26"/>
       <c r="M461" s="23"/>
     </row>
-    <row r="462" spans="1:13" ht="13" customHeight="1">
+    <row r="462" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="29"/>
       <c r="B462" s="25"/>
       <c r="C462" s="28"/>
@@ -12589,7 +12622,7 @@
       <c r="L462" s="26"/>
       <c r="M462" s="23"/>
     </row>
-    <row r="463" spans="1:13" ht="13" customHeight="1">
+    <row r="463" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="29"/>
       <c r="B463" s="25"/>
       <c r="C463" s="28"/>
@@ -12604,7 +12637,7 @@
       <c r="L463" s="26"/>
       <c r="M463" s="23"/>
     </row>
-    <row r="464" spans="1:13" ht="13" customHeight="1">
+    <row r="464" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="29"/>
       <c r="B464" s="25"/>
       <c r="C464" s="28"/>
@@ -12619,7 +12652,7 @@
       <c r="L464" s="26"/>
       <c r="M464" s="23"/>
     </row>
-    <row r="465" spans="1:13" ht="13" customHeight="1">
+    <row r="465" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="29"/>
       <c r="B465" s="25"/>
       <c r="C465" s="28"/>
@@ -12634,7 +12667,7 @@
       <c r="L465" s="26"/>
       <c r="M465" s="23"/>
     </row>
-    <row r="466" spans="1:13" ht="13" customHeight="1">
+    <row r="466" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="29"/>
       <c r="B466" s="25"/>
       <c r="C466" s="28"/>
@@ -12649,7 +12682,7 @@
       <c r="L466" s="26"/>
       <c r="M466" s="23"/>
     </row>
-    <row r="467" spans="1:13" ht="13" customHeight="1">
+    <row r="467" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="29"/>
       <c r="B467" s="25"/>
       <c r="C467" s="28"/>
@@ -12664,7 +12697,7 @@
       <c r="L467" s="26"/>
       <c r="M467" s="23"/>
     </row>
-    <row r="468" spans="1:13" ht="13" customHeight="1">
+    <row r="468" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="29"/>
       <c r="B468" s="25"/>
       <c r="C468" s="28"/>
@@ -12679,7 +12712,7 @@
       <c r="L468" s="26"/>
       <c r="M468" s="23"/>
     </row>
-    <row r="469" spans="1:13" ht="13" customHeight="1">
+    <row r="469" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="29"/>
       <c r="B469" s="25"/>
       <c r="C469" s="28"/>
@@ -12694,7 +12727,7 @@
       <c r="L469" s="26"/>
       <c r="M469" s="23"/>
     </row>
-    <row r="470" spans="1:13" ht="13" customHeight="1">
+    <row r="470" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="29"/>
       <c r="B470" s="25"/>
       <c r="C470" s="28"/>
@@ -12709,7 +12742,7 @@
       <c r="L470" s="26"/>
       <c r="M470" s="23"/>
     </row>
-    <row r="471" spans="1:13" ht="13" customHeight="1">
+    <row r="471" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="29"/>
       <c r="B471" s="25"/>
       <c r="C471" s="28"/>
@@ -12724,7 +12757,7 @@
       <c r="L471" s="26"/>
       <c r="M471" s="23"/>
     </row>
-    <row r="472" spans="1:13" ht="13" customHeight="1">
+    <row r="472" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="29"/>
       <c r="B472" s="25"/>
       <c r="C472" s="28"/>
@@ -12739,7 +12772,7 @@
       <c r="L472" s="26"/>
       <c r="M472" s="23"/>
     </row>
-    <row r="473" spans="1:13" ht="13" customHeight="1">
+    <row r="473" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="29"/>
       <c r="B473" s="25"/>
       <c r="C473" s="28"/>
@@ -12754,7 +12787,7 @@
       <c r="L473" s="26"/>
       <c r="M473" s="23"/>
     </row>
-    <row r="474" spans="1:13" ht="13" customHeight="1">
+    <row r="474" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="29"/>
       <c r="B474" s="25"/>
       <c r="C474" s="28"/>
@@ -12769,7 +12802,7 @@
       <c r="L474" s="26"/>
       <c r="M474" s="23"/>
     </row>
-    <row r="475" spans="1:13" ht="13" customHeight="1">
+    <row r="475" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="29"/>
       <c r="B475" s="25"/>
       <c r="C475" s="28"/>
@@ -12784,7 +12817,7 @@
       <c r="L475" s="26"/>
       <c r="M475" s="23"/>
     </row>
-    <row r="476" spans="1:13" ht="13" customHeight="1">
+    <row r="476" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="29"/>
       <c r="B476" s="25"/>
       <c r="C476" s="28"/>
@@ -12799,7 +12832,7 @@
       <c r="L476" s="26"/>
       <c r="M476" s="23"/>
     </row>
-    <row r="477" spans="1:13" ht="13" customHeight="1">
+    <row r="477" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="29"/>
       <c r="B477" s="25"/>
       <c r="C477" s="28"/>
@@ -12814,7 +12847,7 @@
       <c r="L477" s="26"/>
       <c r="M477" s="23"/>
     </row>
-    <row r="478" spans="1:13" ht="13" customHeight="1">
+    <row r="478" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="29"/>
       <c r="B478" s="25"/>
       <c r="C478" s="28"/>
@@ -12829,7 +12862,7 @@
       <c r="L478" s="26"/>
       <c r="M478" s="23"/>
     </row>
-    <row r="479" spans="1:13" ht="13" customHeight="1">
+    <row r="479" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="29"/>
       <c r="B479" s="25"/>
       <c r="C479" s="28"/>
@@ -12844,7 +12877,7 @@
       <c r="L479" s="26"/>
       <c r="M479" s="23"/>
     </row>
-    <row r="480" spans="1:13" ht="13" customHeight="1">
+    <row r="480" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="29"/>
       <c r="B480" s="25"/>
       <c r="C480" s="28"/>
@@ -12859,7 +12892,7 @@
       <c r="L480" s="26"/>
       <c r="M480" s="23"/>
     </row>
-    <row r="481" spans="1:13" ht="13" customHeight="1">
+    <row r="481" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="29"/>
       <c r="B481" s="25"/>
       <c r="C481" s="28"/>
@@ -12874,7 +12907,7 @@
       <c r="L481" s="26"/>
       <c r="M481" s="23"/>
     </row>
-    <row r="482" spans="1:13" ht="13" customHeight="1">
+    <row r="482" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="29"/>
       <c r="B482" s="25"/>
       <c r="C482" s="28"/>
@@ -12889,7 +12922,7 @@
       <c r="L482" s="26"/>
       <c r="M482" s="23"/>
     </row>
-    <row r="483" spans="1:13" ht="13" customHeight="1">
+    <row r="483" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="29"/>
       <c r="B483" s="25"/>
       <c r="C483" s="28"/>
@@ -12904,7 +12937,7 @@
       <c r="L483" s="26"/>
       <c r="M483" s="23"/>
     </row>
-    <row r="484" spans="1:13" ht="13" customHeight="1">
+    <row r="484" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="29"/>
       <c r="B484" s="25"/>
       <c r="C484" s="28"/>
@@ -12919,7 +12952,7 @@
       <c r="L484" s="26"/>
       <c r="M484" s="23"/>
     </row>
-    <row r="485" spans="1:13" ht="13" customHeight="1">
+    <row r="485" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="29"/>
       <c r="B485" s="25"/>
       <c r="C485" s="28"/>
@@ -12934,7 +12967,7 @@
       <c r="L485" s="26"/>
       <c r="M485" s="23"/>
     </row>
-    <row r="486" spans="1:13" ht="13" customHeight="1">
+    <row r="486" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="29"/>
       <c r="B486" s="25"/>
       <c r="C486" s="28"/>
@@ -12949,7 +12982,7 @@
       <c r="L486" s="26"/>
       <c r="M486" s="23"/>
     </row>
-    <row r="487" spans="1:13" ht="13" customHeight="1">
+    <row r="487" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="29"/>
       <c r="B487" s="25"/>
       <c r="C487" s="28"/>
@@ -12964,7 +12997,7 @@
       <c r="L487" s="26"/>
       <c r="M487" s="23"/>
     </row>
-    <row r="488" spans="1:13" ht="13" customHeight="1">
+    <row r="488" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="29"/>
       <c r="B488" s="25"/>
       <c r="C488" s="28"/>
@@ -12979,7 +13012,7 @@
       <c r="L488" s="26"/>
       <c r="M488" s="23"/>
     </row>
-    <row r="489" spans="1:13" ht="13" customHeight="1">
+    <row r="489" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="29"/>
       <c r="B489" s="25"/>
       <c r="C489" s="28"/>
@@ -12994,7 +13027,7 @@
       <c r="L489" s="26"/>
       <c r="M489" s="23"/>
     </row>
-    <row r="490" spans="1:13" ht="13" customHeight="1">
+    <row r="490" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="29"/>
       <c r="B490" s="25"/>
       <c r="C490" s="28"/>
@@ -13009,7 +13042,7 @@
       <c r="L490" s="26"/>
       <c r="M490" s="23"/>
     </row>
-    <row r="491" spans="1:13" ht="13" customHeight="1">
+    <row r="491" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="29"/>
       <c r="B491" s="25"/>
       <c r="C491" s="28"/>
@@ -13024,7 +13057,7 @@
       <c r="L491" s="26"/>
       <c r="M491" s="23"/>
     </row>
-    <row r="492" spans="1:13" ht="13" customHeight="1">
+    <row r="492" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="29"/>
       <c r="B492" s="25"/>
       <c r="C492" s="28"/>
@@ -13039,7 +13072,7 @@
       <c r="L492" s="26"/>
       <c r="M492" s="23"/>
     </row>
-    <row r="493" spans="1:13" ht="13" customHeight="1">
+    <row r="493" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="29"/>
       <c r="B493" s="25"/>
       <c r="C493" s="28"/>
@@ -13054,7 +13087,7 @@
       <c r="L493" s="26"/>
       <c r="M493" s="23"/>
     </row>
-    <row r="494" spans="1:13" ht="13" customHeight="1">
+    <row r="494" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="29"/>
       <c r="B494" s="25"/>
       <c r="C494" s="28"/>
@@ -13069,7 +13102,7 @@
       <c r="L494" s="26"/>
       <c r="M494" s="23"/>
     </row>
-    <row r="495" spans="1:13" ht="13" customHeight="1">
+    <row r="495" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="29"/>
       <c r="B495" s="25"/>
       <c r="C495" s="28"/>
@@ -13084,7 +13117,7 @@
       <c r="L495" s="26"/>
       <c r="M495" s="23"/>
     </row>
-    <row r="496" spans="1:13" ht="13" customHeight="1">
+    <row r="496" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="29"/>
       <c r="B496" s="25"/>
       <c r="C496" s="28"/>
@@ -13099,7 +13132,7 @@
       <c r="L496" s="26"/>
       <c r="M496" s="23"/>
     </row>
-    <row r="497" spans="1:13" ht="13" customHeight="1">
+    <row r="497" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="29"/>
       <c r="B497" s="25"/>
       <c r="C497" s="28"/>
@@ -13114,7 +13147,7 @@
       <c r="L497" s="26"/>
       <c r="M497" s="23"/>
     </row>
-    <row r="498" spans="1:13" ht="13" customHeight="1">
+    <row r="498" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="29"/>
       <c r="B498" s="25"/>
       <c r="C498" s="28"/>
@@ -13129,7 +13162,7 @@
       <c r="L498" s="26"/>
       <c r="M498" s="23"/>
     </row>
-    <row r="499" spans="1:13" ht="13" customHeight="1">
+    <row r="499" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="29"/>
       <c r="B499" s="25"/>
       <c r="C499" s="28"/>
@@ -13144,7 +13177,7 @@
       <c r="L499" s="26"/>
       <c r="M499" s="23"/>
     </row>
-    <row r="500" spans="1:13" ht="13" customHeight="1">
+    <row r="500" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="29"/>
       <c r="B500" s="25"/>
       <c r="C500" s="28"/>
@@ -13159,7 +13192,7 @@
       <c r="L500" s="26"/>
       <c r="M500" s="23"/>
     </row>
-    <row r="501" spans="1:13" ht="13" customHeight="1">
+    <row r="501" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="29"/>
       <c r="B501" s="25"/>
       <c r="C501" s="28"/>
@@ -13174,7 +13207,7 @@
       <c r="L501" s="26"/>
       <c r="M501" s="23"/>
     </row>
-    <row r="502" spans="1:13" ht="13" customHeight="1">
+    <row r="502" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="29"/>
       <c r="B502" s="25"/>
       <c r="C502" s="28"/>
@@ -13189,7 +13222,7 @@
       <c r="L502" s="26"/>
       <c r="M502" s="23"/>
     </row>
-    <row r="503" spans="1:13" ht="13" customHeight="1">
+    <row r="503" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="29"/>
       <c r="B503" s="25"/>
       <c r="C503" s="28"/>
@@ -13204,7 +13237,7 @@
       <c r="L503" s="26"/>
       <c r="M503" s="23"/>
     </row>
-    <row r="504" spans="1:13" ht="13" customHeight="1">
+    <row r="504" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="29"/>
       <c r="B504" s="25"/>
       <c r="C504" s="28"/>
@@ -13219,7 +13252,7 @@
       <c r="L504" s="26"/>
       <c r="M504" s="23"/>
     </row>
-    <row r="505" spans="1:13" ht="13" customHeight="1">
+    <row r="505" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="29"/>
       <c r="B505" s="25"/>
       <c r="C505" s="28"/>
@@ -13234,7 +13267,7 @@
       <c r="L505" s="26"/>
       <c r="M505" s="23"/>
     </row>
-    <row r="506" spans="1:13" ht="13" customHeight="1">
+    <row r="506" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="29"/>
       <c r="B506" s="25"/>
       <c r="C506" s="28"/>
@@ -13249,7 +13282,7 @@
       <c r="L506" s="26"/>
       <c r="M506" s="23"/>
     </row>
-    <row r="507" spans="1:13" ht="13" customHeight="1">
+    <row r="507" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="29"/>
       <c r="B507" s="25"/>
       <c r="C507" s="28"/>
@@ -13264,7 +13297,7 @@
       <c r="L507" s="26"/>
       <c r="M507" s="23"/>
     </row>
-    <row r="508" spans="1:13" ht="13" customHeight="1">
+    <row r="508" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="29"/>
       <c r="B508" s="25"/>
       <c r="C508" s="28"/>
@@ -13279,7 +13312,7 @@
       <c r="L508" s="26"/>
       <c r="M508" s="23"/>
     </row>
-    <row r="509" spans="1:13" ht="13" customHeight="1">
+    <row r="509" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="29"/>
       <c r="B509" s="25"/>
       <c r="C509" s="28"/>
@@ -13294,7 +13327,7 @@
       <c r="L509" s="26"/>
       <c r="M509" s="23"/>
     </row>
-    <row r="510" spans="1:13" ht="13" customHeight="1">
+    <row r="510" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="29"/>
       <c r="B510" s="25"/>
       <c r="C510" s="28"/>
@@ -13309,7 +13342,7 @@
       <c r="L510" s="26"/>
       <c r="M510" s="23"/>
     </row>
-    <row r="511" spans="1:13" ht="13" customHeight="1">
+    <row r="511" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="29"/>
       <c r="B511" s="25"/>
       <c r="C511" s="28"/>
@@ -13324,7 +13357,7 @@
       <c r="L511" s="26"/>
       <c r="M511" s="23"/>
     </row>
-    <row r="512" spans="1:13" ht="13" customHeight="1">
+    <row r="512" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="29"/>
       <c r="B512" s="25"/>
       <c r="C512" s="28"/>
@@ -13339,7 +13372,7 @@
       <c r="L512" s="26"/>
       <c r="M512" s="23"/>
     </row>
-    <row r="513" spans="1:13" ht="13" customHeight="1">
+    <row r="513" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="29"/>
       <c r="B513" s="25"/>
       <c r="C513" s="28"/>
@@ -13354,7 +13387,7 @@
       <c r="L513" s="26"/>
       <c r="M513" s="23"/>
     </row>
-    <row r="514" spans="1:13" ht="13" customHeight="1">
+    <row r="514" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="29"/>
       <c r="B514" s="25"/>
       <c r="C514" s="28"/>
@@ -13369,7 +13402,7 @@
       <c r="L514" s="26"/>
       <c r="M514" s="23"/>
     </row>
-    <row r="515" spans="1:13" ht="13" customHeight="1">
+    <row r="515" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="29"/>
       <c r="B515" s="25"/>
       <c r="C515" s="28"/>
@@ -13384,7 +13417,7 @@
       <c r="L515" s="26"/>
       <c r="M515" s="23"/>
     </row>
-    <row r="516" spans="1:13" ht="13" customHeight="1">
+    <row r="516" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="29"/>
       <c r="B516" s="25"/>
       <c r="C516" s="28"/>
@@ -13399,7 +13432,7 @@
       <c r="L516" s="26"/>
       <c r="M516" s="23"/>
     </row>
-    <row r="517" spans="1:13" ht="13" customHeight="1">
+    <row r="517" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="29"/>
       <c r="B517" s="25"/>
       <c r="C517" s="28"/>
@@ -13414,7 +13447,7 @@
       <c r="L517" s="26"/>
       <c r="M517" s="23"/>
     </row>
-    <row r="518" spans="1:13" ht="13" customHeight="1">
+    <row r="518" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="29"/>
       <c r="B518" s="25"/>
       <c r="C518" s="28"/>
@@ -13429,7 +13462,7 @@
       <c r="L518" s="26"/>
       <c r="M518" s="23"/>
     </row>
-    <row r="519" spans="1:13" ht="13" customHeight="1">
+    <row r="519" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="29"/>
       <c r="B519" s="25"/>
       <c r="C519" s="28"/>
@@ -13444,7 +13477,7 @@
       <c r="L519" s="26"/>
       <c r="M519" s="23"/>
     </row>
-    <row r="520" spans="1:13" ht="13" customHeight="1">
+    <row r="520" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="29"/>
       <c r="B520" s="25"/>
       <c r="C520" s="28"/>
@@ -13459,7 +13492,7 @@
       <c r="L520" s="26"/>
       <c r="M520" s="23"/>
     </row>
-    <row r="521" spans="1:13" ht="13" customHeight="1">
+    <row r="521" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="29"/>
       <c r="B521" s="25"/>
       <c r="C521" s="28"/>
@@ -13474,7 +13507,7 @@
       <c r="L521" s="26"/>
       <c r="M521" s="23"/>
     </row>
-    <row r="522" spans="1:13" ht="13" customHeight="1">
+    <row r="522" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="29"/>
       <c r="B522" s="25"/>
       <c r="C522" s="28"/>
@@ -13489,7 +13522,7 @@
       <c r="L522" s="26"/>
       <c r="M522" s="23"/>
     </row>
-    <row r="523" spans="1:13" ht="13" customHeight="1">
+    <row r="523" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="29"/>
       <c r="B523" s="25"/>
       <c r="C523" s="28"/>
@@ -13504,7 +13537,7 @@
       <c r="L523" s="26"/>
       <c r="M523" s="23"/>
     </row>
-    <row r="524" spans="1:13" ht="13" customHeight="1">
+    <row r="524" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="29"/>
       <c r="B524" s="25"/>
       <c r="C524" s="28"/>
@@ -13519,7 +13552,7 @@
       <c r="L524" s="26"/>
       <c r="M524" s="23"/>
     </row>
-    <row r="525" spans="1:13" ht="13" customHeight="1">
+    <row r="525" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="29"/>
       <c r="B525" s="25"/>
       <c r="C525" s="28"/>
@@ -13534,7 +13567,7 @@
       <c r="L525" s="26"/>
       <c r="M525" s="23"/>
     </row>
-    <row r="526" spans="1:13" ht="13" customHeight="1">
+    <row r="526" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="29"/>
       <c r="B526" s="25"/>
       <c r="C526" s="28"/>
@@ -13549,7 +13582,7 @@
       <c r="L526" s="26"/>
       <c r="M526" s="23"/>
     </row>
-    <row r="527" spans="1:13" ht="13" customHeight="1">
+    <row r="527" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="29"/>
       <c r="B527" s="25"/>
       <c r="C527" s="28"/>
@@ -13564,7 +13597,7 @@
       <c r="L527" s="26"/>
       <c r="M527" s="23"/>
     </row>
-    <row r="528" spans="1:13" ht="13" customHeight="1">
+    <row r="528" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="29"/>
       <c r="B528" s="25"/>
       <c r="C528" s="28"/>
@@ -13579,7 +13612,7 @@
       <c r="L528" s="26"/>
       <c r="M528" s="23"/>
     </row>
-    <row r="529" spans="1:13" ht="13" customHeight="1">
+    <row r="529" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="29"/>
       <c r="B529" s="25"/>
       <c r="C529" s="28"/>
@@ -13594,7 +13627,7 @@
       <c r="L529" s="26"/>
       <c r="M529" s="23"/>
     </row>
-    <row r="530" spans="1:13" ht="13" customHeight="1">
+    <row r="530" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="29"/>
       <c r="B530" s="25"/>
       <c r="C530" s="28"/>
@@ -13609,7 +13642,7 @@
       <c r="L530" s="26"/>
       <c r="M530" s="23"/>
     </row>
-    <row r="531" spans="1:13" ht="13" customHeight="1">
+    <row r="531" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="29"/>
       <c r="B531" s="25"/>
       <c r="C531" s="28"/>
@@ -13624,7 +13657,7 @@
       <c r="L531" s="26"/>
       <c r="M531" s="23"/>
     </row>
-    <row r="532" spans="1:13" ht="13" customHeight="1">
+    <row r="532" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="29"/>
       <c r="B532" s="25"/>
       <c r="C532" s="28"/>
@@ -13639,7 +13672,7 @@
       <c r="L532" s="26"/>
       <c r="M532" s="23"/>
     </row>
-    <row r="533" spans="1:13" ht="13" customHeight="1">
+    <row r="533" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="29"/>
       <c r="B533" s="25"/>
       <c r="C533" s="28"/>
@@ -13654,7 +13687,7 @@
       <c r="L533" s="26"/>
       <c r="M533" s="23"/>
     </row>
-    <row r="534" spans="1:13" ht="13" customHeight="1">
+    <row r="534" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="29"/>
       <c r="B534" s="25"/>
       <c r="C534" s="28"/>
@@ -13669,7 +13702,7 @@
       <c r="L534" s="26"/>
       <c r="M534" s="23"/>
     </row>
-    <row r="535" spans="1:13" ht="13" customHeight="1">
+    <row r="535" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="29"/>
       <c r="B535" s="25"/>
       <c r="C535" s="28"/>
@@ -13684,7 +13717,7 @@
       <c r="L535" s="26"/>
       <c r="M535" s="23"/>
     </row>
-    <row r="536" spans="1:13" ht="13" customHeight="1">
+    <row r="536" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="29"/>
       <c r="B536" s="25"/>
       <c r="C536" s="28"/>
@@ -13699,7 +13732,7 @@
       <c r="L536" s="26"/>
       <c r="M536" s="23"/>
     </row>
-    <row r="537" spans="1:13" ht="13" customHeight="1">
+    <row r="537" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="29"/>
       <c r="B537" s="25"/>
       <c r="C537" s="28"/>
@@ -13714,7 +13747,7 @@
       <c r="L537" s="26"/>
       <c r="M537" s="23"/>
     </row>
-    <row r="538" spans="1:13" ht="13" customHeight="1">
+    <row r="538" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="29"/>
       <c r="B538" s="25"/>
       <c r="C538" s="28"/>
@@ -13729,7 +13762,7 @@
       <c r="L538" s="26"/>
       <c r="M538" s="23"/>
     </row>
-    <row r="539" spans="1:13" ht="13" customHeight="1">
+    <row r="539" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="29"/>
       <c r="B539" s="25"/>
       <c r="C539" s="28"/>
@@ -13744,7 +13777,7 @@
       <c r="L539" s="26"/>
       <c r="M539" s="23"/>
     </row>
-    <row r="540" spans="1:13" ht="13" customHeight="1">
+    <row r="540" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="29"/>
       <c r="B540" s="25"/>
       <c r="C540" s="28"/>
@@ -13759,7 +13792,7 @@
       <c r="L540" s="26"/>
       <c r="M540" s="23"/>
     </row>
-    <row r="541" spans="1:13" ht="13" customHeight="1">
+    <row r="541" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="29"/>
       <c r="B541" s="25"/>
       <c r="C541" s="28"/>
@@ -13774,7 +13807,7 @@
       <c r="L541" s="26"/>
       <c r="M541" s="23"/>
     </row>
-    <row r="542" spans="1:13" ht="13" customHeight="1">
+    <row r="542" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="29"/>
       <c r="B542" s="25"/>
       <c r="C542" s="28"/>
@@ -13789,7 +13822,7 @@
       <c r="L542" s="26"/>
       <c r="M542" s="23"/>
     </row>
-    <row r="543" spans="1:13" ht="13" customHeight="1">
+    <row r="543" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="29"/>
       <c r="B543" s="25"/>
       <c r="C543" s="28"/>
@@ -13804,7 +13837,7 @@
       <c r="L543" s="26"/>
       <c r="M543" s="23"/>
     </row>
-    <row r="544" spans="1:13" ht="13" customHeight="1">
+    <row r="544" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="29"/>
       <c r="B544" s="25"/>
       <c r="C544" s="28"/>
@@ -13864,9 +13897,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -13880,7 +13910,7 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
@@ -13892,7 +13922,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13954,7 +13984,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>24</v>
       </c>
@@ -13974,7 +14004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>25</v>
       </c>
@@ -13994,7 +14024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>32</v>
       </c>
@@ -14008,7 +14038,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H5">
         <v>20</v>
       </c>
@@ -14016,7 +14046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H6">
         <v>25</v>
       </c>
@@ -14024,17 +14054,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flipsi/projects/opengever/2018/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flipsi/projects/opengever/2019/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5D7E7-D51E-4943-9C40-02F73DBC12BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="repository" localSheetId="0">Ordnungssystem!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,8 +32,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="repository.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="repository.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:repository.csv" thousands="'" comma="1">
       <textFields count="24">
         <textField/>
@@ -146,12 +147,6 @@
     <t>Vertraulich</t>
   </si>
   <si>
-    <t>Keine Datenschutzstufe</t>
-  </si>
-  <si>
-    <t>Enthält schützenswerte Personendaten</t>
-  </si>
-  <si>
     <t>Nicht geprüft</t>
   </si>
   <si>
@@ -195,9 +190,6 @@
   <si>
     <t>Dossiers
 reaktivieren</t>
-  </si>
-  <si>
-    <t>Datenschutzstufe</t>
   </si>
   <si>
     <t>Archiv-
@@ -1057,11 +1049,20 @@
   <si>
     <t>lukas.graf, philippe.gross</t>
   </si>
+  <si>
+    <t>Datenschutz</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -1605,142 +1606,142 @@
     </xf>
   </cellXfs>
   <cellStyles count="136">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2076,15 +2077,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Blatt1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Blatt1"/>
   <dimension ref="A1:T544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2139,37 +2140,37 @@
     </row>
     <row r="3" spans="1:20" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>21</v>
@@ -2178,87 +2179,87 @@
         <v>22</v>
       </c>
       <c r="N3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="13" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="H4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="J4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="T4" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="50" customFormat="1" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2269,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>2</v>
@@ -2320,10 +2321,10 @@
         <v>17</v>
       </c>
       <c r="T5" s="51" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
         <v>18</v>
@@ -2353,13 +2354,13 @@
     </row>
     <row r="7" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="25" t="s">
@@ -2377,13 +2378,13 @@
     </row>
     <row r="8" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="25" t="s">
@@ -2401,13 +2402,13 @@
     </row>
     <row r="9" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="25" t="s">
@@ -2425,13 +2426,13 @@
     </row>
     <row r="10" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="25" t="s">
@@ -2440,34 +2441,34 @@
       <c r="L10" s="26"/>
       <c r="M10" s="23"/>
       <c r="N10" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="25" t="s">
@@ -2485,13 +2486,13 @@
     </row>
     <row r="12" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="25" t="s">
@@ -2509,16 +2510,16 @@
     </row>
     <row r="13" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>24</v>
@@ -2535,16 +2536,16 @@
     </row>
     <row r="14" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>24</v>
@@ -2553,10 +2554,10 @@
         <v>10</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="23"/>
@@ -2570,13 +2571,13 @@
     </row>
     <row r="15" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="25" t="s">
@@ -2586,10 +2587,10 @@
         <v>10</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="23"/>
@@ -2603,13 +2604,13 @@
     </row>
     <row r="16" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="25" t="s">
@@ -2619,10 +2620,10 @@
         <v>10</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="23"/>
@@ -2636,16 +2637,16 @@
     </row>
     <row r="17" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>24</v>
@@ -2662,16 +2663,16 @@
     </row>
     <row r="18" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>24</v>
@@ -2680,31 +2681,31 @@
       <c r="M18" s="23"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S18" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="T18" s="27"/>
     </row>
     <row r="19" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="25" t="s">
@@ -2722,13 +2723,13 @@
     </row>
     <row r="20" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="25" t="s">
@@ -2738,10 +2739,10 @@
         <v>10</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L20" s="26"/>
       <c r="M20" s="23"/>
@@ -2755,13 +2756,13 @@
     </row>
     <row r="21" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="25" t="s">
@@ -2771,10 +2772,10 @@
         <v>10</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L21" s="26"/>
       <c r="M21" s="23"/>
@@ -2788,13 +2789,13 @@
     </row>
     <row r="22" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="25" t="s">
@@ -2804,10 +2805,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L22" s="26"/>
       <c r="M22" s="23"/>
@@ -2821,13 +2822,13 @@
     </row>
     <row r="23" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="25" t="s">
@@ -2845,13 +2846,13 @@
     </row>
     <row r="24" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="25" t="s">
@@ -2861,10 +2862,10 @@
         <v>10</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L24" s="26"/>
       <c r="M24" s="23"/>
@@ -2878,13 +2879,13 @@
     </row>
     <row r="25" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="25" t="s">
@@ -2894,10 +2895,10 @@
         <v>10</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L25" s="26"/>
       <c r="M25" s="23"/>
@@ -2911,13 +2912,13 @@
     </row>
     <row r="26" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="25" t="s">
@@ -2927,10 +2928,10 @@
         <v>10</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L26" s="26"/>
       <c r="M26" s="23"/>
@@ -2944,13 +2945,13 @@
     </row>
     <row r="27" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="25" t="s">
@@ -2968,13 +2969,13 @@
     </row>
     <row r="28" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="25" t="s">
@@ -2992,13 +2993,13 @@
     </row>
     <row r="29" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="25" t="s">
@@ -3008,10 +3009,10 @@
         <v>10</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L29" s="26"/>
       <c r="M29" s="23"/>
@@ -3025,13 +3026,13 @@
     </row>
     <row r="30" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="25" t="s">
@@ -3049,13 +3050,13 @@
     </row>
     <row r="31" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="25" t="s">
@@ -3073,13 +3074,13 @@
     </row>
     <row r="32" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="25" t="s">
@@ -3089,10 +3090,10 @@
         <v>10</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L32" s="26"/>
       <c r="M32" s="23"/>
@@ -3106,13 +3107,13 @@
     </row>
     <row r="33" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="25" t="s">
@@ -3130,13 +3131,13 @@
     </row>
     <row r="34" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="25" t="s">
@@ -3154,13 +3155,13 @@
     </row>
     <row r="35" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="25" t="s">
@@ -3178,13 +3179,13 @@
     </row>
     <row r="36" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="25" t="s">
@@ -3202,16 +3203,16 @@
     </row>
     <row r="37" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>24</v>
@@ -3228,13 +3229,13 @@
     </row>
     <row r="38" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="25" t="s">
@@ -3252,13 +3253,13 @@
     </row>
     <row r="39" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="25" t="s">
@@ -3276,13 +3277,13 @@
     </row>
     <row r="40" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="25" t="s">
@@ -3300,13 +3301,13 @@
     </row>
     <row r="41" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="25" t="s">
@@ -3324,13 +3325,13 @@
     </row>
     <row r="42" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="25" t="s">
@@ -3348,13 +3349,13 @@
     </row>
     <row r="43" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="25" t="s">
@@ -3372,13 +3373,13 @@
     </row>
     <row r="44" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="25" t="s">
@@ -3396,13 +3397,13 @@
     </row>
     <row r="45" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="25" t="s">
@@ -3420,13 +3421,13 @@
     </row>
     <row r="46" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="25" t="s">
@@ -3436,10 +3437,10 @@
         <v>10</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L46" s="26"/>
       <c r="M46" s="23"/>
@@ -3453,13 +3454,13 @@
     </row>
     <row r="47" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="25" t="s">
@@ -3477,13 +3478,13 @@
     </row>
     <row r="48" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="25" t="s">
@@ -3493,10 +3494,10 @@
         <v>25</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L48" s="26"/>
       <c r="M48" s="23"/>
@@ -3510,13 +3511,13 @@
     </row>
     <row r="49" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="25" t="s">
@@ -3526,10 +3527,10 @@
         <v>10</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L49" s="26"/>
       <c r="M49" s="23"/>
@@ -3543,16 +3544,16 @@
     </row>
     <row r="50" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E50" s="25" t="s">
         <v>24</v>
@@ -3561,10 +3562,10 @@
         <v>25</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L50" s="26"/>
       <c r="M50" s="23"/>
@@ -3578,13 +3579,13 @@
     </row>
     <row r="51" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="25" t="s">
@@ -3594,10 +3595,10 @@
         <v>25</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="23"/>
@@ -3611,13 +3612,13 @@
     </row>
     <row r="52" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="25" t="s">
@@ -3635,13 +3636,13 @@
     </row>
     <row r="53" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="25" t="s">
@@ -3659,13 +3660,13 @@
     </row>
     <row r="54" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="25" t="s">
@@ -3675,10 +3676,10 @@
         <v>10</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L54" s="26"/>
       <c r="M54" s="23"/>
@@ -3692,16 +3693,16 @@
     </row>
     <row r="55" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>24</v>
@@ -3710,10 +3711,10 @@
         <v>10</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L55" s="26"/>
       <c r="M55" s="23"/>
@@ -3727,13 +3728,13 @@
     </row>
     <row r="56" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="25" t="s">
@@ -3743,10 +3744,10 @@
         <v>10</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L56" s="26"/>
       <c r="M56" s="23"/>
@@ -3760,13 +3761,13 @@
     </row>
     <row r="57" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="25" t="s">
@@ -3776,10 +3777,10 @@
         <v>25</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L57" s="26"/>
       <c r="M57" s="23"/>
@@ -3793,13 +3794,13 @@
     </row>
     <row r="58" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="25" t="s">
@@ -3817,13 +3818,13 @@
     </row>
     <row r="59" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="25" t="s">
@@ -3841,16 +3842,16 @@
     </row>
     <row r="60" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>24</v>
@@ -3859,10 +3860,10 @@
         <v>10</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L60" s="26"/>
       <c r="M60" s="23"/>
@@ -3876,13 +3877,13 @@
     </row>
     <row r="61" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="25" t="s">
@@ -3892,10 +3893,10 @@
         <v>10</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L61" s="26"/>
       <c r="M61" s="23"/>
@@ -3909,13 +3910,13 @@
     </row>
     <row r="62" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="25" t="s">
@@ -3933,16 +3934,16 @@
     </row>
     <row r="63" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>24</v>
@@ -3951,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L63" s="26"/>
       <c r="M63" s="23"/>
@@ -3968,16 +3969,16 @@
     </row>
     <row r="64" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>24</v>
@@ -3986,10 +3987,10 @@
         <v>10</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L64" s="26"/>
       <c r="M64" s="23"/>
@@ -4003,16 +4004,16 @@
     </row>
     <row r="65" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>24</v>
@@ -4021,10 +4022,10 @@
         <v>10</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L65" s="26"/>
       <c r="M65" s="23"/>
@@ -4038,16 +4039,16 @@
     </row>
     <row r="66" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>24</v>
@@ -4056,10 +4057,10 @@
         <v>10</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L66" s="26"/>
       <c r="M66" s="23"/>
@@ -4073,16 +4074,16 @@
     </row>
     <row r="67" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>24</v>
@@ -4091,10 +4092,10 @@
         <v>10</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L67" s="26"/>
       <c r="M67" s="23"/>
@@ -4108,13 +4109,13 @@
     </row>
     <row r="68" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="25" t="s">
@@ -4124,10 +4125,10 @@
         <v>10</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L68" s="26"/>
       <c r="M68" s="23"/>
@@ -4141,16 +4142,16 @@
     </row>
     <row r="69" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E69" s="25" t="s">
         <v>24</v>
@@ -4159,10 +4160,10 @@
         <v>10</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L69" s="26"/>
       <c r="M69" s="23"/>
@@ -4176,13 +4177,13 @@
     </row>
     <row r="70" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="25" t="s">
@@ -4200,13 +4201,13 @@
     </row>
     <row r="71" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="25" t="s">
@@ -4224,13 +4225,13 @@
     </row>
     <row r="72" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="25" t="s">
@@ -4248,13 +4249,13 @@
     </row>
     <row r="73" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="25" t="s">
@@ -4272,13 +4273,13 @@
     </row>
     <row r="74" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="25" t="s">
@@ -4288,10 +4289,10 @@
         <v>10</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L74" s="26"/>
       <c r="M74" s="23"/>
@@ -4305,16 +4306,16 @@
     </row>
     <row r="75" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E75" s="25" t="s">
         <v>24</v>
@@ -4323,10 +4324,10 @@
         <v>10</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L75" s="26"/>
       <c r="M75" s="23"/>
@@ -4340,16 +4341,16 @@
     </row>
     <row r="76" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>24</v>
@@ -4358,10 +4359,10 @@
         <v>10</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L76" s="26"/>
       <c r="M76" s="23"/>
@@ -4375,13 +4376,13 @@
     </row>
     <row r="77" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="25" t="s">
@@ -4391,10 +4392,10 @@
         <v>10</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L77" s="26"/>
       <c r="M77" s="23"/>
@@ -4408,16 +4409,16 @@
     </row>
     <row r="78" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>24</v>
@@ -4426,10 +4427,10 @@
         <v>10</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L78" s="26"/>
       <c r="M78" s="23"/>
@@ -4443,13 +4444,13 @@
     </row>
     <row r="79" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="25" t="s">
@@ -4470,13 +4471,13 @@
     </row>
     <row r="80" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="25" t="s">
@@ -4486,10 +4487,10 @@
         <v>10</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L80" s="26"/>
       <c r="M80" s="23"/>
@@ -4503,13 +4504,13 @@
     </row>
     <row r="81" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="25" t="s">
@@ -4527,13 +4528,13 @@
     </row>
     <row r="82" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="25" t="s">
@@ -13859,37 +13860,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="235" yWindow="427" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$G$2:$G$3</xm:f>
           </x14:formula1>
           <xm:sqref>F7:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$O$2:$O$4</xm:f>
           </x14:formula1>
           <xm:sqref>N7:N1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$F$2:$F$4</xm:f>
           </x14:formula1>
           <xm:sqref>E7:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$J$2:$J$7</xm:f>
           </x14:formula1>
           <xm:sqref>I7:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$H$2:$H$6</xm:f>
           </x14:formula1>
           <xm:sqref>G7:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$L$2:$L$4</xm:f>
           </x14:formula1>
@@ -13902,12 +13903,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Blatt2" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Blatt2"/>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13981,7 +13982,7 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -13989,19 +13990,19 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L2">
         <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -14009,30 +14010,30 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4">
         <v>150</v>
@@ -14043,7 +14044,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -14051,12 +14052,12 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flipsi/projects/opengever/2019/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deif/Files/workspaces/opengever.core/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5D7E7-D51E-4943-9C40-02F73DBC12BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C042D99E-0463-4A45-B6E6-0ACFA28F6EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="repository" localSheetId="0">Ordnungssystem!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="305">
   <si>
     <t>reference_number</t>
   </si>
@@ -1057,6 +1057,9 @@
   </si>
   <si>
     <t>Nein</t>
+  </si>
+  <si>
+    <t>og_demo-ftw_users</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1444,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1604,144 +1607,145 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="136">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2082,10 +2086,10 @@
   <dimension ref="A1:T544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2345,12 +2349,24 @@
         <v>73050</v>
       </c>
       <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="O6" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="S6" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="T6" s="53" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="7" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">

--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deif/Files/workspaces/opengever.core/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C042D99E-0463-4A45-B6E6-0ACFA28F6EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -21,19 +15,19 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="repository.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="repository.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:lukas:Downloads:repository.csv" thousands="'" comma="1">
       <textFields count="24">
         <textField/>
@@ -67,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="307">
   <si>
     <t>reference_number</t>
   </si>
@@ -1061,11 +1055,17 @@
   <si>
     <t>og_demo-ftw_users</t>
   </si>
+  <si>
+    <t>Ordnungssysteme</t>
+  </si>
+  <si>
+    <t>Système de classement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -1610,142 +1610,142 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="136">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2081,18 +2081,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Blatt1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Blatt1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" style="47" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="48" customWidth="1"/>
@@ -2114,7 +2114,7 @@
     <col min="23" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2142,7 +2142,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="13" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="13" customFormat="1" ht="94" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="50" customFormat="1" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="50" customFormat="1" ht="1" hidden="1" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>0</v>
       </c>
@@ -2328,12 +2328,14 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="15" customFormat="1" ht="14">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="22"/>
+        <v>305</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2368,7 +2370,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>295</v>
       </c>
@@ -2392,7 +2394,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
     </row>
-    <row r="8" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>68</v>
       </c>
@@ -2416,7 +2418,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
     </row>
-    <row r="9" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>70</v>
       </c>
@@ -2440,7 +2442,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -2476,7 +2478,7 @@
       </c>
       <c r="T10" s="27"/>
     </row>
-    <row r="11" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>74</v>
       </c>
@@ -2500,7 +2502,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
     </row>
-    <row r="12" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>76</v>
       </c>
@@ -2524,7 +2526,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
     </row>
-    <row r="13" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>78</v>
       </c>
@@ -2550,7 +2552,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
     </row>
-    <row r="14" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>80</v>
       </c>
@@ -2585,7 +2587,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
     </row>
-    <row r="15" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>82</v>
       </c>
@@ -2618,7 +2620,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>84</v>
       </c>
@@ -2651,7 +2653,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -2677,7 +2679,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>88</v>
       </c>
@@ -2713,7 +2715,7 @@
       </c>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>90</v>
       </c>
@@ -2737,7 +2739,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>92</v>
       </c>
@@ -2770,7 +2772,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
     </row>
-    <row r="21" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>93</v>
       </c>
@@ -2803,7 +2805,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
@@ -2836,7 +2838,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>97</v>
       </c>
@@ -2860,7 +2862,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
     </row>
-    <row r="24" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>99</v>
       </c>
@@ -2893,7 +2895,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
     </row>
-    <row r="25" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>100</v>
       </c>
@@ -2926,7 +2928,7 @@
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
     </row>
-    <row r="26" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>101</v>
       </c>
@@ -2959,7 +2961,7 @@
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
     </row>
-    <row r="27" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>102</v>
       </c>
@@ -2983,7 +2985,7 @@
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
-    <row r="28" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>104</v>
       </c>
@@ -3007,7 +3009,7 @@
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
-    <row r="29" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>106</v>
       </c>
@@ -3040,7 +3042,7 @@
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
-    <row r="30" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>107</v>
       </c>
@@ -3064,7 +3066,7 @@
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
     </row>
-    <row r="31" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>109</v>
       </c>
@@ -3088,7 +3090,7 @@
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
     </row>
-    <row r="32" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>111</v>
       </c>
@@ -3121,7 +3123,7 @@
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
     </row>
-    <row r="33" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>112</v>
       </c>
@@ -3145,7 +3147,7 @@
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
     </row>
-    <row r="34" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>114</v>
       </c>
@@ -3169,7 +3171,7 @@
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
     </row>
-    <row r="35" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>116</v>
       </c>
@@ -3193,7 +3195,7 @@
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
     </row>
-    <row r="36" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>118</v>
       </c>
@@ -3217,7 +3219,7 @@
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
     </row>
-    <row r="37" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>120</v>
       </c>
@@ -3243,7 +3245,7 @@
       <c r="S37" s="27"/>
       <c r="T37" s="27"/>
     </row>
-    <row r="38" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>122</v>
       </c>
@@ -3267,7 +3269,7 @@
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
     </row>
-    <row r="39" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>124</v>
       </c>
@@ -3291,7 +3293,7 @@
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
     </row>
-    <row r="40" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>126</v>
       </c>
@@ -3315,7 +3317,7 @@
       <c r="S40" s="27"/>
       <c r="T40" s="27"/>
     </row>
-    <row r="41" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>128</v>
       </c>
@@ -3339,7 +3341,7 @@
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
     </row>
-    <row r="42" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>130</v>
       </c>
@@ -3363,7 +3365,7 @@
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
     </row>
-    <row r="43" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>132</v>
       </c>
@@ -3387,7 +3389,7 @@
       <c r="S43" s="27"/>
       <c r="T43" s="27"/>
     </row>
-    <row r="44" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>134</v>
       </c>
@@ -3411,7 +3413,7 @@
       <c r="S44" s="27"/>
       <c r="T44" s="27"/>
     </row>
-    <row r="45" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>136</v>
       </c>
@@ -3435,7 +3437,7 @@
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
     </row>
-    <row r="46" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>138</v>
       </c>
@@ -3468,7 +3470,7 @@
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
     </row>
-    <row r="47" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>139</v>
       </c>
@@ -3492,7 +3494,7 @@
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
-    <row r="48" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>141</v>
       </c>
@@ -3525,7 +3527,7 @@
       <c r="S48" s="27"/>
       <c r="T48" s="27"/>
     </row>
-    <row r="49" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>143</v>
       </c>
@@ -3558,7 +3560,7 @@
       <c r="S49" s="27"/>
       <c r="T49" s="27"/>
     </row>
-    <row r="50" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>145</v>
       </c>
@@ -3593,7 +3595,7 @@
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
     </row>
-    <row r="51" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>147</v>
       </c>
@@ -3626,7 +3628,7 @@
       <c r="S51" s="27"/>
       <c r="T51" s="27"/>
     </row>
-    <row r="52" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>149</v>
       </c>
@@ -3650,7 +3652,7 @@
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
     </row>
-    <row r="53" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>151</v>
       </c>
@@ -3674,7 +3676,7 @@
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
     </row>
-    <row r="54" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A54" s="17" t="s">
         <v>153</v>
       </c>
@@ -3707,7 +3709,7 @@
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
     </row>
-    <row r="55" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>155</v>
       </c>
@@ -3742,7 +3744,7 @@
       <c r="S55" s="27"/>
       <c r="T55" s="27"/>
     </row>
-    <row r="56" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>157</v>
       </c>
@@ -3775,7 +3777,7 @@
       <c r="S56" s="27"/>
       <c r="T56" s="27"/>
     </row>
-    <row r="57" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A57" s="17" t="s">
         <v>159</v>
       </c>
@@ -3808,7 +3810,7 @@
       <c r="S57" s="27"/>
       <c r="T57" s="27"/>
     </row>
-    <row r="58" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>161</v>
       </c>
@@ -3832,7 +3834,7 @@
       <c r="S58" s="27"/>
       <c r="T58" s="27"/>
     </row>
-    <row r="59" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>163</v>
       </c>
@@ -3856,7 +3858,7 @@
       <c r="S59" s="27"/>
       <c r="T59" s="27"/>
     </row>
-    <row r="60" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A60" s="17" t="s">
         <v>165</v>
       </c>
@@ -3891,7 +3893,7 @@
       <c r="S60" s="27"/>
       <c r="T60" s="27"/>
     </row>
-    <row r="61" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>166</v>
       </c>
@@ -3924,7 +3926,7 @@
       <c r="S61" s="27"/>
       <c r="T61" s="27"/>
     </row>
-    <row r="62" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>168</v>
       </c>
@@ -3948,7 +3950,7 @@
       <c r="S62" s="27"/>
       <c r="T62" s="27"/>
     </row>
-    <row r="63" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>170</v>
       </c>
@@ -3983,7 +3985,7 @@
       <c r="S63" s="27"/>
       <c r="T63" s="27"/>
     </row>
-    <row r="64" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>172</v>
       </c>
@@ -4018,7 +4020,7 @@
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
     </row>
-    <row r="65" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>174</v>
       </c>
@@ -4053,7 +4055,7 @@
       <c r="S65" s="27"/>
       <c r="T65" s="27"/>
     </row>
-    <row r="66" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A66" s="17" t="s">
         <v>176</v>
       </c>
@@ -4088,7 +4090,7 @@
       <c r="S66" s="27"/>
       <c r="T66" s="27"/>
     </row>
-    <row r="67" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A67" s="17" t="s">
         <v>178</v>
       </c>
@@ -4123,7 +4125,7 @@
       <c r="S67" s="27"/>
       <c r="T67" s="27"/>
     </row>
-    <row r="68" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>180</v>
       </c>
@@ -4156,7 +4158,7 @@
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row r="69" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A69" s="17" t="s">
         <v>182</v>
       </c>
@@ -4191,7 +4193,7 @@
       <c r="S69" s="27"/>
       <c r="T69" s="27"/>
     </row>
-    <row r="70" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>184</v>
       </c>
@@ -4215,7 +4217,7 @@
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
-    <row r="71" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A71" s="17" t="s">
         <v>186</v>
       </c>
@@ -4239,7 +4241,7 @@
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
-    <row r="72" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>188</v>
       </c>
@@ -4263,7 +4265,7 @@
       <c r="S72" s="27"/>
       <c r="T72" s="27"/>
     </row>
-    <row r="73" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>190</v>
       </c>
@@ -4287,7 +4289,7 @@
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
-    <row r="74" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A74" s="17" t="s">
         <v>192</v>
       </c>
@@ -4320,7 +4322,7 @@
       <c r="S74" s="27"/>
       <c r="T74" s="27"/>
     </row>
-    <row r="75" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A75" s="17" t="s">
         <v>193</v>
       </c>
@@ -4355,7 +4357,7 @@
       <c r="S75" s="27"/>
       <c r="T75" s="27"/>
     </row>
-    <row r="76" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>195</v>
       </c>
@@ -4390,7 +4392,7 @@
       <c r="S76" s="27"/>
       <c r="T76" s="27"/>
     </row>
-    <row r="77" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>197</v>
       </c>
@@ -4423,7 +4425,7 @@
       <c r="S77" s="27"/>
       <c r="T77" s="27"/>
     </row>
-    <row r="78" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A78" s="17" t="s">
         <v>199</v>
       </c>
@@ -4458,7 +4460,7 @@
       <c r="S78" s="27"/>
       <c r="T78" s="27"/>
     </row>
-    <row r="79" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>201</v>
       </c>
@@ -4485,7 +4487,7 @@
       <c r="S79" s="27"/>
       <c r="T79" s="27"/>
     </row>
-    <row r="80" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A80" s="17" t="s">
         <v>203</v>
       </c>
@@ -4518,7 +4520,7 @@
       <c r="S80" s="27"/>
       <c r="T80" s="27"/>
     </row>
-    <row r="81" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A81" s="17" t="s">
         <v>204</v>
       </c>
@@ -4542,7 +4544,7 @@
       <c r="S81" s="27"/>
       <c r="T81" s="27"/>
     </row>
-    <row r="82" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" s="25" customFormat="1" ht="13" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>206</v>
       </c>
@@ -4566,7 +4568,7 @@
       <c r="S82" s="27"/>
       <c r="T82" s="27"/>
     </row>
-    <row r="83" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="13" customHeight="1">
       <c r="A83" s="29"/>
       <c r="B83" s="25"/>
       <c r="C83" s="28"/>
@@ -4588,7 +4590,7 @@
       <c r="S83" s="32"/>
       <c r="T83" s="32"/>
     </row>
-    <row r="84" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="13" customHeight="1">
       <c r="A84" s="29"/>
       <c r="B84" s="25"/>
       <c r="C84" s="28"/>
@@ -4610,7 +4612,7 @@
       <c r="S84" s="35"/>
       <c r="T84" s="35"/>
     </row>
-    <row r="85" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="13" customHeight="1">
       <c r="A85" s="29"/>
       <c r="B85" s="25"/>
       <c r="C85" s="28"/>
@@ -4632,7 +4634,7 @@
       <c r="S85" s="35"/>
       <c r="T85" s="35"/>
     </row>
-    <row r="86" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="13" customHeight="1">
       <c r="A86" s="29"/>
       <c r="B86" s="25"/>
       <c r="C86" s="28"/>
@@ -4654,7 +4656,7 @@
       <c r="S86" s="35"/>
       <c r="T86" s="35"/>
     </row>
-    <row r="87" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="13" customHeight="1">
       <c r="A87" s="29"/>
       <c r="B87" s="25"/>
       <c r="C87" s="28"/>
@@ -4676,7 +4678,7 @@
       <c r="S87" s="35"/>
       <c r="T87" s="35"/>
     </row>
-    <row r="88" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" ht="13" customHeight="1">
       <c r="A88" s="29"/>
       <c r="B88" s="25"/>
       <c r="C88" s="28"/>
@@ -4698,7 +4700,7 @@
       <c r="S88" s="35"/>
       <c r="T88" s="35"/>
     </row>
-    <row r="89" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="13" customHeight="1">
       <c r="A89" s="29"/>
       <c r="B89" s="25"/>
       <c r="C89" s="28"/>
@@ -4720,7 +4722,7 @@
       <c r="S89" s="35"/>
       <c r="T89" s="35"/>
     </row>
-    <row r="90" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="13" customHeight="1">
       <c r="A90" s="29"/>
       <c r="B90" s="25"/>
       <c r="C90" s="28"/>
@@ -4742,7 +4744,7 @@
       <c r="S90" s="35"/>
       <c r="T90" s="35"/>
     </row>
-    <row r="91" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="13" customHeight="1">
       <c r="A91" s="29"/>
       <c r="B91" s="25"/>
       <c r="C91" s="28"/>
@@ -4764,7 +4766,7 @@
       <c r="S91" s="35"/>
       <c r="T91" s="35"/>
     </row>
-    <row r="92" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="13" customHeight="1">
       <c r="A92" s="29"/>
       <c r="B92" s="25"/>
       <c r="C92" s="28"/>
@@ -4786,7 +4788,7 @@
       <c r="S92" s="35"/>
       <c r="T92" s="35"/>
     </row>
-    <row r="93" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" ht="13" customHeight="1">
       <c r="A93" s="29"/>
       <c r="B93" s="25"/>
       <c r="C93" s="28"/>
@@ -4808,7 +4810,7 @@
       <c r="S93" s="35"/>
       <c r="T93" s="35"/>
     </row>
-    <row r="94" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="13" customHeight="1">
       <c r="A94" s="29"/>
       <c r="B94" s="25"/>
       <c r="C94" s="28"/>
@@ -4830,7 +4832,7 @@
       <c r="S94" s="35"/>
       <c r="T94" s="35"/>
     </row>
-    <row r="95" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="13" customHeight="1">
       <c r="A95" s="29"/>
       <c r="B95" s="25"/>
       <c r="C95" s="28"/>
@@ -4852,7 +4854,7 @@
       <c r="S95" s="35"/>
       <c r="T95" s="35"/>
     </row>
-    <row r="96" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="13" customHeight="1">
       <c r="A96" s="29"/>
       <c r="B96" s="25"/>
       <c r="C96" s="28"/>
@@ -4874,7 +4876,7 @@
       <c r="S96" s="35"/>
       <c r="T96" s="35"/>
     </row>
-    <row r="97" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="13" customHeight="1">
       <c r="A97" s="29"/>
       <c r="B97" s="25"/>
       <c r="C97" s="28"/>
@@ -4896,7 +4898,7 @@
       <c r="S97" s="35"/>
       <c r="T97" s="35"/>
     </row>
-    <row r="98" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="13" customHeight="1">
       <c r="A98" s="29"/>
       <c r="B98" s="25"/>
       <c r="C98" s="28"/>
@@ -4918,7 +4920,7 @@
       <c r="S98" s="35"/>
       <c r="T98" s="35"/>
     </row>
-    <row r="99" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="13" customHeight="1">
       <c r="A99" s="29"/>
       <c r="B99" s="25"/>
       <c r="C99" s="28"/>
@@ -4940,7 +4942,7 @@
       <c r="S99" s="35"/>
       <c r="T99" s="35"/>
     </row>
-    <row r="100" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="13" customHeight="1">
       <c r="A100" s="29"/>
       <c r="B100" s="25"/>
       <c r="C100" s="28"/>
@@ -4962,7 +4964,7 @@
       <c r="S100" s="35"/>
       <c r="T100" s="35"/>
     </row>
-    <row r="101" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="13" customHeight="1">
       <c r="A101" s="29"/>
       <c r="B101" s="25"/>
       <c r="C101" s="28"/>
@@ -4984,7 +4986,7 @@
       <c r="S101" s="35"/>
       <c r="T101" s="35"/>
     </row>
-    <row r="102" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="13" customHeight="1">
       <c r="A102" s="29"/>
       <c r="B102" s="25"/>
       <c r="C102" s="28"/>
@@ -5006,7 +5008,7 @@
       <c r="S102" s="35"/>
       <c r="T102" s="35"/>
     </row>
-    <row r="103" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="13" customHeight="1">
       <c r="A103" s="29"/>
       <c r="B103" s="25"/>
       <c r="C103" s="28"/>
@@ -5028,7 +5030,7 @@
       <c r="S103" s="35"/>
       <c r="T103" s="35"/>
     </row>
-    <row r="104" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="13" customHeight="1">
       <c r="A104" s="29"/>
       <c r="B104" s="25"/>
       <c r="C104" s="28"/>
@@ -5050,7 +5052,7 @@
       <c r="S104" s="35"/>
       <c r="T104" s="35"/>
     </row>
-    <row r="105" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="13" customHeight="1">
       <c r="A105" s="29"/>
       <c r="B105" s="25"/>
       <c r="C105" s="28"/>
@@ -5072,7 +5074,7 @@
       <c r="S105" s="35"/>
       <c r="T105" s="35"/>
     </row>
-    <row r="106" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="13" customHeight="1">
       <c r="A106" s="37"/>
       <c r="B106" s="25"/>
       <c r="C106" s="28"/>
@@ -5094,7 +5096,7 @@
       <c r="S106" s="35"/>
       <c r="T106" s="35"/>
     </row>
-    <row r="107" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="13" customHeight="1">
       <c r="A107" s="29"/>
       <c r="B107" s="25"/>
       <c r="C107" s="28"/>
@@ -5116,7 +5118,7 @@
       <c r="S107" s="35"/>
       <c r="T107" s="35"/>
     </row>
-    <row r="108" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="13" customHeight="1">
       <c r="A108" s="29"/>
       <c r="B108" s="25"/>
       <c r="C108" s="28"/>
@@ -5138,7 +5140,7 @@
       <c r="S108" s="35"/>
       <c r="T108" s="35"/>
     </row>
-    <row r="109" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="13" customHeight="1">
       <c r="A109" s="29"/>
       <c r="B109" s="25"/>
       <c r="C109" s="28"/>
@@ -5160,7 +5162,7 @@
       <c r="S109" s="35"/>
       <c r="T109" s="35"/>
     </row>
-    <row r="110" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="13" customHeight="1">
       <c r="A110" s="29"/>
       <c r="B110" s="25"/>
       <c r="C110" s="28"/>
@@ -5182,7 +5184,7 @@
       <c r="S110" s="35"/>
       <c r="T110" s="35"/>
     </row>
-    <row r="111" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="13" customHeight="1">
       <c r="A111" s="29"/>
       <c r="B111" s="25"/>
       <c r="C111" s="28"/>
@@ -5204,7 +5206,7 @@
       <c r="S111" s="35"/>
       <c r="T111" s="35"/>
     </row>
-    <row r="112" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="13" customHeight="1">
       <c r="A112" s="29"/>
       <c r="B112" s="25"/>
       <c r="C112" s="28"/>
@@ -5226,7 +5228,7 @@
       <c r="S112" s="35"/>
       <c r="T112" s="35"/>
     </row>
-    <row r="113" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="13" customHeight="1">
       <c r="A113" s="29"/>
       <c r="B113" s="25"/>
       <c r="C113" s="28"/>
@@ -5248,7 +5250,7 @@
       <c r="S113" s="35"/>
       <c r="T113" s="35"/>
     </row>
-    <row r="114" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="13" customHeight="1">
       <c r="A114" s="29"/>
       <c r="B114" s="25"/>
       <c r="C114" s="28"/>
@@ -5270,7 +5272,7 @@
       <c r="S114" s="35"/>
       <c r="T114" s="35"/>
     </row>
-    <row r="115" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="13" customHeight="1">
       <c r="A115" s="29"/>
       <c r="B115" s="25"/>
       <c r="C115" s="28"/>
@@ -5292,7 +5294,7 @@
       <c r="S115" s="35"/>
       <c r="T115" s="35"/>
     </row>
-    <row r="116" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="13" customHeight="1">
       <c r="A116" s="29"/>
       <c r="B116" s="25"/>
       <c r="C116" s="28"/>
@@ -5314,7 +5316,7 @@
       <c r="S116" s="35"/>
       <c r="T116" s="35"/>
     </row>
-    <row r="117" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="13" customHeight="1">
       <c r="A117" s="29"/>
       <c r="B117" s="25"/>
       <c r="C117" s="28"/>
@@ -5336,7 +5338,7 @@
       <c r="S117" s="35"/>
       <c r="T117" s="35"/>
     </row>
-    <row r="118" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="13" customHeight="1">
       <c r="A118" s="29"/>
       <c r="B118" s="25"/>
       <c r="C118" s="28"/>
@@ -5358,7 +5360,7 @@
       <c r="S118" s="35"/>
       <c r="T118" s="35"/>
     </row>
-    <row r="119" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="13" customHeight="1">
       <c r="A119" s="29"/>
       <c r="B119" s="25"/>
       <c r="C119" s="28"/>
@@ -5380,7 +5382,7 @@
       <c r="S119" s="35"/>
       <c r="T119" s="35"/>
     </row>
-    <row r="120" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="13" customHeight="1">
       <c r="A120" s="29"/>
       <c r="B120" s="25"/>
       <c r="C120" s="28"/>
@@ -5402,7 +5404,7 @@
       <c r="S120" s="35"/>
       <c r="T120" s="35"/>
     </row>
-    <row r="121" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="13" customHeight="1">
       <c r="A121" s="29"/>
       <c r="B121" s="25"/>
       <c r="C121" s="28"/>
@@ -5424,7 +5426,7 @@
       <c r="S121" s="35"/>
       <c r="T121" s="35"/>
     </row>
-    <row r="122" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="13" customHeight="1">
       <c r="A122" s="29"/>
       <c r="B122" s="25"/>
       <c r="C122" s="28"/>
@@ -5446,7 +5448,7 @@
       <c r="S122" s="35"/>
       <c r="T122" s="35"/>
     </row>
-    <row r="123" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="13" customHeight="1">
       <c r="A123" s="29"/>
       <c r="B123" s="25"/>
       <c r="C123" s="28"/>
@@ -5468,7 +5470,7 @@
       <c r="S123" s="35"/>
       <c r="T123" s="35"/>
     </row>
-    <row r="124" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="13" customHeight="1">
       <c r="A124" s="29"/>
       <c r="B124" s="25"/>
       <c r="C124" s="28"/>
@@ -5490,7 +5492,7 @@
       <c r="S124" s="35"/>
       <c r="T124" s="35"/>
     </row>
-    <row r="125" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="13" customHeight="1">
       <c r="A125" s="29"/>
       <c r="B125" s="25"/>
       <c r="C125" s="28"/>
@@ -5512,7 +5514,7 @@
       <c r="S125" s="35"/>
       <c r="T125" s="35"/>
     </row>
-    <row r="126" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="13" customHeight="1">
       <c r="A126" s="29"/>
       <c r="B126" s="25"/>
       <c r="C126" s="28"/>
@@ -5534,7 +5536,7 @@
       <c r="S126" s="35"/>
       <c r="T126" s="35"/>
     </row>
-    <row r="127" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="13" customHeight="1">
       <c r="A127" s="29"/>
       <c r="B127" s="25"/>
       <c r="C127" s="28"/>
@@ -5556,7 +5558,7 @@
       <c r="S127" s="35"/>
       <c r="T127" s="35"/>
     </row>
-    <row r="128" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="13" customHeight="1">
       <c r="A128" s="29"/>
       <c r="B128" s="25"/>
       <c r="C128" s="28"/>
@@ -5578,7 +5580,7 @@
       <c r="S128" s="35"/>
       <c r="T128" s="35"/>
     </row>
-    <row r="129" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="13" customHeight="1">
       <c r="A129" s="29"/>
       <c r="B129" s="25"/>
       <c r="C129" s="28"/>
@@ -5600,7 +5602,7 @@
       <c r="S129" s="35"/>
       <c r="T129" s="35"/>
     </row>
-    <row r="130" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="13" customHeight="1">
       <c r="A130" s="29"/>
       <c r="B130" s="25"/>
       <c r="C130" s="28"/>
@@ -5622,7 +5624,7 @@
       <c r="S130" s="35"/>
       <c r="T130" s="35"/>
     </row>
-    <row r="131" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="13" customHeight="1">
       <c r="A131" s="29"/>
       <c r="B131" s="25"/>
       <c r="C131" s="28"/>
@@ -5644,7 +5646,7 @@
       <c r="S131" s="35"/>
       <c r="T131" s="35"/>
     </row>
-    <row r="132" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="13" customHeight="1">
       <c r="A132" s="29"/>
       <c r="B132" s="25"/>
       <c r="C132" s="28"/>
@@ -5666,7 +5668,7 @@
       <c r="S132" s="35"/>
       <c r="T132" s="35"/>
     </row>
-    <row r="133" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="13" customHeight="1">
       <c r="A133" s="29"/>
       <c r="B133" s="25"/>
       <c r="C133" s="28"/>
@@ -5688,7 +5690,7 @@
       <c r="S133" s="35"/>
       <c r="T133" s="35"/>
     </row>
-    <row r="134" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="13" customHeight="1">
       <c r="A134" s="29"/>
       <c r="B134" s="25"/>
       <c r="C134" s="28"/>
@@ -5710,7 +5712,7 @@
       <c r="S134" s="35"/>
       <c r="T134" s="35"/>
     </row>
-    <row r="135" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="13" customHeight="1">
       <c r="A135" s="29"/>
       <c r="B135" s="25"/>
       <c r="C135" s="28"/>
@@ -5732,7 +5734,7 @@
       <c r="S135" s="35"/>
       <c r="T135" s="35"/>
     </row>
-    <row r="136" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="13" customHeight="1">
       <c r="A136" s="29"/>
       <c r="B136" s="25"/>
       <c r="C136" s="28"/>
@@ -5754,7 +5756,7 @@
       <c r="S136" s="35"/>
       <c r="T136" s="35"/>
     </row>
-    <row r="137" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="13" customHeight="1">
       <c r="A137" s="29"/>
       <c r="B137" s="25"/>
       <c r="C137" s="28"/>
@@ -5776,7 +5778,7 @@
       <c r="S137" s="35"/>
       <c r="T137" s="35"/>
     </row>
-    <row r="138" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="13" customHeight="1">
       <c r="A138" s="29"/>
       <c r="B138" s="25"/>
       <c r="C138" s="28"/>
@@ -5798,7 +5800,7 @@
       <c r="S138" s="35"/>
       <c r="T138" s="35"/>
     </row>
-    <row r="139" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="13" customHeight="1">
       <c r="A139" s="29"/>
       <c r="B139" s="25"/>
       <c r="C139" s="28"/>
@@ -5820,7 +5822,7 @@
       <c r="S139" s="35"/>
       <c r="T139" s="35"/>
     </row>
-    <row r="140" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="13" customHeight="1">
       <c r="A140" s="29"/>
       <c r="B140" s="25"/>
       <c r="C140" s="28"/>
@@ -5842,7 +5844,7 @@
       <c r="S140" s="35"/>
       <c r="T140" s="35"/>
     </row>
-    <row r="141" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="13" customHeight="1">
       <c r="A141" s="29"/>
       <c r="B141" s="25"/>
       <c r="C141" s="28"/>
@@ -5864,7 +5866,7 @@
       <c r="S141" s="35"/>
       <c r="T141" s="35"/>
     </row>
-    <row r="142" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="13" customHeight="1">
       <c r="A142" s="29"/>
       <c r="B142" s="25"/>
       <c r="C142" s="28"/>
@@ -5886,7 +5888,7 @@
       <c r="S142" s="35"/>
       <c r="T142" s="35"/>
     </row>
-    <row r="143" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="13" customHeight="1">
       <c r="A143" s="29"/>
       <c r="B143" s="25"/>
       <c r="C143" s="28"/>
@@ -5908,7 +5910,7 @@
       <c r="S143" s="35"/>
       <c r="T143" s="35"/>
     </row>
-    <row r="144" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="13" customHeight="1">
       <c r="A144" s="29"/>
       <c r="B144" s="25"/>
       <c r="C144" s="28"/>
@@ -5930,7 +5932,7 @@
       <c r="S144" s="35"/>
       <c r="T144" s="35"/>
     </row>
-    <row r="145" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="13" customHeight="1">
       <c r="A145" s="29"/>
       <c r="B145" s="25"/>
       <c r="C145" s="28"/>
@@ -5952,7 +5954,7 @@
       <c r="S145" s="35"/>
       <c r="T145" s="35"/>
     </row>
-    <row r="146" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="13" customHeight="1">
       <c r="A146" s="29"/>
       <c r="B146" s="25"/>
       <c r="C146" s="28"/>
@@ -5974,7 +5976,7 @@
       <c r="S146" s="35"/>
       <c r="T146" s="35"/>
     </row>
-    <row r="147" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="13" customHeight="1">
       <c r="A147" s="29"/>
       <c r="B147" s="25"/>
       <c r="C147" s="28"/>
@@ -5996,7 +5998,7 @@
       <c r="S147" s="35"/>
       <c r="T147" s="35"/>
     </row>
-    <row r="148" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" ht="13" customHeight="1">
       <c r="A148" s="29"/>
       <c r="B148" s="25"/>
       <c r="C148" s="28"/>
@@ -6018,7 +6020,7 @@
       <c r="S148" s="35"/>
       <c r="T148" s="35"/>
     </row>
-    <row r="149" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" ht="13" customHeight="1">
       <c r="A149" s="29"/>
       <c r="B149" s="25"/>
       <c r="C149" s="28"/>
@@ -6040,7 +6042,7 @@
       <c r="S149" s="35"/>
       <c r="T149" s="35"/>
     </row>
-    <row r="150" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="13" customHeight="1">
       <c r="A150" s="29"/>
       <c r="B150" s="25"/>
       <c r="C150" s="28"/>
@@ -6062,7 +6064,7 @@
       <c r="S150" s="35"/>
       <c r="T150" s="35"/>
     </row>
-    <row r="151" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" ht="13" customHeight="1">
       <c r="A151" s="29"/>
       <c r="B151" s="25"/>
       <c r="C151" s="28"/>
@@ -6084,7 +6086,7 @@
       <c r="S151" s="35"/>
       <c r="T151" s="35"/>
     </row>
-    <row r="152" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" ht="13" customHeight="1">
       <c r="A152" s="29"/>
       <c r="B152" s="25"/>
       <c r="C152" s="28"/>
@@ -6106,7 +6108,7 @@
       <c r="S152" s="35"/>
       <c r="T152" s="35"/>
     </row>
-    <row r="153" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" ht="13" customHeight="1">
       <c r="A153" s="29"/>
       <c r="B153" s="25"/>
       <c r="C153" s="28"/>
@@ -6128,7 +6130,7 @@
       <c r="S153" s="35"/>
       <c r="T153" s="35"/>
     </row>
-    <row r="154" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" ht="13" customHeight="1">
       <c r="A154" s="29"/>
       <c r="B154" s="25"/>
       <c r="C154" s="28"/>
@@ -6150,7 +6152,7 @@
       <c r="S154" s="35"/>
       <c r="T154" s="35"/>
     </row>
-    <row r="155" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" ht="13" customHeight="1">
       <c r="A155" s="29"/>
       <c r="B155" s="25"/>
       <c r="C155" s="28"/>
@@ -6172,7 +6174,7 @@
       <c r="S155" s="35"/>
       <c r="T155" s="35"/>
     </row>
-    <row r="156" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" ht="13" customHeight="1">
       <c r="A156" s="29"/>
       <c r="B156" s="25"/>
       <c r="C156" s="28"/>
@@ -6194,7 +6196,7 @@
       <c r="S156" s="35"/>
       <c r="T156" s="35"/>
     </row>
-    <row r="157" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" ht="13" customHeight="1">
       <c r="A157" s="29"/>
       <c r="B157" s="25"/>
       <c r="C157" s="28"/>
@@ -6216,7 +6218,7 @@
       <c r="S157" s="35"/>
       <c r="T157" s="35"/>
     </row>
-    <row r="158" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" ht="13" customHeight="1">
       <c r="A158" s="29"/>
       <c r="B158" s="25"/>
       <c r="C158" s="28"/>
@@ -6238,7 +6240,7 @@
       <c r="S158" s="35"/>
       <c r="T158" s="35"/>
     </row>
-    <row r="159" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="13" customHeight="1">
       <c r="A159" s="29"/>
       <c r="B159" s="25"/>
       <c r="C159" s="28"/>
@@ -6260,7 +6262,7 @@
       <c r="S159" s="35"/>
       <c r="T159" s="35"/>
     </row>
-    <row r="160" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" ht="13" customHeight="1">
       <c r="A160" s="29"/>
       <c r="B160" s="25"/>
       <c r="C160" s="28"/>
@@ -6282,7 +6284,7 @@
       <c r="S160" s="35"/>
       <c r="T160" s="35"/>
     </row>
-    <row r="161" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" ht="13" customHeight="1">
       <c r="A161" s="29"/>
       <c r="B161" s="25"/>
       <c r="C161" s="28"/>
@@ -6304,7 +6306,7 @@
       <c r="S161" s="35"/>
       <c r="T161" s="35"/>
     </row>
-    <row r="162" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" ht="13" customHeight="1">
       <c r="A162" s="29"/>
       <c r="B162" s="25"/>
       <c r="C162" s="28"/>
@@ -6326,7 +6328,7 @@
       <c r="S162" s="35"/>
       <c r="T162" s="35"/>
     </row>
-    <row r="163" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" ht="13" customHeight="1">
       <c r="A163" s="29"/>
       <c r="B163" s="25"/>
       <c r="C163" s="28"/>
@@ -6348,7 +6350,7 @@
       <c r="S163" s="35"/>
       <c r="T163" s="35"/>
     </row>
-    <row r="164" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="13" customHeight="1">
       <c r="A164" s="29"/>
       <c r="B164" s="25"/>
       <c r="C164" s="28"/>
@@ -6370,7 +6372,7 @@
       <c r="S164" s="35"/>
       <c r="T164" s="35"/>
     </row>
-    <row r="165" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" ht="13" customHeight="1">
       <c r="A165" s="29"/>
       <c r="B165" s="25"/>
       <c r="C165" s="28"/>
@@ -6392,7 +6394,7 @@
       <c r="S165" s="35"/>
       <c r="T165" s="35"/>
     </row>
-    <row r="166" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" ht="13" customHeight="1">
       <c r="A166" s="29"/>
       <c r="B166" s="25"/>
       <c r="C166" s="28"/>
@@ -6414,7 +6416,7 @@
       <c r="S166" s="35"/>
       <c r="T166" s="35"/>
     </row>
-    <row r="167" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" ht="13" customHeight="1">
       <c r="A167" s="29"/>
       <c r="B167" s="25"/>
       <c r="C167" s="28"/>
@@ -6436,7 +6438,7 @@
       <c r="S167" s="35"/>
       <c r="T167" s="35"/>
     </row>
-    <row r="168" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" ht="13" customHeight="1">
       <c r="A168" s="29"/>
       <c r="B168" s="25"/>
       <c r="C168" s="28"/>
@@ -6458,7 +6460,7 @@
       <c r="S168" s="35"/>
       <c r="T168" s="35"/>
     </row>
-    <row r="169" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" ht="13" customHeight="1">
       <c r="A169" s="29"/>
       <c r="B169" s="25"/>
       <c r="C169" s="28"/>
@@ -6480,7 +6482,7 @@
       <c r="S169" s="35"/>
       <c r="T169" s="35"/>
     </row>
-    <row r="170" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" ht="13" customHeight="1">
       <c r="A170" s="29"/>
       <c r="B170" s="25"/>
       <c r="C170" s="28"/>
@@ -6502,7 +6504,7 @@
       <c r="S170" s="35"/>
       <c r="T170" s="35"/>
     </row>
-    <row r="171" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" ht="13" customHeight="1">
       <c r="A171" s="29"/>
       <c r="B171" s="25"/>
       <c r="C171" s="28"/>
@@ -6524,7 +6526,7 @@
       <c r="S171" s="35"/>
       <c r="T171" s="35"/>
     </row>
-    <row r="172" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" ht="13" customHeight="1">
       <c r="A172" s="29"/>
       <c r="B172" s="25"/>
       <c r="C172" s="28"/>
@@ -6546,7 +6548,7 @@
       <c r="S172" s="35"/>
       <c r="T172" s="35"/>
     </row>
-    <row r="173" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" ht="13" customHeight="1">
       <c r="A173" s="29"/>
       <c r="B173" s="25"/>
       <c r="C173" s="28"/>
@@ -6568,7 +6570,7 @@
       <c r="S173" s="35"/>
       <c r="T173" s="35"/>
     </row>
-    <row r="174" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" ht="13" customHeight="1">
       <c r="A174" s="29"/>
       <c r="B174" s="25"/>
       <c r="C174" s="28"/>
@@ -6590,7 +6592,7 @@
       <c r="S174" s="35"/>
       <c r="T174" s="35"/>
     </row>
-    <row r="175" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" ht="13" customHeight="1">
       <c r="A175" s="29"/>
       <c r="B175" s="25"/>
       <c r="C175" s="28"/>
@@ -6612,7 +6614,7 @@
       <c r="S175" s="35"/>
       <c r="T175" s="35"/>
     </row>
-    <row r="176" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" ht="13" customHeight="1">
       <c r="A176" s="29"/>
       <c r="B176" s="25"/>
       <c r="C176" s="28"/>
@@ -6634,7 +6636,7 @@
       <c r="S176" s="35"/>
       <c r="T176" s="35"/>
     </row>
-    <row r="177" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" ht="13" customHeight="1">
       <c r="A177" s="29"/>
       <c r="B177" s="25"/>
       <c r="C177" s="28"/>
@@ -6656,7 +6658,7 @@
       <c r="S177" s="35"/>
       <c r="T177" s="35"/>
     </row>
-    <row r="178" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" ht="13" customHeight="1">
       <c r="A178" s="29"/>
       <c r="B178" s="25"/>
       <c r="C178" s="28"/>
@@ -6678,7 +6680,7 @@
       <c r="S178" s="35"/>
       <c r="T178" s="35"/>
     </row>
-    <row r="179" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" ht="13" customHeight="1">
       <c r="A179" s="29"/>
       <c r="B179" s="25"/>
       <c r="C179" s="28"/>
@@ -6700,7 +6702,7 @@
       <c r="S179" s="35"/>
       <c r="T179" s="35"/>
     </row>
-    <row r="180" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" ht="13" customHeight="1">
       <c r="A180" s="29"/>
       <c r="B180" s="25"/>
       <c r="C180" s="28"/>
@@ -6722,7 +6724,7 @@
       <c r="S180" s="35"/>
       <c r="T180" s="35"/>
     </row>
-    <row r="181" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" ht="13" customHeight="1">
       <c r="A181" s="29"/>
       <c r="B181" s="25"/>
       <c r="C181" s="28"/>
@@ -6744,7 +6746,7 @@
       <c r="S181" s="35"/>
       <c r="T181" s="35"/>
     </row>
-    <row r="182" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" ht="13" customHeight="1">
       <c r="A182" s="29"/>
       <c r="B182" s="25"/>
       <c r="C182" s="28"/>
@@ -6766,7 +6768,7 @@
       <c r="S182" s="35"/>
       <c r="T182" s="35"/>
     </row>
-    <row r="183" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" ht="13" customHeight="1">
       <c r="A183" s="29"/>
       <c r="B183" s="25"/>
       <c r="C183" s="28"/>
@@ -6788,7 +6790,7 @@
       <c r="S183" s="35"/>
       <c r="T183" s="35"/>
     </row>
-    <row r="184" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" ht="13" customHeight="1">
       <c r="A184" s="29"/>
       <c r="B184" s="25"/>
       <c r="C184" s="28"/>
@@ -6810,7 +6812,7 @@
       <c r="S184" s="35"/>
       <c r="T184" s="35"/>
     </row>
-    <row r="185" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" ht="13" customHeight="1">
       <c r="A185" s="29"/>
       <c r="B185" s="25"/>
       <c r="C185" s="28"/>
@@ -6832,7 +6834,7 @@
       <c r="S185" s="35"/>
       <c r="T185" s="35"/>
     </row>
-    <row r="186" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" ht="13" customHeight="1">
       <c r="A186" s="29"/>
       <c r="B186" s="25"/>
       <c r="C186" s="28"/>
@@ -6854,7 +6856,7 @@
       <c r="S186" s="35"/>
       <c r="T186" s="35"/>
     </row>
-    <row r="187" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" ht="13" customHeight="1">
       <c r="A187" s="29"/>
       <c r="B187" s="25"/>
       <c r="C187" s="28"/>
@@ -6876,7 +6878,7 @@
       <c r="S187" s="35"/>
       <c r="T187" s="35"/>
     </row>
-    <row r="188" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" ht="13" customHeight="1">
       <c r="A188" s="29"/>
       <c r="B188" s="25"/>
       <c r="C188" s="28"/>
@@ -6898,7 +6900,7 @@
       <c r="S188" s="35"/>
       <c r="T188" s="35"/>
     </row>
-    <row r="189" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" ht="13" customHeight="1">
       <c r="A189" s="29"/>
       <c r="B189" s="25"/>
       <c r="C189" s="28"/>
@@ -6920,7 +6922,7 @@
       <c r="S189" s="35"/>
       <c r="T189" s="35"/>
     </row>
-    <row r="190" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" ht="13" customHeight="1">
       <c r="A190" s="29"/>
       <c r="B190" s="25"/>
       <c r="C190" s="28"/>
@@ -6942,7 +6944,7 @@
       <c r="S190" s="35"/>
       <c r="T190" s="35"/>
     </row>
-    <row r="191" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" ht="13" customHeight="1">
       <c r="A191" s="29"/>
       <c r="B191" s="25"/>
       <c r="C191" s="28"/>
@@ -6964,7 +6966,7 @@
       <c r="S191" s="35"/>
       <c r="T191" s="35"/>
     </row>
-    <row r="192" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" ht="13" customHeight="1">
       <c r="A192" s="29"/>
       <c r="B192" s="25"/>
       <c r="C192" s="28"/>
@@ -6986,7 +6988,7 @@
       <c r="S192" s="35"/>
       <c r="T192" s="35"/>
     </row>
-    <row r="193" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" ht="13" customHeight="1">
       <c r="A193" s="29"/>
       <c r="B193" s="25"/>
       <c r="C193" s="28"/>
@@ -7008,7 +7010,7 @@
       <c r="S193" s="35"/>
       <c r="T193" s="35"/>
     </row>
-    <row r="194" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" ht="13" customHeight="1">
       <c r="A194" s="29"/>
       <c r="B194" s="25"/>
       <c r="C194" s="28"/>
@@ -7030,7 +7032,7 @@
       <c r="S194" s="35"/>
       <c r="T194" s="35"/>
     </row>
-    <row r="195" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" ht="13" customHeight="1">
       <c r="A195" s="29"/>
       <c r="B195" s="25"/>
       <c r="C195" s="28"/>
@@ -7052,7 +7054,7 @@
       <c r="S195" s="35"/>
       <c r="T195" s="35"/>
     </row>
-    <row r="196" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" ht="13" customHeight="1">
       <c r="A196" s="29"/>
       <c r="B196" s="25"/>
       <c r="C196" s="28"/>
@@ -7074,7 +7076,7 @@
       <c r="S196" s="35"/>
       <c r="T196" s="35"/>
     </row>
-    <row r="197" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" ht="13" customHeight="1">
       <c r="A197" s="29"/>
       <c r="B197" s="25"/>
       <c r="C197" s="28"/>
@@ -7096,7 +7098,7 @@
       <c r="S197" s="35"/>
       <c r="T197" s="35"/>
     </row>
-    <row r="198" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" ht="13" customHeight="1">
       <c r="A198" s="29"/>
       <c r="B198" s="25"/>
       <c r="C198" s="28"/>
@@ -7118,7 +7120,7 @@
       <c r="S198" s="35"/>
       <c r="T198" s="35"/>
     </row>
-    <row r="199" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" ht="13" customHeight="1">
       <c r="A199" s="29"/>
       <c r="B199" s="25"/>
       <c r="C199" s="28"/>
@@ -7140,7 +7142,7 @@
       <c r="S199" s="35"/>
       <c r="T199" s="35"/>
     </row>
-    <row r="200" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" ht="13" customHeight="1">
       <c r="A200" s="29"/>
       <c r="B200" s="25"/>
       <c r="C200" s="28"/>
@@ -7162,7 +7164,7 @@
       <c r="S200" s="35"/>
       <c r="T200" s="35"/>
     </row>
-    <row r="201" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" ht="13" customHeight="1">
       <c r="A201" s="29"/>
       <c r="B201" s="25"/>
       <c r="C201" s="28"/>
@@ -7184,7 +7186,7 @@
       <c r="S201" s="35"/>
       <c r="T201" s="35"/>
     </row>
-    <row r="202" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" ht="13" customHeight="1">
       <c r="A202" s="29"/>
       <c r="B202" s="25"/>
       <c r="C202" s="28"/>
@@ -7206,7 +7208,7 @@
       <c r="S202" s="35"/>
       <c r="T202" s="35"/>
     </row>
-    <row r="203" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" ht="13" customHeight="1">
       <c r="A203" s="29"/>
       <c r="B203" s="25"/>
       <c r="C203" s="28"/>
@@ -7228,7 +7230,7 @@
       <c r="S203" s="35"/>
       <c r="T203" s="35"/>
     </row>
-    <row r="204" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" ht="13" customHeight="1">
       <c r="A204" s="29"/>
       <c r="B204" s="25"/>
       <c r="C204" s="28"/>
@@ -7250,7 +7252,7 @@
       <c r="S204" s="35"/>
       <c r="T204" s="35"/>
     </row>
-    <row r="205" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" ht="13" customHeight="1">
       <c r="A205" s="29"/>
       <c r="B205" s="25"/>
       <c r="C205" s="28"/>
@@ -7272,7 +7274,7 @@
       <c r="S205" s="35"/>
       <c r="T205" s="35"/>
     </row>
-    <row r="206" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" ht="13" customHeight="1">
       <c r="A206" s="29"/>
       <c r="B206" s="25"/>
       <c r="C206" s="28"/>
@@ -7294,7 +7296,7 @@
       <c r="S206" s="35"/>
       <c r="T206" s="35"/>
     </row>
-    <row r="207" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" ht="13" customHeight="1">
       <c r="A207" s="29"/>
       <c r="B207" s="25"/>
       <c r="C207" s="28"/>
@@ -7316,7 +7318,7 @@
       <c r="S207" s="35"/>
       <c r="T207" s="35"/>
     </row>
-    <row r="208" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" ht="13" customHeight="1">
       <c r="A208" s="29"/>
       <c r="B208" s="25"/>
       <c r="C208" s="28"/>
@@ -7338,7 +7340,7 @@
       <c r="S208" s="35"/>
       <c r="T208" s="35"/>
     </row>
-    <row r="209" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" ht="13" customHeight="1">
       <c r="A209" s="29"/>
       <c r="B209" s="25"/>
       <c r="C209" s="28"/>
@@ -7360,7 +7362,7 @@
       <c r="S209" s="35"/>
       <c r="T209" s="35"/>
     </row>
-    <row r="210" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" ht="13" customHeight="1">
       <c r="A210" s="29"/>
       <c r="B210" s="25"/>
       <c r="C210" s="28"/>
@@ -7382,7 +7384,7 @@
       <c r="S210" s="35"/>
       <c r="T210" s="35"/>
     </row>
-    <row r="211" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" ht="13" customHeight="1">
       <c r="A211" s="29"/>
       <c r="B211" s="25"/>
       <c r="C211" s="28"/>
@@ -7404,7 +7406,7 @@
       <c r="S211" s="35"/>
       <c r="T211" s="35"/>
     </row>
-    <row r="212" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" ht="13" customHeight="1">
       <c r="A212" s="29"/>
       <c r="B212" s="25"/>
       <c r="C212" s="28"/>
@@ -7426,7 +7428,7 @@
       <c r="S212" s="35"/>
       <c r="T212" s="35"/>
     </row>
-    <row r="213" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" ht="13" customHeight="1">
       <c r="A213" s="29"/>
       <c r="B213" s="25"/>
       <c r="C213" s="28"/>
@@ -7448,7 +7450,7 @@
       <c r="S213" s="35"/>
       <c r="T213" s="35"/>
     </row>
-    <row r="214" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" ht="13" customHeight="1">
       <c r="A214" s="29"/>
       <c r="B214" s="25"/>
       <c r="C214" s="28"/>
@@ -7470,7 +7472,7 @@
       <c r="S214" s="35"/>
       <c r="T214" s="35"/>
     </row>
-    <row r="215" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" ht="13" customHeight="1">
       <c r="A215" s="29"/>
       <c r="B215" s="25"/>
       <c r="C215" s="28"/>
@@ -7492,7 +7494,7 @@
       <c r="S215" s="35"/>
       <c r="T215" s="35"/>
     </row>
-    <row r="216" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" ht="13" customHeight="1">
       <c r="A216" s="29"/>
       <c r="B216" s="25"/>
       <c r="C216" s="28"/>
@@ -7514,7 +7516,7 @@
       <c r="S216" s="35"/>
       <c r="T216" s="35"/>
     </row>
-    <row r="217" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" ht="13" customHeight="1">
       <c r="A217" s="29"/>
       <c r="B217" s="25"/>
       <c r="C217" s="28"/>
@@ -7536,7 +7538,7 @@
       <c r="S217" s="35"/>
       <c r="T217" s="35"/>
     </row>
-    <row r="218" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" ht="13" customHeight="1">
       <c r="A218" s="29"/>
       <c r="B218" s="25"/>
       <c r="C218" s="28"/>
@@ -7558,7 +7560,7 @@
       <c r="S218" s="35"/>
       <c r="T218" s="35"/>
     </row>
-    <row r="219" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" ht="13" customHeight="1">
       <c r="A219" s="29"/>
       <c r="B219" s="25"/>
       <c r="C219" s="28"/>
@@ -7580,7 +7582,7 @@
       <c r="S219" s="35"/>
       <c r="T219" s="35"/>
     </row>
-    <row r="220" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" ht="13" customHeight="1">
       <c r="A220" s="29"/>
       <c r="B220" s="25"/>
       <c r="C220" s="28"/>
@@ -7602,7 +7604,7 @@
       <c r="S220" s="35"/>
       <c r="T220" s="35"/>
     </row>
-    <row r="221" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" ht="13" customHeight="1">
       <c r="A221" s="29"/>
       <c r="B221" s="25"/>
       <c r="C221" s="28"/>
@@ -7624,7 +7626,7 @@
       <c r="S221" s="35"/>
       <c r="T221" s="35"/>
     </row>
-    <row r="222" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" ht="13" customHeight="1">
       <c r="A222" s="29"/>
       <c r="B222" s="25"/>
       <c r="C222" s="28"/>
@@ -7646,7 +7648,7 @@
       <c r="S222" s="35"/>
       <c r="T222" s="35"/>
     </row>
-    <row r="223" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" ht="13" customHeight="1">
       <c r="A223" s="29"/>
       <c r="B223" s="25"/>
       <c r="C223" s="28"/>
@@ -7668,7 +7670,7 @@
       <c r="S223" s="35"/>
       <c r="T223" s="35"/>
     </row>
-    <row r="224" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" ht="13" customHeight="1">
       <c r="A224" s="29"/>
       <c r="B224" s="25"/>
       <c r="C224" s="28"/>
@@ -7690,7 +7692,7 @@
       <c r="S224" s="35"/>
       <c r="T224" s="35"/>
     </row>
-    <row r="225" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" ht="13" customHeight="1">
       <c r="A225" s="29"/>
       <c r="B225" s="25"/>
       <c r="C225" s="28"/>
@@ -7712,7 +7714,7 @@
       <c r="S225" s="35"/>
       <c r="T225" s="35"/>
     </row>
-    <row r="226" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" ht="13" customHeight="1">
       <c r="A226" s="29"/>
       <c r="B226" s="25"/>
       <c r="C226" s="28"/>
@@ -7734,7 +7736,7 @@
       <c r="S226" s="35"/>
       <c r="T226" s="35"/>
     </row>
-    <row r="227" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" ht="13" customHeight="1">
       <c r="A227" s="29"/>
       <c r="B227" s="25"/>
       <c r="C227" s="28"/>
@@ -7756,7 +7758,7 @@
       <c r="S227" s="35"/>
       <c r="T227" s="35"/>
     </row>
-    <row r="228" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" ht="13" customHeight="1">
       <c r="A228" s="29"/>
       <c r="B228" s="25"/>
       <c r="C228" s="28"/>
@@ -7778,7 +7780,7 @@
       <c r="S228" s="35"/>
       <c r="T228" s="35"/>
     </row>
-    <row r="229" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" ht="13" customHeight="1">
       <c r="A229" s="29"/>
       <c r="B229" s="25"/>
       <c r="C229" s="28"/>
@@ -7800,7 +7802,7 @@
       <c r="S229" s="35"/>
       <c r="T229" s="35"/>
     </row>
-    <row r="230" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" ht="13" customHeight="1">
       <c r="A230" s="29"/>
       <c r="B230" s="25"/>
       <c r="C230" s="28"/>
@@ -7822,7 +7824,7 @@
       <c r="S230" s="35"/>
       <c r="T230" s="35"/>
     </row>
-    <row r="231" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" ht="13" customHeight="1">
       <c r="A231" s="29"/>
       <c r="B231" s="25"/>
       <c r="C231" s="28"/>
@@ -7844,7 +7846,7 @@
       <c r="S231" s="35"/>
       <c r="T231" s="35"/>
     </row>
-    <row r="232" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" ht="13" customHeight="1">
       <c r="A232" s="29"/>
       <c r="B232" s="25"/>
       <c r="C232" s="28"/>
@@ -7866,7 +7868,7 @@
       <c r="S232" s="35"/>
       <c r="T232" s="35"/>
     </row>
-    <row r="233" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" ht="13" customHeight="1">
       <c r="A233" s="29"/>
       <c r="B233" s="25"/>
       <c r="C233" s="28"/>
@@ -7888,7 +7890,7 @@
       <c r="S233" s="35"/>
       <c r="T233" s="35"/>
     </row>
-    <row r="234" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" ht="13" customHeight="1">
       <c r="A234" s="29"/>
       <c r="B234" s="25"/>
       <c r="C234" s="28"/>
@@ -7910,7 +7912,7 @@
       <c r="S234" s="35"/>
       <c r="T234" s="35"/>
     </row>
-    <row r="235" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" ht="13" customHeight="1">
       <c r="A235" s="29"/>
       <c r="B235" s="25"/>
       <c r="C235" s="28"/>
@@ -7932,7 +7934,7 @@
       <c r="S235" s="35"/>
       <c r="T235" s="35"/>
     </row>
-    <row r="236" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" ht="13" customHeight="1">
       <c r="A236" s="29"/>
       <c r="B236" s="25"/>
       <c r="C236" s="28"/>
@@ -7954,7 +7956,7 @@
       <c r="S236" s="35"/>
       <c r="T236" s="35"/>
     </row>
-    <row r="237" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" ht="13" customHeight="1">
       <c r="A237" s="29"/>
       <c r="B237" s="25"/>
       <c r="C237" s="28"/>
@@ -7976,7 +7978,7 @@
       <c r="S237" s="35"/>
       <c r="T237" s="35"/>
     </row>
-    <row r="238" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" ht="13" customHeight="1">
       <c r="A238" s="29"/>
       <c r="B238" s="25"/>
       <c r="C238" s="28"/>
@@ -7998,7 +8000,7 @@
       <c r="S238" s="35"/>
       <c r="T238" s="35"/>
     </row>
-    <row r="239" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" ht="13" customHeight="1">
       <c r="A239" s="29"/>
       <c r="B239" s="25"/>
       <c r="C239" s="28"/>
@@ -8020,7 +8022,7 @@
       <c r="S239" s="35"/>
       <c r="T239" s="35"/>
     </row>
-    <row r="240" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" ht="13" customHeight="1">
       <c r="A240" s="29"/>
       <c r="B240" s="25"/>
       <c r="C240" s="28"/>
@@ -8042,7 +8044,7 @@
       <c r="S240" s="35"/>
       <c r="T240" s="35"/>
     </row>
-    <row r="241" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" ht="13" customHeight="1">
       <c r="A241" s="29"/>
       <c r="B241" s="25"/>
       <c r="C241" s="28"/>
@@ -8064,7 +8066,7 @@
       <c r="S241" s="35"/>
       <c r="T241" s="35"/>
     </row>
-    <row r="242" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" ht="13" customHeight="1">
       <c r="A242" s="29"/>
       <c r="B242" s="25"/>
       <c r="C242" s="28"/>
@@ -8086,7 +8088,7 @@
       <c r="S242" s="35"/>
       <c r="T242" s="35"/>
     </row>
-    <row r="243" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" ht="13" customHeight="1">
       <c r="A243" s="29"/>
       <c r="B243" s="25"/>
       <c r="C243" s="28"/>
@@ -8108,7 +8110,7 @@
       <c r="S243" s="35"/>
       <c r="T243" s="35"/>
     </row>
-    <row r="244" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" ht="13" customHeight="1">
       <c r="A244" s="29"/>
       <c r="B244" s="25"/>
       <c r="C244" s="28"/>
@@ -8130,7 +8132,7 @@
       <c r="S244" s="35"/>
       <c r="T244" s="35"/>
     </row>
-    <row r="245" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" ht="13" customHeight="1">
       <c r="A245" s="29"/>
       <c r="B245" s="25"/>
       <c r="C245" s="28"/>
@@ -8152,7 +8154,7 @@
       <c r="S245" s="35"/>
       <c r="T245" s="35"/>
     </row>
-    <row r="246" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" ht="13" customHeight="1">
       <c r="A246" s="29"/>
       <c r="B246" s="25"/>
       <c r="C246" s="28"/>
@@ -8174,7 +8176,7 @@
       <c r="S246" s="35"/>
       <c r="T246" s="35"/>
     </row>
-    <row r="247" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" ht="13" customHeight="1">
       <c r="A247" s="29"/>
       <c r="B247" s="25"/>
       <c r="C247" s="28"/>
@@ -8196,7 +8198,7 @@
       <c r="S247" s="35"/>
       <c r="T247" s="35"/>
     </row>
-    <row r="248" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" ht="13" customHeight="1">
       <c r="A248" s="29"/>
       <c r="B248" s="25"/>
       <c r="C248" s="28"/>
@@ -8218,7 +8220,7 @@
       <c r="S248" s="35"/>
       <c r="T248" s="35"/>
     </row>
-    <row r="249" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" ht="13" customHeight="1">
       <c r="A249" s="29"/>
       <c r="B249" s="25"/>
       <c r="C249" s="28"/>
@@ -8240,7 +8242,7 @@
       <c r="S249" s="35"/>
       <c r="T249" s="35"/>
     </row>
-    <row r="250" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" ht="13" customHeight="1">
       <c r="A250" s="29"/>
       <c r="B250" s="25"/>
       <c r="C250" s="28"/>
@@ -8262,7 +8264,7 @@
       <c r="S250" s="35"/>
       <c r="T250" s="35"/>
     </row>
-    <row r="251" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" ht="13" customHeight="1">
       <c r="A251" s="29"/>
       <c r="B251" s="25"/>
       <c r="C251" s="28"/>
@@ -8284,7 +8286,7 @@
       <c r="S251" s="35"/>
       <c r="T251" s="35"/>
     </row>
-    <row r="252" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" ht="13" customHeight="1">
       <c r="A252" s="29"/>
       <c r="B252" s="25"/>
       <c r="C252" s="28"/>
@@ -8306,7 +8308,7 @@
       <c r="S252" s="35"/>
       <c r="T252" s="35"/>
     </row>
-    <row r="253" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" ht="13" customHeight="1">
       <c r="A253" s="29"/>
       <c r="B253" s="25"/>
       <c r="C253" s="28"/>
@@ -8328,7 +8330,7 @@
       <c r="S253" s="35"/>
       <c r="T253" s="35"/>
     </row>
-    <row r="254" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" ht="13" customHeight="1">
       <c r="A254" s="29"/>
       <c r="B254" s="25"/>
       <c r="C254" s="28"/>
@@ -8350,7 +8352,7 @@
       <c r="S254" s="35"/>
       <c r="T254" s="35"/>
     </row>
-    <row r="255" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" ht="13" customHeight="1">
       <c r="A255" s="29"/>
       <c r="B255" s="25"/>
       <c r="C255" s="28"/>
@@ -8372,7 +8374,7 @@
       <c r="S255" s="35"/>
       <c r="T255" s="35"/>
     </row>
-    <row r="256" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" ht="13" customHeight="1">
       <c r="A256" s="29"/>
       <c r="B256" s="25"/>
       <c r="C256" s="28"/>
@@ -8394,7 +8396,7 @@
       <c r="S256" s="35"/>
       <c r="T256" s="35"/>
     </row>
-    <row r="257" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" ht="13" customHeight="1">
       <c r="A257" s="29"/>
       <c r="B257" s="25"/>
       <c r="C257" s="28"/>
@@ -8416,7 +8418,7 @@
       <c r="S257" s="35"/>
       <c r="T257" s="35"/>
     </row>
-    <row r="258" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" ht="13" customHeight="1">
       <c r="A258" s="29"/>
       <c r="B258" s="25"/>
       <c r="C258" s="28"/>
@@ -8438,7 +8440,7 @@
       <c r="S258" s="35"/>
       <c r="T258" s="35"/>
     </row>
-    <row r="259" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" ht="13" customHeight="1">
       <c r="A259" s="29"/>
       <c r="B259" s="25"/>
       <c r="C259" s="28"/>
@@ -8460,7 +8462,7 @@
       <c r="S259" s="35"/>
       <c r="T259" s="35"/>
     </row>
-    <row r="260" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" ht="13" customHeight="1">
       <c r="A260" s="29"/>
       <c r="B260" s="25"/>
       <c r="C260" s="28"/>
@@ -8482,7 +8484,7 @@
       <c r="S260" s="35"/>
       <c r="T260" s="35"/>
     </row>
-    <row r="261" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" ht="13" customHeight="1">
       <c r="A261" s="29"/>
       <c r="B261" s="25"/>
       <c r="C261" s="28"/>
@@ -8504,7 +8506,7 @@
       <c r="S261" s="35"/>
       <c r="T261" s="35"/>
     </row>
-    <row r="262" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" ht="13" customHeight="1">
       <c r="A262" s="29"/>
       <c r="B262" s="25"/>
       <c r="C262" s="28"/>
@@ -8526,7 +8528,7 @@
       <c r="S262" s="35"/>
       <c r="T262" s="35"/>
     </row>
-    <row r="263" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" ht="13" customHeight="1">
       <c r="A263" s="29"/>
       <c r="B263" s="25"/>
       <c r="C263" s="28"/>
@@ -8548,7 +8550,7 @@
       <c r="S263" s="35"/>
       <c r="T263" s="35"/>
     </row>
-    <row r="264" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" ht="13" customHeight="1">
       <c r="A264" s="29"/>
       <c r="B264" s="25"/>
       <c r="C264" s="28"/>
@@ -8570,7 +8572,7 @@
       <c r="S264" s="35"/>
       <c r="T264" s="35"/>
     </row>
-    <row r="265" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" ht="13" customHeight="1">
       <c r="A265" s="29"/>
       <c r="B265" s="25"/>
       <c r="C265" s="28"/>
@@ -8592,7 +8594,7 @@
       <c r="S265" s="35"/>
       <c r="T265" s="35"/>
     </row>
-    <row r="266" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" ht="13" customHeight="1">
       <c r="A266" s="29"/>
       <c r="B266" s="25"/>
       <c r="C266" s="28"/>
@@ -8614,7 +8616,7 @@
       <c r="S266" s="35"/>
       <c r="T266" s="35"/>
     </row>
-    <row r="267" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" ht="13" customHeight="1">
       <c r="A267" s="29"/>
       <c r="B267" s="25"/>
       <c r="C267" s="28"/>
@@ -8636,7 +8638,7 @@
       <c r="S267" s="35"/>
       <c r="T267" s="35"/>
     </row>
-    <row r="268" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" ht="13" customHeight="1">
       <c r="A268" s="29"/>
       <c r="B268" s="25"/>
       <c r="C268" s="28"/>
@@ -8658,7 +8660,7 @@
       <c r="S268" s="35"/>
       <c r="T268" s="35"/>
     </row>
-    <row r="269" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" ht="13" customHeight="1">
       <c r="A269" s="29"/>
       <c r="B269" s="25"/>
       <c r="C269" s="28"/>
@@ -8680,7 +8682,7 @@
       <c r="S269" s="35"/>
       <c r="T269" s="35"/>
     </row>
-    <row r="270" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" ht="13" customHeight="1">
       <c r="A270" s="29"/>
       <c r="B270" s="25"/>
       <c r="C270" s="28"/>
@@ -8702,7 +8704,7 @@
       <c r="S270" s="35"/>
       <c r="T270" s="35"/>
     </row>
-    <row r="271" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" ht="13" customHeight="1">
       <c r="A271" s="29"/>
       <c r="B271" s="25"/>
       <c r="C271" s="28"/>
@@ -8724,7 +8726,7 @@
       <c r="S271" s="35"/>
       <c r="T271" s="35"/>
     </row>
-    <row r="272" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" ht="13" customHeight="1">
       <c r="A272" s="29"/>
       <c r="B272" s="25"/>
       <c r="C272" s="28"/>
@@ -8746,7 +8748,7 @@
       <c r="S272" s="35"/>
       <c r="T272" s="35"/>
     </row>
-    <row r="273" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" ht="13" customHeight="1">
       <c r="A273" s="29"/>
       <c r="B273" s="25"/>
       <c r="C273" s="28"/>
@@ -8768,7 +8770,7 @@
       <c r="S273" s="35"/>
       <c r="T273" s="35"/>
     </row>
-    <row r="274" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" ht="13" customHeight="1">
       <c r="A274" s="29"/>
       <c r="B274" s="25"/>
       <c r="C274" s="28"/>
@@ -8790,7 +8792,7 @@
       <c r="S274" s="35"/>
       <c r="T274" s="35"/>
     </row>
-    <row r="275" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" ht="13" customHeight="1">
       <c r="A275" s="29"/>
       <c r="B275" s="25"/>
       <c r="C275" s="28"/>
@@ -8812,7 +8814,7 @@
       <c r="S275" s="35"/>
       <c r="T275" s="35"/>
     </row>
-    <row r="276" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" ht="13" customHeight="1">
       <c r="A276" s="29"/>
       <c r="B276" s="25"/>
       <c r="C276" s="28"/>
@@ -8834,7 +8836,7 @@
       <c r="S276" s="35"/>
       <c r="T276" s="35"/>
     </row>
-    <row r="277" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" ht="13" customHeight="1">
       <c r="A277" s="29"/>
       <c r="B277" s="25"/>
       <c r="C277" s="28"/>
@@ -8856,7 +8858,7 @@
       <c r="S277" s="35"/>
       <c r="T277" s="35"/>
     </row>
-    <row r="278" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" ht="13" customHeight="1">
       <c r="A278" s="29"/>
       <c r="B278" s="25"/>
       <c r="C278" s="28"/>
@@ -8878,7 +8880,7 @@
       <c r="S278" s="35"/>
       <c r="T278" s="35"/>
     </row>
-    <row r="279" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" ht="13" customHeight="1">
       <c r="A279" s="29"/>
       <c r="B279" s="25"/>
       <c r="C279" s="28"/>
@@ -8900,7 +8902,7 @@
       <c r="S279" s="35"/>
       <c r="T279" s="35"/>
     </row>
-    <row r="280" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" ht="13" customHeight="1">
       <c r="A280" s="29"/>
       <c r="B280" s="25"/>
       <c r="C280" s="28"/>
@@ -8922,7 +8924,7 @@
       <c r="S280" s="35"/>
       <c r="T280" s="35"/>
     </row>
-    <row r="281" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" ht="13" customHeight="1">
       <c r="A281" s="29"/>
       <c r="B281" s="25"/>
       <c r="C281" s="28"/>
@@ -8944,7 +8946,7 @@
       <c r="S281" s="35"/>
       <c r="T281" s="35"/>
     </row>
-    <row r="282" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" ht="13" customHeight="1">
       <c r="A282" s="29"/>
       <c r="B282" s="25"/>
       <c r="C282" s="28"/>
@@ -8966,7 +8968,7 @@
       <c r="S282" s="35"/>
       <c r="T282" s="35"/>
     </row>
-    <row r="283" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" ht="13" customHeight="1">
       <c r="A283" s="29"/>
       <c r="B283" s="25"/>
       <c r="C283" s="28"/>
@@ -8988,7 +8990,7 @@
       <c r="S283" s="35"/>
       <c r="T283" s="35"/>
     </row>
-    <row r="284" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" ht="13" customHeight="1">
       <c r="A284" s="29"/>
       <c r="B284" s="25"/>
       <c r="C284" s="28"/>
@@ -9010,7 +9012,7 @@
       <c r="S284" s="35"/>
       <c r="T284" s="35"/>
     </row>
-    <row r="285" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" ht="13" customHeight="1">
       <c r="A285" s="29"/>
       <c r="B285" s="25"/>
       <c r="C285" s="28"/>
@@ -9032,7 +9034,7 @@
       <c r="S285" s="35"/>
       <c r="T285" s="35"/>
     </row>
-    <row r="286" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" ht="13" customHeight="1">
       <c r="A286" s="29"/>
       <c r="B286" s="25"/>
       <c r="C286" s="28"/>
@@ -9054,7 +9056,7 @@
       <c r="S286" s="35"/>
       <c r="T286" s="35"/>
     </row>
-    <row r="287" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" ht="13" customHeight="1">
       <c r="A287" s="29"/>
       <c r="B287" s="25"/>
       <c r="C287" s="28"/>
@@ -9076,7 +9078,7 @@
       <c r="S287" s="35"/>
       <c r="T287" s="35"/>
     </row>
-    <row r="288" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" ht="13" customHeight="1">
       <c r="A288" s="29"/>
       <c r="B288" s="25"/>
       <c r="C288" s="28"/>
@@ -9098,7 +9100,7 @@
       <c r="S288" s="35"/>
       <c r="T288" s="35"/>
     </row>
-    <row r="289" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" ht="13" customHeight="1">
       <c r="A289" s="29"/>
       <c r="B289" s="25"/>
       <c r="C289" s="28"/>
@@ -9120,7 +9122,7 @@
       <c r="S289" s="35"/>
       <c r="T289" s="35"/>
     </row>
-    <row r="290" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" ht="13" customHeight="1">
       <c r="A290" s="29"/>
       <c r="B290" s="25"/>
       <c r="C290" s="28"/>
@@ -9142,7 +9144,7 @@
       <c r="S290" s="35"/>
       <c r="T290" s="35"/>
     </row>
-    <row r="291" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" ht="13" customHeight="1">
       <c r="A291" s="29"/>
       <c r="B291" s="25"/>
       <c r="C291" s="28"/>
@@ -9164,7 +9166,7 @@
       <c r="S291" s="35"/>
       <c r="T291" s="35"/>
     </row>
-    <row r="292" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" ht="13" customHeight="1">
       <c r="A292" s="29"/>
       <c r="B292" s="25"/>
       <c r="C292" s="28"/>
@@ -9186,7 +9188,7 @@
       <c r="S292" s="35"/>
       <c r="T292" s="35"/>
     </row>
-    <row r="293" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" ht="13" customHeight="1">
       <c r="A293" s="29"/>
       <c r="B293" s="25"/>
       <c r="C293" s="28"/>
@@ -9208,7 +9210,7 @@
       <c r="S293" s="35"/>
       <c r="T293" s="35"/>
     </row>
-    <row r="294" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" ht="13" customHeight="1">
       <c r="A294" s="29"/>
       <c r="B294" s="25"/>
       <c r="C294" s="28"/>
@@ -9230,7 +9232,7 @@
       <c r="S294" s="35"/>
       <c r="T294" s="35"/>
     </row>
-    <row r="295" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" ht="13" customHeight="1">
       <c r="A295" s="29"/>
       <c r="B295" s="25"/>
       <c r="C295" s="28"/>
@@ -9252,7 +9254,7 @@
       <c r="S295" s="35"/>
       <c r="T295" s="35"/>
     </row>
-    <row r="296" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" ht="13" customHeight="1">
       <c r="A296" s="29"/>
       <c r="B296" s="25"/>
       <c r="C296" s="28"/>
@@ -9274,7 +9276,7 @@
       <c r="S296" s="35"/>
       <c r="T296" s="35"/>
     </row>
-    <row r="297" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" ht="13" customHeight="1">
       <c r="A297" s="29"/>
       <c r="B297" s="25"/>
       <c r="C297" s="28"/>
@@ -9296,7 +9298,7 @@
       <c r="S297" s="35"/>
       <c r="T297" s="35"/>
     </row>
-    <row r="298" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" ht="13" customHeight="1">
       <c r="A298" s="29"/>
       <c r="B298" s="25"/>
       <c r="C298" s="28"/>
@@ -9318,7 +9320,7 @@
       <c r="S298" s="35"/>
       <c r="T298" s="35"/>
     </row>
-    <row r="299" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" ht="13" customHeight="1">
       <c r="A299" s="29"/>
       <c r="B299" s="25"/>
       <c r="C299" s="28"/>
@@ -9340,7 +9342,7 @@
       <c r="S299" s="35"/>
       <c r="T299" s="35"/>
     </row>
-    <row r="300" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" ht="13" customHeight="1">
       <c r="A300" s="29"/>
       <c r="B300" s="25"/>
       <c r="C300" s="28"/>
@@ -9362,7 +9364,7 @@
       <c r="S300" s="35"/>
       <c r="T300" s="35"/>
     </row>
-    <row r="301" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" ht="13" customHeight="1">
       <c r="A301" s="29"/>
       <c r="B301" s="25"/>
       <c r="C301" s="28"/>
@@ -9384,7 +9386,7 @@
       <c r="S301" s="35"/>
       <c r="T301" s="35"/>
     </row>
-    <row r="302" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" ht="13" customHeight="1">
       <c r="A302" s="29"/>
       <c r="B302" s="25"/>
       <c r="C302" s="28"/>
@@ -9406,7 +9408,7 @@
       <c r="S302" s="35"/>
       <c r="T302" s="35"/>
     </row>
-    <row r="303" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" ht="13" customHeight="1">
       <c r="A303" s="29"/>
       <c r="B303" s="25"/>
       <c r="C303" s="28"/>
@@ -9428,7 +9430,7 @@
       <c r="S303" s="35"/>
       <c r="T303" s="35"/>
     </row>
-    <row r="304" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" ht="13" customHeight="1">
       <c r="A304" s="29"/>
       <c r="B304" s="25"/>
       <c r="C304" s="28"/>
@@ -9450,7 +9452,7 @@
       <c r="S304" s="35"/>
       <c r="T304" s="35"/>
     </row>
-    <row r="305" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" ht="13" customHeight="1">
       <c r="A305" s="29"/>
       <c r="B305" s="25"/>
       <c r="C305" s="28"/>
@@ -9472,7 +9474,7 @@
       <c r="S305" s="35"/>
       <c r="T305" s="35"/>
     </row>
-    <row r="306" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" ht="13" customHeight="1">
       <c r="A306" s="29"/>
       <c r="B306" s="25"/>
       <c r="C306" s="28"/>
@@ -9494,7 +9496,7 @@
       <c r="S306" s="35"/>
       <c r="T306" s="35"/>
     </row>
-    <row r="307" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" ht="13" customHeight="1">
       <c r="A307" s="29"/>
       <c r="B307" s="25"/>
       <c r="C307" s="28"/>
@@ -9516,7 +9518,7 @@
       <c r="S307" s="35"/>
       <c r="T307" s="35"/>
     </row>
-    <row r="308" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" ht="13" customHeight="1">
       <c r="A308" s="29"/>
       <c r="B308" s="25"/>
       <c r="C308" s="28"/>
@@ -9538,7 +9540,7 @@
       <c r="S308" s="35"/>
       <c r="T308" s="35"/>
     </row>
-    <row r="309" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" ht="13" customHeight="1">
       <c r="A309" s="29"/>
       <c r="B309" s="25"/>
       <c r="C309" s="28"/>
@@ -9560,7 +9562,7 @@
       <c r="S309" s="35"/>
       <c r="T309" s="35"/>
     </row>
-    <row r="310" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" ht="13" customHeight="1">
       <c r="A310" s="29"/>
       <c r="B310" s="25"/>
       <c r="C310" s="28"/>
@@ -9582,7 +9584,7 @@
       <c r="S310" s="35"/>
       <c r="T310" s="35"/>
     </row>
-    <row r="311" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" ht="13" customHeight="1">
       <c r="A311" s="29"/>
       <c r="B311" s="25"/>
       <c r="C311" s="28"/>
@@ -9604,7 +9606,7 @@
       <c r="S311" s="35"/>
       <c r="T311" s="35"/>
     </row>
-    <row r="312" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" ht="13" customHeight="1">
       <c r="A312" s="29"/>
       <c r="B312" s="25"/>
       <c r="C312" s="28"/>
@@ -9626,7 +9628,7 @@
       <c r="S312" s="35"/>
       <c r="T312" s="35"/>
     </row>
-    <row r="313" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" ht="13" customHeight="1">
       <c r="A313" s="29"/>
       <c r="B313" s="25"/>
       <c r="C313" s="28"/>
@@ -9648,7 +9650,7 @@
       <c r="S313" s="35"/>
       <c r="T313" s="35"/>
     </row>
-    <row r="314" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" ht="13" customHeight="1">
       <c r="A314" s="29"/>
       <c r="B314" s="25"/>
       <c r="C314" s="28"/>
@@ -9670,7 +9672,7 @@
       <c r="S314" s="35"/>
       <c r="T314" s="35"/>
     </row>
-    <row r="315" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" ht="13" customHeight="1">
       <c r="A315" s="29"/>
       <c r="B315" s="25"/>
       <c r="C315" s="28"/>
@@ -9692,7 +9694,7 @@
       <c r="S315" s="35"/>
       <c r="T315" s="35"/>
     </row>
-    <row r="316" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" ht="13" customHeight="1">
       <c r="A316" s="29"/>
       <c r="B316" s="25"/>
       <c r="C316" s="28"/>
@@ -9714,7 +9716,7 @@
       <c r="S316" s="35"/>
       <c r="T316" s="35"/>
     </row>
-    <row r="317" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" ht="13" customHeight="1">
       <c r="A317" s="29"/>
       <c r="B317" s="25"/>
       <c r="C317" s="28"/>
@@ -9736,7 +9738,7 @@
       <c r="S317" s="35"/>
       <c r="T317" s="35"/>
     </row>
-    <row r="318" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" ht="13" customHeight="1">
       <c r="A318" s="29"/>
       <c r="B318" s="25"/>
       <c r="C318" s="28"/>
@@ -9758,7 +9760,7 @@
       <c r="S318" s="35"/>
       <c r="T318" s="35"/>
     </row>
-    <row r="319" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" ht="13" customHeight="1">
       <c r="A319" s="29"/>
       <c r="B319" s="25"/>
       <c r="C319" s="28"/>
@@ -9780,7 +9782,7 @@
       <c r="S319" s="35"/>
       <c r="T319" s="35"/>
     </row>
-    <row r="320" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" ht="13" customHeight="1">
       <c r="A320" s="29"/>
       <c r="B320" s="25"/>
       <c r="C320" s="28"/>
@@ -9802,7 +9804,7 @@
       <c r="S320" s="35"/>
       <c r="T320" s="35"/>
     </row>
-    <row r="321" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" ht="13" customHeight="1">
       <c r="A321" s="29"/>
       <c r="B321" s="25"/>
       <c r="C321" s="28"/>
@@ -9824,7 +9826,7 @@
       <c r="S321" s="35"/>
       <c r="T321" s="35"/>
     </row>
-    <row r="322" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" ht="13" customHeight="1">
       <c r="A322" s="29"/>
       <c r="B322" s="25"/>
       <c r="C322" s="28"/>
@@ -9846,7 +9848,7 @@
       <c r="S322" s="35"/>
       <c r="T322" s="35"/>
     </row>
-    <row r="323" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" ht="13" customHeight="1">
       <c r="A323" s="29"/>
       <c r="B323" s="25"/>
       <c r="C323" s="28"/>
@@ -9868,7 +9870,7 @@
       <c r="S323" s="35"/>
       <c r="T323" s="35"/>
     </row>
-    <row r="324" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" ht="13" customHeight="1">
       <c r="A324" s="29"/>
       <c r="B324" s="25"/>
       <c r="C324" s="28"/>
@@ -9890,7 +9892,7 @@
       <c r="S324" s="35"/>
       <c r="T324" s="35"/>
     </row>
-    <row r="325" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" ht="13" customHeight="1">
       <c r="A325" s="29"/>
       <c r="B325" s="25"/>
       <c r="C325" s="28"/>
@@ -9912,7 +9914,7 @@
       <c r="S325" s="35"/>
       <c r="T325" s="35"/>
     </row>
-    <row r="326" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" ht="13" customHeight="1">
       <c r="A326" s="29"/>
       <c r="B326" s="25"/>
       <c r="C326" s="28"/>
@@ -9934,7 +9936,7 @@
       <c r="S326" s="35"/>
       <c r="T326" s="35"/>
     </row>
-    <row r="327" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" ht="13" customHeight="1">
       <c r="A327" s="29"/>
       <c r="B327" s="25"/>
       <c r="C327" s="28"/>
@@ -9956,7 +9958,7 @@
       <c r="S327" s="35"/>
       <c r="T327" s="35"/>
     </row>
-    <row r="328" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" ht="13" customHeight="1">
       <c r="A328" s="29"/>
       <c r="B328" s="25"/>
       <c r="C328" s="28"/>
@@ -9978,7 +9980,7 @@
       <c r="S328" s="35"/>
       <c r="T328" s="35"/>
     </row>
-    <row r="329" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" ht="13" customHeight="1">
       <c r="A329" s="29"/>
       <c r="B329" s="25"/>
       <c r="C329" s="28"/>
@@ -10000,7 +10002,7 @@
       <c r="S329" s="35"/>
       <c r="T329" s="35"/>
     </row>
-    <row r="330" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" ht="13" customHeight="1">
       <c r="A330" s="29"/>
       <c r="B330" s="25"/>
       <c r="C330" s="28"/>
@@ -10022,7 +10024,7 @@
       <c r="S330" s="35"/>
       <c r="T330" s="35"/>
     </row>
-    <row r="331" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" ht="13" customHeight="1">
       <c r="A331" s="29"/>
       <c r="B331" s="25"/>
       <c r="C331" s="28"/>
@@ -10044,7 +10046,7 @@
       <c r="S331" s="35"/>
       <c r="T331" s="35"/>
     </row>
-    <row r="332" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" ht="13" customHeight="1">
       <c r="A332" s="29"/>
       <c r="B332" s="25"/>
       <c r="C332" s="28"/>
@@ -10066,7 +10068,7 @@
       <c r="S332" s="35"/>
       <c r="T332" s="35"/>
     </row>
-    <row r="333" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" ht="13" customHeight="1">
       <c r="A333" s="29"/>
       <c r="B333" s="25"/>
       <c r="C333" s="28"/>
@@ -10088,7 +10090,7 @@
       <c r="S333" s="35"/>
       <c r="T333" s="35"/>
     </row>
-    <row r="334" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" ht="13" customHeight="1">
       <c r="A334" s="29"/>
       <c r="B334" s="25"/>
       <c r="C334" s="28"/>
@@ -10110,7 +10112,7 @@
       <c r="S334" s="35"/>
       <c r="T334" s="35"/>
     </row>
-    <row r="335" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" ht="13" customHeight="1">
       <c r="A335" s="29"/>
       <c r="B335" s="25"/>
       <c r="C335" s="28"/>
@@ -10132,7 +10134,7 @@
       <c r="S335" s="35"/>
       <c r="T335" s="35"/>
     </row>
-    <row r="336" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" ht="13" customHeight="1">
       <c r="A336" s="29"/>
       <c r="B336" s="25"/>
       <c r="C336" s="28"/>
@@ -10154,7 +10156,7 @@
       <c r="S336" s="35"/>
       <c r="T336" s="35"/>
     </row>
-    <row r="337" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" ht="13" customHeight="1">
       <c r="A337" s="29"/>
       <c r="B337" s="25"/>
       <c r="C337" s="28"/>
@@ -10176,7 +10178,7 @@
       <c r="S337" s="35"/>
       <c r="T337" s="35"/>
     </row>
-    <row r="338" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" ht="13" customHeight="1">
       <c r="A338" s="29"/>
       <c r="B338" s="25"/>
       <c r="C338" s="28"/>
@@ -10198,7 +10200,7 @@
       <c r="S338" s="35"/>
       <c r="T338" s="35"/>
     </row>
-    <row r="339" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20" ht="13" customHeight="1">
       <c r="A339" s="29"/>
       <c r="B339" s="25"/>
       <c r="C339" s="28"/>
@@ -10220,7 +10222,7 @@
       <c r="S339" s="35"/>
       <c r="T339" s="35"/>
     </row>
-    <row r="340" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20" ht="13" customHeight="1">
       <c r="A340" s="29"/>
       <c r="B340" s="25"/>
       <c r="C340" s="28"/>
@@ -10242,7 +10244,7 @@
       <c r="S340" s="35"/>
       <c r="T340" s="35"/>
     </row>
-    <row r="341" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" ht="13" customHeight="1">
       <c r="A341" s="29"/>
       <c r="B341" s="25"/>
       <c r="C341" s="28"/>
@@ -10264,7 +10266,7 @@
       <c r="S341" s="35"/>
       <c r="T341" s="35"/>
     </row>
-    <row r="342" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" ht="13" customHeight="1">
       <c r="A342" s="29"/>
       <c r="B342" s="25"/>
       <c r="C342" s="28"/>
@@ -10286,7 +10288,7 @@
       <c r="S342" s="35"/>
       <c r="T342" s="35"/>
     </row>
-    <row r="343" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" ht="13" customHeight="1">
       <c r="A343" s="29"/>
       <c r="B343" s="25"/>
       <c r="C343" s="28"/>
@@ -10308,7 +10310,7 @@
       <c r="S343" s="35"/>
       <c r="T343" s="35"/>
     </row>
-    <row r="344" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" ht="13" customHeight="1">
       <c r="A344" s="29"/>
       <c r="B344" s="25"/>
       <c r="C344" s="28"/>
@@ -10330,7 +10332,7 @@
       <c r="S344" s="35"/>
       <c r="T344" s="35"/>
     </row>
-    <row r="345" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" ht="13" customHeight="1">
       <c r="A345" s="29"/>
       <c r="B345" s="25"/>
       <c r="C345" s="28"/>
@@ -10352,7 +10354,7 @@
       <c r="S345" s="35"/>
       <c r="T345" s="35"/>
     </row>
-    <row r="346" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" ht="13" customHeight="1">
       <c r="A346" s="29"/>
       <c r="B346" s="25"/>
       <c r="C346" s="28"/>
@@ -10374,7 +10376,7 @@
       <c r="S346" s="35"/>
       <c r="T346" s="35"/>
     </row>
-    <row r="347" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20" ht="13" customHeight="1">
       <c r="A347" s="29"/>
       <c r="B347" s="25"/>
       <c r="C347" s="28"/>
@@ -10396,7 +10398,7 @@
       <c r="S347" s="35"/>
       <c r="T347" s="35"/>
     </row>
-    <row r="348" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" ht="13" customHeight="1">
       <c r="A348" s="29"/>
       <c r="B348" s="25"/>
       <c r="C348" s="28"/>
@@ -10418,7 +10420,7 @@
       <c r="S348" s="35"/>
       <c r="T348" s="35"/>
     </row>
-    <row r="349" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" ht="13" customHeight="1">
       <c r="A349" s="29"/>
       <c r="B349" s="25"/>
       <c r="C349" s="28"/>
@@ -10440,7 +10442,7 @@
       <c r="S349" s="35"/>
       <c r="T349" s="35"/>
     </row>
-    <row r="350" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" ht="13" customHeight="1">
       <c r="A350" s="29"/>
       <c r="B350" s="25"/>
       <c r="C350" s="28"/>
@@ -10462,7 +10464,7 @@
       <c r="S350" s="35"/>
       <c r="T350" s="35"/>
     </row>
-    <row r="351" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" ht="13" customHeight="1">
       <c r="A351" s="29"/>
       <c r="B351" s="25"/>
       <c r="C351" s="28"/>
@@ -10484,7 +10486,7 @@
       <c r="S351" s="35"/>
       <c r="T351" s="35"/>
     </row>
-    <row r="352" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" ht="13" customHeight="1">
       <c r="A352" s="29"/>
       <c r="B352" s="25"/>
       <c r="C352" s="28"/>
@@ -10506,7 +10508,7 @@
       <c r="S352" s="35"/>
       <c r="T352" s="35"/>
     </row>
-    <row r="353" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" ht="13" customHeight="1">
       <c r="A353" s="29"/>
       <c r="B353" s="25"/>
       <c r="C353" s="28"/>
@@ -10528,7 +10530,7 @@
       <c r="S353" s="35"/>
       <c r="T353" s="35"/>
     </row>
-    <row r="354" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" ht="13" customHeight="1">
       <c r="A354" s="29"/>
       <c r="B354" s="25"/>
       <c r="C354" s="28"/>
@@ -10550,7 +10552,7 @@
       <c r="S354" s="35"/>
       <c r="T354" s="35"/>
     </row>
-    <row r="355" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" ht="13" customHeight="1">
       <c r="A355" s="29"/>
       <c r="B355" s="25"/>
       <c r="C355" s="28"/>
@@ -10572,7 +10574,7 @@
       <c r="S355" s="35"/>
       <c r="T355" s="35"/>
     </row>
-    <row r="356" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" ht="13" customHeight="1">
       <c r="A356" s="29"/>
       <c r="B356" s="25"/>
       <c r="C356" s="28"/>
@@ -10594,7 +10596,7 @@
       <c r="S356" s="35"/>
       <c r="T356" s="35"/>
     </row>
-    <row r="357" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" ht="13" customHeight="1">
       <c r="A357" s="29"/>
       <c r="B357" s="25"/>
       <c r="C357" s="28"/>
@@ -10616,7 +10618,7 @@
       <c r="S357" s="35"/>
       <c r="T357" s="35"/>
     </row>
-    <row r="358" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" ht="13" customHeight="1">
       <c r="A358" s="29"/>
       <c r="B358" s="25"/>
       <c r="C358" s="28"/>
@@ -10638,7 +10640,7 @@
       <c r="S358" s="35"/>
       <c r="T358" s="35"/>
     </row>
-    <row r="359" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" ht="13" customHeight="1">
       <c r="A359" s="29"/>
       <c r="B359" s="25"/>
       <c r="C359" s="28"/>
@@ -10660,7 +10662,7 @@
       <c r="S359" s="35"/>
       <c r="T359" s="35"/>
     </row>
-    <row r="360" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" ht="13" customHeight="1">
       <c r="A360" s="29"/>
       <c r="B360" s="25"/>
       <c r="C360" s="28"/>
@@ -10682,7 +10684,7 @@
       <c r="S360" s="35"/>
       <c r="T360" s="35"/>
     </row>
-    <row r="361" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" ht="13" customHeight="1">
       <c r="A361" s="29"/>
       <c r="B361" s="25"/>
       <c r="C361" s="28"/>
@@ -10704,7 +10706,7 @@
       <c r="S361" s="35"/>
       <c r="T361" s="35"/>
     </row>
-    <row r="362" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" ht="13" customHeight="1">
       <c r="A362" s="29"/>
       <c r="B362" s="25"/>
       <c r="C362" s="28"/>
@@ -10726,7 +10728,7 @@
       <c r="S362" s="35"/>
       <c r="T362" s="35"/>
     </row>
-    <row r="363" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" ht="13" customHeight="1">
       <c r="A363" s="29"/>
       <c r="B363" s="25"/>
       <c r="C363" s="28"/>
@@ -10748,7 +10750,7 @@
       <c r="S363" s="35"/>
       <c r="T363" s="35"/>
     </row>
-    <row r="364" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" ht="13" customHeight="1">
       <c r="A364" s="29"/>
       <c r="B364" s="25"/>
       <c r="C364" s="28"/>
@@ -10770,7 +10772,7 @@
       <c r="S364" s="35"/>
       <c r="T364" s="35"/>
     </row>
-    <row r="365" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" ht="13" customHeight="1">
       <c r="A365" s="29"/>
       <c r="B365" s="25"/>
       <c r="C365" s="28"/>
@@ -10792,7 +10794,7 @@
       <c r="S365" s="35"/>
       <c r="T365" s="35"/>
     </row>
-    <row r="366" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" ht="13" customHeight="1">
       <c r="A366" s="29"/>
       <c r="B366" s="25"/>
       <c r="C366" s="28"/>
@@ -10814,7 +10816,7 @@
       <c r="S366" s="35"/>
       <c r="T366" s="35"/>
     </row>
-    <row r="367" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" ht="13" customHeight="1">
       <c r="A367" s="29"/>
       <c r="B367" s="25"/>
       <c r="C367" s="28"/>
@@ -10836,7 +10838,7 @@
       <c r="S367" s="35"/>
       <c r="T367" s="35"/>
     </row>
-    <row r="368" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" ht="13" customHeight="1">
       <c r="A368" s="29"/>
       <c r="B368" s="25"/>
       <c r="C368" s="28"/>
@@ -10858,7 +10860,7 @@
       <c r="S368" s="35"/>
       <c r="T368" s="35"/>
     </row>
-    <row r="369" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:20" ht="13" customHeight="1">
       <c r="A369" s="29"/>
       <c r="B369" s="25"/>
       <c r="C369" s="28"/>
@@ -10880,7 +10882,7 @@
       <c r="S369" s="35"/>
       <c r="T369" s="35"/>
     </row>
-    <row r="370" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20" ht="13" customHeight="1">
       <c r="A370" s="29"/>
       <c r="B370" s="25"/>
       <c r="C370" s="28"/>
@@ -10902,7 +10904,7 @@
       <c r="S370" s="35"/>
       <c r="T370" s="35"/>
     </row>
-    <row r="371" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:20" ht="13" customHeight="1">
       <c r="A371" s="29"/>
       <c r="B371" s="25"/>
       <c r="C371" s="28"/>
@@ -10924,7 +10926,7 @@
       <c r="S371" s="35"/>
       <c r="T371" s="35"/>
     </row>
-    <row r="372" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20" ht="13" customHeight="1">
       <c r="A372" s="29"/>
       <c r="B372" s="25"/>
       <c r="C372" s="28"/>
@@ -10946,7 +10948,7 @@
       <c r="S372" s="35"/>
       <c r="T372" s="35"/>
     </row>
-    <row r="373" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:20" ht="13" customHeight="1">
       <c r="A373" s="29"/>
       <c r="B373" s="25"/>
       <c r="C373" s="28"/>
@@ -10968,7 +10970,7 @@
       <c r="S373" s="35"/>
       <c r="T373" s="35"/>
     </row>
-    <row r="374" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20" ht="13" customHeight="1">
       <c r="A374" s="29"/>
       <c r="B374" s="25"/>
       <c r="C374" s="28"/>
@@ -10990,7 +10992,7 @@
       <c r="S374" s="35"/>
       <c r="T374" s="35"/>
     </row>
-    <row r="375" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:20" ht="13" customHeight="1">
       <c r="A375" s="29"/>
       <c r="B375" s="25"/>
       <c r="C375" s="28"/>
@@ -11012,7 +11014,7 @@
       <c r="S375" s="35"/>
       <c r="T375" s="35"/>
     </row>
-    <row r="376" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20" ht="13" customHeight="1">
       <c r="A376" s="29"/>
       <c r="B376" s="25"/>
       <c r="C376" s="28"/>
@@ -11034,7 +11036,7 @@
       <c r="S376" s="35"/>
       <c r="T376" s="35"/>
     </row>
-    <row r="377" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:20" ht="13" customHeight="1">
       <c r="A377" s="29"/>
       <c r="B377" s="25"/>
       <c r="C377" s="28"/>
@@ -11056,7 +11058,7 @@
       <c r="S377" s="35"/>
       <c r="T377" s="35"/>
     </row>
-    <row r="378" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20" ht="13" customHeight="1">
       <c r="A378" s="29"/>
       <c r="B378" s="25"/>
       <c r="C378" s="28"/>
@@ -11078,7 +11080,7 @@
       <c r="S378" s="35"/>
       <c r="T378" s="35"/>
     </row>
-    <row r="379" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:20" ht="13" customHeight="1">
       <c r="A379" s="29"/>
       <c r="B379" s="25"/>
       <c r="C379" s="28"/>
@@ -11100,7 +11102,7 @@
       <c r="S379" s="35"/>
       <c r="T379" s="35"/>
     </row>
-    <row r="380" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20" ht="13" customHeight="1">
       <c r="A380" s="29"/>
       <c r="B380" s="25"/>
       <c r="C380" s="28"/>
@@ -11122,7 +11124,7 @@
       <c r="S380" s="35"/>
       <c r="T380" s="35"/>
     </row>
-    <row r="381" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:20" ht="13" customHeight="1">
       <c r="A381" s="29"/>
       <c r="B381" s="25"/>
       <c r="C381" s="28"/>
@@ -11144,7 +11146,7 @@
       <c r="S381" s="35"/>
       <c r="T381" s="35"/>
     </row>
-    <row r="382" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20" ht="13" customHeight="1">
       <c r="A382" s="29"/>
       <c r="B382" s="25"/>
       <c r="C382" s="28"/>
@@ -11166,7 +11168,7 @@
       <c r="S382" s="35"/>
       <c r="T382" s="35"/>
     </row>
-    <row r="383" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:20" ht="13" customHeight="1">
       <c r="A383" s="29"/>
       <c r="B383" s="25"/>
       <c r="C383" s="28"/>
@@ -11188,7 +11190,7 @@
       <c r="S383" s="35"/>
       <c r="T383" s="35"/>
     </row>
-    <row r="384" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20" ht="13" customHeight="1">
       <c r="A384" s="29"/>
       <c r="B384" s="25"/>
       <c r="C384" s="28"/>
@@ -11210,7 +11212,7 @@
       <c r="S384" s="35"/>
       <c r="T384" s="35"/>
     </row>
-    <row r="385" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" ht="13" customHeight="1">
       <c r="A385" s="29"/>
       <c r="B385" s="25"/>
       <c r="C385" s="28"/>
@@ -11232,7 +11234,7 @@
       <c r="S385" s="35"/>
       <c r="T385" s="35"/>
     </row>
-    <row r="386" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" ht="13" customHeight="1">
       <c r="A386" s="29"/>
       <c r="B386" s="25"/>
       <c r="C386" s="28"/>
@@ -11254,7 +11256,7 @@
       <c r="S386" s="35"/>
       <c r="T386" s="35"/>
     </row>
-    <row r="387" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" ht="13" customHeight="1">
       <c r="A387" s="29"/>
       <c r="B387" s="25"/>
       <c r="C387" s="28"/>
@@ -11276,7 +11278,7 @@
       <c r="S387" s="35"/>
       <c r="T387" s="35"/>
     </row>
-    <row r="388" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" ht="13" customHeight="1">
       <c r="A388" s="29"/>
       <c r="B388" s="25"/>
       <c r="C388" s="28"/>
@@ -11298,7 +11300,7 @@
       <c r="S388" s="35"/>
       <c r="T388" s="35"/>
     </row>
-    <row r="389" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" ht="13" customHeight="1">
       <c r="A389" s="29"/>
       <c r="B389" s="25"/>
       <c r="C389" s="28"/>
@@ -11320,7 +11322,7 @@
       <c r="S389" s="35"/>
       <c r="T389" s="35"/>
     </row>
-    <row r="390" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" ht="13" customHeight="1">
       <c r="A390" s="29"/>
       <c r="B390" s="25"/>
       <c r="C390" s="28"/>
@@ -11342,7 +11344,7 @@
       <c r="S390" s="35"/>
       <c r="T390" s="35"/>
     </row>
-    <row r="391" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" ht="13" customHeight="1">
       <c r="A391" s="29"/>
       <c r="B391" s="25"/>
       <c r="C391" s="28"/>
@@ -11364,7 +11366,7 @@
       <c r="S391" s="35"/>
       <c r="T391" s="35"/>
     </row>
-    <row r="392" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" ht="13" customHeight="1">
       <c r="A392" s="29"/>
       <c r="B392" s="25"/>
       <c r="C392" s="28"/>
@@ -11386,7 +11388,7 @@
       <c r="S392" s="35"/>
       <c r="T392" s="35"/>
     </row>
-    <row r="393" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" ht="13" customHeight="1">
       <c r="A393" s="29"/>
       <c r="B393" s="25"/>
       <c r="C393" s="28"/>
@@ -11408,7 +11410,7 @@
       <c r="S393" s="35"/>
       <c r="T393" s="35"/>
     </row>
-    <row r="394" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" ht="13" customHeight="1">
       <c r="A394" s="29"/>
       <c r="B394" s="25"/>
       <c r="C394" s="28"/>
@@ -11430,7 +11432,7 @@
       <c r="S394" s="35"/>
       <c r="T394" s="35"/>
     </row>
-    <row r="395" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" ht="13" customHeight="1">
       <c r="A395" s="29"/>
       <c r="B395" s="25"/>
       <c r="C395" s="28"/>
@@ -11452,7 +11454,7 @@
       <c r="S395" s="35"/>
       <c r="T395" s="35"/>
     </row>
-    <row r="396" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" ht="13" customHeight="1">
       <c r="A396" s="29"/>
       <c r="B396" s="25"/>
       <c r="C396" s="28"/>
@@ -11474,7 +11476,7 @@
       <c r="S396" s="35"/>
       <c r="T396" s="35"/>
     </row>
-    <row r="397" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" ht="13" customHeight="1">
       <c r="A397" s="29"/>
       <c r="B397" s="25"/>
       <c r="C397" s="28"/>
@@ -11496,7 +11498,7 @@
       <c r="S397" s="35"/>
       <c r="T397" s="35"/>
     </row>
-    <row r="398" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" ht="13" customHeight="1">
       <c r="A398" s="29"/>
       <c r="B398" s="25"/>
       <c r="C398" s="28"/>
@@ -11518,7 +11520,7 @@
       <c r="S398" s="35"/>
       <c r="T398" s="35"/>
     </row>
-    <row r="399" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" ht="13" customHeight="1">
       <c r="A399" s="29"/>
       <c r="B399" s="25"/>
       <c r="C399" s="28"/>
@@ -11540,7 +11542,7 @@
       <c r="S399" s="35"/>
       <c r="T399" s="35"/>
     </row>
-    <row r="400" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" ht="13" customHeight="1">
       <c r="A400" s="29"/>
       <c r="B400" s="25"/>
       <c r="C400" s="28"/>
@@ -11562,7 +11564,7 @@
       <c r="S400" s="35"/>
       <c r="T400" s="35"/>
     </row>
-    <row r="401" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20" ht="13" customHeight="1">
       <c r="A401" s="29"/>
       <c r="B401" s="25"/>
       <c r="C401" s="28"/>
@@ -11584,7 +11586,7 @@
       <c r="S401" s="35"/>
       <c r="T401" s="35"/>
     </row>
-    <row r="402" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20" ht="13" customHeight="1">
       <c r="A402" s="29"/>
       <c r="B402" s="25"/>
       <c r="C402" s="28"/>
@@ -11606,7 +11608,7 @@
       <c r="S402" s="35"/>
       <c r="T402" s="35"/>
     </row>
-    <row r="403" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20" ht="13" customHeight="1">
       <c r="A403" s="29"/>
       <c r="B403" s="25"/>
       <c r="C403" s="28"/>
@@ -11628,7 +11630,7 @@
       <c r="S403" s="35"/>
       <c r="T403" s="35"/>
     </row>
-    <row r="404" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:20" ht="13" customHeight="1">
       <c r="A404" s="29"/>
       <c r="B404" s="25"/>
       <c r="C404" s="28"/>
@@ -11650,7 +11652,7 @@
       <c r="S404" s="35"/>
       <c r="T404" s="35"/>
     </row>
-    <row r="405" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20" ht="13" customHeight="1">
       <c r="A405" s="29"/>
       <c r="B405" s="25"/>
       <c r="C405" s="28"/>
@@ -11672,7 +11674,7 @@
       <c r="S405" s="35"/>
       <c r="T405" s="35"/>
     </row>
-    <row r="406" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:20" ht="13" customHeight="1">
       <c r="A406" s="29"/>
       <c r="B406" s="25"/>
       <c r="C406" s="28"/>
@@ -11694,7 +11696,7 @@
       <c r="S406" s="35"/>
       <c r="T406" s="35"/>
     </row>
-    <row r="407" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:20" ht="13" customHeight="1">
       <c r="A407" s="29"/>
       <c r="B407" s="25"/>
       <c r="C407" s="28"/>
@@ -11716,7 +11718,7 @@
       <c r="S407" s="35"/>
       <c r="T407" s="35"/>
     </row>
-    <row r="408" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20" ht="13" customHeight="1">
       <c r="A408" s="29"/>
       <c r="B408" s="25"/>
       <c r="C408" s="28"/>
@@ -11738,7 +11740,7 @@
       <c r="S408" s="35"/>
       <c r="T408" s="35"/>
     </row>
-    <row r="409" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20" ht="13" customHeight="1">
       <c r="A409" s="29"/>
       <c r="B409" s="25"/>
       <c r="C409" s="28"/>
@@ -11760,7 +11762,7 @@
       <c r="S409" s="35"/>
       <c r="T409" s="35"/>
     </row>
-    <row r="410" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20" ht="13" customHeight="1">
       <c r="A410" s="29"/>
       <c r="B410" s="25"/>
       <c r="C410" s="28"/>
@@ -11782,7 +11784,7 @@
       <c r="S410" s="35"/>
       <c r="T410" s="35"/>
     </row>
-    <row r="411" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20" ht="13" customHeight="1">
       <c r="A411" s="29"/>
       <c r="B411" s="25"/>
       <c r="C411" s="28"/>
@@ -11804,7 +11806,7 @@
       <c r="S411" s="35"/>
       <c r="T411" s="35"/>
     </row>
-    <row r="412" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20" ht="13" customHeight="1">
       <c r="A412" s="29"/>
       <c r="B412" s="25"/>
       <c r="C412" s="28"/>
@@ -11826,7 +11828,7 @@
       <c r="S412" s="35"/>
       <c r="T412" s="35"/>
     </row>
-    <row r="413" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20" ht="13" customHeight="1">
       <c r="A413" s="29"/>
       <c r="B413" s="25"/>
       <c r="C413" s="28"/>
@@ -11848,7 +11850,7 @@
       <c r="S413" s="35"/>
       <c r="T413" s="35"/>
     </row>
-    <row r="414" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" ht="13" customHeight="1">
       <c r="A414" s="29"/>
       <c r="B414" s="25"/>
       <c r="C414" s="28"/>
@@ -11870,7 +11872,7 @@
       <c r="S414" s="35"/>
       <c r="T414" s="35"/>
     </row>
-    <row r="415" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20" ht="13" customHeight="1">
       <c r="A415" s="29"/>
       <c r="B415" s="25"/>
       <c r="C415" s="28"/>
@@ -11892,7 +11894,7 @@
       <c r="S415" s="35"/>
       <c r="T415" s="35"/>
     </row>
-    <row r="416" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:20" ht="13" customHeight="1">
       <c r="A416" s="29"/>
       <c r="B416" s="25"/>
       <c r="C416" s="28"/>
@@ -11914,7 +11916,7 @@
       <c r="S416" s="35"/>
       <c r="T416" s="35"/>
     </row>
-    <row r="417" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" ht="13" customHeight="1">
       <c r="A417" s="29"/>
       <c r="B417" s="25"/>
       <c r="C417" s="28"/>
@@ -11936,7 +11938,7 @@
       <c r="S417" s="35"/>
       <c r="T417" s="35"/>
     </row>
-    <row r="418" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" ht="13" customHeight="1">
       <c r="A418" s="29"/>
       <c r="B418" s="25"/>
       <c r="C418" s="28"/>
@@ -11958,7 +11960,7 @@
       <c r="S418" s="35"/>
       <c r="T418" s="35"/>
     </row>
-    <row r="419" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20" ht="13" customHeight="1">
       <c r="A419" s="29"/>
       <c r="B419" s="25"/>
       <c r="C419" s="28"/>
@@ -11980,7 +11982,7 @@
       <c r="S419" s="35"/>
       <c r="T419" s="35"/>
     </row>
-    <row r="420" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" ht="13" customHeight="1">
       <c r="A420" s="29"/>
       <c r="B420" s="25"/>
       <c r="C420" s="28"/>
@@ -12002,7 +12004,7 @@
       <c r="S420" s="35"/>
       <c r="T420" s="35"/>
     </row>
-    <row r="421" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:20" ht="13" customHeight="1">
       <c r="A421" s="29"/>
       <c r="B421" s="25"/>
       <c r="C421" s="28"/>
@@ -12017,7 +12019,7 @@
       <c r="L421" s="26"/>
       <c r="M421" s="23"/>
     </row>
-    <row r="422" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:20" ht="13" customHeight="1">
       <c r="A422" s="29"/>
       <c r="B422" s="25"/>
       <c r="C422" s="28"/>
@@ -12032,7 +12034,7 @@
       <c r="L422" s="26"/>
       <c r="M422" s="23"/>
     </row>
-    <row r="423" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:20" ht="13" customHeight="1">
       <c r="A423" s="29"/>
       <c r="B423" s="25"/>
       <c r="C423" s="28"/>
@@ -12047,7 +12049,7 @@
       <c r="L423" s="26"/>
       <c r="M423" s="23"/>
     </row>
-    <row r="424" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:20" ht="13" customHeight="1">
       <c r="A424" s="29"/>
       <c r="B424" s="25"/>
       <c r="C424" s="28"/>
@@ -12062,7 +12064,7 @@
       <c r="L424" s="26"/>
       <c r="M424" s="23"/>
     </row>
-    <row r="425" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:20" ht="13" customHeight="1">
       <c r="A425" s="29"/>
       <c r="B425" s="25"/>
       <c r="C425" s="28"/>
@@ -12077,7 +12079,7 @@
       <c r="L425" s="26"/>
       <c r="M425" s="23"/>
     </row>
-    <row r="426" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:20" ht="13" customHeight="1">
       <c r="A426" s="29"/>
       <c r="B426" s="25"/>
       <c r="C426" s="28"/>
@@ -12092,7 +12094,7 @@
       <c r="L426" s="26"/>
       <c r="M426" s="23"/>
     </row>
-    <row r="427" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:20" ht="13" customHeight="1">
       <c r="A427" s="29"/>
       <c r="B427" s="25"/>
       <c r="C427" s="28"/>
@@ -12107,7 +12109,7 @@
       <c r="L427" s="26"/>
       <c r="M427" s="23"/>
     </row>
-    <row r="428" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:20" ht="13" customHeight="1">
       <c r="A428" s="29"/>
       <c r="B428" s="25"/>
       <c r="C428" s="28"/>
@@ -12122,7 +12124,7 @@
       <c r="L428" s="26"/>
       <c r="M428" s="23"/>
     </row>
-    <row r="429" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:20" ht="13" customHeight="1">
       <c r="A429" s="29"/>
       <c r="B429" s="25"/>
       <c r="C429" s="28"/>
@@ -12137,7 +12139,7 @@
       <c r="L429" s="26"/>
       <c r="M429" s="23"/>
     </row>
-    <row r="430" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:20" ht="13" customHeight="1">
       <c r="A430" s="29"/>
       <c r="B430" s="25"/>
       <c r="C430" s="28"/>
@@ -12152,7 +12154,7 @@
       <c r="L430" s="26"/>
       <c r="M430" s="23"/>
     </row>
-    <row r="431" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:20" ht="13" customHeight="1">
       <c r="A431" s="29"/>
       <c r="B431" s="25"/>
       <c r="C431" s="28"/>
@@ -12167,7 +12169,7 @@
       <c r="L431" s="26"/>
       <c r="M431" s="23"/>
     </row>
-    <row r="432" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:20" ht="13" customHeight="1">
       <c r="A432" s="29"/>
       <c r="B432" s="25"/>
       <c r="C432" s="28"/>
@@ -12182,7 +12184,7 @@
       <c r="L432" s="26"/>
       <c r="M432" s="23"/>
     </row>
-    <row r="433" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:20" ht="13" customHeight="1">
       <c r="A433" s="29"/>
       <c r="B433" s="25"/>
       <c r="C433" s="28"/>
@@ -12197,7 +12199,7 @@
       <c r="L433" s="26"/>
       <c r="M433" s="23"/>
     </row>
-    <row r="434" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:20" ht="13" customHeight="1">
       <c r="A434" s="29"/>
       <c r="B434" s="25"/>
       <c r="C434" s="28"/>
@@ -12212,7 +12214,7 @@
       <c r="L434" s="26"/>
       <c r="M434" s="23"/>
     </row>
-    <row r="435" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:20" ht="13" customHeight="1">
       <c r="A435" s="29"/>
       <c r="B435" s="25"/>
       <c r="C435" s="28"/>
@@ -12234,7 +12236,7 @@
       <c r="S435" s="35"/>
       <c r="T435" s="35"/>
     </row>
-    <row r="436" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:20" ht="13" customHeight="1">
       <c r="A436" s="29"/>
       <c r="B436" s="25"/>
       <c r="C436" s="28"/>
@@ -12249,7 +12251,7 @@
       <c r="L436" s="26"/>
       <c r="M436" s="23"/>
     </row>
-    <row r="437" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:20" ht="13" customHeight="1">
       <c r="A437" s="29"/>
       <c r="B437" s="25"/>
       <c r="C437" s="28"/>
@@ -12264,7 +12266,7 @@
       <c r="L437" s="26"/>
       <c r="M437" s="23"/>
     </row>
-    <row r="438" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:20" ht="13" customHeight="1">
       <c r="A438" s="29"/>
       <c r="B438" s="25"/>
       <c r="C438" s="28"/>
@@ -12279,7 +12281,7 @@
       <c r="L438" s="26"/>
       <c r="M438" s="23"/>
     </row>
-    <row r="439" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:20" ht="13" customHeight="1">
       <c r="A439" s="29"/>
       <c r="B439" s="25"/>
       <c r="C439" s="28"/>
@@ -12294,7 +12296,7 @@
       <c r="L439" s="26"/>
       <c r="M439" s="23"/>
     </row>
-    <row r="440" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:20" ht="13" customHeight="1">
       <c r="A440" s="29"/>
       <c r="B440" s="25"/>
       <c r="C440" s="28"/>
@@ -12309,7 +12311,7 @@
       <c r="L440" s="26"/>
       <c r="M440" s="23"/>
     </row>
-    <row r="441" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:20" ht="13" customHeight="1">
       <c r="A441" s="29"/>
       <c r="B441" s="25"/>
       <c r="C441" s="28"/>
@@ -12324,7 +12326,7 @@
       <c r="L441" s="26"/>
       <c r="M441" s="23"/>
     </row>
-    <row r="442" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:20" ht="13" customHeight="1">
       <c r="A442" s="29"/>
       <c r="B442" s="25"/>
       <c r="C442" s="28"/>
@@ -12339,7 +12341,7 @@
       <c r="L442" s="26"/>
       <c r="M442" s="23"/>
     </row>
-    <row r="443" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:20" ht="13" customHeight="1">
       <c r="A443" s="29"/>
       <c r="B443" s="25"/>
       <c r="C443" s="28"/>
@@ -12354,7 +12356,7 @@
       <c r="L443" s="26"/>
       <c r="M443" s="23"/>
     </row>
-    <row r="444" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:20" ht="13" customHeight="1">
       <c r="A444" s="29"/>
       <c r="B444" s="25"/>
       <c r="C444" s="28"/>
@@ -12369,7 +12371,7 @@
       <c r="L444" s="26"/>
       <c r="M444" s="23"/>
     </row>
-    <row r="445" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:20" ht="13" customHeight="1">
       <c r="A445" s="29"/>
       <c r="B445" s="25"/>
       <c r="C445" s="28"/>
@@ -12384,7 +12386,7 @@
       <c r="L445" s="26"/>
       <c r="M445" s="23"/>
     </row>
-    <row r="446" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:20" ht="13" customHeight="1">
       <c r="A446" s="29"/>
       <c r="B446" s="25"/>
       <c r="C446" s="28"/>
@@ -12399,7 +12401,7 @@
       <c r="L446" s="26"/>
       <c r="M446" s="23"/>
     </row>
-    <row r="447" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:20" ht="13" customHeight="1">
       <c r="A447" s="29"/>
       <c r="B447" s="25"/>
       <c r="C447" s="28"/>
@@ -12414,7 +12416,7 @@
       <c r="L447" s="26"/>
       <c r="M447" s="23"/>
     </row>
-    <row r="448" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:20" ht="13" customHeight="1">
       <c r="A448" s="29"/>
       <c r="B448" s="25"/>
       <c r="C448" s="28"/>
@@ -12429,7 +12431,7 @@
       <c r="L448" s="26"/>
       <c r="M448" s="23"/>
     </row>
-    <row r="449" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:13" ht="13" customHeight="1">
       <c r="A449" s="29"/>
       <c r="B449" s="25"/>
       <c r="C449" s="28"/>
@@ -12444,7 +12446,7 @@
       <c r="L449" s="26"/>
       <c r="M449" s="23"/>
     </row>
-    <row r="450" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:13" ht="13" customHeight="1">
       <c r="A450" s="29"/>
       <c r="B450" s="25"/>
       <c r="C450" s="28"/>
@@ -12459,7 +12461,7 @@
       <c r="L450" s="26"/>
       <c r="M450" s="23"/>
     </row>
-    <row r="451" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:13" ht="13" customHeight="1">
       <c r="A451" s="29"/>
       <c r="B451" s="25"/>
       <c r="C451" s="28"/>
@@ -12474,7 +12476,7 @@
       <c r="L451" s="26"/>
       <c r="M451" s="23"/>
     </row>
-    <row r="452" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:13" ht="13" customHeight="1">
       <c r="A452" s="29"/>
       <c r="B452" s="25"/>
       <c r="C452" s="28"/>
@@ -12489,7 +12491,7 @@
       <c r="L452" s="26"/>
       <c r="M452" s="23"/>
     </row>
-    <row r="453" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:13" ht="13" customHeight="1">
       <c r="A453" s="29"/>
       <c r="B453" s="25"/>
       <c r="C453" s="28"/>
@@ -12504,7 +12506,7 @@
       <c r="L453" s="26"/>
       <c r="M453" s="23"/>
     </row>
-    <row r="454" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:13" ht="13" customHeight="1">
       <c r="A454" s="29"/>
       <c r="B454" s="25"/>
       <c r="C454" s="28"/>
@@ -12519,7 +12521,7 @@
       <c r="L454" s="26"/>
       <c r="M454" s="23"/>
     </row>
-    <row r="455" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:13" ht="13" customHeight="1">
       <c r="A455" s="29"/>
       <c r="B455" s="25"/>
       <c r="C455" s="28"/>
@@ -12534,7 +12536,7 @@
       <c r="L455" s="26"/>
       <c r="M455" s="23"/>
     </row>
-    <row r="456" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:13" ht="13" customHeight="1">
       <c r="A456" s="29"/>
       <c r="B456" s="25"/>
       <c r="C456" s="28"/>
@@ -12549,7 +12551,7 @@
       <c r="L456" s="26"/>
       <c r="M456" s="23"/>
     </row>
-    <row r="457" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:13" ht="13" customHeight="1">
       <c r="A457" s="29"/>
       <c r="B457" s="25"/>
       <c r="C457" s="28"/>
@@ -12564,7 +12566,7 @@
       <c r="L457" s="26"/>
       <c r="M457" s="23"/>
     </row>
-    <row r="458" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:13" ht="13" customHeight="1">
       <c r="A458" s="29"/>
       <c r="B458" s="25"/>
       <c r="C458" s="28"/>
@@ -12579,7 +12581,7 @@
       <c r="L458" s="26"/>
       <c r="M458" s="23"/>
     </row>
-    <row r="459" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:13" ht="13" customHeight="1">
       <c r="A459" s="29"/>
       <c r="B459" s="25"/>
       <c r="C459" s="28"/>
@@ -12594,7 +12596,7 @@
       <c r="L459" s="26"/>
       <c r="M459" s="23"/>
     </row>
-    <row r="460" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:13" ht="13" customHeight="1">
       <c r="A460" s="29"/>
       <c r="B460" s="25"/>
       <c r="C460" s="28"/>
@@ -12609,7 +12611,7 @@
       <c r="L460" s="26"/>
       <c r="M460" s="23"/>
     </row>
-    <row r="461" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:13" ht="13" customHeight="1">
       <c r="A461" s="29"/>
       <c r="B461" s="25"/>
       <c r="C461" s="28"/>
@@ -12624,7 +12626,7 @@
       <c r="L461" s="26"/>
       <c r="M461" s="23"/>
     </row>
-    <row r="462" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:13" ht="13" customHeight="1">
       <c r="A462" s="29"/>
       <c r="B462" s="25"/>
       <c r="C462" s="28"/>
@@ -12639,7 +12641,7 @@
       <c r="L462" s="26"/>
       <c r="M462" s="23"/>
     </row>
-    <row r="463" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:13" ht="13" customHeight="1">
       <c r="A463" s="29"/>
       <c r="B463" s="25"/>
       <c r="C463" s="28"/>
@@ -12654,7 +12656,7 @@
       <c r="L463" s="26"/>
       <c r="M463" s="23"/>
     </row>
-    <row r="464" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:13" ht="13" customHeight="1">
       <c r="A464" s="29"/>
       <c r="B464" s="25"/>
       <c r="C464" s="28"/>
@@ -12669,7 +12671,7 @@
       <c r="L464" s="26"/>
       <c r="M464" s="23"/>
     </row>
-    <row r="465" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:13" ht="13" customHeight="1">
       <c r="A465" s="29"/>
       <c r="B465" s="25"/>
       <c r="C465" s="28"/>
@@ -12684,7 +12686,7 @@
       <c r="L465" s="26"/>
       <c r="M465" s="23"/>
     </row>
-    <row r="466" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:13" ht="13" customHeight="1">
       <c r="A466" s="29"/>
       <c r="B466" s="25"/>
       <c r="C466" s="28"/>
@@ -12699,7 +12701,7 @@
       <c r="L466" s="26"/>
       <c r="M466" s="23"/>
     </row>
-    <row r="467" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:13" ht="13" customHeight="1">
       <c r="A467" s="29"/>
       <c r="B467" s="25"/>
       <c r="C467" s="28"/>
@@ -12714,7 +12716,7 @@
       <c r="L467" s="26"/>
       <c r="M467" s="23"/>
     </row>
-    <row r="468" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:13" ht="13" customHeight="1">
       <c r="A468" s="29"/>
       <c r="B468" s="25"/>
       <c r="C468" s="28"/>
@@ -12729,7 +12731,7 @@
       <c r="L468" s="26"/>
       <c r="M468" s="23"/>
     </row>
-    <row r="469" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:13" ht="13" customHeight="1">
       <c r="A469" s="29"/>
       <c r="B469" s="25"/>
       <c r="C469" s="28"/>
@@ -12744,7 +12746,7 @@
       <c r="L469" s="26"/>
       <c r="M469" s="23"/>
     </row>
-    <row r="470" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:13" ht="13" customHeight="1">
       <c r="A470" s="29"/>
       <c r="B470" s="25"/>
       <c r="C470" s="28"/>
@@ -12759,7 +12761,7 @@
       <c r="L470" s="26"/>
       <c r="M470" s="23"/>
     </row>
-    <row r="471" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:13" ht="13" customHeight="1">
       <c r="A471" s="29"/>
       <c r="B471" s="25"/>
       <c r="C471" s="28"/>
@@ -12774,7 +12776,7 @@
       <c r="L471" s="26"/>
       <c r="M471" s="23"/>
     </row>
-    <row r="472" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:13" ht="13" customHeight="1">
       <c r="A472" s="29"/>
       <c r="B472" s="25"/>
       <c r="C472" s="28"/>
@@ -12789,7 +12791,7 @@
       <c r="L472" s="26"/>
       <c r="M472" s="23"/>
     </row>
-    <row r="473" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:13" ht="13" customHeight="1">
       <c r="A473" s="29"/>
       <c r="B473" s="25"/>
       <c r="C473" s="28"/>
@@ -12804,7 +12806,7 @@
       <c r="L473" s="26"/>
       <c r="M473" s="23"/>
     </row>
-    <row r="474" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:13" ht="13" customHeight="1">
       <c r="A474" s="29"/>
       <c r="B474" s="25"/>
       <c r="C474" s="28"/>
@@ -12819,7 +12821,7 @@
       <c r="L474" s="26"/>
       <c r="M474" s="23"/>
     </row>
-    <row r="475" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:13" ht="13" customHeight="1">
       <c r="A475" s="29"/>
       <c r="B475" s="25"/>
       <c r="C475" s="28"/>
@@ -12834,7 +12836,7 @@
       <c r="L475" s="26"/>
       <c r="M475" s="23"/>
     </row>
-    <row r="476" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:13" ht="13" customHeight="1">
       <c r="A476" s="29"/>
       <c r="B476" s="25"/>
       <c r="C476" s="28"/>
@@ -12849,7 +12851,7 @@
       <c r="L476" s="26"/>
       <c r="M476" s="23"/>
     </row>
-    <row r="477" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:13" ht="13" customHeight="1">
       <c r="A477" s="29"/>
       <c r="B477" s="25"/>
       <c r="C477" s="28"/>
@@ -12864,7 +12866,7 @@
       <c r="L477" s="26"/>
       <c r="M477" s="23"/>
     </row>
-    <row r="478" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:13" ht="13" customHeight="1">
       <c r="A478" s="29"/>
       <c r="B478" s="25"/>
       <c r="C478" s="28"/>
@@ -12879,7 +12881,7 @@
       <c r="L478" s="26"/>
       <c r="M478" s="23"/>
     </row>
-    <row r="479" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:13" ht="13" customHeight="1">
       <c r="A479" s="29"/>
       <c r="B479" s="25"/>
       <c r="C479" s="28"/>
@@ -12894,7 +12896,7 @@
       <c r="L479" s="26"/>
       <c r="M479" s="23"/>
     </row>
-    <row r="480" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:13" ht="13" customHeight="1">
       <c r="A480" s="29"/>
       <c r="B480" s="25"/>
       <c r="C480" s="28"/>
@@ -12909,7 +12911,7 @@
       <c r="L480" s="26"/>
       <c r="M480" s="23"/>
     </row>
-    <row r="481" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:13" ht="13" customHeight="1">
       <c r="A481" s="29"/>
       <c r="B481" s="25"/>
       <c r="C481" s="28"/>
@@ -12924,7 +12926,7 @@
       <c r="L481" s="26"/>
       <c r="M481" s="23"/>
     </row>
-    <row r="482" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:13" ht="13" customHeight="1">
       <c r="A482" s="29"/>
       <c r="B482" s="25"/>
       <c r="C482" s="28"/>
@@ -12939,7 +12941,7 @@
       <c r="L482" s="26"/>
       <c r="M482" s="23"/>
     </row>
-    <row r="483" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:13" ht="13" customHeight="1">
       <c r="A483" s="29"/>
       <c r="B483" s="25"/>
       <c r="C483" s="28"/>
@@ -12954,7 +12956,7 @@
       <c r="L483" s="26"/>
       <c r="M483" s="23"/>
     </row>
-    <row r="484" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:13" ht="13" customHeight="1">
       <c r="A484" s="29"/>
       <c r="B484" s="25"/>
       <c r="C484" s="28"/>
@@ -12969,7 +12971,7 @@
       <c r="L484" s="26"/>
       <c r="M484" s="23"/>
     </row>
-    <row r="485" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:13" ht="13" customHeight="1">
       <c r="A485" s="29"/>
       <c r="B485" s="25"/>
       <c r="C485" s="28"/>
@@ -12984,7 +12986,7 @@
       <c r="L485" s="26"/>
       <c r="M485" s="23"/>
     </row>
-    <row r="486" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:13" ht="13" customHeight="1">
       <c r="A486" s="29"/>
       <c r="B486" s="25"/>
       <c r="C486" s="28"/>
@@ -12999,7 +13001,7 @@
       <c r="L486" s="26"/>
       <c r="M486" s="23"/>
     </row>
-    <row r="487" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:13" ht="13" customHeight="1">
       <c r="A487" s="29"/>
       <c r="B487" s="25"/>
       <c r="C487" s="28"/>
@@ -13014,7 +13016,7 @@
       <c r="L487" s="26"/>
       <c r="M487" s="23"/>
     </row>
-    <row r="488" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:13" ht="13" customHeight="1">
       <c r="A488" s="29"/>
       <c r="B488" s="25"/>
       <c r="C488" s="28"/>
@@ -13029,7 +13031,7 @@
       <c r="L488" s="26"/>
       <c r="M488" s="23"/>
     </row>
-    <row r="489" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:13" ht="13" customHeight="1">
       <c r="A489" s="29"/>
       <c r="B489" s="25"/>
       <c r="C489" s="28"/>
@@ -13044,7 +13046,7 @@
       <c r="L489" s="26"/>
       <c r="M489" s="23"/>
     </row>
-    <row r="490" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:13" ht="13" customHeight="1">
       <c r="A490" s="29"/>
       <c r="B490" s="25"/>
       <c r="C490" s="28"/>
@@ -13059,7 +13061,7 @@
       <c r="L490" s="26"/>
       <c r="M490" s="23"/>
     </row>
-    <row r="491" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:13" ht="13" customHeight="1">
       <c r="A491" s="29"/>
       <c r="B491" s="25"/>
       <c r="C491" s="28"/>
@@ -13074,7 +13076,7 @@
       <c r="L491" s="26"/>
       <c r="M491" s="23"/>
     </row>
-    <row r="492" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:13" ht="13" customHeight="1">
       <c r="A492" s="29"/>
       <c r="B492" s="25"/>
       <c r="C492" s="28"/>
@@ -13089,7 +13091,7 @@
       <c r="L492" s="26"/>
       <c r="M492" s="23"/>
     </row>
-    <row r="493" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:13" ht="13" customHeight="1">
       <c r="A493" s="29"/>
       <c r="B493" s="25"/>
       <c r="C493" s="28"/>
@@ -13104,7 +13106,7 @@
       <c r="L493" s="26"/>
       <c r="M493" s="23"/>
     </row>
-    <row r="494" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:13" ht="13" customHeight="1">
       <c r="A494" s="29"/>
       <c r="B494" s="25"/>
       <c r="C494" s="28"/>
@@ -13119,7 +13121,7 @@
       <c r="L494" s="26"/>
       <c r="M494" s="23"/>
     </row>
-    <row r="495" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:13" ht="13" customHeight="1">
       <c r="A495" s="29"/>
       <c r="B495" s="25"/>
       <c r="C495" s="28"/>
@@ -13134,7 +13136,7 @@
       <c r="L495" s="26"/>
       <c r="M495" s="23"/>
     </row>
-    <row r="496" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:13" ht="13" customHeight="1">
       <c r="A496" s="29"/>
       <c r="B496" s="25"/>
       <c r="C496" s="28"/>
@@ -13149,7 +13151,7 @@
       <c r="L496" s="26"/>
       <c r="M496" s="23"/>
     </row>
-    <row r="497" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:13" ht="13" customHeight="1">
       <c r="A497" s="29"/>
       <c r="B497" s="25"/>
       <c r="C497" s="28"/>
@@ -13164,7 +13166,7 @@
       <c r="L497" s="26"/>
       <c r="M497" s="23"/>
     </row>
-    <row r="498" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:13" ht="13" customHeight="1">
       <c r="A498" s="29"/>
       <c r="B498" s="25"/>
       <c r="C498" s="28"/>
@@ -13179,7 +13181,7 @@
       <c r="L498" s="26"/>
       <c r="M498" s="23"/>
     </row>
-    <row r="499" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:13" ht="13" customHeight="1">
       <c r="A499" s="29"/>
       <c r="B499" s="25"/>
       <c r="C499" s="28"/>
@@ -13194,7 +13196,7 @@
       <c r="L499" s="26"/>
       <c r="M499" s="23"/>
     </row>
-    <row r="500" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:13" ht="13" customHeight="1">
       <c r="A500" s="29"/>
       <c r="B500" s="25"/>
       <c r="C500" s="28"/>
@@ -13209,7 +13211,7 @@
       <c r="L500" s="26"/>
       <c r="M500" s="23"/>
     </row>
-    <row r="501" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:13" ht="13" customHeight="1">
       <c r="A501" s="29"/>
       <c r="B501" s="25"/>
       <c r="C501" s="28"/>
@@ -13224,7 +13226,7 @@
       <c r="L501" s="26"/>
       <c r="M501" s="23"/>
     </row>
-    <row r="502" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:13" ht="13" customHeight="1">
       <c r="A502" s="29"/>
       <c r="B502" s="25"/>
       <c r="C502" s="28"/>
@@ -13239,7 +13241,7 @@
       <c r="L502" s="26"/>
       <c r="M502" s="23"/>
     </row>
-    <row r="503" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:13" ht="13" customHeight="1">
       <c r="A503" s="29"/>
       <c r="B503" s="25"/>
       <c r="C503" s="28"/>
@@ -13254,7 +13256,7 @@
       <c r="L503" s="26"/>
       <c r="M503" s="23"/>
     </row>
-    <row r="504" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:13" ht="13" customHeight="1">
       <c r="A504" s="29"/>
       <c r="B504" s="25"/>
       <c r="C504" s="28"/>
@@ -13269,7 +13271,7 @@
       <c r="L504" s="26"/>
       <c r="M504" s="23"/>
     </row>
-    <row r="505" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:13" ht="13" customHeight="1">
       <c r="A505" s="29"/>
       <c r="B505" s="25"/>
       <c r="C505" s="28"/>
@@ -13284,7 +13286,7 @@
       <c r="L505" s="26"/>
       <c r="M505" s="23"/>
     </row>
-    <row r="506" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:13" ht="13" customHeight="1">
       <c r="A506" s="29"/>
       <c r="B506" s="25"/>
       <c r="C506" s="28"/>
@@ -13299,7 +13301,7 @@
       <c r="L506" s="26"/>
       <c r="M506" s="23"/>
     </row>
-    <row r="507" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:13" ht="13" customHeight="1">
       <c r="A507" s="29"/>
       <c r="B507" s="25"/>
       <c r="C507" s="28"/>
@@ -13314,7 +13316,7 @@
       <c r="L507" s="26"/>
       <c r="M507" s="23"/>
     </row>
-    <row r="508" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:13" ht="13" customHeight="1">
       <c r="A508" s="29"/>
       <c r="B508" s="25"/>
       <c r="C508" s="28"/>
@@ -13329,7 +13331,7 @@
       <c r="L508" s="26"/>
       <c r="M508" s="23"/>
     </row>
-    <row r="509" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:13" ht="13" customHeight="1">
       <c r="A509" s="29"/>
       <c r="B509" s="25"/>
       <c r="C509" s="28"/>
@@ -13344,7 +13346,7 @@
       <c r="L509" s="26"/>
       <c r="M509" s="23"/>
     </row>
-    <row r="510" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:13" ht="13" customHeight="1">
       <c r="A510" s="29"/>
       <c r="B510" s="25"/>
       <c r="C510" s="28"/>
@@ -13359,7 +13361,7 @@
       <c r="L510" s="26"/>
       <c r="M510" s="23"/>
     </row>
-    <row r="511" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:13" ht="13" customHeight="1">
       <c r="A511" s="29"/>
       <c r="B511" s="25"/>
       <c r="C511" s="28"/>
@@ -13374,7 +13376,7 @@
       <c r="L511" s="26"/>
       <c r="M511" s="23"/>
     </row>
-    <row r="512" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:13" ht="13" customHeight="1">
       <c r="A512" s="29"/>
       <c r="B512" s="25"/>
       <c r="C512" s="28"/>
@@ -13389,7 +13391,7 @@
       <c r="L512" s="26"/>
       <c r="M512" s="23"/>
     </row>
-    <row r="513" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:13" ht="13" customHeight="1">
       <c r="A513" s="29"/>
       <c r="B513" s="25"/>
       <c r="C513" s="28"/>
@@ -13404,7 +13406,7 @@
       <c r="L513" s="26"/>
       <c r="M513" s="23"/>
     </row>
-    <row r="514" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:13" ht="13" customHeight="1">
       <c r="A514" s="29"/>
       <c r="B514" s="25"/>
       <c r="C514" s="28"/>
@@ -13419,7 +13421,7 @@
       <c r="L514" s="26"/>
       <c r="M514" s="23"/>
     </row>
-    <row r="515" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:13" ht="13" customHeight="1">
       <c r="A515" s="29"/>
       <c r="B515" s="25"/>
       <c r="C515" s="28"/>
@@ -13434,7 +13436,7 @@
       <c r="L515" s="26"/>
       <c r="M515" s="23"/>
     </row>
-    <row r="516" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:13" ht="13" customHeight="1">
       <c r="A516" s="29"/>
       <c r="B516" s="25"/>
       <c r="C516" s="28"/>
@@ -13449,7 +13451,7 @@
       <c r="L516" s="26"/>
       <c r="M516" s="23"/>
     </row>
-    <row r="517" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:13" ht="13" customHeight="1">
       <c r="A517" s="29"/>
       <c r="B517" s="25"/>
       <c r="C517" s="28"/>
@@ -13464,7 +13466,7 @@
       <c r="L517" s="26"/>
       <c r="M517" s="23"/>
     </row>
-    <row r="518" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:13" ht="13" customHeight="1">
       <c r="A518" s="29"/>
       <c r="B518" s="25"/>
       <c r="C518" s="28"/>
@@ -13479,7 +13481,7 @@
       <c r="L518" s="26"/>
       <c r="M518" s="23"/>
     </row>
-    <row r="519" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:13" ht="13" customHeight="1">
       <c r="A519" s="29"/>
       <c r="B519" s="25"/>
       <c r="C519" s="28"/>
@@ -13494,7 +13496,7 @@
       <c r="L519" s="26"/>
       <c r="M519" s="23"/>
     </row>
-    <row r="520" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:13" ht="13" customHeight="1">
       <c r="A520" s="29"/>
       <c r="B520" s="25"/>
       <c r="C520" s="28"/>
@@ -13509,7 +13511,7 @@
       <c r="L520" s="26"/>
       <c r="M520" s="23"/>
     </row>
-    <row r="521" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:13" ht="13" customHeight="1">
       <c r="A521" s="29"/>
       <c r="B521" s="25"/>
       <c r="C521" s="28"/>
@@ -13524,7 +13526,7 @@
       <c r="L521" s="26"/>
       <c r="M521" s="23"/>
     </row>
-    <row r="522" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:13" ht="13" customHeight="1">
       <c r="A522" s="29"/>
       <c r="B522" s="25"/>
       <c r="C522" s="28"/>
@@ -13539,7 +13541,7 @@
       <c r="L522" s="26"/>
       <c r="M522" s="23"/>
     </row>
-    <row r="523" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:13" ht="13" customHeight="1">
       <c r="A523" s="29"/>
       <c r="B523" s="25"/>
       <c r="C523" s="28"/>
@@ -13554,7 +13556,7 @@
       <c r="L523" s="26"/>
       <c r="M523" s="23"/>
     </row>
-    <row r="524" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:13" ht="13" customHeight="1">
       <c r="A524" s="29"/>
       <c r="B524" s="25"/>
       <c r="C524" s="28"/>
@@ -13569,7 +13571,7 @@
       <c r="L524" s="26"/>
       <c r="M524" s="23"/>
     </row>
-    <row r="525" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:13" ht="13" customHeight="1">
       <c r="A525" s="29"/>
       <c r="B525" s="25"/>
       <c r="C525" s="28"/>
@@ -13584,7 +13586,7 @@
       <c r="L525" s="26"/>
       <c r="M525" s="23"/>
     </row>
-    <row r="526" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:13" ht="13" customHeight="1">
       <c r="A526" s="29"/>
       <c r="B526" s="25"/>
       <c r="C526" s="28"/>
@@ -13599,7 +13601,7 @@
       <c r="L526" s="26"/>
       <c r="M526" s="23"/>
     </row>
-    <row r="527" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:13" ht="13" customHeight="1">
       <c r="A527" s="29"/>
       <c r="B527" s="25"/>
       <c r="C527" s="28"/>
@@ -13614,7 +13616,7 @@
       <c r="L527" s="26"/>
       <c r="M527" s="23"/>
     </row>
-    <row r="528" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:13" ht="13" customHeight="1">
       <c r="A528" s="29"/>
       <c r="B528" s="25"/>
       <c r="C528" s="28"/>
@@ -13629,7 +13631,7 @@
       <c r="L528" s="26"/>
       <c r="M528" s="23"/>
     </row>
-    <row r="529" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:13" ht="13" customHeight="1">
       <c r="A529" s="29"/>
       <c r="B529" s="25"/>
       <c r="C529" s="28"/>
@@ -13644,7 +13646,7 @@
       <c r="L529" s="26"/>
       <c r="M529" s="23"/>
     </row>
-    <row r="530" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:13" ht="13" customHeight="1">
       <c r="A530" s="29"/>
       <c r="B530" s="25"/>
       <c r="C530" s="28"/>
@@ -13659,7 +13661,7 @@
       <c r="L530" s="26"/>
       <c r="M530" s="23"/>
     </row>
-    <row r="531" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:13" ht="13" customHeight="1">
       <c r="A531" s="29"/>
       <c r="B531" s="25"/>
       <c r="C531" s="28"/>
@@ -13674,7 +13676,7 @@
       <c r="L531" s="26"/>
       <c r="M531" s="23"/>
     </row>
-    <row r="532" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:13" ht="13" customHeight="1">
       <c r="A532" s="29"/>
       <c r="B532" s="25"/>
       <c r="C532" s="28"/>
@@ -13689,7 +13691,7 @@
       <c r="L532" s="26"/>
       <c r="M532" s="23"/>
     </row>
-    <row r="533" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:13" ht="13" customHeight="1">
       <c r="A533" s="29"/>
       <c r="B533" s="25"/>
       <c r="C533" s="28"/>
@@ -13704,7 +13706,7 @@
       <c r="L533" s="26"/>
       <c r="M533" s="23"/>
     </row>
-    <row r="534" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:13" ht="13" customHeight="1">
       <c r="A534" s="29"/>
       <c r="B534" s="25"/>
       <c r="C534" s="28"/>
@@ -13719,7 +13721,7 @@
       <c r="L534" s="26"/>
       <c r="M534" s="23"/>
     </row>
-    <row r="535" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:13" ht="13" customHeight="1">
       <c r="A535" s="29"/>
       <c r="B535" s="25"/>
       <c r="C535" s="28"/>
@@ -13734,7 +13736,7 @@
       <c r="L535" s="26"/>
       <c r="M535" s="23"/>
     </row>
-    <row r="536" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:13" ht="13" customHeight="1">
       <c r="A536" s="29"/>
       <c r="B536" s="25"/>
       <c r="C536" s="28"/>
@@ -13749,7 +13751,7 @@
       <c r="L536" s="26"/>
       <c r="M536" s="23"/>
     </row>
-    <row r="537" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:13" ht="13" customHeight="1">
       <c r="A537" s="29"/>
       <c r="B537" s="25"/>
       <c r="C537" s="28"/>
@@ -13764,7 +13766,7 @@
       <c r="L537" s="26"/>
       <c r="M537" s="23"/>
     </row>
-    <row r="538" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:13" ht="13" customHeight="1">
       <c r="A538" s="29"/>
       <c r="B538" s="25"/>
       <c r="C538" s="28"/>
@@ -13779,7 +13781,7 @@
       <c r="L538" s="26"/>
       <c r="M538" s="23"/>
     </row>
-    <row r="539" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:13" ht="13" customHeight="1">
       <c r="A539" s="29"/>
       <c r="B539" s="25"/>
       <c r="C539" s="28"/>
@@ -13794,7 +13796,7 @@
       <c r="L539" s="26"/>
       <c r="M539" s="23"/>
     </row>
-    <row r="540" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:13" ht="13" customHeight="1">
       <c r="A540" s="29"/>
       <c r="B540" s="25"/>
       <c r="C540" s="28"/>
@@ -13809,7 +13811,7 @@
       <c r="L540" s="26"/>
       <c r="M540" s="23"/>
     </row>
-    <row r="541" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:13" ht="13" customHeight="1">
       <c r="A541" s="29"/>
       <c r="B541" s="25"/>
       <c r="C541" s="28"/>
@@ -13824,7 +13826,7 @@
       <c r="L541" s="26"/>
       <c r="M541" s="23"/>
     </row>
-    <row r="542" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:13" ht="13" customHeight="1">
       <c r="A542" s="29"/>
       <c r="B542" s="25"/>
       <c r="C542" s="28"/>
@@ -13839,7 +13841,7 @@
       <c r="L542" s="26"/>
       <c r="M542" s="23"/>
     </row>
-    <row r="543" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:13" ht="13" customHeight="1">
       <c r="A543" s="29"/>
       <c r="B543" s="25"/>
       <c r="C543" s="28"/>
@@ -13854,7 +13856,7 @@
       <c r="L543" s="26"/>
       <c r="M543" s="23"/>
     </row>
-    <row r="544" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:13" ht="13" customHeight="1">
       <c r="A544" s="29"/>
       <c r="B544" s="25"/>
       <c r="C544" s="28"/>
@@ -13875,38 +13877,38 @@
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="235" yWindow="427" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="235" yWindow="427" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$G$2:$G$3</xm:f>
           </x14:formula1>
           <xm:sqref>F7:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$O$2:$O$4</xm:f>
           </x14:formula1>
           <xm:sqref>N7:N1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$F$2:$F$4</xm:f>
           </x14:formula1>
           <xm:sqref>E7:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$J$2:$J$7</xm:f>
           </x14:formula1>
           <xm:sqref>I7:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$H$2:$H$6</xm:f>
           </x14:formula1>
           <xm:sqref>G7:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Wertebereich!$L$2:$L$4</xm:f>
           </x14:formula1>
@@ -13914,20 +13916,23 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Blatt2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Blatt2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
@@ -13939,7 +13944,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14001,7 +14006,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="F2" t="s">
         <v>24</v>
       </c>
@@ -14021,7 +14026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="F3" t="s">
         <v>25</v>
       </c>
@@ -14041,7 +14046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="F4" t="s">
         <v>30</v>
       </c>
@@ -14055,7 +14060,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="H5">
         <v>20</v>
       </c>
@@ -14063,7 +14068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="H6">
         <v>25</v>
       </c>
@@ -14071,12 +14076,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="J7" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Work/development/opengever.core/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasgraf/Plone/buildouts/opengever/og-zgschmieden/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DB6FF-8E0B-7342-9356-35AC27FDB76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F8749-D878-0B4C-9EF3-D9223A283CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="370">
   <si>
     <t>reference_number</t>
   </si>
@@ -934,9 +934,6 @@
   </si>
   <si>
     <t>og_demo-ftw_users</t>
-  </si>
-  <si>
-    <t>Ordnungssysteme</t>
   </si>
   <si>
     <t>Système de classement</t>
@@ -2347,10 +2344,10 @@
   <dimension ref="A1:U544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2416,7 +2413,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>60</v>
@@ -2481,7 +2478,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>55</v>
@@ -2546,7 +2543,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>2</v>
@@ -2603,13 +2600,13 @@
     <row r="6" spans="1:21" s="15" customFormat="1" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>262</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2653,10 +2650,10 @@
         <v>67</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="25" t="s">
@@ -2680,10 +2677,10 @@
         <v>69</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="25" t="s">
@@ -2710,7 +2707,7 @@
         <v>208</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="25" t="s">
@@ -2734,10 +2731,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="25" t="s">
@@ -2776,7 +2773,7 @@
         <v>209</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="25" t="s">
@@ -2800,10 +2797,10 @@
         <v>77</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="25" t="s">
@@ -2827,10 +2824,10 @@
         <v>79</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>228</v>
@@ -2856,10 +2853,10 @@
         <v>81</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>229</v>
@@ -2897,7 +2894,7 @@
         <v>210</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="25" t="s">
@@ -2933,7 +2930,7 @@
         <v>211</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="25" t="s">
@@ -2969,7 +2966,7 @@
         <v>212</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>230</v>
@@ -2998,7 +2995,7 @@
         <v>213</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>231</v>
@@ -3037,7 +3034,7 @@
         <v>214</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="25" t="s">
@@ -3061,10 +3058,10 @@
         <v>81</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="25" t="s">
@@ -3097,10 +3094,10 @@
         <v>94</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="25" t="s">
@@ -3133,10 +3130,10 @@
         <v>96</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="25" t="s">
@@ -3172,7 +3169,7 @@
         <v>215</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="25" t="s">
@@ -3196,10 +3193,10 @@
         <v>81</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="25" t="s">
@@ -3232,10 +3229,10 @@
         <v>94</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="25" t="s">
@@ -3268,10 +3265,10 @@
         <v>96</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="25" t="s">
@@ -3304,10 +3301,10 @@
         <v>103</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="25" t="s">
@@ -3331,10 +3328,10 @@
         <v>105</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="25" t="s">
@@ -3358,10 +3355,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="25" t="s">
@@ -3397,7 +3394,7 @@
         <v>216</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="25" t="s">
@@ -3421,10 +3418,10 @@
         <v>110</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="25" t="s">
@@ -3448,10 +3445,10 @@
         <v>81</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="25" t="s">
@@ -3487,7 +3484,7 @@
         <v>217</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="25" t="s">
@@ -3511,10 +3508,10 @@
         <v>115</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="25" t="s">
@@ -3538,10 +3535,10 @@
         <v>117</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="25" t="s">
@@ -3568,7 +3565,7 @@
         <v>218</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="25" t="s">
@@ -3592,10 +3589,10 @@
         <v>121</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>232</v>
@@ -3621,10 +3618,10 @@
         <v>123</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="25" t="s">
@@ -3648,10 +3645,10 @@
         <v>125</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="25" t="s">
@@ -3675,10 +3672,10 @@
         <v>127</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="25" t="s">
@@ -3705,7 +3702,7 @@
         <v>219</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="25" t="s">
@@ -3729,10 +3726,10 @@
         <v>131</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="25" t="s">
@@ -3756,10 +3753,10 @@
         <v>133</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="25" t="s">
@@ -3786,7 +3783,7 @@
         <v>220</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="25" t="s">
@@ -3810,10 +3807,10 @@
         <v>137</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="25" t="s">
@@ -3837,10 +3834,10 @@
         <v>81</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="25" t="s">
@@ -3873,10 +3870,10 @@
         <v>140</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="25" t="s">
@@ -3900,10 +3897,10 @@
         <v>142</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="25" t="s">
@@ -3936,10 +3933,10 @@
         <v>144</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="25" t="s">
@@ -4013,7 +4010,7 @@
         <v>221</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="25" t="s">
@@ -4046,10 +4043,10 @@
         <v>150</v>
       </c>
       <c r="C52" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="25" t="s">
@@ -4073,10 +4070,10 @@
         <v>152</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="25" t="s">
@@ -4100,10 +4097,10 @@
         <v>154</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="25" t="s">
@@ -4136,10 +4133,10 @@
         <v>156</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>234</v>
@@ -4177,7 +4174,7 @@
         <v>222</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="25" t="s">
@@ -4210,10 +4207,10 @@
         <v>160</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="25" t="s">
@@ -4246,10 +4243,10 @@
         <v>162</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="25" t="s">
@@ -4273,10 +4270,10 @@
         <v>164</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="25" t="s">
@@ -4300,10 +4297,10 @@
         <v>81</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>235</v>
@@ -4338,10 +4335,10 @@
         <v>167</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="25" t="s">
@@ -4374,10 +4371,10 @@
         <v>169</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="25" t="s">
@@ -4401,10 +4398,10 @@
         <v>171</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>236</v>
@@ -4442,7 +4439,7 @@
         <v>223</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>237</v>
@@ -4477,10 +4474,10 @@
         <v>175</v>
       </c>
       <c r="C65" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D65" s="28" t="s">
         <v>338</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>339</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>238</v>
@@ -4515,10 +4512,10 @@
         <v>177</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>239</v>
@@ -4556,7 +4553,7 @@
         <v>224</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>240</v>
@@ -4591,10 +4588,10 @@
         <v>181</v>
       </c>
       <c r="C68" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" s="28" t="s">
         <v>343</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>344</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="25" t="s">
@@ -4627,10 +4624,10 @@
         <v>183</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>241</v>
@@ -4665,10 +4662,10 @@
         <v>185</v>
       </c>
       <c r="C70" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D70" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>347</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="25" t="s">
@@ -4695,7 +4692,7 @@
         <v>225</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="25" t="s">
@@ -4719,10 +4716,10 @@
         <v>189</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="25" t="s">
@@ -4749,7 +4746,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="25" t="s">
@@ -4773,10 +4770,10 @@
         <v>81</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="25" t="s">
@@ -4809,10 +4806,10 @@
         <v>194</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>242</v>
@@ -4847,10 +4844,10 @@
         <v>196</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>243</v>
@@ -4885,10 +4882,10 @@
         <v>198</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="25" t="s">
@@ -4921,10 +4918,10 @@
         <v>200</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>244</v>
@@ -4989,10 +4986,10 @@
         <v>81</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="25" t="s">
@@ -5025,10 +5022,10 @@
         <v>205</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="25" t="s">
@@ -5052,10 +5049,10 @@
         <v>207</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="25" t="s">

--- a/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
+++ b/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/ordnungssystem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasgraf/Plone/buildouts/opengever/og-zgschmieden/opengever/examplecontent/profiles/repository_minimal/opengever_repositories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErichGollino\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F8749-D878-0B4C-9EF3-D9223A283CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80329EB7-AFC5-4FA8-9F85-FEEFB1170396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="369">
   <si>
     <t>reference_number</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Geheim</t>
-  </si>
-  <si>
-    <t>Noch nicht geprüft</t>
   </si>
   <si>
     <t>Anbieten</t>
@@ -1420,7 +1417,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1462,14 +1459,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1526,34 +1517,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,7 +1659,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1860,150 +1823,144 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="136">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2344,13 +2301,13 @@
   <dimension ref="A1:U544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="13" style="47" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="48" customWidth="1"/>
@@ -2372,7 +2329,7 @@
     <col min="24" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.8">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2345,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.8">
       <c r="A2" s="2"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2402,42 +2359,42 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>21</v>
@@ -2446,93 +2403,93 @@
         <v>22</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="U3" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="13" customFormat="1" ht="119" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="A4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="13" customFormat="1" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="50" customFormat="1" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" s="50" customFormat="1" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="49" t="s">
         <v>0</v>
       </c>
@@ -2540,10 +2497,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>2</v>
@@ -2594,19 +2551,19 @@
         <v>17</v>
       </c>
       <c r="U5" s="51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="15" customFormat="1" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="15" customFormat="1" ht="119" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2624,36 +2581,36 @@
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R6" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S6" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T6" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U6" s="53" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="25" t="s">
@@ -2669,18 +2626,18 @@
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="C8" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="25" t="s">
@@ -2696,18 +2653,18 @@
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
     </row>
-    <row r="9" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="C9" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="25" t="s">
@@ -2723,18 +2680,18 @@
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="C10" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="25" t="s">
@@ -2743,37 +2700,37 @@
       <c r="M10" s="26"/>
       <c r="N10" s="23"/>
       <c r="O10" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="C11" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="25" t="s">
@@ -2789,18 +2746,18 @@
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="C12" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="25" t="s">
@@ -2816,21 +2773,21 @@
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="C13" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>24</v>
@@ -2845,21 +2802,21 @@
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="C14" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>24</v>
@@ -2868,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>27</v>
@@ -2883,18 +2840,18 @@
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
     </row>
-    <row r="15" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="C15" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="25" t="s">
@@ -2904,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>27</v>
@@ -2919,18 +2876,18 @@
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="C16" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="25" t="s">
@@ -2940,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>27</v>
@@ -2955,21 +2912,21 @@
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
     </row>
-    <row r="17" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="C17" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>24</v>
@@ -2984,21 +2941,21 @@
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
     </row>
-    <row r="18" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="C18" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>24</v>
@@ -3007,34 +2964,34 @@
       <c r="N18" s="23"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S18" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A19" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="C19" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="25" t="s">
@@ -3050,18 +3007,18 @@
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="25" t="s">
@@ -3071,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>27</v>
@@ -3086,18 +3043,18 @@
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="25" t="s">
@@ -3107,7 +3064,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>27</v>
@@ -3122,18 +3079,18 @@
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="C22" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="25" t="s">
@@ -3143,7 +3100,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>27</v>
@@ -3158,18 +3115,18 @@
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
     </row>
-    <row r="23" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>98</v>
-      </c>
       <c r="C23" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="25" t="s">
@@ -3185,18 +3142,18 @@
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
     </row>
-    <row r="24" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="25" t="s">
@@ -3206,7 +3163,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J24" s="25" t="s">
         <v>27</v>
@@ -3221,18 +3178,18 @@
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
     </row>
-    <row r="25" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="25" t="s">
@@ -3242,7 +3199,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>27</v>
@@ -3257,18 +3214,18 @@
       <c r="T25" s="27"/>
       <c r="U25" s="27"/>
     </row>
-    <row r="26" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="25" t="s">
@@ -3278,7 +3235,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>27</v>
@@ -3293,18 +3250,18 @@
       <c r="T26" s="27"/>
       <c r="U26" s="27"/>
     </row>
-    <row r="27" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A27" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>103</v>
-      </c>
       <c r="C27" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="25" t="s">
@@ -3320,18 +3277,18 @@
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
     </row>
-    <row r="28" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="C28" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="25" t="s">
@@ -3347,18 +3304,18 @@
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
     </row>
-    <row r="29" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="25" t="s">
@@ -3368,7 +3325,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>27</v>
@@ -3383,18 +3340,18 @@
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
     </row>
-    <row r="30" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="C30" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="25" t="s">
@@ -3410,18 +3367,18 @@
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
     </row>
-    <row r="31" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A31" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="C31" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="25" t="s">
@@ -3437,18 +3394,18 @@
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
     </row>
-    <row r="32" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A32" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="25" t="s">
@@ -3458,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>27</v>
@@ -3473,18 +3430,18 @@
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
     </row>
-    <row r="33" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A33" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="C33" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="25" t="s">
@@ -3500,18 +3457,18 @@
       <c r="T33" s="27"/>
       <c r="U33" s="27"/>
     </row>
-    <row r="34" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A34" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="C34" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="25" t="s">
@@ -3527,18 +3484,18 @@
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
     </row>
-    <row r="35" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A35" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="C35" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="25" t="s">
@@ -3554,18 +3511,18 @@
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
     </row>
-    <row r="36" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A36" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="C36" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="25" t="s">
@@ -3581,21 +3538,21 @@
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
     </row>
-    <row r="37" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="C37" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>24</v>
@@ -3610,18 +3567,18 @@
       <c r="T37" s="27"/>
       <c r="U37" s="27"/>
     </row>
-    <row r="38" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A38" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>123</v>
-      </c>
       <c r="C38" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="25" t="s">
@@ -3637,18 +3594,18 @@
       <c r="T38" s="27"/>
       <c r="U38" s="27"/>
     </row>
-    <row r="39" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A39" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="C39" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="25" t="s">
@@ -3664,18 +3621,18 @@
       <c r="T39" s="27"/>
       <c r="U39" s="27"/>
     </row>
-    <row r="40" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A40" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="C40" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="25" t="s">
@@ -3691,18 +3648,18 @@
       <c r="T40" s="27"/>
       <c r="U40" s="27"/>
     </row>
-    <row r="41" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A41" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="C41" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="25" t="s">
@@ -3718,18 +3675,18 @@
       <c r="T41" s="27"/>
       <c r="U41" s="27"/>
     </row>
-    <row r="42" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A42" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C42" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="25" t="s">
@@ -3745,18 +3702,18 @@
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
     </row>
-    <row r="43" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A43" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="C43" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="25" t="s">
@@ -3772,18 +3729,18 @@
       <c r="T43" s="27"/>
       <c r="U43" s="27"/>
     </row>
-    <row r="44" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A44" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="C44" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="25" t="s">
@@ -3799,18 +3756,18 @@
       <c r="T44" s="27"/>
       <c r="U44" s="27"/>
     </row>
-    <row r="45" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A45" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="C45" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="25" t="s">
@@ -3826,18 +3783,18 @@
       <c r="T45" s="27"/>
       <c r="U45" s="27"/>
     </row>
-    <row r="46" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A46" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="25" t="s">
@@ -3847,7 +3804,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>27</v>
@@ -3862,18 +3819,18 @@
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
     </row>
-    <row r="47" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A47" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>140</v>
-      </c>
       <c r="C47" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="25" t="s">
@@ -3889,18 +3846,18 @@
       <c r="T47" s="27"/>
       <c r="U47" s="27"/>
     </row>
-    <row r="48" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="C48" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="25" t="s">
@@ -3910,7 +3867,7 @@
         <v>25</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J48" s="25" t="s">
         <v>27</v>
@@ -3925,18 +3882,18 @@
       <c r="T48" s="27"/>
       <c r="U48" s="27"/>
     </row>
-    <row r="49" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A49" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="C49" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="25" t="s">
@@ -3946,7 +3903,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>27</v>
@@ -3961,21 +3918,21 @@
       <c r="T49" s="27"/>
       <c r="U49" s="27"/>
     </row>
-    <row r="50" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>146</v>
-      </c>
       <c r="C50" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>24</v>
@@ -3984,7 +3941,7 @@
         <v>25</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J50" s="25" t="s">
         <v>27</v>
@@ -3999,18 +3956,18 @@
       <c r="T50" s="27"/>
       <c r="U50" s="27"/>
     </row>
-    <row r="51" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A51" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="C51" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="25" t="s">
@@ -4020,7 +3977,7 @@
         <v>25</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J51" s="25" t="s">
         <v>27</v>
@@ -4035,18 +3992,18 @@
       <c r="T51" s="27"/>
       <c r="U51" s="27"/>
     </row>
-    <row r="52" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A52" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>367</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>368</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="25" t="s">
@@ -4062,18 +4019,18 @@
       <c r="T52" s="27"/>
       <c r="U52" s="27"/>
     </row>
-    <row r="53" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A53" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>152</v>
-      </c>
       <c r="C53" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="25" t="s">
@@ -4089,18 +4046,18 @@
       <c r="T53" s="27"/>
       <c r="U53" s="27"/>
     </row>
-    <row r="54" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A54" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>154</v>
-      </c>
       <c r="C54" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="25" t="s">
@@ -4110,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J54" s="25" t="s">
         <v>28</v>
@@ -4125,21 +4082,21 @@
       <c r="T54" s="27"/>
       <c r="U54" s="27"/>
     </row>
-    <row r="55" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A55" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>369</v>
+      <c r="C55" s="28" t="s">
+        <v>368</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>24</v>
@@ -4148,7 +4105,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J55" s="25" t="s">
         <v>29</v>
@@ -4163,18 +4120,18 @@
       <c r="T55" s="27"/>
       <c r="U55" s="27"/>
     </row>
-    <row r="56" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A56" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>158</v>
-      </c>
       <c r="C56" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="25" t="s">
@@ -4184,7 +4141,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J56" s="25" t="s">
         <v>27</v>
@@ -4199,18 +4156,18 @@
       <c r="T56" s="27"/>
       <c r="U56" s="27"/>
     </row>
-    <row r="57" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A57" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>160</v>
-      </c>
       <c r="C57" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="25" t="s">
@@ -4220,7 +4177,7 @@
         <v>25</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J57" s="25" t="s">
         <v>29</v>
@@ -4235,18 +4192,18 @@
       <c r="T57" s="27"/>
       <c r="U57" s="27"/>
     </row>
-    <row r="58" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A58" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="C58" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="25" t="s">
@@ -4262,18 +4219,18 @@
       <c r="T58" s="27"/>
       <c r="U58" s="27"/>
     </row>
-    <row r="59" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A59" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>164</v>
-      </c>
       <c r="C59" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="25" t="s">
@@ -4289,21 +4246,21 @@
       <c r="T59" s="27"/>
       <c r="U59" s="27"/>
     </row>
-    <row r="60" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A60" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>24</v>
@@ -4312,7 +4269,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>27</v>
@@ -4327,18 +4284,18 @@
       <c r="T60" s="27"/>
       <c r="U60" s="27"/>
     </row>
-    <row r="61" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A61" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>167</v>
-      </c>
       <c r="C61" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="25" t="s">
@@ -4348,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J61" s="25" t="s">
         <v>29</v>
@@ -4363,18 +4320,18 @@
       <c r="T61" s="27"/>
       <c r="U61" s="27"/>
     </row>
-    <row r="62" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A62" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>169</v>
-      </c>
       <c r="C62" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="25" t="s">
@@ -4390,21 +4347,21 @@
       <c r="T62" s="27"/>
       <c r="U62" s="27"/>
     </row>
-    <row r="63" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A63" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>171</v>
-      </c>
       <c r="C63" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>24</v>
@@ -4413,7 +4370,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J63" s="25" t="s">
         <v>29</v>
@@ -4428,21 +4385,21 @@
       <c r="T63" s="27"/>
       <c r="U63" s="27"/>
     </row>
-    <row r="64" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A64" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>173</v>
-      </c>
       <c r="C64" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>24</v>
@@ -4451,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>29</v>
@@ -4466,21 +4423,21 @@
       <c r="T64" s="27"/>
       <c r="U64" s="27"/>
     </row>
-    <row r="65" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A65" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>175</v>
-      </c>
       <c r="C65" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="D65" s="28" t="s">
-        <v>338</v>
-      </c>
       <c r="E65" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>24</v>
@@ -4489,7 +4446,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>29</v>
@@ -4504,21 +4461,21 @@
       <c r="T65" s="27"/>
       <c r="U65" s="27"/>
     </row>
-    <row r="66" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A66" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>177</v>
-      </c>
       <c r="C66" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>24</v>
@@ -4527,7 +4484,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>29</v>
@@ -4542,21 +4499,21 @@
       <c r="T66" s="27"/>
       <c r="U66" s="27"/>
     </row>
-    <row r="67" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A67" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>179</v>
-      </c>
       <c r="C67" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>24</v>
@@ -4565,7 +4522,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>29</v>
@@ -4580,18 +4537,18 @@
       <c r="T67" s="27"/>
       <c r="U67" s="27"/>
     </row>
-    <row r="68" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A68" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>181</v>
-      </c>
       <c r="C68" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" s="28" t="s">
         <v>342</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>343</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="25" t="s">
@@ -4601,7 +4558,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J68" s="25" t="s">
         <v>28</v>
@@ -4616,21 +4573,21 @@
       <c r="T68" s="27"/>
       <c r="U68" s="27"/>
     </row>
-    <row r="69" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A69" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B69" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="C69" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>24</v>
@@ -4639,7 +4596,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>28</v>
@@ -4654,18 +4611,18 @@
       <c r="T69" s="27"/>
       <c r="U69" s="27"/>
     </row>
-    <row r="70" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A70" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>185</v>
-      </c>
       <c r="C70" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" s="28" t="s">
         <v>345</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>346</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="25" t="s">
@@ -4681,18 +4638,18 @@
       <c r="T70" s="27"/>
       <c r="U70" s="27"/>
     </row>
-    <row r="71" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A71" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>187</v>
-      </c>
       <c r="C71" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="25" t="s">
@@ -4708,18 +4665,18 @@
       <c r="T71" s="27"/>
       <c r="U71" s="27"/>
     </row>
-    <row r="72" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A72" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>189</v>
-      </c>
       <c r="C72" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="25" t="s">
@@ -4735,18 +4692,18 @@
       <c r="T72" s="27"/>
       <c r="U72" s="27"/>
     </row>
-    <row r="73" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A73" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>191</v>
-      </c>
       <c r="C73" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="25" t="s">
@@ -4762,18 +4719,18 @@
       <c r="T73" s="27"/>
       <c r="U73" s="27"/>
     </row>
-    <row r="74" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A74" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="25" t="s">
@@ -4783,7 +4740,7 @@
         <v>10</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>27</v>
@@ -4798,21 +4755,21 @@
       <c r="T74" s="27"/>
       <c r="U74" s="27"/>
     </row>
-    <row r="75" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A75" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="C75" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>24</v>
@@ -4821,7 +4778,7 @@
         <v>10</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>28</v>
@@ -4836,21 +4793,21 @@
       <c r="T75" s="27"/>
       <c r="U75" s="27"/>
     </row>
-    <row r="76" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A76" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>196</v>
-      </c>
       <c r="C76" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>24</v>
@@ -4859,7 +4816,7 @@
         <v>10</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>28</v>
@@ -4874,18 +4831,18 @@
       <c r="T76" s="27"/>
       <c r="U76" s="27"/>
     </row>
-    <row r="77" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A77" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>198</v>
-      </c>
       <c r="C77" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="25" t="s">
@@ -4895,7 +4852,7 @@
         <v>10</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>28</v>
@@ -4910,21 +4867,21 @@
       <c r="T77" s="27"/>
       <c r="U77" s="27"/>
     </row>
-    <row r="78" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A78" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>200</v>
-      </c>
       <c r="C78" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>24</v>
@@ -4933,7 +4890,7 @@
         <v>10</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>28</v>
@@ -4948,18 +4905,18 @@
       <c r="T78" s="27"/>
       <c r="U78" s="27"/>
     </row>
-    <row r="79" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A79" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>202</v>
-      </c>
       <c r="C79" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="25" t="s">
@@ -4978,18 +4935,18 @@
       <c r="T79" s="27"/>
       <c r="U79" s="27"/>
     </row>
-    <row r="80" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A80" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="25" t="s">
@@ -4999,7 +4956,7 @@
         <v>10</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J80" s="25" t="s">
         <v>27</v>
@@ -5014,18 +4971,18 @@
       <c r="T80" s="27"/>
       <c r="U80" s="27"/>
     </row>
-    <row r="81" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A81" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>205</v>
-      </c>
       <c r="C81" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="25" t="s">
@@ -5041,18 +4998,18 @@
       <c r="T81" s="27"/>
       <c r="U81" s="27"/>
     </row>
-    <row r="82" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" s="25" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A82" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>207</v>
-      </c>
       <c r="C82" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="25" t="s">
@@ -5068,7 +5025,7 @@
       <c r="T82" s="27"/>
       <c r="U82" s="27"/>
     </row>
-    <row r="83" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A83" s="29"/>
       <c r="B83" s="25"/>
       <c r="C83" s="28"/>
@@ -5091,7 +5048,7 @@
       <c r="T83" s="32"/>
       <c r="U83" s="32"/>
     </row>
-    <row r="84" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A84" s="29"/>
       <c r="B84" s="25"/>
       <c r="C84" s="28"/>
@@ -5114,7 +5071,7 @@
       <c r="T84" s="35"/>
       <c r="U84" s="35"/>
     </row>
-    <row r="85" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A85" s="29"/>
       <c r="B85" s="25"/>
       <c r="C85" s="28"/>
@@ -5137,7 +5094,7 @@
       <c r="T85" s="35"/>
       <c r="U85" s="35"/>
     </row>
-    <row r="86" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A86" s="29"/>
       <c r="B86" s="25"/>
       <c r="C86" s="28"/>
@@ -5160,7 +5117,7 @@
       <c r="T86" s="35"/>
       <c r="U86" s="35"/>
     </row>
-    <row r="87" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A87" s="29"/>
       <c r="B87" s="25"/>
       <c r="C87" s="28"/>
@@ -5183,7 +5140,7 @@
       <c r="T87" s="35"/>
       <c r="U87" s="35"/>
     </row>
-    <row r="88" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A88" s="29"/>
       <c r="B88" s="25"/>
       <c r="C88" s="28"/>
@@ -5206,7 +5163,7 @@
       <c r="T88" s="35"/>
       <c r="U88" s="35"/>
     </row>
-    <row r="89" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A89" s="29"/>
       <c r="B89" s="25"/>
       <c r="C89" s="28"/>
@@ -5229,7 +5186,7 @@
       <c r="T89" s="35"/>
       <c r="U89" s="35"/>
     </row>
-    <row r="90" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A90" s="29"/>
       <c r="B90" s="25"/>
       <c r="C90" s="28"/>
@@ -5252,7 +5209,7 @@
       <c r="T90" s="35"/>
       <c r="U90" s="35"/>
     </row>
-    <row r="91" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A91" s="29"/>
       <c r="B91" s="25"/>
       <c r="C91" s="28"/>
@@ -5275,7 +5232,7 @@
       <c r="T91" s="35"/>
       <c r="U91" s="35"/>
     </row>
-    <row r="92" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A92" s="29"/>
       <c r="B92" s="25"/>
       <c r="C92" s="28"/>
@@ -5298,7 +5255,7 @@
       <c r="T92" s="35"/>
       <c r="U92" s="35"/>
     </row>
-    <row r="93" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A93" s="29"/>
       <c r="B93" s="25"/>
       <c r="C93" s="28"/>
@@ -5321,7 +5278,7 @@
       <c r="T93" s="35"/>
       <c r="U93" s="35"/>
     </row>
-    <row r="94" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A94" s="29"/>
       <c r="B94" s="25"/>
       <c r="C94" s="28"/>
@@ -5344,7 +5301,7 @@
       <c r="T94" s="35"/>
       <c r="U94" s="35"/>
     </row>
-    <row r="95" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A95" s="29"/>
       <c r="B95" s="25"/>
       <c r="C95" s="28"/>
@@ -5367,7 +5324,7 @@
       <c r="T95" s="35"/>
       <c r="U95" s="35"/>
     </row>
-    <row r="96" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A96" s="29"/>
       <c r="B96" s="25"/>
       <c r="C96" s="28"/>
@@ -5390,7 +5347,7 @@
       <c r="T96" s="35"/>
       <c r="U96" s="35"/>
     </row>
-    <row r="97" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A97" s="29"/>
       <c r="B97" s="25"/>
       <c r="C97" s="28"/>
@@ -5413,7 +5370,7 @@
       <c r="T97" s="35"/>
       <c r="U97" s="35"/>
     </row>
-    <row r="98" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A98" s="29"/>
       <c r="B98" s="25"/>
       <c r="C98" s="28"/>
@@ -5436,7 +5393,7 @@
       <c r="T98" s="35"/>
       <c r="U98" s="35"/>
     </row>
-    <row r="99" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A99" s="29"/>
       <c r="B99" s="25"/>
       <c r="C99" s="28"/>
@@ -5459,7 +5416,7 @@
       <c r="T99" s="35"/>
       <c r="U99" s="35"/>
     </row>
-    <row r="100" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A100" s="29"/>
       <c r="B100" s="25"/>
       <c r="C100" s="28"/>
@@ -5482,7 +5439,7 @@
       <c r="T100" s="35"/>
       <c r="U100" s="35"/>
     </row>
-    <row r="101" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A101" s="29"/>
       <c r="B101" s="25"/>
       <c r="C101" s="28"/>
@@ -5505,7 +5462,7 @@
       <c r="T101" s="35"/>
       <c r="U101" s="35"/>
     </row>
-    <row r="102" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A102" s="29"/>
       <c r="B102" s="25"/>
       <c r="C102" s="28"/>
@@ -5528,7 +5485,7 @@
       <c r="T102" s="35"/>
       <c r="U102" s="35"/>
     </row>
-    <row r="103" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A103" s="29"/>
       <c r="B103" s="25"/>
       <c r="C103" s="28"/>
@@ -5551,7 +5508,7 @@
       <c r="T103" s="35"/>
       <c r="U103" s="35"/>
     </row>
-    <row r="104" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A104" s="29"/>
       <c r="B104" s="25"/>
       <c r="C104" s="28"/>
@@ -5574,7 +5531,7 @@
       <c r="T104" s="35"/>
       <c r="U104" s="35"/>
     </row>
-    <row r="105" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A105" s="29"/>
       <c r="B105" s="25"/>
       <c r="C105" s="28"/>
@@ -5597,7 +5554,7 @@
       <c r="T105" s="35"/>
       <c r="U105" s="35"/>
     </row>
-    <row r="106" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A106" s="37"/>
       <c r="B106" s="25"/>
       <c r="C106" s="28"/>
@@ -5620,7 +5577,7 @@
       <c r="T106" s="35"/>
       <c r="U106" s="35"/>
     </row>
-    <row r="107" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A107" s="29"/>
       <c r="B107" s="25"/>
       <c r="C107" s="28"/>
@@ -5643,7 +5600,7 @@
       <c r="T107" s="35"/>
       <c r="U107" s="35"/>
     </row>
-    <row r="108" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A108" s="29"/>
       <c r="B108" s="25"/>
       <c r="C108" s="28"/>
@@ -5666,7 +5623,7 @@
       <c r="T108" s="35"/>
       <c r="U108" s="35"/>
     </row>
-    <row r="109" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A109" s="29"/>
       <c r="B109" s="25"/>
       <c r="C109" s="28"/>
@@ -5689,7 +5646,7 @@
       <c r="T109" s="35"/>
       <c r="U109" s="35"/>
     </row>
-    <row r="110" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A110" s="29"/>
       <c r="B110" s="25"/>
       <c r="C110" s="28"/>
@@ -5712,7 +5669,7 @@
       <c r="T110" s="35"/>
       <c r="U110" s="35"/>
     </row>
-    <row r="111" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A111" s="29"/>
       <c r="B111" s="25"/>
       <c r="C111" s="28"/>
@@ -5735,7 +5692,7 @@
       <c r="T111" s="35"/>
       <c r="U111" s="35"/>
     </row>
-    <row r="112" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A112" s="29"/>
       <c r="B112" s="25"/>
       <c r="C112" s="28"/>
@@ -5758,7 +5715,7 @@
       <c r="T112" s="35"/>
       <c r="U112" s="35"/>
     </row>
-    <row r="113" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A113" s="29"/>
       <c r="B113" s="25"/>
       <c r="C113" s="28"/>
@@ -5781,7 +5738,7 @@
       <c r="T113" s="35"/>
       <c r="U113" s="35"/>
     </row>
-    <row r="114" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A114" s="29"/>
       <c r="B114" s="25"/>
       <c r="C114" s="28"/>
@@ -5804,7 +5761,7 @@
       <c r="T114" s="35"/>
       <c r="U114" s="35"/>
     </row>
-    <row r="115" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A115" s="29"/>
       <c r="B115" s="25"/>
       <c r="C115" s="28"/>
@@ -5827,7 +5784,7 @@
       <c r="T115" s="35"/>
       <c r="U115" s="35"/>
     </row>
-    <row r="116" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A116" s="29"/>
       <c r="B116" s="25"/>
       <c r="C116" s="28"/>
@@ -5850,7 +5807,7 @@
       <c r="T116" s="35"/>
       <c r="U116" s="35"/>
     </row>
-    <row r="117" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A117" s="29"/>
       <c r="B117" s="25"/>
       <c r="C117" s="28"/>
@@ -5873,7 +5830,7 @@
       <c r="T117" s="35"/>
       <c r="U117" s="35"/>
     </row>
-    <row r="118" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A118" s="29"/>
       <c r="B118" s="25"/>
       <c r="C118" s="28"/>
@@ -5896,7 +5853,7 @@
       <c r="T118" s="35"/>
       <c r="U118" s="35"/>
     </row>
-    <row r="119" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A119" s="29"/>
       <c r="B119" s="25"/>
       <c r="C119" s="28"/>
@@ -5919,7 +5876,7 @@
       <c r="T119" s="35"/>
       <c r="U119" s="35"/>
     </row>
-    <row r="120" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A120" s="29"/>
       <c r="B120" s="25"/>
       <c r="C120" s="28"/>
@@ -5942,7 +5899,7 @@
       <c r="T120" s="35"/>
       <c r="U120" s="35"/>
     </row>
-    <row r="121" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A121" s="29"/>
       <c r="B121" s="25"/>
       <c r="C121" s="28"/>
@@ -5965,7 +5922,7 @@
       <c r="T121" s="35"/>
       <c r="U121" s="35"/>
     </row>
-    <row r="122" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A122" s="29"/>
       <c r="B122" s="25"/>
       <c r="C122" s="28"/>
@@ -5988,7 +5945,7 @@
       <c r="T122" s="35"/>
       <c r="U122" s="35"/>
     </row>
-    <row r="123" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A123" s="29"/>
       <c r="B123" s="25"/>
       <c r="C123" s="28"/>
@@ -6011,7 +5968,7 @@
       <c r="T123" s="35"/>
       <c r="U123" s="35"/>
     </row>
-    <row r="124" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A124" s="29"/>
       <c r="B124" s="25"/>
       <c r="C124" s="28"/>
@@ -6034,7 +5991,7 @@
       <c r="T124" s="35"/>
       <c r="U124" s="35"/>
     </row>
-    <row r="125" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A125" s="29"/>
       <c r="B125" s="25"/>
       <c r="C125" s="28"/>
@@ -6057,7 +6014,7 @@
       <c r="T125" s="35"/>
       <c r="U125" s="35"/>
     </row>
-    <row r="126" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A126" s="29"/>
       <c r="B126" s="25"/>
       <c r="C126" s="28"/>
@@ -6080,7 +6037,7 @@
       <c r="T126" s="35"/>
       <c r="U126" s="35"/>
     </row>
-    <row r="127" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="29"/>
       <c r="B127" s="25"/>
       <c r="C127" s="28"/>
@@ -6103,7 +6060,7 @@
       <c r="T127" s="35"/>
       <c r="U127" s="35"/>
     </row>
-    <row r="128" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A128" s="29"/>
       <c r="B128" s="25"/>
       <c r="C128" s="28"/>
@@ -6126,7 +6083,7 @@
       <c r="T128" s="35"/>
       <c r="U128" s="35"/>
     </row>
-    <row r="129" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A129" s="29"/>
       <c r="B129" s="25"/>
       <c r="C129" s="28"/>
@@ -6149,7 +6106,7 @@
       <c r="T129" s="35"/>
       <c r="U129" s="35"/>
     </row>
-    <row r="130" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A130" s="29"/>
       <c r="B130" s="25"/>
       <c r="C130" s="28"/>
@@ -6172,7 +6129,7 @@
       <c r="T130" s="35"/>
       <c r="U130" s="35"/>
     </row>
-    <row r="131" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A131" s="29"/>
       <c r="B131" s="25"/>
       <c r="C131" s="28"/>
@@ -6195,7 +6152,7 @@
       <c r="T131" s="35"/>
       <c r="U131" s="35"/>
     </row>
-    <row r="132" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A132" s="29"/>
       <c r="B132" s="25"/>
       <c r="C132" s="28"/>
@@ -6218,7 +6175,7 @@
       <c r="T132" s="35"/>
       <c r="U132" s="35"/>
     </row>
-    <row r="133" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A133" s="29"/>
       <c r="B133" s="25"/>
       <c r="C133" s="28"/>
@@ -6241,7 +6198,7 @@
       <c r="T133" s="35"/>
       <c r="U133" s="35"/>
     </row>
-    <row r="134" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A134" s="29"/>
       <c r="B134" s="25"/>
       <c r="C134" s="28"/>
@@ -6264,7 +6221,7 @@
       <c r="T134" s="35"/>
       <c r="U134" s="35"/>
     </row>
-    <row r="135" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A135" s="29"/>
       <c r="B135" s="25"/>
       <c r="C135" s="28"/>
@@ -6287,7 +6244,7 @@
       <c r="T135" s="35"/>
       <c r="U135" s="35"/>
     </row>
-    <row r="136" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A136" s="29"/>
       <c r="B136" s="25"/>
       <c r="C136" s="28"/>
@@ -6310,7 +6267,7 @@
       <c r="T136" s="35"/>
       <c r="U136" s="35"/>
     </row>
-    <row r="137" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A137" s="29"/>
       <c r="B137" s="25"/>
       <c r="C137" s="28"/>
@@ -6333,7 +6290,7 @@
       <c r="T137" s="35"/>
       <c r="U137" s="35"/>
     </row>
-    <row r="138" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A138" s="29"/>
       <c r="B138" s="25"/>
       <c r="C138" s="28"/>
@@ -6356,7 +6313,7 @@
       <c r="T138" s="35"/>
       <c r="U138" s="35"/>
     </row>
-    <row r="139" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A139" s="29"/>
       <c r="B139" s="25"/>
       <c r="C139" s="28"/>
@@ -6379,7 +6336,7 @@
       <c r="T139" s="35"/>
       <c r="U139" s="35"/>
     </row>
-    <row r="140" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A140" s="29"/>
       <c r="B140" s="25"/>
       <c r="C140" s="28"/>
@@ -6402,7 +6359,7 @@
       <c r="T140" s="35"/>
       <c r="U140" s="35"/>
     </row>
-    <row r="141" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A141" s="29"/>
       <c r="B141" s="25"/>
       <c r="C141" s="28"/>
@@ -6425,7 +6382,7 @@
       <c r="T141" s="35"/>
       <c r="U141" s="35"/>
     </row>
-    <row r="142" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A142" s="29"/>
       <c r="B142" s="25"/>
       <c r="C142" s="28"/>
@@ -6448,7 +6405,7 @@
       <c r="T142" s="35"/>
       <c r="U142" s="35"/>
     </row>
-    <row r="143" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A143" s="29"/>
       <c r="B143" s="25"/>
       <c r="C143" s="28"/>
@@ -6471,7 +6428,7 @@
       <c r="T143" s="35"/>
       <c r="U143" s="35"/>
     </row>
-    <row r="144" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A144" s="29"/>
       <c r="B144" s="25"/>
       <c r="C144" s="28"/>
@@ -6494,7 +6451,7 @@
       <c r="T144" s="35"/>
       <c r="U144" s="35"/>
     </row>
-    <row r="145" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A145" s="29"/>
       <c r="B145" s="25"/>
       <c r="C145" s="28"/>
@@ -6517,7 +6474,7 @@
       <c r="T145" s="35"/>
       <c r="U145" s="35"/>
     </row>
-    <row r="146" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A146" s="29"/>
       <c r="B146" s="25"/>
       <c r="C146" s="28"/>
@@ -6540,7 +6497,7 @@
       <c r="T146" s="35"/>
       <c r="U146" s="35"/>
     </row>
-    <row r="147" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A147" s="29"/>
       <c r="B147" s="25"/>
       <c r="C147" s="28"/>
@@ -6563,7 +6520,7 @@
       <c r="T147" s="35"/>
       <c r="U147" s="35"/>
     </row>
-    <row r="148" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A148" s="29"/>
       <c r="B148" s="25"/>
       <c r="C148" s="28"/>
@@ -6586,7 +6543,7 @@
       <c r="T148" s="35"/>
       <c r="U148" s="35"/>
     </row>
-    <row r="149" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A149" s="29"/>
       <c r="B149" s="25"/>
       <c r="C149" s="28"/>
@@ -6609,7 +6566,7 @@
       <c r="T149" s="35"/>
       <c r="U149" s="35"/>
     </row>
-    <row r="150" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A150" s="29"/>
       <c r="B150" s="25"/>
       <c r="C150" s="28"/>
@@ -6632,7 +6589,7 @@
       <c r="T150" s="35"/>
       <c r="U150" s="35"/>
     </row>
-    <row r="151" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A151" s="29"/>
       <c r="B151" s="25"/>
       <c r="C151" s="28"/>
@@ -6655,7 +6612,7 @@
       <c r="T151" s="35"/>
       <c r="U151" s="35"/>
     </row>
-    <row r="152" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A152" s="29"/>
       <c r="B152" s="25"/>
       <c r="C152" s="28"/>
@@ -6678,7 +6635,7 @@
       <c r="T152" s="35"/>
       <c r="U152" s="35"/>
     </row>
-    <row r="153" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A153" s="29"/>
       <c r="B153" s="25"/>
       <c r="C153" s="28"/>
@@ -6701,7 +6658,7 @@
       <c r="T153" s="35"/>
       <c r="U153" s="35"/>
     </row>
-    <row r="154" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A154" s="29"/>
       <c r="B154" s="25"/>
       <c r="C154" s="28"/>
@@ -6724,7 +6681,7 @@
       <c r="T154" s="35"/>
       <c r="U154" s="35"/>
     </row>
-    <row r="155" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A155" s="29"/>
       <c r="B155" s="25"/>
       <c r="C155" s="28"/>
@@ -6747,7 +6704,7 @@
       <c r="T155" s="35"/>
       <c r="U155" s="35"/>
     </row>
-    <row r="156" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A156" s="29"/>
       <c r="B156" s="25"/>
       <c r="C156" s="28"/>
@@ -6770,7 +6727,7 @@
       <c r="T156" s="35"/>
       <c r="U156" s="35"/>
     </row>
-    <row r="157" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A157" s="29"/>
       <c r="B157" s="25"/>
       <c r="C157" s="28"/>
@@ -6793,7 +6750,7 @@
       <c r="T157" s="35"/>
       <c r="U157" s="35"/>
     </row>
-    <row r="158" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A158" s="29"/>
       <c r="B158" s="25"/>
       <c r="C158" s="28"/>
@@ -6816,7 +6773,7 @@
       <c r="T158" s="35"/>
       <c r="U158" s="35"/>
     </row>
-    <row r="159" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A159" s="29"/>
       <c r="B159" s="25"/>
       <c r="C159" s="28"/>
@@ -6839,7 +6796,7 @@
       <c r="T159" s="35"/>
       <c r="U159" s="35"/>
     </row>
-    <row r="160" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A160" s="29"/>
       <c r="B160" s="25"/>
       <c r="C160" s="28"/>
@@ -6862,7 +6819,7 @@
       <c r="T160" s="35"/>
       <c r="U160" s="35"/>
     </row>
-    <row r="161" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A161" s="29"/>
       <c r="B161" s="25"/>
       <c r="C161" s="28"/>
@@ -6885,7 +6842,7 @@
       <c r="T161" s="35"/>
       <c r="U161" s="35"/>
     </row>
-    <row r="162" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A162" s="29"/>
       <c r="B162" s="25"/>
       <c r="C162" s="28"/>
@@ -6908,7 +6865,7 @@
       <c r="T162" s="35"/>
       <c r="U162" s="35"/>
     </row>
-    <row r="163" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A163" s="29"/>
       <c r="B163" s="25"/>
       <c r="C163" s="28"/>
@@ -6931,7 +6888,7 @@
       <c r="T163" s="35"/>
       <c r="U163" s="35"/>
     </row>
-    <row r="164" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A164" s="29"/>
       <c r="B164" s="25"/>
       <c r="C164" s="28"/>
@@ -6954,7 +6911,7 @@
       <c r="T164" s="35"/>
       <c r="U164" s="35"/>
     </row>
-    <row r="165" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A165" s="29"/>
       <c r="B165" s="25"/>
       <c r="C165" s="28"/>
@@ -6977,7 +6934,7 @@
       <c r="T165" s="35"/>
       <c r="U165" s="35"/>
     </row>
-    <row r="166" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A166" s="29"/>
       <c r="B166" s="25"/>
       <c r="C166" s="28"/>
@@ -7000,7 +6957,7 @@
       <c r="T166" s="35"/>
       <c r="U166" s="35"/>
     </row>
-    <row r="167" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A167" s="29"/>
       <c r="B167" s="25"/>
       <c r="C167" s="28"/>
@@ -7023,7 +6980,7 @@
       <c r="T167" s="35"/>
       <c r="U167" s="35"/>
     </row>
-    <row r="168" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A168" s="29"/>
       <c r="B168" s="25"/>
       <c r="C168" s="28"/>
@@ -7046,7 +7003,7 @@
       <c r="T168" s="35"/>
       <c r="U168" s="35"/>
     </row>
-    <row r="169" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A169" s="29"/>
       <c r="B169" s="25"/>
       <c r="C169" s="28"/>
@@ -7069,7 +7026,7 @@
       <c r="T169" s="35"/>
       <c r="U169" s="35"/>
     </row>
-    <row r="170" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A170" s="29"/>
       <c r="B170" s="25"/>
       <c r="C170" s="28"/>
@@ -7092,7 +7049,7 @@
       <c r="T170" s="35"/>
       <c r="U170" s="35"/>
     </row>
-    <row r="171" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A171" s="29"/>
       <c r="B171" s="25"/>
       <c r="C171" s="28"/>
@@ -7115,7 +7072,7 @@
       <c r="T171" s="35"/>
       <c r="U171" s="35"/>
     </row>
-    <row r="172" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A172" s="29"/>
       <c r="B172" s="25"/>
       <c r="C172" s="28"/>
@@ -7138,7 +7095,7 @@
       <c r="T172" s="35"/>
       <c r="U172" s="35"/>
     </row>
-    <row r="173" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A173" s="29"/>
       <c r="B173" s="25"/>
       <c r="C173" s="28"/>
@@ -7161,7 +7118,7 @@
       <c r="T173" s="35"/>
       <c r="U173" s="35"/>
     </row>
-    <row r="174" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A174" s="29"/>
       <c r="B174" s="25"/>
       <c r="C174" s="28"/>
@@ -7184,7 +7141,7 @@
       <c r="T174" s="35"/>
       <c r="U174" s="35"/>
     </row>
-    <row r="175" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A175" s="29"/>
       <c r="B175" s="25"/>
       <c r="C175" s="28"/>
@@ -7207,7 +7164,7 @@
       <c r="T175" s="35"/>
       <c r="U175" s="35"/>
     </row>
-    <row r="176" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A176" s="29"/>
       <c r="B176" s="25"/>
       <c r="C176" s="28"/>
@@ -7230,7 +7187,7 @@
       <c r="T176" s="35"/>
       <c r="U176" s="35"/>
     </row>
-    <row r="177" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A177" s="29"/>
       <c r="B177" s="25"/>
       <c r="C177" s="28"/>
@@ -7253,7 +7210,7 @@
       <c r="T177" s="35"/>
       <c r="U177" s="35"/>
     </row>
-    <row r="178" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A178" s="29"/>
       <c r="B178" s="25"/>
       <c r="C178" s="28"/>
@@ -7276,7 +7233,7 @@
       <c r="T178" s="35"/>
       <c r="U178" s="35"/>
     </row>
-    <row r="179" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A179" s="29"/>
       <c r="B179" s="25"/>
       <c r="C179" s="28"/>
@@ -7299,7 +7256,7 @@
       <c r="T179" s="35"/>
       <c r="U179" s="35"/>
     </row>
-    <row r="180" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A180" s="29"/>
       <c r="B180" s="25"/>
       <c r="C180" s="28"/>
@@ -7322,7 +7279,7 @@
       <c r="T180" s="35"/>
       <c r="U180" s="35"/>
     </row>
-    <row r="181" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A181" s="29"/>
       <c r="B181" s="25"/>
       <c r="C181" s="28"/>
@@ -7345,7 +7302,7 @@
       <c r="T181" s="35"/>
       <c r="U181" s="35"/>
     </row>
-    <row r="182" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A182" s="29"/>
       <c r="B182" s="25"/>
       <c r="C182" s="28"/>
@@ -7368,7 +7325,7 @@
       <c r="T182" s="35"/>
       <c r="U182" s="35"/>
     </row>
-    <row r="183" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A183" s="29"/>
       <c r="B183" s="25"/>
       <c r="C183" s="28"/>
@@ -7391,7 +7348,7 @@
       <c r="T183" s="35"/>
       <c r="U183" s="35"/>
     </row>
-    <row r="184" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A184" s="29"/>
       <c r="B184" s="25"/>
       <c r="C184" s="28"/>
@@ -7414,7 +7371,7 @@
       <c r="T184" s="35"/>
       <c r="U184" s="35"/>
     </row>
-    <row r="185" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A185" s="29"/>
       <c r="B185" s="25"/>
       <c r="C185" s="28"/>
@@ -7437,7 +7394,7 @@
       <c r="T185" s="35"/>
       <c r="U185" s="35"/>
     </row>
-    <row r="186" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A186" s="29"/>
       <c r="B186" s="25"/>
       <c r="C186" s="28"/>
@@ -7460,7 +7417,7 @@
       <c r="T186" s="35"/>
       <c r="U186" s="35"/>
     </row>
-    <row r="187" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A187" s="29"/>
       <c r="B187" s="25"/>
       <c r="C187" s="28"/>
@@ -7483,7 +7440,7 @@
       <c r="T187" s="35"/>
       <c r="U187" s="35"/>
     </row>
-    <row r="188" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A188" s="29"/>
       <c r="B188" s="25"/>
       <c r="C188" s="28"/>
@@ -7506,7 +7463,7 @@
       <c r="T188" s="35"/>
       <c r="U188" s="35"/>
     </row>
-    <row r="189" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A189" s="29"/>
       <c r="B189" s="25"/>
       <c r="C189" s="28"/>
@@ -7529,7 +7486,7 @@
       <c r="T189" s="35"/>
       <c r="U189" s="35"/>
     </row>
-    <row r="190" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A190" s="29"/>
       <c r="B190" s="25"/>
       <c r="C190" s="28"/>
@@ -7552,7 +7509,7 @@
       <c r="T190" s="35"/>
       <c r="U190" s="35"/>
     </row>
-    <row r="191" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A191" s="29"/>
       <c r="B191" s="25"/>
       <c r="C191" s="28"/>
@@ -7575,7 +7532,7 @@
       <c r="T191" s="35"/>
       <c r="U191" s="35"/>
     </row>
-    <row r="192" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A192" s="29"/>
       <c r="B192" s="25"/>
       <c r="C192" s="28"/>
@@ -7598,7 +7555,7 @@
       <c r="T192" s="35"/>
       <c r="U192" s="35"/>
     </row>
-    <row r="193" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A193" s="29"/>
       <c r="B193" s="25"/>
       <c r="C193" s="28"/>
@@ -7621,7 +7578,7 @@
       <c r="T193" s="35"/>
       <c r="U193" s="35"/>
     </row>
-    <row r="194" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A194" s="29"/>
       <c r="B194" s="25"/>
       <c r="C194" s="28"/>
@@ -7644,7 +7601,7 @@
       <c r="T194" s="35"/>
       <c r="U194" s="35"/>
     </row>
-    <row r="195" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A195" s="29"/>
       <c r="B195" s="25"/>
       <c r="C195" s="28"/>
@@ -7667,7 +7624,7 @@
       <c r="T195" s="35"/>
       <c r="U195" s="35"/>
     </row>
-    <row r="196" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A196" s="29"/>
       <c r="B196" s="25"/>
       <c r="C196" s="28"/>
@@ -7690,7 +7647,7 @@
       <c r="T196" s="35"/>
       <c r="U196" s="35"/>
     </row>
-    <row r="197" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A197" s="29"/>
       <c r="B197" s="25"/>
       <c r="C197" s="28"/>
@@ -7713,7 +7670,7 @@
       <c r="T197" s="35"/>
       <c r="U197" s="35"/>
     </row>
-    <row r="198" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A198" s="29"/>
       <c r="B198" s="25"/>
       <c r="C198" s="28"/>
@@ -7736,7 +7693,7 @@
       <c r="T198" s="35"/>
       <c r="U198" s="35"/>
     </row>
-    <row r="199" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A199" s="29"/>
       <c r="B199" s="25"/>
       <c r="C199" s="28"/>
@@ -7759,7 +7716,7 @@
       <c r="T199" s="35"/>
       <c r="U199" s="35"/>
     </row>
-    <row r="200" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A200" s="29"/>
       <c r="B200" s="25"/>
       <c r="C200" s="28"/>
@@ -7782,7 +7739,7 @@
       <c r="T200" s="35"/>
       <c r="U200" s="35"/>
     </row>
-    <row r="201" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A201" s="29"/>
       <c r="B201" s="25"/>
       <c r="C201" s="28"/>
@@ -7805,7 +7762,7 @@
       <c r="T201" s="35"/>
       <c r="U201" s="35"/>
     </row>
-    <row r="202" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A202" s="29"/>
       <c r="B202" s="25"/>
       <c r="C202" s="28"/>
@@ -7828,7 +7785,7 @@
       <c r="T202" s="35"/>
       <c r="U202" s="35"/>
     </row>
-    <row r="203" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A203" s="29"/>
       <c r="B203" s="25"/>
       <c r="C203" s="28"/>
@@ -7851,7 +7808,7 @@
       <c r="T203" s="35"/>
       <c r="U203" s="35"/>
     </row>
-    <row r="204" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A204" s="29"/>
       <c r="B204" s="25"/>
       <c r="C204" s="28"/>
@@ -7874,7 +7831,7 @@
       <c r="T204" s="35"/>
       <c r="U204" s="35"/>
     </row>
-    <row r="205" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A205" s="29"/>
       <c r="B205" s="25"/>
       <c r="C205" s="28"/>
@@ -7897,7 +7854,7 @@
       <c r="T205" s="35"/>
       <c r="U205" s="35"/>
     </row>
-    <row r="206" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A206" s="29"/>
       <c r="B206" s="25"/>
       <c r="C206" s="28"/>
@@ -7920,7 +7877,7 @@
       <c r="T206" s="35"/>
       <c r="U206" s="35"/>
     </row>
-    <row r="207" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A207" s="29"/>
       <c r="B207" s="25"/>
       <c r="C207" s="28"/>
@@ -7943,7 +7900,7 @@
       <c r="T207" s="35"/>
       <c r="U207" s="35"/>
     </row>
-    <row r="208" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A208" s="29"/>
       <c r="B208" s="25"/>
       <c r="C208" s="28"/>
@@ -7966,7 +7923,7 @@
       <c r="T208" s="35"/>
       <c r="U208" s="35"/>
     </row>
-    <row r="209" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A209" s="29"/>
       <c r="B209" s="25"/>
       <c r="C209" s="28"/>
@@ -7989,7 +7946,7 @@
       <c r="T209" s="35"/>
       <c r="U209" s="35"/>
     </row>
-    <row r="210" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A210" s="29"/>
       <c r="B210" s="25"/>
       <c r="C210" s="28"/>
@@ -8012,7 +7969,7 @@
       <c r="T210" s="35"/>
       <c r="U210" s="35"/>
     </row>
-    <row r="211" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A211" s="29"/>
       <c r="B211" s="25"/>
       <c r="C211" s="28"/>
@@ -8035,7 +7992,7 @@
       <c r="T211" s="35"/>
       <c r="U211" s="35"/>
     </row>
-    <row r="212" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A212" s="29"/>
       <c r="B212" s="25"/>
       <c r="C212" s="28"/>
@@ -8058,7 +8015,7 @@
       <c r="T212" s="35"/>
       <c r="U212" s="35"/>
     </row>
-    <row r="213" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A213" s="29"/>
       <c r="B213" s="25"/>
       <c r="C213" s="28"/>
@@ -8081,7 +8038,7 @@
       <c r="T213" s="35"/>
       <c r="U213" s="35"/>
     </row>
-    <row r="214" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A214" s="29"/>
       <c r="B214" s="25"/>
       <c r="C214" s="28"/>
@@ -8104,7 +8061,7 @@
       <c r="T214" s="35"/>
       <c r="U214" s="35"/>
     </row>
-    <row r="215" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A215" s="29"/>
       <c r="B215" s="25"/>
       <c r="C215" s="28"/>
@@ -8127,7 +8084,7 @@
       <c r="T215" s="35"/>
       <c r="U215" s="35"/>
     </row>
-    <row r="216" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A216" s="29"/>
       <c r="B216" s="25"/>
       <c r="C216" s="28"/>
@@ -8150,7 +8107,7 @@
       <c r="T216" s="35"/>
       <c r="U216" s="35"/>
     </row>
-    <row r="217" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A217" s="29"/>
       <c r="B217" s="25"/>
       <c r="C217" s="28"/>
@@ -8173,7 +8130,7 @@
       <c r="T217" s="35"/>
       <c r="U217" s="35"/>
     </row>
-    <row r="218" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A218" s="29"/>
       <c r="B218" s="25"/>
       <c r="C218" s="28"/>
@@ -8196,7 +8153,7 @@
       <c r="T218" s="35"/>
       <c r="U218" s="35"/>
     </row>
-    <row r="219" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A219" s="29"/>
       <c r="B219" s="25"/>
       <c r="C219" s="28"/>
@@ -8219,7 +8176,7 @@
       <c r="T219" s="35"/>
       <c r="U219" s="35"/>
     </row>
-    <row r="220" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A220" s="29"/>
       <c r="B220" s="25"/>
       <c r="C220" s="28"/>
@@ -8242,7 +8199,7 @@
       <c r="T220" s="35"/>
       <c r="U220" s="35"/>
     </row>
-    <row r="221" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A221" s="29"/>
       <c r="B221" s="25"/>
       <c r="C221" s="28"/>
@@ -8265,7 +8222,7 @@
       <c r="T221" s="35"/>
       <c r="U221" s="35"/>
     </row>
-    <row r="222" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A222" s="29"/>
       <c r="B222" s="25"/>
       <c r="C222" s="28"/>
@@ -8288,7 +8245,7 @@
       <c r="T222" s="35"/>
       <c r="U222" s="35"/>
     </row>
-    <row r="223" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A223" s="29"/>
       <c r="B223" s="25"/>
       <c r="C223" s="28"/>
@@ -8311,7 +8268,7 @@
       <c r="T223" s="35"/>
       <c r="U223" s="35"/>
     </row>
-    <row r="224" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A224" s="29"/>
       <c r="B224" s="25"/>
       <c r="C224" s="28"/>
@@ -8334,7 +8291,7 @@
       <c r="T224" s="35"/>
       <c r="U224" s="35"/>
     </row>
-    <row r="225" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A225" s="29"/>
       <c r="B225" s="25"/>
       <c r="C225" s="28"/>
@@ -8357,7 +8314,7 @@
       <c r="T225" s="35"/>
       <c r="U225" s="35"/>
     </row>
-    <row r="226" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A226" s="29"/>
       <c r="B226" s="25"/>
       <c r="C226" s="28"/>
@@ -8380,7 +8337,7 @@
       <c r="T226" s="35"/>
       <c r="U226" s="35"/>
     </row>
-    <row r="227" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A227" s="29"/>
       <c r="B227" s="25"/>
       <c r="C227" s="28"/>
@@ -8403,7 +8360,7 @@
       <c r="T227" s="35"/>
       <c r="U227" s="35"/>
     </row>
-    <row r="228" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A228" s="29"/>
       <c r="B228" s="25"/>
       <c r="C228" s="28"/>
@@ -8426,7 +8383,7 @@
       <c r="T228" s="35"/>
       <c r="U228" s="35"/>
     </row>
-    <row r="229" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A229" s="29"/>
       <c r="B229" s="25"/>
       <c r="C229" s="28"/>
@@ -8449,7 +8406,7 @@
       <c r="T229" s="35"/>
       <c r="U229" s="35"/>
     </row>
-    <row r="230" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A230" s="29"/>
       <c r="B230" s="25"/>
       <c r="C230" s="28"/>
@@ -8472,7 +8429,7 @@
       <c r="T230" s="35"/>
       <c r="U230" s="35"/>
     </row>
-    <row r="231" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A231" s="29"/>
       <c r="B231" s="25"/>
       <c r="C231" s="28"/>
@@ -8495,7 +8452,7 @@
       <c r="T231" s="35"/>
       <c r="U231" s="35"/>
     </row>
-    <row r="232" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A232" s="29"/>
       <c r="B232" s="25"/>
       <c r="C232" s="28"/>
@@ -8518,7 +8475,7 @@
       <c r="T232" s="35"/>
       <c r="U232" s="35"/>
     </row>
-    <row r="233" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A233" s="29"/>
       <c r="B233" s="25"/>
       <c r="C233" s="28"/>
@@ -8541,7 +8498,7 @@
       <c r="T233" s="35"/>
       <c r="U233" s="35"/>
     </row>
-    <row r="234" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A234" s="29"/>
       <c r="B234" s="25"/>
       <c r="C234" s="28"/>
@@ -8564,7 +8521,7 @@
       <c r="T234" s="35"/>
       <c r="U234" s="35"/>
     </row>
-    <row r="235" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A235" s="29"/>
       <c r="B235" s="25"/>
       <c r="C235" s="28"/>
@@ -8587,7 +8544,7 @@
       <c r="T235" s="35"/>
       <c r="U235" s="35"/>
     </row>
-    <row r="236" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A236" s="29"/>
       <c r="B236" s="25"/>
       <c r="C236" s="28"/>
@@ -8610,7 +8567,7 @@
       <c r="T236" s="35"/>
       <c r="U236" s="35"/>
     </row>
-    <row r="237" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A237" s="29"/>
       <c r="B237" s="25"/>
       <c r="C237" s="28"/>
@@ -8633,7 +8590,7 @@
       <c r="T237" s="35"/>
       <c r="U237" s="35"/>
     </row>
-    <row r="238" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A238" s="29"/>
       <c r="B238" s="25"/>
       <c r="C238" s="28"/>
@@ -8656,7 +8613,7 @@
       <c r="T238" s="35"/>
       <c r="U238" s="35"/>
     </row>
-    <row r="239" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A239" s="29"/>
       <c r="B239" s="25"/>
       <c r="C239" s="28"/>
@@ -8679,7 +8636,7 @@
       <c r="T239" s="35"/>
       <c r="U239" s="35"/>
     </row>
-    <row r="240" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A240" s="29"/>
       <c r="B240" s="25"/>
       <c r="C240" s="28"/>
@@ -8702,7 +8659,7 @@
       <c r="T240" s="35"/>
       <c r="U240" s="35"/>
     </row>
-    <row r="241" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A241" s="29"/>
       <c r="B241" s="25"/>
       <c r="C241" s="28"/>
@@ -8725,7 +8682,7 @@
       <c r="T241" s="35"/>
       <c r="U241" s="35"/>
     </row>
-    <row r="242" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A242" s="29"/>
       <c r="B242" s="25"/>
       <c r="C242" s="28"/>
@@ -8748,7 +8705,7 @@
       <c r="T242" s="35"/>
       <c r="U242" s="35"/>
     </row>
-    <row r="243" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A243" s="29"/>
       <c r="B243" s="25"/>
       <c r="C243" s="28"/>
@@ -8771,7 +8728,7 @@
       <c r="T243" s="35"/>
       <c r="U243" s="35"/>
     </row>
-    <row r="244" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A244" s="29"/>
       <c r="B244" s="25"/>
       <c r="C244" s="28"/>
@@ -8794,7 +8751,7 @@
       <c r="T244" s="35"/>
       <c r="U244" s="35"/>
     </row>
-    <row r="245" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A245" s="29"/>
       <c r="B245" s="25"/>
       <c r="C245" s="28"/>
@@ -8817,7 +8774,7 @@
       <c r="T245" s="35"/>
       <c r="U245" s="35"/>
     </row>
-    <row r="246" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A246" s="29"/>
       <c r="B246" s="25"/>
       <c r="C246" s="28"/>
@@ -8840,7 +8797,7 @@
       <c r="T246" s="35"/>
       <c r="U246" s="35"/>
     </row>
-    <row r="247" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A247" s="29"/>
       <c r="B247" s="25"/>
       <c r="C247" s="28"/>
@@ -8863,7 +8820,7 @@
       <c r="T247" s="35"/>
       <c r="U247" s="35"/>
     </row>
-    <row r="248" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A248" s="29"/>
       <c r="B248" s="25"/>
       <c r="C248" s="28"/>
@@ -8886,7 +8843,7 @@
       <c r="T248" s="35"/>
       <c r="U248" s="35"/>
     </row>
-    <row r="249" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A249" s="29"/>
       <c r="B249" s="25"/>
       <c r="C249" s="28"/>
@@ -8909,7 +8866,7 @@
       <c r="T249" s="35"/>
       <c r="U249" s="35"/>
     </row>
-    <row r="250" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A250" s="29"/>
       <c r="B250" s="25"/>
       <c r="C250" s="28"/>
@@ -8932,7 +8889,7 @@
       <c r="T250" s="35"/>
       <c r="U250" s="35"/>
     </row>
-    <row r="251" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A251" s="29"/>
       <c r="B251" s="25"/>
       <c r="C251" s="28"/>
@@ -8955,7 +8912,7 @@
       <c r="T251" s="35"/>
       <c r="U251" s="35"/>
     </row>
-    <row r="252" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A252" s="29"/>
       <c r="B252" s="25"/>
       <c r="C252" s="28"/>
@@ -8978,7 +8935,7 @@
       <c r="T252" s="35"/>
       <c r="U252" s="35"/>
     </row>
-    <row r="253" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A253" s="29"/>
       <c r="B253" s="25"/>
       <c r="C253" s="28"/>
@@ -9001,7 +8958,7 @@
       <c r="T253" s="35"/>
       <c r="U253" s="35"/>
     </row>
-    <row r="254" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A254" s="29"/>
       <c r="B254" s="25"/>
       <c r="C254" s="28"/>
@@ -9024,7 +8981,7 @@
       <c r="T254" s="35"/>
       <c r="U254" s="35"/>
     </row>
-    <row r="255" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A255" s="29"/>
       <c r="B255" s="25"/>
       <c r="C255" s="28"/>
@@ -9047,7 +9004,7 @@
       <c r="T255" s="35"/>
       <c r="U255" s="35"/>
     </row>
-    <row r="256" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A256" s="29"/>
       <c r="B256" s="25"/>
       <c r="C256" s="28"/>
@@ -9070,7 +9027,7 @@
       <c r="T256" s="35"/>
       <c r="U256" s="35"/>
     </row>
-    <row r="257" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A257" s="29"/>
       <c r="B257" s="25"/>
       <c r="C257" s="28"/>
@@ -9093,7 +9050,7 @@
       <c r="T257" s="35"/>
       <c r="U257" s="35"/>
     </row>
-    <row r="258" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A258" s="29"/>
       <c r="B258" s="25"/>
       <c r="C258" s="28"/>
@@ -9116,7 +9073,7 @@
       <c r="T258" s="35"/>
       <c r="U258" s="35"/>
     </row>
-    <row r="259" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A259" s="29"/>
       <c r="B259" s="25"/>
       <c r="C259" s="28"/>
@@ -9139,7 +9096,7 @@
       <c r="T259" s="35"/>
       <c r="U259" s="35"/>
     </row>
-    <row r="260" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A260" s="29"/>
       <c r="B260" s="25"/>
       <c r="C260" s="28"/>
@@ -9162,7 +9119,7 @@
       <c r="T260" s="35"/>
       <c r="U260" s="35"/>
     </row>
-    <row r="261" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A261" s="29"/>
       <c r="B261" s="25"/>
       <c r="C261" s="28"/>
@@ -9185,7 +9142,7 @@
       <c r="T261" s="35"/>
       <c r="U261" s="35"/>
     </row>
-    <row r="262" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A262" s="29"/>
       <c r="B262" s="25"/>
       <c r="C262" s="28"/>
@@ -9208,7 +9165,7 @@
       <c r="T262" s="35"/>
       <c r="U262" s="35"/>
     </row>
-    <row r="263" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A263" s="29"/>
       <c r="B263" s="25"/>
       <c r="C263" s="28"/>
@@ -9231,7 +9188,7 @@
       <c r="T263" s="35"/>
       <c r="U263" s="35"/>
     </row>
-    <row r="264" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A264" s="29"/>
       <c r="B264" s="25"/>
       <c r="C264" s="28"/>
@@ -9254,7 +9211,7 @@
       <c r="T264" s="35"/>
       <c r="U264" s="35"/>
     </row>
-    <row r="265" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A265" s="29"/>
       <c r="B265" s="25"/>
       <c r="C265" s="28"/>
@@ -9277,7 +9234,7 @@
       <c r="T265" s="35"/>
       <c r="U265" s="35"/>
     </row>
-    <row r="266" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A266" s="29"/>
       <c r="B266" s="25"/>
       <c r="C266" s="28"/>
@@ -9300,7 +9257,7 @@
       <c r="T266" s="35"/>
       <c r="U266" s="35"/>
     </row>
-    <row r="267" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A267" s="29"/>
       <c r="B267" s="25"/>
       <c r="C267" s="28"/>
@@ -9323,7 +9280,7 @@
       <c r="T267" s="35"/>
       <c r="U267" s="35"/>
     </row>
-    <row r="268" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A268" s="29"/>
       <c r="B268" s="25"/>
       <c r="C268" s="28"/>
@@ -9346,7 +9303,7 @@
       <c r="T268" s="35"/>
       <c r="U268" s="35"/>
     </row>
-    <row r="269" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A269" s="29"/>
       <c r="B269" s="25"/>
       <c r="C269" s="28"/>
@@ -9369,7 +9326,7 @@
       <c r="T269" s="35"/>
       <c r="U269" s="35"/>
     </row>
-    <row r="270" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A270" s="29"/>
       <c r="B270" s="25"/>
       <c r="C270" s="28"/>
@@ -9392,7 +9349,7 @@
       <c r="T270" s="35"/>
       <c r="U270" s="35"/>
     </row>
-    <row r="271" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A271" s="29"/>
       <c r="B271" s="25"/>
       <c r="C271" s="28"/>
@@ -9415,7 +9372,7 @@
       <c r="T271" s="35"/>
       <c r="U271" s="35"/>
     </row>
-    <row r="272" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A272" s="29"/>
       <c r="B272" s="25"/>
       <c r="C272" s="28"/>
@@ -9438,7 +9395,7 @@
       <c r="T272" s="35"/>
       <c r="U272" s="35"/>
     </row>
-    <row r="273" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A273" s="29"/>
       <c r="B273" s="25"/>
       <c r="C273" s="28"/>
@@ -9461,7 +9418,7 @@
       <c r="T273" s="35"/>
       <c r="U273" s="35"/>
     </row>
-    <row r="274" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A274" s="29"/>
       <c r="B274" s="25"/>
       <c r="C274" s="28"/>
@@ -9484,7 +9441,7 @@
       <c r="T274" s="35"/>
       <c r="U274" s="35"/>
     </row>
-    <row r="275" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A275" s="29"/>
       <c r="B275" s="25"/>
       <c r="C275" s="28"/>
@@ -9507,7 +9464,7 @@
       <c r="T275" s="35"/>
       <c r="U275" s="35"/>
     </row>
-    <row r="276" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A276" s="29"/>
       <c r="B276" s="25"/>
       <c r="C276" s="28"/>
@@ -9530,7 +9487,7 @@
       <c r="T276" s="35"/>
       <c r="U276" s="35"/>
     </row>
-    <row r="277" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A277" s="29"/>
       <c r="B277" s="25"/>
       <c r="C277" s="28"/>
@@ -9553,7 +9510,7 @@
       <c r="T277" s="35"/>
       <c r="U277" s="35"/>
     </row>
-    <row r="278" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A278" s="29"/>
       <c r="B278" s="25"/>
       <c r="C278" s="28"/>
@@ -9576,7 +9533,7 @@
       <c r="T278" s="35"/>
       <c r="U278" s="35"/>
     </row>
-    <row r="279" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A279" s="29"/>
       <c r="B279" s="25"/>
       <c r="C279" s="28"/>
@@ -9599,7 +9556,7 @@
       <c r="T279" s="35"/>
       <c r="U279" s="35"/>
     </row>
-    <row r="280" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A280" s="29"/>
       <c r="B280" s="25"/>
       <c r="C280" s="28"/>
@@ -9622,7 +9579,7 @@
       <c r="T280" s="35"/>
       <c r="U280" s="35"/>
     </row>
-    <row r="281" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A281" s="29"/>
       <c r="B281" s="25"/>
       <c r="C281" s="28"/>
@@ -9645,7 +9602,7 @@
       <c r="T281" s="35"/>
       <c r="U281" s="35"/>
     </row>
-    <row r="282" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A282" s="29"/>
       <c r="B282" s="25"/>
       <c r="C282" s="28"/>
@@ -9668,7 +9625,7 @@
       <c r="T282" s="35"/>
       <c r="U282" s="35"/>
     </row>
-    <row r="283" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A283" s="29"/>
       <c r="B283" s="25"/>
       <c r="C283" s="28"/>
@@ -9691,7 +9648,7 @@
       <c r="T283" s="35"/>
       <c r="U283" s="35"/>
     </row>
-    <row r="284" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A284" s="29"/>
       <c r="B284" s="25"/>
       <c r="C284" s="28"/>
@@ -9714,7 +9671,7 @@
       <c r="T284" s="35"/>
       <c r="U284" s="35"/>
     </row>
-    <row r="285" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A285" s="29"/>
       <c r="B285" s="25"/>
       <c r="C285" s="28"/>
@@ -9737,7 +9694,7 @@
       <c r="T285" s="35"/>
       <c r="U285" s="35"/>
     </row>
-    <row r="286" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A286" s="29"/>
       <c r="B286" s="25"/>
       <c r="C286" s="28"/>
@@ -9760,7 +9717,7 @@
       <c r="T286" s="35"/>
       <c r="U286" s="35"/>
     </row>
-    <row r="287" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A287" s="29"/>
       <c r="B287" s="25"/>
       <c r="C287" s="28"/>
@@ -9783,7 +9740,7 @@
       <c r="T287" s="35"/>
       <c r="U287" s="35"/>
     </row>
-    <row r="288" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A288" s="29"/>
       <c r="B288" s="25"/>
       <c r="C288" s="28"/>
@@ -9806,7 +9763,7 @@
       <c r="T288" s="35"/>
       <c r="U288" s="35"/>
     </row>
-    <row r="289" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A289" s="29"/>
       <c r="B289" s="25"/>
       <c r="C289" s="28"/>
@@ -9829,7 +9786,7 @@
       <c r="T289" s="35"/>
       <c r="U289" s="35"/>
     </row>
-    <row r="290" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A290" s="29"/>
       <c r="B290" s="25"/>
       <c r="C290" s="28"/>
@@ -9852,7 +9809,7 @@
       <c r="T290" s="35"/>
       <c r="U290" s="35"/>
     </row>
-    <row r="291" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A291" s="29"/>
       <c r="B291" s="25"/>
       <c r="C291" s="28"/>
@@ -9875,7 +9832,7 @@
       <c r="T291" s="35"/>
       <c r="U291" s="35"/>
     </row>
-    <row r="292" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A292" s="29"/>
       <c r="B292" s="25"/>
       <c r="C292" s="28"/>
@@ -9898,7 +9855,7 @@
       <c r="T292" s="35"/>
       <c r="U292" s="35"/>
     </row>
-    <row r="293" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A293" s="29"/>
       <c r="B293" s="25"/>
       <c r="C293" s="28"/>
@@ -9921,7 +9878,7 @@
       <c r="T293" s="35"/>
       <c r="U293" s="35"/>
     </row>
-    <row r="294" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A294" s="29"/>
       <c r="B294" s="25"/>
       <c r="C294" s="28"/>
@@ -9944,7 +9901,7 @@
       <c r="T294" s="35"/>
       <c r="U294" s="35"/>
     </row>
-    <row r="295" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A295" s="29"/>
       <c r="B295" s="25"/>
       <c r="C295" s="28"/>
@@ -9967,7 +9924,7 @@
       <c r="T295" s="35"/>
       <c r="U295" s="35"/>
     </row>
-    <row r="296" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A296" s="29"/>
       <c r="B296" s="25"/>
       <c r="C296" s="28"/>
@@ -9990,7 +9947,7 @@
       <c r="T296" s="35"/>
       <c r="U296" s="35"/>
     </row>
-    <row r="297" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A297" s="29"/>
       <c r="B297" s="25"/>
       <c r="C297" s="28"/>
@@ -10013,7 +9970,7 @@
       <c r="T297" s="35"/>
       <c r="U297" s="35"/>
     </row>
-    <row r="298" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A298" s="29"/>
       <c r="B298" s="25"/>
       <c r="C298" s="28"/>
@@ -10036,7 +9993,7 @@
       <c r="T298" s="35"/>
       <c r="U298" s="35"/>
     </row>
-    <row r="299" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A299" s="29"/>
       <c r="B299" s="25"/>
       <c r="C299" s="28"/>
@@ -10059,7 +10016,7 @@
       <c r="T299" s="35"/>
       <c r="U299" s="35"/>
     </row>
-    <row r="300" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A300" s="29"/>
       <c r="B300" s="25"/>
       <c r="C300" s="28"/>
@@ -10082,7 +10039,7 @@
       <c r="T300" s="35"/>
       <c r="U300" s="35"/>
     </row>
-    <row r="301" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A301" s="29"/>
       <c r="B301" s="25"/>
       <c r="C301" s="28"/>
@@ -10105,7 +10062,7 @@
       <c r="T301" s="35"/>
       <c r="U301" s="35"/>
     </row>
-    <row r="302" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A302" s="29"/>
       <c r="B302" s="25"/>
       <c r="C302" s="28"/>
@@ -10128,7 +10085,7 @@
       <c r="T302" s="35"/>
       <c r="U302" s="35"/>
     </row>
-    <row r="303" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A303" s="29"/>
       <c r="B303" s="25"/>
       <c r="C303" s="28"/>
@@ -10151,7 +10108,7 @@
       <c r="T303" s="35"/>
       <c r="U303" s="35"/>
     </row>
-    <row r="304" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A304" s="29"/>
       <c r="B304" s="25"/>
       <c r="C304" s="28"/>
@@ -10174,7 +10131,7 @@
       <c r="T304" s="35"/>
       <c r="U304" s="35"/>
     </row>
-    <row r="305" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A305" s="29"/>
       <c r="B305" s="25"/>
       <c r="C305" s="28"/>
@@ -10197,7 +10154,7 @@
       <c r="T305" s="35"/>
       <c r="U305" s="35"/>
     </row>
-    <row r="306" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A306" s="29"/>
       <c r="B306" s="25"/>
       <c r="C306" s="28"/>
@@ -10220,7 +10177,7 @@
       <c r="T306" s="35"/>
       <c r="U306" s="35"/>
     </row>
-    <row r="307" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A307" s="29"/>
       <c r="B307" s="25"/>
       <c r="C307" s="28"/>
@@ -10243,7 +10200,7 @@
       <c r="T307" s="35"/>
       <c r="U307" s="35"/>
     </row>
-    <row r="308" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A308" s="29"/>
       <c r="B308" s="25"/>
       <c r="C308" s="28"/>
@@ -10266,7 +10223,7 @@
       <c r="T308" s="35"/>
       <c r="U308" s="35"/>
     </row>
-    <row r="309" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A309" s="29"/>
       <c r="B309" s="25"/>
       <c r="C309" s="28"/>
@@ -10289,7 +10246,7 @@
       <c r="T309" s="35"/>
       <c r="U309" s="35"/>
     </row>
-    <row r="310" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A310" s="29"/>
       <c r="B310" s="25"/>
       <c r="C310" s="28"/>
@@ -10312,7 +10269,7 @@
       <c r="T310" s="35"/>
       <c r="U310" s="35"/>
     </row>
-    <row r="311" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A311" s="29"/>
       <c r="B311" s="25"/>
       <c r="C311" s="28"/>
@@ -10335,7 +10292,7 @@
       <c r="T311" s="35"/>
       <c r="U311" s="35"/>
     </row>
-    <row r="312" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A312" s="29"/>
       <c r="B312" s="25"/>
       <c r="C312" s="28"/>
@@ -10358,7 +10315,7 @@
       <c r="T312" s="35"/>
       <c r="U312" s="35"/>
     </row>
-    <row r="313" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A313" s="29"/>
       <c r="B313" s="25"/>
       <c r="C313" s="28"/>
@@ -10381,7 +10338,7 @@
       <c r="T313" s="35"/>
       <c r="U313" s="35"/>
     </row>
-    <row r="314" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A314" s="29"/>
       <c r="B314" s="25"/>
       <c r="C314" s="28"/>
@@ -10404,7 +10361,7 @@
       <c r="T314" s="35"/>
       <c r="U314" s="35"/>
     </row>
-    <row r="315" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A315" s="29"/>
       <c r="B315" s="25"/>
       <c r="C315" s="28"/>
@@ -10427,7 +10384,7 @@
       <c r="T315" s="35"/>
       <c r="U315" s="35"/>
     </row>
-    <row r="316" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A316" s="29"/>
       <c r="B316" s="25"/>
       <c r="C316" s="28"/>
@@ -10450,7 +10407,7 @@
       <c r="T316" s="35"/>
       <c r="U316" s="35"/>
     </row>
-    <row r="317" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A317" s="29"/>
       <c r="B317" s="25"/>
       <c r="C317" s="28"/>
@@ -10473,7 +10430,7 @@
       <c r="T317" s="35"/>
       <c r="U317" s="35"/>
     </row>
-    <row r="318" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A318" s="29"/>
       <c r="B318" s="25"/>
       <c r="C318" s="28"/>
@@ -10496,7 +10453,7 @@
       <c r="T318" s="35"/>
       <c r="U318" s="35"/>
     </row>
-    <row r="319" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A319" s="29"/>
       <c r="B319" s="25"/>
       <c r="C319" s="28"/>
@@ -10519,7 +10476,7 @@
       <c r="T319" s="35"/>
       <c r="U319" s="35"/>
     </row>
-    <row r="320" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A320" s="29"/>
       <c r="B320" s="25"/>
       <c r="C320" s="28"/>
@@ -10542,7 +10499,7 @@
       <c r="T320" s="35"/>
       <c r="U320" s="35"/>
     </row>
-    <row r="321" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A321" s="29"/>
       <c r="B321" s="25"/>
       <c r="C321" s="28"/>
@@ -10565,7 +10522,7 @@
       <c r="T321" s="35"/>
       <c r="U321" s="35"/>
     </row>
-    <row r="322" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A322" s="29"/>
       <c r="B322" s="25"/>
       <c r="C322" s="28"/>
@@ -10588,7 +10545,7 @@
       <c r="T322" s="35"/>
       <c r="U322" s="35"/>
     </row>
-    <row r="323" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A323" s="29"/>
       <c r="B323" s="25"/>
       <c r="C323" s="28"/>
@@ -10611,7 +10568,7 @@
       <c r="T323" s="35"/>
       <c r="U323" s="35"/>
     </row>
-    <row r="324" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A324" s="29"/>
       <c r="B324" s="25"/>
       <c r="C324" s="28"/>
@@ -10634,7 +10591,7 @@
       <c r="T324" s="35"/>
       <c r="U324" s="35"/>
     </row>
-    <row r="325" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A325" s="29"/>
       <c r="B325" s="25"/>
       <c r="C325" s="28"/>
@@ -10657,7 +10614,7 @@
       <c r="T325" s="35"/>
       <c r="U325" s="35"/>
     </row>
-    <row r="326" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A326" s="29"/>
       <c r="B326" s="25"/>
       <c r="C326" s="28"/>
@@ -10680,7 +10637,7 @@
       <c r="T326" s="35"/>
       <c r="U326" s="35"/>
     </row>
-    <row r="327" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A327" s="29"/>
       <c r="B327" s="25"/>
       <c r="C327" s="28"/>
@@ -10703,7 +10660,7 @@
       <c r="T327" s="35"/>
       <c r="U327" s="35"/>
     </row>
-    <row r="328" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A328" s="29"/>
       <c r="B328" s="25"/>
       <c r="C328" s="28"/>
@@ -10726,7 +10683,7 @@
       <c r="T328" s="35"/>
       <c r="U328" s="35"/>
     </row>
-    <row r="329" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A329" s="29"/>
       <c r="B329" s="25"/>
       <c r="C329" s="28"/>
@@ -10749,7 +10706,7 @@
       <c r="T329" s="35"/>
       <c r="U329" s="35"/>
     </row>
-    <row r="330" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A330" s="29"/>
       <c r="B330" s="25"/>
       <c r="C330" s="28"/>
@@ -10772,7 +10729,7 @@
       <c r="T330" s="35"/>
       <c r="U330" s="35"/>
     </row>
-    <row r="331" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A331" s="29"/>
       <c r="B331" s="25"/>
       <c r="C331" s="28"/>
@@ -10795,7 +10752,7 @@
       <c r="T331" s="35"/>
       <c r="U331" s="35"/>
     </row>
-    <row r="332" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A332" s="29"/>
       <c r="B332" s="25"/>
       <c r="C332" s="28"/>
@@ -10818,7 +10775,7 @@
       <c r="T332" s="35"/>
       <c r="U332" s="35"/>
     </row>
-    <row r="333" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A333" s="29"/>
       <c r="B333" s="25"/>
       <c r="C333" s="28"/>
@@ -10841,7 +10798,7 @@
       <c r="T333" s="35"/>
       <c r="U333" s="35"/>
     </row>
-    <row r="334" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A334" s="29"/>
       <c r="B334" s="25"/>
       <c r="C334" s="28"/>
@@ -10864,7 +10821,7 @@
       <c r="T334" s="35"/>
       <c r="U334" s="35"/>
     </row>
-    <row r="335" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A335" s="29"/>
       <c r="B335" s="25"/>
       <c r="C335" s="28"/>
@@ -10887,7 +10844,7 @@
       <c r="T335" s="35"/>
       <c r="U335" s="35"/>
     </row>
-    <row r="336" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A336" s="29"/>
       <c r="B336" s="25"/>
       <c r="C336" s="28"/>
@@ -10910,7 +10867,7 @@
       <c r="T336" s="35"/>
       <c r="U336" s="35"/>
     </row>
-    <row r="337" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A337" s="29"/>
       <c r="B337" s="25"/>
       <c r="C337" s="28"/>
@@ -10933,7 +10890,7 @@
       <c r="T337" s="35"/>
       <c r="U337" s="35"/>
     </row>
-    <row r="338" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A338" s="29"/>
       <c r="B338" s="25"/>
       <c r="C338" s="28"/>
@@ -10956,7 +10913,7 @@
       <c r="T338" s="35"/>
       <c r="U338" s="35"/>
     </row>
-    <row r="339" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A339" s="29"/>
       <c r="B339" s="25"/>
       <c r="C339" s="28"/>
@@ -10979,7 +10936,7 @@
       <c r="T339" s="35"/>
       <c r="U339" s="35"/>
     </row>
-    <row r="340" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A340" s="29"/>
       <c r="B340" s="25"/>
       <c r="C340" s="28"/>
@@ -11002,7 +10959,7 @@
       <c r="T340" s="35"/>
       <c r="U340" s="35"/>
     </row>
-    <row r="341" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A341" s="29"/>
       <c r="B341" s="25"/>
       <c r="C341" s="28"/>
@@ -11025,7 +10982,7 @@
       <c r="T341" s="35"/>
       <c r="U341" s="35"/>
     </row>
-    <row r="342" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A342" s="29"/>
       <c r="B342" s="25"/>
       <c r="C342" s="28"/>
@@ -11048,7 +11005,7 @@
       <c r="T342" s="35"/>
       <c r="U342" s="35"/>
     </row>
-    <row r="343" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A343" s="29"/>
       <c r="B343" s="25"/>
       <c r="C343" s="28"/>
@@ -11071,7 +11028,7 @@
       <c r="T343" s="35"/>
       <c r="U343" s="35"/>
     </row>
-    <row r="344" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A344" s="29"/>
       <c r="B344" s="25"/>
       <c r="C344" s="28"/>
@@ -11094,7 +11051,7 @@
       <c r="T344" s="35"/>
       <c r="U344" s="35"/>
     </row>
-    <row r="345" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A345" s="29"/>
       <c r="B345" s="25"/>
       <c r="C345" s="28"/>
@@ -11117,7 +11074,7 @@
       <c r="T345" s="35"/>
       <c r="U345" s="35"/>
     </row>
-    <row r="346" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A346" s="29"/>
       <c r="B346" s="25"/>
       <c r="C346" s="28"/>
@@ -11140,7 +11097,7 @@
       <c r="T346" s="35"/>
       <c r="U346" s="35"/>
     </row>
-    <row r="347" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A347" s="29"/>
       <c r="B347" s="25"/>
       <c r="C347" s="28"/>
@@ -11163,7 +11120,7 @@
       <c r="T347" s="35"/>
       <c r="U347" s="35"/>
     </row>
-    <row r="348" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A348" s="29"/>
       <c r="B348" s="25"/>
       <c r="C348" s="28"/>
@@ -11186,7 +11143,7 @@
       <c r="T348" s="35"/>
       <c r="U348" s="35"/>
     </row>
-    <row r="349" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A349" s="29"/>
       <c r="B349" s="25"/>
       <c r="C349" s="28"/>
@@ -11209,7 +11166,7 @@
       <c r="T349" s="35"/>
       <c r="U349" s="35"/>
     </row>
-    <row r="350" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A350" s="29"/>
       <c r="B350" s="25"/>
       <c r="C350" s="28"/>
@@ -11232,7 +11189,7 @@
       <c r="T350" s="35"/>
       <c r="U350" s="35"/>
     </row>
-    <row r="351" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A351" s="29"/>
       <c r="B351" s="25"/>
       <c r="C351" s="28"/>
@@ -11255,7 +11212,7 @@
       <c r="T351" s="35"/>
       <c r="U351" s="35"/>
     </row>
-    <row r="352" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A352" s="29"/>
       <c r="B352" s="25"/>
       <c r="C352" s="28"/>
@@ -11278,7 +11235,7 @@
       <c r="T352" s="35"/>
       <c r="U352" s="35"/>
     </row>
-    <row r="353" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A353" s="29"/>
       <c r="B353" s="25"/>
       <c r="C353" s="28"/>
@@ -11301,7 +11258,7 @@
       <c r="T353" s="35"/>
       <c r="U353" s="35"/>
     </row>
-    <row r="354" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A354" s="29"/>
       <c r="B354" s="25"/>
       <c r="C354" s="28"/>
@@ -11324,7 +11281,7 @@
       <c r="T354" s="35"/>
       <c r="U354" s="35"/>
     </row>
-    <row r="355" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A355" s="29"/>
       <c r="B355" s="25"/>
       <c r="C355" s="28"/>
@@ -11347,7 +11304,7 @@
       <c r="T355" s="35"/>
       <c r="U355" s="35"/>
     </row>
-    <row r="356" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A356" s="29"/>
       <c r="B356" s="25"/>
       <c r="C356" s="28"/>
@@ -11370,7 +11327,7 @@
       <c r="T356" s="35"/>
       <c r="U356" s="35"/>
     </row>
-    <row r="357" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A357" s="29"/>
       <c r="B357" s="25"/>
       <c r="C357" s="28"/>
@@ -11393,7 +11350,7 @@
       <c r="T357" s="35"/>
       <c r="U357" s="35"/>
     </row>
-    <row r="358" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A358" s="29"/>
       <c r="B358" s="25"/>
       <c r="C358" s="28"/>
@@ -11416,7 +11373,7 @@
       <c r="T358" s="35"/>
       <c r="U358" s="35"/>
     </row>
-    <row r="359" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A359" s="29"/>
       <c r="B359" s="25"/>
       <c r="C359" s="28"/>
@@ -11439,7 +11396,7 @@
       <c r="T359" s="35"/>
       <c r="U359" s="35"/>
     </row>
-    <row r="360" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A360" s="29"/>
       <c r="B360" s="25"/>
       <c r="C360" s="28"/>
@@ -11462,7 +11419,7 @@
       <c r="T360" s="35"/>
       <c r="U360" s="35"/>
     </row>
-    <row r="361" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A361" s="29"/>
       <c r="B361" s="25"/>
       <c r="C361" s="28"/>
@@ -11485,7 +11442,7 @@
       <c r="T361" s="35"/>
       <c r="U361" s="35"/>
     </row>
-    <row r="362" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A362" s="29"/>
       <c r="B362" s="25"/>
       <c r="C362" s="28"/>
@@ -11508,7 +11465,7 @@
       <c r="T362" s="35"/>
       <c r="U362" s="35"/>
     </row>
-    <row r="363" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A363" s="29"/>
       <c r="B363" s="25"/>
       <c r="C363" s="28"/>
@@ -11531,7 +11488,7 @@
       <c r="T363" s="35"/>
       <c r="U363" s="35"/>
     </row>
-    <row r="364" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A364" s="29"/>
       <c r="B364" s="25"/>
       <c r="C364" s="28"/>
@@ -11554,7 +11511,7 @@
       <c r="T364" s="35"/>
       <c r="U364" s="35"/>
     </row>
-    <row r="365" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A365" s="29"/>
       <c r="B365" s="25"/>
       <c r="C365" s="28"/>
@@ -11577,7 +11534,7 @@
       <c r="T365" s="35"/>
       <c r="U365" s="35"/>
     </row>
-    <row r="366" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A366" s="29"/>
       <c r="B366" s="25"/>
       <c r="C366" s="28"/>
@@ -11600,7 +11557,7 @@
       <c r="T366" s="35"/>
       <c r="U366" s="35"/>
     </row>
-    <row r="367" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A367" s="29"/>
       <c r="B367" s="25"/>
       <c r="C367" s="28"/>
@@ -11623,7 +11580,7 @@
       <c r="T367" s="35"/>
       <c r="U367" s="35"/>
     </row>
-    <row r="368" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A368" s="29"/>
       <c r="B368" s="25"/>
       <c r="C368" s="28"/>
@@ -11646,7 +11603,7 @@
       <c r="T368" s="35"/>
       <c r="U368" s="35"/>
     </row>
-    <row r="369" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A369" s="29"/>
       <c r="B369" s="25"/>
       <c r="C369" s="28"/>
@@ -11669,7 +11626,7 @@
       <c r="T369" s="35"/>
       <c r="U369" s="35"/>
     </row>
-    <row r="370" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A370" s="29"/>
       <c r="B370" s="25"/>
       <c r="C370" s="28"/>
@@ -11692,7 +11649,7 @@
       <c r="T370" s="35"/>
       <c r="U370" s="35"/>
     </row>
-    <row r="371" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A371" s="29"/>
       <c r="B371" s="25"/>
       <c r="C371" s="28"/>
@@ -11715,7 +11672,7 @@
       <c r="T371" s="35"/>
       <c r="U371" s="35"/>
     </row>
-    <row r="372" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A372" s="29"/>
       <c r="B372" s="25"/>
       <c r="C372" s="28"/>
@@ -11738,7 +11695,7 @@
       <c r="T372" s="35"/>
       <c r="U372" s="35"/>
     </row>
-    <row r="373" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A373" s="29"/>
       <c r="B373" s="25"/>
       <c r="C373" s="28"/>
@@ -11761,7 +11718,7 @@
       <c r="T373" s="35"/>
       <c r="U373" s="35"/>
     </row>
-    <row r="374" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A374" s="29"/>
       <c r="B374" s="25"/>
       <c r="C374" s="28"/>
@@ -11784,7 +11741,7 @@
       <c r="T374" s="35"/>
       <c r="U374" s="35"/>
     </row>
-    <row r="375" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A375" s="29"/>
       <c r="B375" s="25"/>
       <c r="C375" s="28"/>
@@ -11807,7 +11764,7 @@
       <c r="T375" s="35"/>
       <c r="U375" s="35"/>
     </row>
-    <row r="376" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A376" s="29"/>
       <c r="B376" s="25"/>
       <c r="C376" s="28"/>
@@ -11830,7 +11787,7 @@
       <c r="T376" s="35"/>
       <c r="U376" s="35"/>
     </row>
-    <row r="377" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A377" s="29"/>
       <c r="B377" s="25"/>
       <c r="C377" s="28"/>
@@ -11853,7 +11810,7 @@
       <c r="T377" s="35"/>
       <c r="U377" s="35"/>
     </row>
-    <row r="378" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A378" s="29"/>
       <c r="B378" s="25"/>
       <c r="C378" s="28"/>
@@ -11876,7 +11833,7 @@
       <c r="T378" s="35"/>
       <c r="U378" s="35"/>
     </row>
-    <row r="379" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A379" s="29"/>
       <c r="B379" s="25"/>
       <c r="C379" s="28"/>
@@ -11899,7 +11856,7 @@
       <c r="T379" s="35"/>
       <c r="U379" s="35"/>
     </row>
-    <row r="380" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A380" s="29"/>
       <c r="B380" s="25"/>
       <c r="C380" s="28"/>
@@ -11922,7 +11879,7 @@
       <c r="T380" s="35"/>
       <c r="U380" s="35"/>
     </row>
-    <row r="381" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A381" s="29"/>
       <c r="B381" s="25"/>
       <c r="C381" s="28"/>
@@ -11945,7 +11902,7 @@
       <c r="T381" s="35"/>
       <c r="U381" s="35"/>
     </row>
-    <row r="382" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A382" s="29"/>
       <c r="B382" s="25"/>
       <c r="C382" s="28"/>
@@ -11968,7 +11925,7 @@
       <c r="T382" s="35"/>
       <c r="U382" s="35"/>
     </row>
-    <row r="383" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A383" s="29"/>
       <c r="B383" s="25"/>
       <c r="C383" s="28"/>
@@ -11991,7 +11948,7 @@
       <c r="T383" s="35"/>
       <c r="U383" s="35"/>
     </row>
-    <row r="384" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A384" s="29"/>
       <c r="B384" s="25"/>
       <c r="C384" s="28"/>
@@ -12014,7 +11971,7 @@
       <c r="T384" s="35"/>
       <c r="U384" s="35"/>
     </row>
-    <row r="385" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A385" s="29"/>
       <c r="B385" s="25"/>
       <c r="C385" s="28"/>
@@ -12037,7 +11994,7 @@
       <c r="T385" s="35"/>
       <c r="U385" s="35"/>
     </row>
-    <row r="386" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A386" s="29"/>
       <c r="B386" s="25"/>
       <c r="C386" s="28"/>
@@ -12060,7 +12017,7 @@
       <c r="T386" s="35"/>
       <c r="U386" s="35"/>
     </row>
-    <row r="387" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A387" s="29"/>
       <c r="B387" s="25"/>
       <c r="C387" s="28"/>
@@ -12083,7 +12040,7 @@
       <c r="T387" s="35"/>
       <c r="U387" s="35"/>
     </row>
-    <row r="388" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A388" s="29"/>
       <c r="B388" s="25"/>
       <c r="C388" s="28"/>
@@ -12106,7 +12063,7 @@
       <c r="T388" s="35"/>
       <c r="U388" s="35"/>
     </row>
-    <row r="389" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A389" s="29"/>
       <c r="B389" s="25"/>
       <c r="C389" s="28"/>
@@ -12129,7 +12086,7 @@
       <c r="T389" s="35"/>
       <c r="U389" s="35"/>
     </row>
-    <row r="390" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A390" s="29"/>
       <c r="B390" s="25"/>
       <c r="C390" s="28"/>
@@ -12152,7 +12109,7 @@
       <c r="T390" s="35"/>
       <c r="U390" s="35"/>
     </row>
-    <row r="391" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A391" s="29"/>
       <c r="B391" s="25"/>
       <c r="C391" s="28"/>
@@ -12175,7 +12132,7 @@
       <c r="T391" s="35"/>
       <c r="U391" s="35"/>
     </row>
-    <row r="392" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A392" s="29"/>
       <c r="B392" s="25"/>
       <c r="C392" s="28"/>
@@ -12198,7 +12155,7 @@
       <c r="T392" s="35"/>
       <c r="U392" s="35"/>
     </row>
-    <row r="393" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A393" s="29"/>
       <c r="B393" s="25"/>
       <c r="C393" s="28"/>
@@ -12221,7 +12178,7 @@
       <c r="T393" s="35"/>
       <c r="U393" s="35"/>
     </row>
-    <row r="394" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A394" s="29"/>
       <c r="B394" s="25"/>
       <c r="C394" s="28"/>
@@ -12244,7 +12201,7 @@
       <c r="T394" s="35"/>
       <c r="U394" s="35"/>
     </row>
-    <row r="395" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A395" s="29"/>
       <c r="B395" s="25"/>
       <c r="C395" s="28"/>
@@ -12267,7 +12224,7 @@
       <c r="T395" s="35"/>
       <c r="U395" s="35"/>
     </row>
-    <row r="396" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A396" s="29"/>
       <c r="B396" s="25"/>
       <c r="C396" s="28"/>
@@ -12290,7 +12247,7 @@
       <c r="T396" s="35"/>
       <c r="U396" s="35"/>
     </row>
-    <row r="397" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A397" s="29"/>
       <c r="B397" s="25"/>
       <c r="C397" s="28"/>
@@ -12313,7 +12270,7 @@
       <c r="T397" s="35"/>
       <c r="U397" s="35"/>
     </row>
-    <row r="398" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A398" s="29"/>
       <c r="B398" s="25"/>
       <c r="C398" s="28"/>
@@ -12336,7 +12293,7 @@
       <c r="T398" s="35"/>
       <c r="U398" s="35"/>
     </row>
-    <row r="399" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A399" s="29"/>
       <c r="B399" s="25"/>
       <c r="C399" s="28"/>
@@ -12359,7 +12316,7 @@
       <c r="T399" s="35"/>
       <c r="U399" s="35"/>
     </row>
-    <row r="400" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A400" s="29"/>
       <c r="B400" s="25"/>
       <c r="C400" s="28"/>
@@ -12382,7 +12339,7 @@
       <c r="T400" s="35"/>
       <c r="U400" s="35"/>
     </row>
-    <row r="401" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A401" s="29"/>
       <c r="B401" s="25"/>
       <c r="C401" s="28"/>
@@ -12405,7 +12362,7 @@
       <c r="T401" s="35"/>
       <c r="U401" s="35"/>
     </row>
-    <row r="402" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A402" s="29"/>
       <c r="B402" s="25"/>
       <c r="C402" s="28"/>
@@ -12428,7 +12385,7 @@
       <c r="T402" s="35"/>
       <c r="U402" s="35"/>
     </row>
-    <row r="403" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A403" s="29"/>
       <c r="B403" s="25"/>
       <c r="C403" s="28"/>
@@ -12451,7 +12408,7 @@
       <c r="T403" s="35"/>
       <c r="U403" s="35"/>
     </row>
-    <row r="404" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A404" s="29"/>
       <c r="B404" s="25"/>
       <c r="C404" s="28"/>
@@ -12474,7 +12431,7 @@
       <c r="T404" s="35"/>
       <c r="U404" s="35"/>
     </row>
-    <row r="405" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A405" s="29"/>
       <c r="B405" s="25"/>
       <c r="C405" s="28"/>
@@ -12497,7 +12454,7 @@
       <c r="T405" s="35"/>
       <c r="U405" s="35"/>
     </row>
-    <row r="406" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A406" s="29"/>
       <c r="B406" s="25"/>
       <c r="C406" s="28"/>
@@ -12520,7 +12477,7 @@
       <c r="T406" s="35"/>
       <c r="U406" s="35"/>
     </row>
-    <row r="407" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A407" s="29"/>
       <c r="B407" s="25"/>
       <c r="C407" s="28"/>
@@ -12543,7 +12500,7 @@
       <c r="T407" s="35"/>
       <c r="U407" s="35"/>
     </row>
-    <row r="408" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A408" s="29"/>
       <c r="B408" s="25"/>
       <c r="C408" s="28"/>
@@ -12566,7 +12523,7 @@
       <c r="T408" s="35"/>
       <c r="U408" s="35"/>
     </row>
-    <row r="409" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A409" s="29"/>
       <c r="B409" s="25"/>
       <c r="C409" s="28"/>
@@ -12589,7 +12546,7 @@
       <c r="T409" s="35"/>
       <c r="U409" s="35"/>
     </row>
-    <row r="410" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A410" s="29"/>
       <c r="B410" s="25"/>
       <c r="C410" s="28"/>
@@ -12612,7 +12569,7 @@
       <c r="T410" s="35"/>
       <c r="U410" s="35"/>
     </row>
-    <row r="411" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A411" s="29"/>
       <c r="B411" s="25"/>
       <c r="C411" s="28"/>
@@ -12635,7 +12592,7 @@
       <c r="T411" s="35"/>
       <c r="U411" s="35"/>
     </row>
-    <row r="412" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A412" s="29"/>
       <c r="B412" s="25"/>
       <c r="C412" s="28"/>
@@ -12658,7 +12615,7 @@
       <c r="T412" s="35"/>
       <c r="U412" s="35"/>
     </row>
-    <row r="413" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A413" s="29"/>
       <c r="B413" s="25"/>
       <c r="C413" s="28"/>
@@ -12681,7 +12638,7 @@
       <c r="T413" s="35"/>
       <c r="U413" s="35"/>
     </row>
-    <row r="414" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A414" s="29"/>
       <c r="B414" s="25"/>
       <c r="C414" s="28"/>
@@ -12704,7 +12661,7 @@
       <c r="T414" s="35"/>
       <c r="U414" s="35"/>
     </row>
-    <row r="415" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A415" s="29"/>
       <c r="B415" s="25"/>
       <c r="C415" s="28"/>
@@ -12727,7 +12684,7 @@
       <c r="T415" s="35"/>
       <c r="U415" s="35"/>
     </row>
-    <row r="416" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A416" s="29"/>
       <c r="B416" s="25"/>
       <c r="C416" s="28"/>
@@ -12750,7 +12707,7 @@
       <c r="T416" s="35"/>
       <c r="U416" s="35"/>
     </row>
-    <row r="417" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A417" s="29"/>
       <c r="B417" s="25"/>
       <c r="C417" s="28"/>
@@ -12773,7 +12730,7 @@
       <c r="T417" s="35"/>
       <c r="U417" s="35"/>
     </row>
-    <row r="418" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A418" s="29"/>
       <c r="B418" s="25"/>
       <c r="C418" s="28"/>
@@ -12796,7 +12753,7 @@
       <c r="T418" s="35"/>
       <c r="U418" s="35"/>
     </row>
-    <row r="419" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A419" s="29"/>
       <c r="B419" s="25"/>
       <c r="C419" s="28"/>
@@ -12819,7 +12776,7 @@
       <c r="T419" s="35"/>
       <c r="U419" s="35"/>
     </row>
-    <row r="420" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A420" s="29"/>
       <c r="B420" s="25"/>
       <c r="C420" s="28"/>
@@ -12842,7 +12799,7 @@
       <c r="T420" s="35"/>
       <c r="U420" s="35"/>
     </row>
-    <row r="421" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A421" s="29"/>
       <c r="B421" s="25"/>
       <c r="C421" s="28"/>
@@ -12858,7 +12815,7 @@
       <c r="M421" s="26"/>
       <c r="N421" s="23"/>
     </row>
-    <row r="422" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A422" s="29"/>
       <c r="B422" s="25"/>
       <c r="C422" s="28"/>
@@ -12874,7 +12831,7 @@
       <c r="M422" s="26"/>
       <c r="N422" s="23"/>
     </row>
-    <row r="423" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A423" s="29"/>
       <c r="B423" s="25"/>
       <c r="C423" s="28"/>
@@ -12890,7 +12847,7 @@
       <c r="M423" s="26"/>
       <c r="N423" s="23"/>
     </row>
-    <row r="424" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A424" s="29"/>
       <c r="B424" s="25"/>
       <c r="C424" s="28"/>
@@ -12906,7 +12863,7 @@
       <c r="M424" s="26"/>
       <c r="N424" s="23"/>
     </row>
-    <row r="425" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A425" s="29"/>
       <c r="B425" s="25"/>
       <c r="C425" s="28"/>
@@ -12922,7 +12879,7 @@
       <c r="M425" s="26"/>
       <c r="N425" s="23"/>
     </row>
-    <row r="426" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A426" s="29"/>
       <c r="B426" s="25"/>
       <c r="C426" s="28"/>
@@ -12938,7 +12895,7 @@
       <c r="M426" s="26"/>
       <c r="N426" s="23"/>
     </row>
-    <row r="427" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A427" s="29"/>
       <c r="B427" s="25"/>
       <c r="C427" s="28"/>
@@ -12954,7 +12911,7 @@
       <c r="M427" s="26"/>
       <c r="N427" s="23"/>
     </row>
-    <row r="428" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A428" s="29"/>
       <c r="B428" s="25"/>
       <c r="C428" s="28"/>
@@ -12970,7 +12927,7 @@
       <c r="M428" s="26"/>
       <c r="N428" s="23"/>
     </row>
-    <row r="429" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A429" s="29"/>
       <c r="B429" s="25"/>
       <c r="C429" s="28"/>
@@ -12986,7 +12943,7 @@
       <c r="M429" s="26"/>
       <c r="N429" s="23"/>
     </row>
-    <row r="430" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A430" s="29"/>
       <c r="B430" s="25"/>
       <c r="C430" s="28"/>
@@ -13002,7 +12959,7 @@
       <c r="M430" s="26"/>
       <c r="N430" s="23"/>
     </row>
-    <row r="431" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A431" s="29"/>
       <c r="B431" s="25"/>
       <c r="C431" s="28"/>
@@ -13018,7 +12975,7 @@
       <c r="M431" s="26"/>
       <c r="N431" s="23"/>
     </row>
-    <row r="432" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A432" s="29"/>
       <c r="B432" s="25"/>
       <c r="C432" s="28"/>
@@ -13034,7 +12991,7 @@
       <c r="M432" s="26"/>
       <c r="N432" s="23"/>
     </row>
-    <row r="433" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A433" s="29"/>
       <c r="B433" s="25"/>
       <c r="C433" s="28"/>
@@ -13050,7 +13007,7 @@
       <c r="M433" s="26"/>
       <c r="N433" s="23"/>
     </row>
-    <row r="434" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A434" s="29"/>
       <c r="B434" s="25"/>
       <c r="C434" s="28"/>
@@ -13066,7 +13023,7 @@
       <c r="M434" s="26"/>
       <c r="N434" s="23"/>
     </row>
-    <row r="435" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A435" s="29"/>
       <c r="B435" s="25"/>
       <c r="C435" s="28"/>
@@ -13089,7 +13046,7 @@
       <c r="T435" s="35"/>
       <c r="U435" s="35"/>
     </row>
-    <row r="436" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A436" s="29"/>
       <c r="B436" s="25"/>
       <c r="C436" s="28"/>
@@ -13105,7 +13062,7 @@
       <c r="M436" s="26"/>
       <c r="N436" s="23"/>
     </row>
-    <row r="437" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A437" s="29"/>
       <c r="B437" s="25"/>
       <c r="C437" s="28"/>
@@ -13121,7 +13078,7 @@
       <c r="M437" s="26"/>
       <c r="N437" s="23"/>
     </row>
-    <row r="438" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A438" s="29"/>
       <c r="B438" s="25"/>
       <c r="C438" s="28"/>
@@ -13137,7 +13094,7 @@
       <c r="M438" s="26"/>
       <c r="N438" s="23"/>
     </row>
-    <row r="439" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A439" s="29"/>
       <c r="B439" s="25"/>
       <c r="C439" s="28"/>
@@ -13153,7 +13110,7 @@
       <c r="M439" s="26"/>
       <c r="N439" s="23"/>
     </row>
-    <row r="440" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A440" s="29"/>
       <c r="B440" s="25"/>
       <c r="C440" s="28"/>
@@ -13169,7 +13126,7 @@
       <c r="M440" s="26"/>
       <c r="N440" s="23"/>
     </row>
-    <row r="441" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A441" s="29"/>
       <c r="B441" s="25"/>
       <c r="C441" s="28"/>
@@ -13185,7 +13142,7 @@
       <c r="M441" s="26"/>
       <c r="N441" s="23"/>
     </row>
-    <row r="442" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A442" s="29"/>
       <c r="B442" s="25"/>
       <c r="C442" s="28"/>
@@ -13201,7 +13158,7 @@
       <c r="M442" s="26"/>
       <c r="N442" s="23"/>
     </row>
-    <row r="443" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A443" s="29"/>
       <c r="B443" s="25"/>
       <c r="C443" s="28"/>
@@ -13217,7 +13174,7 @@
       <c r="M443" s="26"/>
       <c r="N443" s="23"/>
     </row>
-    <row r="444" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A444" s="29"/>
       <c r="B444" s="25"/>
       <c r="C444" s="28"/>
@@ -13233,7 +13190,7 @@
       <c r="M444" s="26"/>
       <c r="N444" s="23"/>
     </row>
-    <row r="445" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A445" s="29"/>
       <c r="B445" s="25"/>
       <c r="C445" s="28"/>
@@ -13249,7 +13206,7 @@
       <c r="M445" s="26"/>
       <c r="N445" s="23"/>
     </row>
-    <row r="446" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A446" s="29"/>
       <c r="B446" s="25"/>
       <c r="C446" s="28"/>
@@ -13265,7 +13222,7 @@
       <c r="M446" s="26"/>
       <c r="N446" s="23"/>
     </row>
-    <row r="447" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A447" s="29"/>
       <c r="B447" s="25"/>
       <c r="C447" s="28"/>
@@ -13281,7 +13238,7 @@
       <c r="M447" s="26"/>
       <c r="N447" s="23"/>
     </row>
-    <row r="448" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:21" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A448" s="29"/>
       <c r="B448" s="25"/>
       <c r="C448" s="28"/>
@@ -13297,7 +13254,7 @@
       <c r="M448" s="26"/>
       <c r="N448" s="23"/>
     </row>
-    <row r="449" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A449" s="29"/>
       <c r="B449" s="25"/>
       <c r="C449" s="28"/>
@@ -13313,7 +13270,7 @@
       <c r="M449" s="26"/>
       <c r="N449" s="23"/>
     </row>
-    <row r="450" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A450" s="29"/>
       <c r="B450" s="25"/>
       <c r="C450" s="28"/>
@@ -13329,7 +13286,7 @@
       <c r="M450" s="26"/>
       <c r="N450" s="23"/>
     </row>
-    <row r="451" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A451" s="29"/>
       <c r="B451" s="25"/>
       <c r="C451" s="28"/>
@@ -13345,7 +13302,7 @@
       <c r="M451" s="26"/>
       <c r="N451" s="23"/>
     </row>
-    <row r="452" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A452" s="29"/>
       <c r="B452" s="25"/>
       <c r="C452" s="28"/>
@@ -13361,7 +13318,7 @@
       <c r="M452" s="26"/>
       <c r="N452" s="23"/>
     </row>
-    <row r="453" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A453" s="29"/>
       <c r="B453" s="25"/>
       <c r="C453" s="28"/>
@@ -13377,7 +13334,7 @@
       <c r="M453" s="26"/>
       <c r="N453" s="23"/>
     </row>
-    <row r="454" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A454" s="29"/>
       <c r="B454" s="25"/>
       <c r="C454" s="28"/>
@@ -13393,7 +13350,7 @@
       <c r="M454" s="26"/>
       <c r="N454" s="23"/>
     </row>
-    <row r="455" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A455" s="29"/>
       <c r="B455" s="25"/>
       <c r="C455" s="28"/>
@@ -13409,7 +13366,7 @@
       <c r="M455" s="26"/>
       <c r="N455" s="23"/>
     </row>
-    <row r="456" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A456" s="29"/>
       <c r="B456" s="25"/>
       <c r="C456" s="28"/>
@@ -13425,7 +13382,7 @@
       <c r="M456" s="26"/>
       <c r="N456" s="23"/>
     </row>
-    <row r="457" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A457" s="29"/>
       <c r="B457" s="25"/>
       <c r="C457" s="28"/>
@@ -13441,7 +13398,7 @@
       <c r="M457" s="26"/>
       <c r="N457" s="23"/>
     </row>
-    <row r="458" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A458" s="29"/>
       <c r="B458" s="25"/>
       <c r="C458" s="28"/>
@@ -13457,7 +13414,7 @@
       <c r="M458" s="26"/>
       <c r="N458" s="23"/>
     </row>
-    <row r="459" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A459" s="29"/>
       <c r="B459" s="25"/>
       <c r="C459" s="28"/>
@@ -13473,7 +13430,7 @@
       <c r="M459" s="26"/>
       <c r="N459" s="23"/>
     </row>
-    <row r="460" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A460" s="29"/>
       <c r="B460" s="25"/>
       <c r="C460" s="28"/>
@@ -13489,7 +13446,7 @@
       <c r="M460" s="26"/>
       <c r="N460" s="23"/>
     </row>
-    <row r="461" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A461" s="29"/>
       <c r="B461" s="25"/>
       <c r="C461" s="28"/>
@@ -13505,7 +13462,7 @@
       <c r="M461" s="26"/>
       <c r="N461" s="23"/>
     </row>
-    <row r="462" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A462" s="29"/>
       <c r="B462" s="25"/>
       <c r="C462" s="28"/>
@@ -13521,7 +13478,7 @@
       <c r="M462" s="26"/>
       <c r="N462" s="23"/>
     </row>
-    <row r="463" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A463" s="29"/>
       <c r="B463" s="25"/>
       <c r="C463" s="28"/>
@@ -13537,7 +13494,7 @@
       <c r="M463" s="26"/>
       <c r="N463" s="23"/>
     </row>
-    <row r="464" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A464" s="29"/>
       <c r="B464" s="25"/>
       <c r="C464" s="28"/>
@@ -13553,7 +13510,7 @@
       <c r="M464" s="26"/>
       <c r="N464" s="23"/>
     </row>
-    <row r="465" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A465" s="29"/>
       <c r="B465" s="25"/>
       <c r="C465" s="28"/>
@@ -13569,7 +13526,7 @@
       <c r="M465" s="26"/>
       <c r="N465" s="23"/>
     </row>
-    <row r="466" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A466" s="29"/>
       <c r="B466" s="25"/>
       <c r="C466" s="28"/>
@@ -13585,7 +13542,7 @@
       <c r="M466" s="26"/>
       <c r="N466" s="23"/>
     </row>
-    <row r="467" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A467" s="29"/>
       <c r="B467" s="25"/>
       <c r="C467" s="28"/>
@@ -13601,7 +13558,7 @@
       <c r="M467" s="26"/>
       <c r="N467" s="23"/>
     </row>
-    <row r="468" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A468" s="29"/>
       <c r="B468" s="25"/>
       <c r="C468" s="28"/>
@@ -13617,7 +13574,7 @@
       <c r="M468" s="26"/>
       <c r="N468" s="23"/>
     </row>
-    <row r="469" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A469" s="29"/>
       <c r="B469" s="25"/>
       <c r="C469" s="28"/>
@@ -13633,7 +13590,7 @@
       <c r="M469" s="26"/>
       <c r="N469" s="23"/>
     </row>
-    <row r="470" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A470" s="29"/>
       <c r="B470" s="25"/>
       <c r="C470" s="28"/>
@@ -13649,7 +13606,7 @@
       <c r="M470" s="26"/>
       <c r="N470" s="23"/>
     </row>
-    <row r="471" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A471" s="29"/>
       <c r="B471" s="25"/>
       <c r="C471" s="28"/>
@@ -13665,7 +13622,7 @@
       <c r="M471" s="26"/>
       <c r="N471" s="23"/>
     </row>
-    <row r="472" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A472" s="29"/>
       <c r="B472" s="25"/>
       <c r="C472" s="28"/>
@@ -13681,7 +13638,7 @@
       <c r="M472" s="26"/>
       <c r="N472" s="23"/>
     </row>
-    <row r="473" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A473" s="29"/>
       <c r="B473" s="25"/>
       <c r="C473" s="28"/>
@@ -13697,7 +13654,7 @@
       <c r="M473" s="26"/>
       <c r="N473" s="23"/>
     </row>
-    <row r="474" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A474" s="29"/>
       <c r="B474" s="25"/>
       <c r="C474" s="28"/>
@@ -13713,7 +13670,7 @@
       <c r="M474" s="26"/>
       <c r="N474" s="23"/>
     </row>
-    <row r="475" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A475" s="29"/>
       <c r="B475" s="25"/>
       <c r="C475" s="28"/>
@@ -13729,7 +13686,7 @@
       <c r="M475" s="26"/>
       <c r="N475" s="23"/>
     </row>
-    <row r="476" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A476" s="29"/>
       <c r="B476" s="25"/>
       <c r="C476" s="28"/>
@@ -13745,7 +13702,7 @@
       <c r="M476" s="26"/>
       <c r="N476" s="23"/>
     </row>
-    <row r="477" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A477" s="29"/>
       <c r="B477" s="25"/>
       <c r="C477" s="28"/>
@@ -13761,7 +13718,7 @@
       <c r="M477" s="26"/>
       <c r="N477" s="23"/>
     </row>
-    <row r="478" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A478" s="29"/>
       <c r="B478" s="25"/>
       <c r="C478" s="28"/>
@@ -13777,7 +13734,7 @@
       <c r="M478" s="26"/>
       <c r="N478" s="23"/>
     </row>
-    <row r="479" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A479" s="29"/>
       <c r="B479" s="25"/>
       <c r="C479" s="28"/>
@@ -13793,7 +13750,7 @@
       <c r="M479" s="26"/>
       <c r="N479" s="23"/>
     </row>
-    <row r="480" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A480" s="29"/>
       <c r="B480" s="25"/>
       <c r="C480" s="28"/>
@@ -13809,7 +13766,7 @@
       <c r="M480" s="26"/>
       <c r="N480" s="23"/>
     </row>
-    <row r="481" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A481" s="29"/>
       <c r="B481" s="25"/>
       <c r="C481" s="28"/>
@@ -13825,7 +13782,7 @@
       <c r="M481" s="26"/>
       <c r="N481" s="23"/>
     </row>
-    <row r="482" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A482" s="29"/>
       <c r="B482" s="25"/>
       <c r="C482" s="28"/>
@@ -13841,7 +13798,7 @@
       <c r="M482" s="26"/>
       <c r="N482" s="23"/>
     </row>
-    <row r="483" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A483" s="29"/>
       <c r="B483" s="25"/>
       <c r="C483" s="28"/>
@@ -13857,7 +13814,7 @@
       <c r="M483" s="26"/>
       <c r="N483" s="23"/>
     </row>
-    <row r="484" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A484" s="29"/>
       <c r="B484" s="25"/>
       <c r="C484" s="28"/>
@@ -13873,7 +13830,7 @@
       <c r="M484" s="26"/>
       <c r="N484" s="23"/>
     </row>
-    <row r="485" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A485" s="29"/>
       <c r="B485" s="25"/>
       <c r="C485" s="28"/>
@@ -13889,7 +13846,7 @@
       <c r="M485" s="26"/>
       <c r="N485" s="23"/>
     </row>
-    <row r="486" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A486" s="29"/>
       <c r="B486" s="25"/>
       <c r="C486" s="28"/>
@@ -13905,7 +13862,7 @@
       <c r="M486" s="26"/>
       <c r="N486" s="23"/>
     </row>
-    <row r="487" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A487" s="29"/>
       <c r="B487" s="25"/>
       <c r="C487" s="28"/>
@@ -13921,7 +13878,7 @@
       <c r="M487" s="26"/>
       <c r="N487" s="23"/>
     </row>
-    <row r="488" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A488" s="29"/>
       <c r="B488" s="25"/>
       <c r="C488" s="28"/>
@@ -13937,7 +13894,7 @@
       <c r="M488" s="26"/>
       <c r="N488" s="23"/>
     </row>
-    <row r="489" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A489" s="29"/>
       <c r="B489" s="25"/>
       <c r="C489" s="28"/>
@@ -13953,7 +13910,7 @@
       <c r="M489" s="26"/>
       <c r="N489" s="23"/>
     </row>
-    <row r="490" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A490" s="29"/>
       <c r="B490" s="25"/>
       <c r="C490" s="28"/>
@@ -13969,7 +13926,7 @@
       <c r="M490" s="26"/>
       <c r="N490" s="23"/>
     </row>
-    <row r="491" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A491" s="29"/>
       <c r="B491" s="25"/>
       <c r="C491" s="28"/>
@@ -13985,7 +13942,7 @@
       <c r="M491" s="26"/>
       <c r="N491" s="23"/>
     </row>
-    <row r="492" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A492" s="29"/>
       <c r="B492" s="25"/>
       <c r="C492" s="28"/>
@@ -14001,7 +13958,7 @@
       <c r="M492" s="26"/>
       <c r="N492" s="23"/>
     </row>
-    <row r="493" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A493" s="29"/>
       <c r="B493" s="25"/>
       <c r="C493" s="28"/>
@@ -14017,7 +13974,7 @@
       <c r="M493" s="26"/>
       <c r="N493" s="23"/>
     </row>
-    <row r="494" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A494" s="29"/>
       <c r="B494" s="25"/>
       <c r="C494" s="28"/>
@@ -14033,7 +13990,7 @@
       <c r="M494" s="26"/>
       <c r="N494" s="23"/>
     </row>
-    <row r="495" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A495" s="29"/>
       <c r="B495" s="25"/>
       <c r="C495" s="28"/>
@@ -14049,7 +14006,7 @@
       <c r="M495" s="26"/>
       <c r="N495" s="23"/>
     </row>
-    <row r="496" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A496" s="29"/>
       <c r="B496" s="25"/>
       <c r="C496" s="28"/>
@@ -14065,7 +14022,7 @@
       <c r="M496" s="26"/>
       <c r="N496" s="23"/>
     </row>
-    <row r="497" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A497" s="29"/>
       <c r="B497" s="25"/>
       <c r="C497" s="28"/>
@@ -14081,7 +14038,7 @@
       <c r="M497" s="26"/>
       <c r="N497" s="23"/>
     </row>
-    <row r="498" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A498" s="29"/>
       <c r="B498" s="25"/>
       <c r="C498" s="28"/>
@@ -14097,7 +14054,7 @@
       <c r="M498" s="26"/>
       <c r="N498" s="23"/>
     </row>
-    <row r="499" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A499" s="29"/>
       <c r="B499" s="25"/>
       <c r="C499" s="28"/>
@@ -14113,7 +14070,7 @@
       <c r="M499" s="26"/>
       <c r="N499" s="23"/>
     </row>
-    <row r="500" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A500" s="29"/>
       <c r="B500" s="25"/>
       <c r="C500" s="28"/>
@@ -14129,7 +14086,7 @@
       <c r="M500" s="26"/>
       <c r="N500" s="23"/>
     </row>
-    <row r="501" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A501" s="29"/>
       <c r="B501" s="25"/>
       <c r="C501" s="28"/>
@@ -14145,7 +14102,7 @@
       <c r="M501" s="26"/>
       <c r="N501" s="23"/>
     </row>
-    <row r="502" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A502" s="29"/>
       <c r="B502" s="25"/>
       <c r="C502" s="28"/>
@@ -14161,7 +14118,7 @@
       <c r="M502" s="26"/>
       <c r="N502" s="23"/>
     </row>
-    <row r="503" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A503" s="29"/>
       <c r="B503" s="25"/>
       <c r="C503" s="28"/>
@@ -14177,7 +14134,7 @@
       <c r="M503" s="26"/>
       <c r="N503" s="23"/>
     </row>
-    <row r="504" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A504" s="29"/>
       <c r="B504" s="25"/>
       <c r="C504" s="28"/>
@@ -14193,7 +14150,7 @@
       <c r="M504" s="26"/>
       <c r="N504" s="23"/>
     </row>
-    <row r="505" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A505" s="29"/>
       <c r="B505" s="25"/>
       <c r="C505" s="28"/>
@@ -14209,7 +14166,7 @@
       <c r="M505" s="26"/>
       <c r="N505" s="23"/>
     </row>
-    <row r="506" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A506" s="29"/>
       <c r="B506" s="25"/>
       <c r="C506" s="28"/>
@@ -14225,7 +14182,7 @@
       <c r="M506" s="26"/>
       <c r="N506" s="23"/>
     </row>
-    <row r="507" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A507" s="29"/>
       <c r="B507" s="25"/>
       <c r="C507" s="28"/>
@@ -14241,7 +14198,7 @@
       <c r="M507" s="26"/>
       <c r="N507" s="23"/>
     </row>
-    <row r="508" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A508" s="29"/>
       <c r="B508" s="25"/>
       <c r="C508" s="28"/>
@@ -14257,7 +14214,7 @@
       <c r="M508" s="26"/>
       <c r="N508" s="23"/>
     </row>
-    <row r="509" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A509" s="29"/>
       <c r="B509" s="25"/>
       <c r="C509" s="28"/>
@@ -14273,7 +14230,7 @@
       <c r="M509" s="26"/>
       <c r="N509" s="23"/>
     </row>
-    <row r="510" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A510" s="29"/>
       <c r="B510" s="25"/>
       <c r="C510" s="28"/>
@@ -14289,7 +14246,7 @@
       <c r="M510" s="26"/>
       <c r="N510" s="23"/>
     </row>
-    <row r="511" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A511" s="29"/>
       <c r="B511" s="25"/>
       <c r="C511" s="28"/>
@@ -14305,7 +14262,7 @@
       <c r="M511" s="26"/>
       <c r="N511" s="23"/>
     </row>
-    <row r="512" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A512" s="29"/>
       <c r="B512" s="25"/>
       <c r="C512" s="28"/>
@@ -14321,7 +14278,7 @@
       <c r="M512" s="26"/>
       <c r="N512" s="23"/>
     </row>
-    <row r="513" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A513" s="29"/>
       <c r="B513" s="25"/>
       <c r="C513" s="28"/>
@@ -14337,7 +14294,7 @@
       <c r="M513" s="26"/>
       <c r="N513" s="23"/>
     </row>
-    <row r="514" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A514" s="29"/>
       <c r="B514" s="25"/>
       <c r="C514" s="28"/>
@@ -14353,7 +14310,7 @@
       <c r="M514" s="26"/>
       <c r="N514" s="23"/>
     </row>
-    <row r="515" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A515" s="29"/>
       <c r="B515" s="25"/>
       <c r="C515" s="28"/>
@@ -14369,7 +14326,7 @@
       <c r="M515" s="26"/>
       <c r="N515" s="23"/>
     </row>
-    <row r="516" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A516" s="29"/>
       <c r="B516" s="25"/>
       <c r="C516" s="28"/>
@@ -14385,7 +14342,7 @@
       <c r="M516" s="26"/>
       <c r="N516" s="23"/>
     </row>
-    <row r="517" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A517" s="29"/>
       <c r="B517" s="25"/>
       <c r="C517" s="28"/>
@@ -14401,7 +14358,7 @@
       <c r="M517" s="26"/>
       <c r="N517" s="23"/>
     </row>
-    <row r="518" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A518" s="29"/>
       <c r="B518" s="25"/>
       <c r="C518" s="28"/>
@@ -14417,7 +14374,7 @@
       <c r="M518" s="26"/>
       <c r="N518" s="23"/>
     </row>
-    <row r="519" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A519" s="29"/>
       <c r="B519" s="25"/>
       <c r="C519" s="28"/>
@@ -14433,7 +14390,7 @@
       <c r="M519" s="26"/>
       <c r="N519" s="23"/>
     </row>
-    <row r="520" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A520" s="29"/>
       <c r="B520" s="25"/>
       <c r="C520" s="28"/>
@@ -14449,7 +14406,7 @@
       <c r="M520" s="26"/>
       <c r="N520" s="23"/>
     </row>
-    <row r="521" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A521" s="29"/>
       <c r="B521" s="25"/>
       <c r="C521" s="28"/>
@@ -14465,7 +14422,7 @@
       <c r="M521" s="26"/>
       <c r="N521" s="23"/>
     </row>
-    <row r="522" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A522" s="29"/>
       <c r="B522" s="25"/>
       <c r="C522" s="28"/>
@@ -14481,7 +14438,7 @@
       <c r="M522" s="26"/>
       <c r="N522" s="23"/>
     </row>
-    <row r="523" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A523" s="29"/>
       <c r="B523" s="25"/>
       <c r="C523" s="28"/>
@@ -14497,7 +14454,7 @@
       <c r="M523" s="26"/>
       <c r="N523" s="23"/>
     </row>
-    <row r="524" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A524" s="29"/>
       <c r="B524" s="25"/>
       <c r="C524" s="28"/>
@@ -14513,7 +14470,7 @@
       <c r="M524" s="26"/>
       <c r="N524" s="23"/>
     </row>
-    <row r="525" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A525" s="29"/>
       <c r="B525" s="25"/>
       <c r="C525" s="28"/>
@@ -14529,7 +14486,7 @@
       <c r="M525" s="26"/>
       <c r="N525" s="23"/>
     </row>
-    <row r="526" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A526" s="29"/>
       <c r="B526" s="25"/>
       <c r="C526" s="28"/>
@@ -14545,7 +14502,7 @@
       <c r="M526" s="26"/>
       <c r="N526" s="23"/>
     </row>
-    <row r="527" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A527" s="29"/>
       <c r="B527" s="25"/>
       <c r="C527" s="28"/>
@@ -14561,7 +14518,7 @@
       <c r="M527" s="26"/>
       <c r="N527" s="23"/>
     </row>
-    <row r="528" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A528" s="29"/>
       <c r="B528" s="25"/>
       <c r="C528" s="28"/>
@@ -14577,7 +14534,7 @@
       <c r="M528" s="26"/>
       <c r="N528" s="23"/>
     </row>
-    <row r="529" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A529" s="29"/>
       <c r="B529" s="25"/>
       <c r="C529" s="28"/>
@@ -14593,7 +14550,7 @@
       <c r="M529" s="26"/>
       <c r="N529" s="23"/>
     </row>
-    <row r="530" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A530" s="29"/>
       <c r="B530" s="25"/>
       <c r="C530" s="28"/>
@@ -14609,7 +14566,7 @@
       <c r="M530" s="26"/>
       <c r="N530" s="23"/>
     </row>
-    <row r="531" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A531" s="29"/>
       <c r="B531" s="25"/>
       <c r="C531" s="28"/>
@@ -14625,7 +14582,7 @@
       <c r="M531" s="26"/>
       <c r="N531" s="23"/>
     </row>
-    <row r="532" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A532" s="29"/>
       <c r="B532" s="25"/>
       <c r="C532" s="28"/>
@@ -14641,7 +14598,7 @@
       <c r="M532" s="26"/>
       <c r="N532" s="23"/>
     </row>
-    <row r="533" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A533" s="29"/>
       <c r="B533" s="25"/>
       <c r="C533" s="28"/>
@@ -14657,7 +14614,7 @@
       <c r="M533" s="26"/>
       <c r="N533" s="23"/>
     </row>
-    <row r="534" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A534" s="29"/>
       <c r="B534" s="25"/>
       <c r="C534" s="28"/>
@@ -14673,7 +14630,7 @@
       <c r="M534" s="26"/>
       <c r="N534" s="23"/>
     </row>
-    <row r="535" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A535" s="29"/>
       <c r="B535" s="25"/>
       <c r="C535" s="28"/>
@@ -14689,7 +14646,7 @@
       <c r="M535" s="26"/>
       <c r="N535" s="23"/>
     </row>
-    <row r="536" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A536" s="29"/>
       <c r="B536" s="25"/>
       <c r="C536" s="28"/>
@@ -14705,7 +14662,7 @@
       <c r="M536" s="26"/>
       <c r="N536" s="23"/>
     </row>
-    <row r="537" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A537" s="29"/>
       <c r="B537" s="25"/>
       <c r="C537" s="28"/>
@@ -14721,7 +14678,7 @@
       <c r="M537" s="26"/>
       <c r="N537" s="23"/>
     </row>
-    <row r="538" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A538" s="29"/>
       <c r="B538" s="25"/>
       <c r="C538" s="28"/>
@@ -14737,7 +14694,7 @@
       <c r="M538" s="26"/>
       <c r="N538" s="23"/>
     </row>
-    <row r="539" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A539" s="29"/>
       <c r="B539" s="25"/>
       <c r="C539" s="28"/>
@@ -14753,7 +14710,7 @@
       <c r="M539" s="26"/>
       <c r="N539" s="23"/>
     </row>
-    <row r="540" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A540" s="29"/>
       <c r="B540" s="25"/>
       <c r="C540" s="28"/>
@@ -14769,7 +14726,7 @@
       <c r="M540" s="26"/>
       <c r="N540" s="23"/>
     </row>
-    <row r="541" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A541" s="29"/>
       <c r="B541" s="25"/>
       <c r="C541" s="28"/>
@@ -14785,7 +14742,7 @@
       <c r="M541" s="26"/>
       <c r="N541" s="23"/>
     </row>
-    <row r="542" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A542" s="29"/>
       <c r="B542" s="25"/>
       <c r="C542" s="28"/>
@@ -14801,7 +14758,7 @@
       <c r="M542" s="26"/>
       <c r="N542" s="23"/>
     </row>
-    <row r="543" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A543" s="29"/>
       <c r="B543" s="25"/>
       <c r="C543" s="28"/>
@@ -14817,7 +14774,7 @@
       <c r="M543" s="26"/>
       <c r="N543" s="23"/>
     </row>
-    <row r="544" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A544" s="29"/>
       <c r="B544" s="25"/>
       <c r="C544" s="28"/>
@@ -14839,7 +14796,7 @@
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="235" yWindow="427" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="235" yWindow="427" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$G$2:$G$3</xm:f>
@@ -14858,12 +14815,6 @@
           </x14:formula1>
           <xm:sqref>F7:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>Wertebereich!$J$2:$J$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>J7:J1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Wertebereich!$H$2:$H$6</xm:f>
@@ -14875,6 +14826,12 @@
             <xm:f>Wertebereich!$L$2:$L$4</xm:f>
           </x14:formula1>
           <xm:sqref>L7:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>Wertebereich!$J$2:$J$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>J7:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14888,13 +14845,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Blatt2"/>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
@@ -14906,7 +14863,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14965,15 +14922,15 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.8">
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -14985,15 +14942,15 @@
         <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.8">
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -15005,10 +14962,10 @@
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.8">
       <c r="F4" t="s">
         <v>30</v>
       </c>
@@ -15016,30 +14973,25 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L4">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.8">
       <c r="H5">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.8">
       <c r="H6">
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J7" t="s">
         <v>29</v>
       </c>
     </row>
